--- a/Tesla valuation.xlsx
+++ b/Tesla valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369B04F1-9AA5-F741-AF2D-64B3263AEEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B474C33-13C1-3A4D-80B8-62CE994E25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29780" yWindow="500" windowWidth="73020" windowHeight="28300" activeTab="2" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
+    <workbookView xWindow="15200" yWindow="500" windowWidth="63260" windowHeight="28300" activeTab="2" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -1017,12 +1017,6 @@
     <t xml:space="preserve">PE is below average </t>
   </si>
   <si>
-    <t xml:space="preserve">But PS above average, need to see sales growth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS huge increses </t>
-  </si>
-  <si>
     <t xml:space="preserve">Decreased leverage </t>
   </si>
   <si>
@@ -1042,6 +1036,12 @@
   </si>
   <si>
     <t xml:space="preserve">Increased return on equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS huge increses in 2021 </t>
+  </si>
+  <si>
+    <t>PS above average, need sales growth in '22</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
     <numFmt numFmtId="170" formatCode="0\P"/>
     <numFmt numFmtId="171" formatCode="0\x"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1728,7 +1728,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2025,8 +2025,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="24" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2037,17 +2099,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,72 +2120,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2133,47 +2137,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2520,6 +2484,362 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9385366-9B7F-5445-A710-01158100D9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15248467" y="9347201"/>
+          <a:ext cx="11497734" cy="6019800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Commentatry</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Macro factors </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pros:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Biden</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> administreation favor green energy over oil - calling for greater adaption for EVs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Current Russian oil sanctions as well as global warming - favor an energy alternative  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cons:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Current supply chian disruptction and proposed interest rate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hikes - market risk off </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Evaluate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> delivery and supply chian: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tesla's deliveries had 89% increase in 2021, reaching close to 1M cars delivered - signs of being </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>relatively easy in attating resources </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2: profitability: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Since 2018 Q3, Tesla's EBITDA became positive (and with increasing EBITDA margin), in 2019 Q3, opertion income also became positive  -  a profitable company with growing cashflow generation </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Also, the YoY growth in gross profit is higher than growth in revenue and operating expense (increasing operating margin) - stronger profitatbility and cost effciency </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3. long-term protentials</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tesla</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> is disruptive and with exponential growth, none liner, when full self drive matures </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Comparision</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> delivery and supply chian: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The other biggest US EV companies, Lucid and Rivian,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>oth undergo supply disruption,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>deliveried about</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1000 cars in 2021 - increasing cost in attating resources </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>profitablity:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>These companies </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>has not been profitable (negative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> gross margin) - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> stock prices has fallen to record lows under capital market risk off</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Conclusion</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. Tesla</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> is the only US EV company that has demostraetd profitablity, others are concept stocks with increasing costs, not favored under market risk off </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Testal is still a risky investment due to high volatility and high valuation multiples, but risks are counteracted by it's exponential growth potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. Given a entry price of $450, I recommend hold at current price of 800, and buy if price fell below 700</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4. Sell when delivery slows re-evaluate when Biden withdraw EV adaption and when other competitors get ahead of FSD technology </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3573,7 +3893,7 @@
   <dimension ref="B2:W78"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3639,11 +3959,11 @@
       <c r="O4" s="161">
         <v>2026</v>
       </c>
-      <c r="Q4" s="184" t="s">
+      <c r="Q4" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -4529,11 +4849,11 @@
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
@@ -4767,22 +5087,22 @@
       <c r="O36" s="49"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="225" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="225"/>
+      <c r="H38" s="225"/>
+      <c r="I38" s="225"/>
+      <c r="J38" s="225"/>
+      <c r="K38" s="225"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="225"/>
+      <c r="N38" s="225"/>
+      <c r="O38" s="225"/>
       <c r="Q38" s="162" t="s">
         <v>209</v>
       </c>
@@ -4808,20 +5128,20 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C40" s="186" t="s">
+      <c r="C40" s="224" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="K40" s="186" t="s">
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="K40" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="L40" s="186"/>
-      <c r="M40" s="186"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="186"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="224"/>
       <c r="Q40" s="182">
         <v>125</v>
       </c>
@@ -4835,20 +5155,20 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="K41" s="185" t="s">
+      <c r="D41" s="223"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="223"/>
+      <c r="K41" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="L41" s="185"/>
-      <c r="M41" s="185"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="223"/>
       <c r="Q41" s="182">
         <v>125</v>
       </c>
@@ -5202,40 +5522,40 @@
       <c r="O48" s="137"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C49" s="186" t="s">
+      <c r="C49" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
       <c r="I49" s="137"/>
       <c r="J49" s="137"/>
-      <c r="K49" s="186" t="s">
+      <c r="K49" s="224" t="s">
         <v>201</v>
       </c>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="186"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="224"/>
+      <c r="N49" s="224"/>
+      <c r="O49" s="224"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C50" s="185" t="s">
+      <c r="C50" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
+      <c r="D50" s="223"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="223"/>
+      <c r="G50" s="223"/>
       <c r="I50" s="137"/>
       <c r="J50" s="137"/>
-      <c r="K50" s="185" t="s">
+      <c r="K50" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="L50" s="185"/>
-      <c r="M50" s="185"/>
-      <c r="N50" s="185"/>
-      <c r="O50" s="185"/>
+      <c r="L50" s="223"/>
+      <c r="M50" s="223"/>
+      <c r="N50" s="223"/>
+      <c r="O50" s="223"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="134" t="s">
@@ -5543,54 +5863,54 @@
     <row r="58" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="187" t="s">
+      <c r="B60" s="225" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="187"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="187"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
-      <c r="H60" s="187"/>
-      <c r="I60" s="187"/>
-      <c r="J60" s="187"/>
-      <c r="K60" s="187"/>
-      <c r="L60" s="187"/>
-      <c r="M60" s="187"/>
-      <c r="N60" s="187"/>
-      <c r="O60" s="187"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="225"/>
+      <c r="E60" s="225"/>
+      <c r="F60" s="225"/>
+      <c r="G60" s="225"/>
+      <c r="H60" s="225"/>
+      <c r="I60" s="225"/>
+      <c r="J60" s="225"/>
+      <c r="K60" s="225"/>
+      <c r="L60" s="225"/>
+      <c r="M60" s="225"/>
+      <c r="N60" s="225"/>
+      <c r="O60" s="225"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C62" s="186" t="s">
+      <c r="C62" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="K62" s="186" t="s">
+      <c r="D62" s="224"/>
+      <c r="E62" s="224"/>
+      <c r="F62" s="224"/>
+      <c r="G62" s="224"/>
+      <c r="K62" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="L62" s="186"/>
-      <c r="M62" s="186"/>
-      <c r="N62" s="186"/>
-      <c r="O62" s="186"/>
+      <c r="L62" s="224"/>
+      <c r="M62" s="224"/>
+      <c r="N62" s="224"/>
+      <c r="O62" s="224"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C63" s="185" t="s">
+      <c r="C63" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="185"/>
-      <c r="E63" s="185"/>
-      <c r="F63" s="185"/>
-      <c r="G63" s="185"/>
-      <c r="K63" s="185" t="s">
+      <c r="D63" s="223"/>
+      <c r="E63" s="223"/>
+      <c r="F63" s="223"/>
+      <c r="G63" s="223"/>
+      <c r="K63" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="L63" s="185"/>
-      <c r="M63" s="185"/>
-      <c r="N63" s="185"/>
-      <c r="O63" s="185"/>
+      <c r="L63" s="223"/>
+      <c r="M63" s="223"/>
+      <c r="N63" s="223"/>
+      <c r="O63" s="223"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="134" t="s">
@@ -5598,22 +5918,22 @@
       </c>
       <c r="C64" s="149">
         <f>D64-1</f>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D64" s="149">
         <f>E64-1</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E64" s="150">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F64" s="149">
         <f>E64+1</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G64" s="149">
         <f>F64+1</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I64" s="137"/>
       <c r="J64" s="138" t="s">
@@ -5646,23 +5966,23 @@
       </c>
       <c r="C65" s="139">
         <f t="shared" ref="C65:G69" si="23">$O$8*C$64/(1+$B65)^$O$29</f>
-        <v>840436.97118774138</v>
+        <v>644986.51277198747</v>
       </c>
       <c r="D65" s="139">
         <f t="shared" si="23"/>
-        <v>859982.01702931675</v>
+        <v>664531.55861356296</v>
       </c>
       <c r="E65" s="139">
         <f t="shared" si="23"/>
-        <v>879527.06287089211</v>
+        <v>684076.60445513832</v>
       </c>
       <c r="F65" s="139">
         <f t="shared" si="23"/>
-        <v>899072.10871246748</v>
+        <v>703621.65029671369</v>
       </c>
       <c r="G65" s="139">
         <f t="shared" si="23"/>
-        <v>918617.15455404285</v>
+        <v>723166.69613828906</v>
       </c>
       <c r="I65" s="137"/>
       <c r="J65" s="140">
@@ -5671,23 +5991,23 @@
       </c>
       <c r="K65" s="139">
         <f t="shared" ref="K65:O69" si="24">C65+$H30</f>
-        <v>883054.23354460031</v>
+        <v>687603.77512884641</v>
       </c>
       <c r="L65" s="139">
         <f t="shared" si="24"/>
-        <v>902599.27938617568</v>
+        <v>707148.82097042189</v>
       </c>
       <c r="M65" s="139">
         <f t="shared" si="24"/>
-        <v>922144.32522775105</v>
+        <v>726693.86681199726</v>
       </c>
       <c r="N65" s="139">
         <f t="shared" si="24"/>
-        <v>941689.37106932641</v>
+        <v>746238.91265357262</v>
       </c>
       <c r="O65" s="139">
         <f t="shared" si="24"/>
-        <v>961234.41691090178</v>
+        <v>765783.95849514799</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
@@ -5697,23 +6017,23 @@
       </c>
       <c r="C66" s="139">
         <f t="shared" si="23"/>
-        <v>810510.19144665578</v>
+        <v>622019.44924975908</v>
       </c>
       <c r="D66" s="139">
         <f t="shared" si="23"/>
-        <v>829359.26566634548</v>
+        <v>640868.52346944879</v>
       </c>
       <c r="E66" s="139">
         <f t="shared" si="23"/>
-        <v>848208.33988603519</v>
+        <v>659717.59768913849</v>
       </c>
       <c r="F66" s="139">
         <f t="shared" si="23"/>
-        <v>867057.41410572478</v>
+        <v>678566.67190882808</v>
       </c>
       <c r="G66" s="139">
         <f t="shared" si="23"/>
-        <v>885906.48832541448</v>
+        <v>697415.74612851779</v>
       </c>
       <c r="I66" s="137"/>
       <c r="J66" s="140">
@@ -5722,23 +6042,23 @@
       </c>
       <c r="K66" s="139">
         <f t="shared" si="24"/>
-        <v>852395.95090031775</v>
+        <v>663905.20870342106</v>
       </c>
       <c r="L66" s="139">
         <f t="shared" si="24"/>
-        <v>871245.02512000746</v>
+        <v>682754.28292311076</v>
       </c>
       <c r="M66" s="139">
         <f t="shared" si="24"/>
-        <v>890094.09933969716</v>
+        <v>701603.35714280047</v>
       </c>
       <c r="N66" s="139">
         <f t="shared" si="24"/>
-        <v>908943.17355938675</v>
+        <v>720452.43136249005</v>
       </c>
       <c r="O66" s="139">
         <f t="shared" si="24"/>
-        <v>927792.24777907645</v>
+        <v>739301.50558217976</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
@@ -5748,23 +6068,23 @@
       </c>
       <c r="C67" s="139">
         <f t="shared" si="23"/>
-        <v>781903.6956476887</v>
+        <v>600065.62689241231</v>
       </c>
       <c r="D67" s="139">
         <f t="shared" si="23"/>
-        <v>800087.5025232163</v>
+        <v>618249.43376793992</v>
       </c>
       <c r="E67" s="139">
         <f t="shared" si="23"/>
-        <v>818271.30939874402</v>
+        <v>636433.24064346752</v>
       </c>
       <c r="F67" s="139">
         <f t="shared" si="23"/>
-        <v>836455.11627427163</v>
+        <v>654617.04751899524</v>
       </c>
       <c r="G67" s="139">
         <f t="shared" si="23"/>
-        <v>854638.92314979923</v>
+        <v>672800.85439452284</v>
       </c>
       <c r="I67" s="137"/>
       <c r="J67" s="140">
@@ -5773,23 +6093,23 @@
       </c>
       <c r="K67" s="139">
         <f t="shared" si="24"/>
-        <v>823083.07408123778</v>
+        <v>641245.00532596139</v>
       </c>
       <c r="L67" s="139">
         <f t="shared" si="24"/>
-        <v>841266.88095676538</v>
+        <v>659428.812201489</v>
       </c>
       <c r="M67" s="139">
         <f t="shared" si="24"/>
-        <v>859450.6878322931</v>
+        <v>677612.6190770166</v>
       </c>
       <c r="N67" s="139">
         <f t="shared" si="24"/>
-        <v>877634.4947078207</v>
+        <v>695796.42595254432</v>
       </c>
       <c r="O67" s="139">
         <f t="shared" si="24"/>
-        <v>895818.30158334831</v>
+        <v>713980.23282807192</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
@@ -5799,23 +6119,23 @@
       </c>
       <c r="C68" s="139">
         <f t="shared" si="23"/>
-        <v>754548.1998663682</v>
+        <v>579071.87431604997</v>
       </c>
       <c r="D68" s="139">
         <f t="shared" si="23"/>
-        <v>772095.8324214</v>
+        <v>596619.50687108177</v>
       </c>
       <c r="E68" s="139">
         <f t="shared" si="23"/>
-        <v>789643.4649764318</v>
+        <v>614167.13942611369</v>
       </c>
       <c r="F68" s="139">
         <f t="shared" si="23"/>
-        <v>807191.0975314636</v>
+        <v>631714.77198114549</v>
       </c>
       <c r="G68" s="139">
         <f t="shared" si="23"/>
-        <v>824738.73008649552</v>
+        <v>649262.40453617729</v>
       </c>
       <c r="I68" s="137"/>
       <c r="J68" s="140">
@@ -5824,23 +6144,23 @@
       </c>
       <c r="K68" s="139">
         <f t="shared" si="24"/>
-        <v>795045.18680255162</v>
+        <v>619568.86125223339</v>
       </c>
       <c r="L68" s="139">
         <f t="shared" si="24"/>
-        <v>812592.81935758342</v>
+        <v>637116.49380726519</v>
       </c>
       <c r="M68" s="139">
         <f t="shared" si="24"/>
-        <v>830140.45191261522</v>
+        <v>654664.1263622971</v>
       </c>
       <c r="N68" s="139">
         <f t="shared" si="24"/>
-        <v>847688.08446764702</v>
+        <v>672211.7589173289</v>
       </c>
       <c r="O68" s="139">
         <f t="shared" si="24"/>
-        <v>865235.71702267893</v>
+        <v>689759.3914723607</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
@@ -5850,23 +6170,23 @@
       </c>
       <c r="C69" s="139">
         <f t="shared" si="23"/>
-        <v>728378.62506576546</v>
+        <v>558988.24714349443</v>
       </c>
       <c r="D69" s="139">
         <f t="shared" si="23"/>
-        <v>745317.66285799257</v>
+        <v>575927.28493572155</v>
       </c>
       <c r="E69" s="139">
         <f t="shared" si="23"/>
-        <v>762256.70065021969</v>
+        <v>592866.32272794866</v>
       </c>
       <c r="F69" s="139">
         <f t="shared" si="23"/>
-        <v>779195.7384424468</v>
+        <v>609805.36052017577</v>
       </c>
       <c r="G69" s="139">
         <f t="shared" si="23"/>
-        <v>796134.77623467392</v>
+        <v>626744.39831240277</v>
       </c>
       <c r="I69" s="137"/>
       <c r="J69" s="140">
@@ -5875,23 +6195,23 @@
       </c>
       <c r="K69" s="139">
         <f t="shared" si="24"/>
-        <v>768216.13966469339</v>
+        <v>598825.76174242236</v>
       </c>
       <c r="L69" s="139">
         <f t="shared" si="24"/>
-        <v>785155.1774569205</v>
+        <v>615764.79953464947</v>
       </c>
       <c r="M69" s="139">
         <f t="shared" si="24"/>
-        <v>802094.21524914762</v>
+        <v>632703.83732687659</v>
       </c>
       <c r="N69" s="139">
         <f t="shared" si="24"/>
-        <v>819033.25304137473</v>
+        <v>649642.8751191037</v>
       </c>
       <c r="O69" s="139">
         <f t="shared" si="24"/>
-        <v>835972.29083360184</v>
+        <v>666581.9129113307</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
@@ -5909,40 +6229,40 @@
       <c r="O70" s="137"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C71" s="186" t="s">
+      <c r="C71" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="186"/>
-      <c r="E71" s="186"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
+      <c r="D71" s="224"/>
+      <c r="E71" s="224"/>
+      <c r="F71" s="224"/>
+      <c r="G71" s="224"/>
       <c r="I71" s="137"/>
       <c r="J71" s="137"/>
-      <c r="K71" s="186" t="s">
+      <c r="K71" s="224" t="s">
         <v>201</v>
       </c>
-      <c r="L71" s="186"/>
-      <c r="M71" s="186"/>
-      <c r="N71" s="186"/>
-      <c r="O71" s="186"/>
+      <c r="L71" s="224"/>
+      <c r="M71" s="224"/>
+      <c r="N71" s="224"/>
+      <c r="O71" s="224"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C72" s="185" t="s">
+      <c r="C72" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="185"/>
-      <c r="E72" s="185"/>
-      <c r="F72" s="185"/>
-      <c r="G72" s="185"/>
+      <c r="D72" s="223"/>
+      <c r="E72" s="223"/>
+      <c r="F72" s="223"/>
+      <c r="G72" s="223"/>
       <c r="I72" s="137"/>
       <c r="J72" s="137"/>
-      <c r="K72" s="185" t="s">
+      <c r="K72" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="185"/>
-      <c r="M72" s="185"/>
-      <c r="N72" s="185"/>
-      <c r="O72" s="185"/>
+      <c r="L72" s="223"/>
+      <c r="M72" s="223"/>
+      <c r="N72" s="223"/>
+      <c r="O72" s="223"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="134" t="s">
@@ -5998,23 +6318,23 @@
       </c>
       <c r="C74" s="139">
         <f>K65-$R39+$S39-$Q39</f>
-        <v>890256.23354460031</v>
+        <v>694805.77512884641</v>
       </c>
       <c r="D74" s="139">
         <f t="shared" ref="D74:G78" si="25">L65-$R39+$S39-$Q39</f>
-        <v>909801.27938617568</v>
+        <v>714350.82097042189</v>
       </c>
       <c r="E74" s="139">
         <f t="shared" si="25"/>
-        <v>929346.32522775105</v>
+        <v>733895.86681199726</v>
       </c>
       <c r="F74" s="139">
         <f t="shared" si="25"/>
-        <v>948891.37106932641</v>
+        <v>753440.91265357262</v>
       </c>
       <c r="G74" s="139">
         <f t="shared" si="25"/>
-        <v>968436.41691090178</v>
+        <v>772985.95849514799</v>
       </c>
       <c r="I74" s="137"/>
       <c r="J74" s="140">
@@ -6023,23 +6343,23 @@
       </c>
       <c r="K74" s="139">
         <f t="shared" ref="K74:O78" si="26">C74/$S$18</f>
-        <v>788.53519357360528</v>
+        <v>615.4169841708117</v>
       </c>
       <c r="L74" s="139">
         <f t="shared" si="26"/>
-        <v>805.84701451388457</v>
+        <v>632.72880511109111</v>
       </c>
       <c r="M74" s="139">
         <f t="shared" si="26"/>
-        <v>823.15883545416386</v>
+        <v>650.04062605137051</v>
       </c>
       <c r="N74" s="139">
         <f t="shared" si="26"/>
-        <v>840.47065639444327</v>
+        <v>667.3524469916498</v>
       </c>
       <c r="O74" s="139">
         <f t="shared" si="26"/>
-        <v>857.78247733472256</v>
+        <v>684.66426793192909</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
@@ -6049,23 +6369,23 @@
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:C78" si="28">K66-$R40+$S40-$Q40</f>
-        <v>859597.95090031775</v>
+        <v>671107.20870342106</v>
       </c>
       <c r="D75" s="139">
         <f t="shared" si="25"/>
-        <v>878447.02512000746</v>
+        <v>689956.28292311076</v>
       </c>
       <c r="E75" s="139">
         <f t="shared" si="25"/>
-        <v>897296.09933969716</v>
+        <v>708805.35714280047</v>
       </c>
       <c r="F75" s="139">
         <f t="shared" si="25"/>
-        <v>916145.17355938675</v>
+        <v>727654.43136249005</v>
       </c>
       <c r="G75" s="139">
         <f t="shared" si="25"/>
-        <v>934994.24777907645</v>
+        <v>746503.50558217976</v>
       </c>
       <c r="I75" s="137"/>
       <c r="J75" s="140">
@@ -6074,23 +6394,23 @@
       </c>
       <c r="K75" s="139">
         <f t="shared" si="26"/>
-        <v>761.37993879567557</v>
+        <v>594.42622560090444</v>
       </c>
       <c r="L75" s="141">
         <f t="shared" si="26"/>
-        <v>778.07531011515277</v>
+        <v>611.12159692038153</v>
       </c>
       <c r="M75" s="142">
         <f t="shared" si="26"/>
-        <v>794.77068143462986</v>
+        <v>627.81696823985874</v>
       </c>
       <c r="N75" s="143">
         <f t="shared" si="26"/>
-        <v>811.46605275410695</v>
+        <v>644.51233955933571</v>
       </c>
       <c r="O75" s="139">
         <f t="shared" si="26"/>
-        <v>828.16142407358416</v>
+        <v>661.20771087881292</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
@@ -6100,23 +6420,23 @@
       </c>
       <c r="C76" s="139">
         <f t="shared" si="28"/>
-        <v>830285.07408123778</v>
+        <v>648447.00532596139</v>
       </c>
       <c r="D76" s="139">
         <f t="shared" si="25"/>
-        <v>848468.88095676538</v>
+        <v>666630.812201489</v>
       </c>
       <c r="E76" s="139">
         <f>M67-$R41+$S41-$Q41</f>
-        <v>866652.6878322931</v>
+        <v>684814.6190770166</v>
       </c>
       <c r="F76" s="139">
         <f t="shared" si="25"/>
-        <v>884836.4947078207</v>
+        <v>702998.42595254432</v>
       </c>
       <c r="G76" s="139">
         <f t="shared" si="25"/>
-        <v>903020.30158334831</v>
+        <v>721182.23282807192</v>
       </c>
       <c r="I76" s="137"/>
       <c r="J76" s="140">
@@ -6125,23 +6445,23 @@
       </c>
       <c r="K76" s="139">
         <f t="shared" si="26"/>
-        <v>735.41636322518843</v>
+        <v>574.35518629403134</v>
       </c>
       <c r="L76" s="144">
         <f t="shared" si="26"/>
-        <v>751.52248091830415</v>
+        <v>590.46130398714706</v>
       </c>
       <c r="M76" s="139">
         <f t="shared" si="26"/>
-        <v>767.62859861141987</v>
+        <v>606.56742168026267</v>
       </c>
       <c r="N76" s="145">
         <f t="shared" si="26"/>
-        <v>783.7347163045356</v>
+        <v>622.6735393733785</v>
       </c>
       <c r="O76" s="139">
         <f t="shared" si="26"/>
-        <v>799.84083399765132</v>
+        <v>638.77965706649422</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
@@ -6151,23 +6471,23 @@
       </c>
       <c r="C77" s="139">
         <f t="shared" si="28"/>
-        <v>802247.18680255162</v>
+        <v>626770.86125223339</v>
       </c>
       <c r="D77" s="139">
         <f t="shared" si="25"/>
-        <v>819794.81935758342</v>
+        <v>644318.49380726519</v>
       </c>
       <c r="E77" s="139">
         <f t="shared" si="25"/>
-        <v>837342.45191261522</v>
+        <v>661866.1263622971</v>
       </c>
       <c r="F77" s="139">
         <f t="shared" si="25"/>
-        <v>854890.08446764702</v>
+        <v>679413.7589173289</v>
       </c>
       <c r="G77" s="139">
         <f t="shared" si="25"/>
-        <v>872437.71702267893</v>
+        <v>696961.3914723607</v>
       </c>
       <c r="I77" s="137"/>
       <c r="J77" s="140">
@@ -6176,23 +6496,23 @@
       </c>
       <c r="K77" s="139">
         <f t="shared" si="26"/>
-        <v>710.58209637072775</v>
+        <v>555.15576727390021</v>
       </c>
       <c r="L77" s="146">
         <f t="shared" si="26"/>
-        <v>726.12472928041052</v>
+        <v>570.69840018358298</v>
       </c>
       <c r="M77" s="147">
         <f t="shared" si="26"/>
-        <v>741.66736219009317</v>
+        <v>586.24103309326586</v>
       </c>
       <c r="N77" s="148">
         <f t="shared" si="26"/>
-        <v>757.20999509977594</v>
+        <v>601.78366600294851</v>
       </c>
       <c r="O77" s="139">
         <f t="shared" si="26"/>
-        <v>772.7526280094587</v>
+        <v>617.32629891263127</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
@@ -6202,23 +6522,23 @@
       </c>
       <c r="C78" s="139">
         <f t="shared" si="28"/>
-        <v>775418.13966469339</v>
+        <v>606027.76174242236</v>
       </c>
       <c r="D78" s="139">
         <f t="shared" si="25"/>
-        <v>792357.1774569205</v>
+        <v>622966.79953464947</v>
       </c>
       <c r="E78" s="139">
         <f t="shared" si="25"/>
-        <v>809296.21524914762</v>
+        <v>639905.83732687659</v>
       </c>
       <c r="F78" s="139">
         <f t="shared" si="25"/>
-        <v>826235.25304137473</v>
+        <v>656844.8751191037</v>
       </c>
       <c r="G78" s="139">
         <f t="shared" si="25"/>
-        <v>843174.29083360184</v>
+        <v>673783.9129113307</v>
       </c>
       <c r="I78" s="137"/>
       <c r="J78" s="140">
@@ -6227,33 +6547,34 @@
       </c>
       <c r="K78" s="139">
         <f t="shared" si="26"/>
-        <v>686.81854709007382</v>
+        <v>536.78278276565311</v>
       </c>
       <c r="L78" s="139">
         <f t="shared" si="26"/>
-        <v>701.82212352251599</v>
+        <v>551.78635919809517</v>
       </c>
       <c r="M78" s="139">
         <f t="shared" si="26"/>
-        <v>716.82569995495805</v>
+        <v>566.78993563053723</v>
       </c>
       <c r="N78" s="139">
         <f t="shared" si="26"/>
-        <v>731.82927638740011</v>
+        <v>581.7935120629794</v>
       </c>
       <c r="O78" s="139">
         <f t="shared" si="26"/>
-        <v>746.83285281984217</v>
+        <v>596.79708849542135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="K49:O49"/>
     <mergeCell ref="C50:G50"/>
@@ -6261,13 +6582,12 @@
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="K62:O62"/>
     <mergeCell ref="B60:O60"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="K72:O72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q21" r:id="rId1" location="Consolidated_Statmnts_of_Cmprehnsve_Loss" xr:uid="{A71C953D-1A9C-214E-B5B2-B1F8786BE476}"/>
@@ -6284,7 +6604,7 @@
   <dimension ref="B2:U41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6305,11 +6625,11 @@
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
@@ -6354,11 +6674,11 @@
       <c r="O4" s="41">
         <v>2028</v>
       </c>
-      <c r="R4" s="184" t="s">
+      <c r="R4" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -7763,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128DE3C-5C11-7445-8988-D0063C38D85A}">
   <dimension ref="A2:AI221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7833,7 +8153,7 @@
       <c r="U2" s="40">
         <v>2020</v>
       </c>
-      <c r="V2" s="221">
+      <c r="V2" s="208">
         <v>2021</v>
       </c>
       <c r="W2" s="41">
@@ -7906,7 +8226,7 @@
       <c r="R3" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="V3" s="222"/>
+      <c r="V3" s="209"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
@@ -7953,52 +8273,52 @@
       <c r="R4" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="S4" s="206">
-        <f>E53/E75</f>
+      <c r="S4" s="193">
+        <f t="shared" ref="S4:AA4" si="0">E53/E75</f>
         <v>0.83128452214821746</v>
       </c>
-      <c r="T4" s="206">
-        <f>F53/F75</f>
+      <c r="T4" s="193">
+        <f t="shared" si="0"/>
         <v>1.1346207931002157</v>
       </c>
-      <c r="U4" s="206">
-        <f>G53/G75</f>
+      <c r="U4" s="193">
+        <f t="shared" si="0"/>
         <v>1.8751403705783267</v>
       </c>
-      <c r="V4" s="223">
-        <f>H53/H75</f>
+      <c r="V4" s="210">
+        <f t="shared" si="0"/>
         <v>1.3752854605430094</v>
       </c>
-      <c r="W4" s="206">
-        <f>I53/I75</f>
+      <c r="W4" s="193">
+        <f t="shared" si="0"/>
         <v>0.81100914277243719</v>
       </c>
-      <c r="X4" s="206">
-        <f>J53/J75</f>
+      <c r="X4" s="193">
+        <f t="shared" si="0"/>
         <v>0.71619712230324961</v>
       </c>
-      <c r="Y4" s="206">
-        <f>K53/K75</f>
+      <c r="Y4" s="193">
+        <f t="shared" si="0"/>
         <v>0.72369613658949583</v>
       </c>
-      <c r="Z4" s="206">
-        <f>L53/L75</f>
+      <c r="Z4" s="193">
+        <f t="shared" si="0"/>
         <v>0.77431227507979006</v>
       </c>
-      <c r="AA4" s="206">
-        <f>M53/M75</f>
+      <c r="AA4" s="193">
+        <f t="shared" si="0"/>
         <v>0.84430010653148513</v>
       </c>
-      <c r="AB4" s="206">
+      <c r="AB4" s="193">
         <f>AVERAGE(S4:V4)</f>
         <v>1.3040827865924425</v>
       </c>
-      <c r="AD4" s="232" t="s">
+      <c r="AD4" s="219" t="s">
         <v>257</v>
       </c>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="205"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -8045,50 +8365,50 @@
       <c r="R5" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="206">
+      <c r="S5" s="193">
         <f>(E53-E51)/E75</f>
         <v>0.51969488805997044</v>
       </c>
-      <c r="T5" s="206">
-        <f t="shared" ref="T5:AA5" si="0">(F53-F51)/F75</f>
+      <c r="T5" s="193">
+        <f t="shared" ref="T5:AA5" si="1">(F53-F51)/F75</f>
         <v>0.80163119902503044</v>
       </c>
-      <c r="U5" s="206">
-        <f t="shared" si="0"/>
+      <c r="U5" s="193">
+        <f t="shared" si="1"/>
         <v>1.5873104997192589</v>
       </c>
-      <c r="V5" s="223">
-        <f t="shared" si="0"/>
+      <c r="V5" s="210">
+        <f t="shared" si="1"/>
         <v>1.0831261101243339</v>
       </c>
-      <c r="W5" s="206">
-        <f t="shared" si="0"/>
+      <c r="W5" s="193">
+        <f t="shared" si="1"/>
         <v>0.46224002885942134</v>
       </c>
-      <c r="X5" s="206">
-        <f t="shared" si="0"/>
+      <c r="X5" s="193">
+        <f t="shared" si="1"/>
         <v>0.36742800839023376</v>
       </c>
-      <c r="Y5" s="206">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="193">
+        <f t="shared" si="1"/>
         <v>0.37492702267647987</v>
       </c>
-      <c r="Z5" s="206">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="193">
+        <f t="shared" si="1"/>
         <v>0.42554316116677415</v>
       </c>
-      <c r="AA5" s="206">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="193">
+        <f t="shared" si="1"/>
         <v>0.49553099261846928</v>
       </c>
-      <c r="AB5" s="206">
-        <f t="shared" ref="AB5:AB7" si="1">AVERAGE(S5:V5)</f>
+      <c r="AB5" s="193">
+        <f t="shared" ref="AB5:AB7" si="2">AVERAGE(S5:V5)</f>
         <v>0.99794067423214838</v>
       </c>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="205"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
+      <c r="AD5" s="192"/>
+      <c r="AE5" s="192"/>
+      <c r="AF5" s="192"/>
+      <c r="AG5" s="192"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
@@ -8135,50 +8455,50 @@
       <c r="R6" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="S6" s="206">
+      <c r="S6" s="193">
         <f>E47/E75</f>
         <v>0.36885186510671991</v>
       </c>
-      <c r="T6" s="206">
-        <f t="shared" ref="T6:AA6" si="2">F47/F75</f>
+      <c r="T6" s="193">
+        <f t="shared" ref="T6:AA6" si="3">F47/F75</f>
         <v>0.58760663729258455</v>
       </c>
-      <c r="U6" s="206">
+      <c r="U6" s="193">
+        <f t="shared" si="3"/>
+        <v>1.360471645143178</v>
+      </c>
+      <c r="V6" s="210">
+        <f t="shared" si="3"/>
+        <v>0.89195635625475767</v>
+      </c>
+      <c r="W6" s="193">
+        <f t="shared" si="3"/>
+        <v>0.25415669462195228</v>
+      </c>
+      <c r="X6" s="193">
+        <f t="shared" si="3"/>
+        <v>0.15934467415276468</v>
+      </c>
+      <c r="Y6" s="193">
+        <f t="shared" si="3"/>
+        <v>0.16684368843901076</v>
+      </c>
+      <c r="Z6" s="193">
+        <f t="shared" si="3"/>
+        <v>0.21745982692930504</v>
+      </c>
+      <c r="AA6" s="193">
+        <f t="shared" si="3"/>
+        <v>0.28744765838100017</v>
+      </c>
+      <c r="AB6" s="193">
         <f t="shared" si="2"/>
-        <v>1.360471645143178</v>
-      </c>
-      <c r="V6" s="223">
-        <f t="shared" si="2"/>
-        <v>0.89195635625475767</v>
-      </c>
-      <c r="W6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.25415669462195228</v>
-      </c>
-      <c r="X6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.15934467415276468</v>
-      </c>
-      <c r="Y6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.16684368843901076</v>
-      </c>
-      <c r="Z6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.21745982692930504</v>
-      </c>
-      <c r="AA6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.28744765838100017</v>
-      </c>
-      <c r="AB6" s="206">
-        <f t="shared" si="1"/>
         <v>0.80222162594931001</v>
       </c>
-      <c r="AD6" s="205"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="205"/>
-      <c r="AG6" s="205"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="192"/>
+      <c r="AG6" s="192"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
@@ -8225,50 +8545,50 @@
       <c r="R7" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="206">
-        <f t="shared" ref="S7:Z7" si="3">E153/E75</f>
+      <c r="S7" s="193">
+        <f t="shared" ref="S7:Z7" si="4">E153/E75</f>
         <v>0.20994530098469436</v>
       </c>
-      <c r="T7" s="206">
-        <f t="shared" si="3"/>
+      <c r="T7" s="193">
+        <f t="shared" si="4"/>
         <v>0.22546170432173995</v>
       </c>
-      <c r="U7" s="206">
-        <f t="shared" si="3"/>
+      <c r="U7" s="193">
+        <f t="shared" si="4"/>
         <v>0.41711117349803484</v>
       </c>
-      <c r="V7" s="223">
-        <f t="shared" si="3"/>
+      <c r="V7" s="210">
+        <f t="shared" si="4"/>
         <v>0.58345597564070029</v>
       </c>
-      <c r="W7" s="206">
-        <f t="shared" si="3"/>
+      <c r="W7" s="193">
+        <f t="shared" si="4"/>
         <v>0.49535923947995125</v>
       </c>
-      <c r="X7" s="206">
-        <f t="shared" si="3"/>
+      <c r="X7" s="193">
+        <f t="shared" si="4"/>
         <v>0.46102475576182628</v>
       </c>
-      <c r="Y7" s="206">
-        <f t="shared" si="3"/>
+      <c r="Y7" s="193">
+        <f t="shared" si="4"/>
         <v>0.42770210595096619</v>
       </c>
-      <c r="Z7" s="206">
-        <f t="shared" si="3"/>
+      <c r="Z7" s="193">
+        <f t="shared" si="4"/>
         <v>0.39879184789991645</v>
       </c>
-      <c r="AA7" s="206">
+      <c r="AA7" s="193">
         <f>M153/M75</f>
         <v>0.36856369827931917</v>
       </c>
-      <c r="AB7" s="206">
-        <f t="shared" si="1"/>
+      <c r="AB7" s="193">
+        <f t="shared" si="2"/>
         <v>0.35899353861129235</v>
       </c>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="205"/>
-      <c r="AG7" s="205"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="192"/>
+      <c r="AG7" s="192"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
@@ -8292,16 +8612,16 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="R8" s="152"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="206"/>
-      <c r="X8" s="206"/>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="206"/>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="206"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="47" t="s">
@@ -8330,34 +8650,34 @@
         <v>12508.604431678101</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" ref="J9:M9" si="4">SUM(J6:J8)</f>
+        <f t="shared" ref="J9:M9" si="5">SUM(J6:J8)</f>
         <v>17152.557035313286</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21316.272620816322</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24449.508736891366</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26038.813884454452</v>
       </c>
       <c r="R9" s="154" t="s">
         <v>217</v>
       </c>
-      <c r="S9" s="207"/>
-      <c r="T9" s="206"/>
-      <c r="U9" s="207"/>
-      <c r="V9" s="223"/>
-      <c r="W9" s="207"/>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="207"/>
-      <c r="Z9" s="206"/>
-      <c r="AA9" s="207"/>
-      <c r="AB9" s="206"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="193"/>
     </row>
     <row r="10" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
@@ -8394,64 +8714,64 @@
         <v>11182.734638862126</v>
       </c>
       <c r="L10" s="52">
-        <f t="shared" ref="L10:M10" si="5">L5-L9</f>
+        <f t="shared" ref="L10:M10" si="6">L5-L9</f>
         <v>12826.462351968483</v>
       </c>
       <c r="M10" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13660.228087729425</v>
       </c>
       <c r="R10" s="156" t="s">
         <v>218</v>
       </c>
-      <c r="S10" s="206">
+      <c r="S10" s="193">
         <f>E82/E66</f>
         <v>0.78770390227660647</v>
       </c>
-      <c r="T10" s="206">
-        <f t="shared" ref="T10:AA10" si="6">F82/F66</f>
+      <c r="T10" s="193">
+        <f t="shared" ref="T10:AA10" si="7">F82/F66</f>
         <v>0.76361887551371366</v>
       </c>
-      <c r="U10" s="206">
-        <f t="shared" si="6"/>
+      <c r="U10" s="193">
+        <f t="shared" si="7"/>
         <v>0.54494899133236174</v>
       </c>
-      <c r="V10" s="223">
-        <f t="shared" si="6"/>
+      <c r="V10" s="210">
+        <f t="shared" si="7"/>
         <v>0.49167082454813216</v>
       </c>
-      <c r="W10" s="206">
-        <f t="shared" si="6"/>
+      <c r="W10" s="193">
+        <f t="shared" si="7"/>
         <v>0.56785228339353877</v>
       </c>
-      <c r="X10" s="206">
-        <f t="shared" si="6"/>
+      <c r="X10" s="193">
+        <f t="shared" si="7"/>
         <v>0.58888523743980614</v>
       </c>
-      <c r="Y10" s="206">
-        <f t="shared" si="6"/>
+      <c r="Y10" s="193">
+        <f t="shared" si="7"/>
         <v>0.58750968830809591</v>
       </c>
-      <c r="Z10" s="206">
-        <f t="shared" si="6"/>
+      <c r="Z10" s="193">
+        <f t="shared" si="7"/>
         <v>0.57658875019471623</v>
       </c>
-      <c r="AA10" s="206">
-        <f t="shared" si="6"/>
+      <c r="AA10" s="193">
+        <f t="shared" si="7"/>
         <v>0.56200011635657643</v>
       </c>
-      <c r="AB10" s="206">
+      <c r="AB10" s="193">
         <f>AVERAGE(S10:V10)</f>
         <v>0.64698564841770345</v>
       </c>
-      <c r="AD10" s="232" t="s">
+      <c r="AD10" s="219" t="s">
         <v>258</v>
       </c>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="205"/>
-      <c r="AI10" s="205"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="192"/>
+      <c r="AG10" s="192"/>
+      <c r="AH10" s="192"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="47" t="s">
@@ -8483,52 +8803,52 @@
       <c r="R11" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="S11" s="206">
+      <c r="S11" s="193">
         <f>E82/E89</f>
         <v>4.758247764735561</v>
       </c>
-      <c r="T11" s="206">
-        <f t="shared" ref="T11:AA11" si="7">F82/F89</f>
+      <c r="T11" s="193">
+        <f t="shared" ref="T11:AA11" si="8">F82/F89</f>
         <v>3.9587488667271078</v>
       </c>
-      <c r="U11" s="206">
-        <f t="shared" si="7"/>
+      <c r="U11" s="193">
+        <f t="shared" si="8"/>
         <v>1.2786501687289089</v>
       </c>
-      <c r="V11" s="223">
-        <f t="shared" si="7"/>
+      <c r="V11" s="210">
+        <f t="shared" si="8"/>
         <v>1.0118917486501706</v>
       </c>
-      <c r="W11" s="206">
-        <f t="shared" si="7"/>
+      <c r="W11" s="193">
+        <f t="shared" si="8"/>
         <v>1.5534845960055299</v>
       </c>
-      <c r="X11" s="206">
-        <f t="shared" si="7"/>
+      <c r="X11" s="193">
+        <f t="shared" si="8"/>
         <v>1.7857265150803385</v>
       </c>
-      <c r="Y11" s="206">
-        <f t="shared" si="7"/>
+      <c r="Y11" s="193">
+        <f t="shared" si="8"/>
         <v>1.8478909060863697</v>
       </c>
-      <c r="Z11" s="206">
-        <f t="shared" si="7"/>
+      <c r="Z11" s="193">
+        <f t="shared" si="8"/>
         <v>1.7767142790151813</v>
       </c>
-      <c r="AA11" s="206">
-        <f t="shared" si="7"/>
+      <c r="AA11" s="193">
+        <f t="shared" si="8"/>
         <v>1.6151781183940492</v>
       </c>
-      <c r="AB11" s="206">
-        <f t="shared" ref="AB11:AB12" si="8">AVERAGE(S11:V11)</f>
+      <c r="AB11" s="193">
+        <f t="shared" ref="AB11:AB12" si="9">AVERAGE(S11:V11)</f>
         <v>2.7518846372104369</v>
       </c>
-      <c r="AD11" s="205"/>
-      <c r="AE11" s="205"/>
-      <c r="AF11" s="205"/>
-      <c r="AG11" s="205"/>
-      <c r="AH11" s="205"/>
-      <c r="AI11" s="205"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
+      <c r="AG11" s="192"/>
+      <c r="AH11" s="192"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
@@ -8575,52 +8895,52 @@
       <c r="R12" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="206">
+      <c r="S12" s="193">
         <f>E10/E15</f>
         <v>6.709770562096927</v>
       </c>
-      <c r="T12" s="206">
+      <c r="T12" s="193">
         <f>F10/F15</f>
         <v>0.62727272727272732</v>
       </c>
-      <c r="U12" s="206">
-        <f>G10/-G15</f>
+      <c r="U12" s="193">
+        <f t="shared" ref="U12:AA12" si="10">G10/-G15</f>
         <v>6.8287671232876717</v>
       </c>
-      <c r="V12" s="223">
-        <f>H10/-H15</f>
+      <c r="V12" s="210">
+        <f t="shared" si="10"/>
         <v>9.3319027181688128</v>
       </c>
-      <c r="W12" s="206">
-        <f>I10/-I15</f>
+      <c r="W12" s="193">
+        <f t="shared" si="10"/>
         <v>7.7444146777829168</v>
       </c>
-      <c r="X12" s="206">
-        <f>J10/-J15</f>
+      <c r="X12" s="193">
+        <f t="shared" si="10"/>
         <v>7.7333881190613543</v>
       </c>
-      <c r="Y12" s="206">
-        <f>K10/-K15</f>
+      <c r="Y12" s="193">
+        <f t="shared" si="10"/>
         <v>7.7349432037665373</v>
       </c>
-      <c r="Z12" s="206">
-        <f>L10/-L15</f>
+      <c r="Z12" s="193">
+        <f t="shared" si="10"/>
         <v>7.6938458491466211</v>
       </c>
-      <c r="AA12" s="206">
-        <f>M10/-M15</f>
+      <c r="AA12" s="193">
+        <f t="shared" si="10"/>
         <v>7.7265991179786591</v>
       </c>
-      <c r="AB12" s="206">
-        <f t="shared" si="8"/>
+      <c r="AB12" s="193">
+        <f t="shared" si="9"/>
         <v>5.8744282827065346</v>
       </c>
-      <c r="AD12" s="205"/>
-      <c r="AE12" s="205"/>
-      <c r="AF12" s="205"/>
-      <c r="AG12" s="205"/>
-      <c r="AH12" s="205"/>
-      <c r="AI12" s="205"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="47" t="s">
@@ -8649,22 +8969,22 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="S13" s="206"/>
-      <c r="T13" s="206"/>
-      <c r="U13" s="206"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AD13" s="205"/>
-      <c r="AE13" s="205"/>
-      <c r="AF13" s="205"/>
-      <c r="AG13" s="205"/>
-      <c r="AH13" s="205"/>
-      <c r="AI13" s="205"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
+      <c r="AG13" s="192"/>
+      <c r="AH13" s="192"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="72" t="s">
@@ -8711,22 +9031,22 @@
       <c r="R14" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="S14" s="206"/>
-      <c r="T14" s="206"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="223"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="206"/>
-      <c r="AB14" s="206"/>
-      <c r="AD14" s="205"/>
-      <c r="AE14" s="205"/>
-      <c r="AF14" s="205"/>
-      <c r="AG14" s="205"/>
-      <c r="AH14" s="205"/>
-      <c r="AI14" s="205"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AD14" s="192"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="192"/>
+      <c r="AG14" s="192"/>
+      <c r="AH14" s="192"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
@@ -8773,54 +9093,54 @@
       <c r="R15" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="S15" s="206">
-        <f>E3/E66</f>
+      <c r="S15" s="193">
+        <f t="shared" ref="S15:AA15" si="11">E3/E66</f>
         <v>0.72163909054098685</v>
       </c>
-      <c r="T15" s="206">
-        <f>F3/F66</f>
+      <c r="T15" s="193">
+        <f t="shared" si="11"/>
         <v>0.71637179748753976</v>
       </c>
-      <c r="U15" s="206">
-        <f>G3/G66</f>
+      <c r="U15" s="193">
+        <f t="shared" si="11"/>
         <v>0.60474035437600671</v>
       </c>
-      <c r="V15" s="223">
-        <f>H3/H66</f>
+      <c r="V15" s="210">
+        <f t="shared" si="11"/>
         <v>0.86628253206933736</v>
       </c>
-      <c r="W15" s="206">
-        <f>I3/I66</f>
+      <c r="W15" s="193">
+        <f t="shared" si="11"/>
         <v>0.97180244637536151</v>
       </c>
-      <c r="X15" s="206">
-        <f>J3/J66</f>
+      <c r="X15" s="193">
+        <f t="shared" si="11"/>
         <v>1.0077975049397341</v>
       </c>
-      <c r="Y15" s="206">
-        <f>K3/K66</f>
+      <c r="Y15" s="193">
+        <f t="shared" si="11"/>
         <v>1.0054434384854851</v>
       </c>
-      <c r="Z15" s="206">
-        <f>L3/L66</f>
+      <c r="Z15" s="193">
+        <f t="shared" si="11"/>
         <v>0.98675372870414524</v>
       </c>
-      <c r="AA15" s="206">
-        <f>M3/M66</f>
+      <c r="AA15" s="193">
+        <f t="shared" si="11"/>
         <v>0.96178725332351656</v>
       </c>
-      <c r="AB15" s="206">
+      <c r="AB15" s="193">
         <f>AVERAGE(S15:V15)</f>
         <v>0.7272584436184677</v>
       </c>
-      <c r="AD15" s="232" t="s">
+      <c r="AD15" s="219" t="s">
         <v>259</v>
       </c>
-      <c r="AE15" s="205"/>
-      <c r="AF15" s="205"/>
-      <c r="AG15" s="205"/>
-      <c r="AH15" s="205"/>
-      <c r="AI15" s="205"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:35" s="13" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
@@ -8850,71 +9170,71 @@
         <v>4934.4655430738294</v>
       </c>
       <c r="J16" s="52">
-        <f t="shared" ref="J16:M16" si="9">SUM(J14:J15)</f>
+        <f t="shared" ref="J16:M16" si="12">SUM(J14:J15)</f>
         <v>6776.0862698328074</v>
       </c>
       <c r="K16" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8419.2614878210479</v>
       </c>
       <c r="L16" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9708.3744339608947</v>
       </c>
       <c r="M16" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10295.624118948832</v>
       </c>
       <c r="N16" s="52"/>
       <c r="R16" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="S16" s="206">
-        <f>E4/((D51+E51)/2)</f>
+      <c r="S16" s="193">
+        <f t="shared" ref="S16:AA16" si="13">E4/((D51+E51)/2)</f>
         <v>6.4791899100294712</v>
       </c>
-      <c r="T16" s="206">
-        <f>F4/((E51+F51)/2)</f>
+      <c r="T16" s="193">
+        <f t="shared" si="13"/>
         <v>6.1538267656807966</v>
       </c>
-      <c r="U16" s="206">
-        <f>G4/((F51+G51)/2)</f>
+      <c r="U16" s="193">
+        <f t="shared" si="13"/>
         <v>6.5088200705605646</v>
       </c>
-      <c r="V16" s="223">
-        <f>H4/((G51+H51)/2)</f>
+      <c r="V16" s="210">
+        <f t="shared" si="13"/>
         <v>8.1592615134915807</v>
       </c>
-      <c r="W16" s="206">
-        <f>I4/((H51+I51)/2)</f>
+      <c r="W16" s="193">
+        <f t="shared" si="13"/>
         <v>8.233463210777062</v>
       </c>
-      <c r="X16" s="206">
-        <f>J4/((I51+J51)/2)</f>
+      <c r="X16" s="193">
+        <f t="shared" si="13"/>
         <v>6.9910197252400526</v>
       </c>
-      <c r="Y16" s="206">
-        <f>K4/((J51+K51)/2)</f>
+      <c r="Y16" s="193">
+        <f t="shared" si="13"/>
         <v>6.6988784936946848</v>
       </c>
-      <c r="Z16" s="206">
-        <f>L4/((K51+L51)/2)</f>
+      <c r="Z16" s="193">
+        <f t="shared" si="13"/>
         <v>6.4584613402577542</v>
       </c>
-      <c r="AA16" s="206">
-        <f>M4/((L51+M51)/2)</f>
+      <c r="AA16" s="193">
+        <f t="shared" si="13"/>
         <v>6.2349082008448606</v>
       </c>
-      <c r="AB16" s="206">
-        <f t="shared" ref="AB16:AB17" si="10">AVERAGE(S16:V16)</f>
+      <c r="AB16" s="193">
+        <f t="shared" ref="AB16:AB17" si="14">AVERAGE(S16:V16)</f>
         <v>6.825274564940603</v>
       </c>
-      <c r="AD16" s="205"/>
-      <c r="AE16" s="205"/>
-      <c r="AF16" s="205"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="205"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="192"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
@@ -8959,52 +9279,52 @@
       <c r="R17" s="156" t="s">
         <v>246</v>
       </c>
-      <c r="S17" s="206">
+      <c r="S17" s="193">
         <f>E137/((D50+E50/2))</f>
         <v>-0.43806900146682654</v>
       </c>
-      <c r="T17" s="206">
+      <c r="T17" s="193">
         <f>F137/((E50+F50/2))</f>
         <v>-0.23275783943360182</v>
       </c>
-      <c r="U17" s="206">
-        <f t="shared" ref="U17:AA17" si="11">G137/((F50+G50/2))</f>
+      <c r="U17" s="193">
+        <f t="shared" ref="U17:AA17" si="15">G137/((F50+G50/2))</f>
         <v>-0.24790471989413321</v>
       </c>
-      <c r="V17" s="223">
-        <f t="shared" si="11"/>
+      <c r="V17" s="210">
+        <f t="shared" si="15"/>
         <v>-9.4986807387862793E-3</v>
       </c>
-      <c r="W17" s="206">
-        <f t="shared" si="11"/>
+      <c r="W17" s="193">
+        <f t="shared" si="15"/>
         <v>-0.62402244789612882</v>
       </c>
-      <c r="X17" s="206">
-        <f t="shared" si="11"/>
+      <c r="X17" s="193">
+        <f t="shared" si="15"/>
         <v>-0.22025033834876973</v>
       </c>
-      <c r="Y17" s="206">
-        <f t="shared" si="11"/>
+      <c r="Y17" s="193">
+        <f t="shared" si="15"/>
         <v>-0.1497163531215451</v>
       </c>
-      <c r="Z17" s="206">
-        <f t="shared" si="11"/>
+      <c r="Z17" s="193">
+        <f t="shared" si="15"/>
         <v>-9.3415032195589456E-2</v>
       </c>
-      <c r="AA17" s="206">
-        <f t="shared" si="11"/>
+      <c r="AA17" s="193">
+        <f t="shared" si="15"/>
         <v>-4.2416630392344147E-2</v>
       </c>
-      <c r="AB17" s="206">
-        <f t="shared" si="10"/>
+      <c r="AB17" s="193">
+        <f t="shared" si="14"/>
         <v>-0.23205756038333694</v>
       </c>
-      <c r="AD17" s="205"/>
-      <c r="AE17" s="205"/>
-      <c r="AF17" s="205"/>
-      <c r="AG17" s="205"/>
-      <c r="AH17" s="205"/>
-      <c r="AI17" s="205"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="192"/>
+      <c r="AG17" s="192"/>
+      <c r="AH17" s="192"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
@@ -9031,167 +9351,167 @@
         <v>4787.8742594392152</v>
       </c>
       <c r="J18" s="52">
-        <f t="shared" ref="J18:M18" si="12">J16-J17</f>
+        <f t="shared" ref="J18:M18" si="16">J16-J17</f>
         <v>6575.0714110485023</v>
       </c>
       <c r="K18" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8169.4510646952413</v>
       </c>
       <c r="L18" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9421.8448782816122</v>
       </c>
       <c r="M18" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9990.4691216432766</v>
       </c>
       <c r="R18" s="156"/>
-      <c r="S18" s="206"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="206"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="206"/>
-      <c r="X18" s="206"/>
-      <c r="Y18" s="206"/>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="206"/>
-      <c r="AD18" s="205"/>
-      <c r="AE18" s="205"/>
-      <c r="AF18" s="205"/>
-      <c r="AG18" s="205"/>
-      <c r="AH18" s="205"/>
-      <c r="AI18" s="205"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="192"/>
+      <c r="AF18" s="192"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="192"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219">
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206">
         <v>171</v>
       </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
       <c r="R19" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="S19" s="206"/>
-      <c r="T19" s="206"/>
-      <c r="U19" s="206"/>
-      <c r="V19" s="223"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="206"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="206"/>
-      <c r="AD19" s="205"/>
-      <c r="AE19" s="205"/>
-      <c r="AF19" s="205"/>
-      <c r="AG19" s="205"/>
-      <c r="AH19" s="205"/>
-      <c r="AI19" s="205"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="193"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="193"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="193"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="192"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="192"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="2:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219">
+      <c r="B20" s="205"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="206">
         <v>171</v>
       </c>
-      <c r="E20" s="220"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="205"/>
       <c r="R20" s="156" t="s">
         <v>223</v>
       </c>
-      <c r="S20" s="206">
+      <c r="S20" s="193">
         <f>E5/E3</f>
         <v>0.18834026954977681</v>
       </c>
-      <c r="T20" s="206">
-        <f t="shared" ref="T20:AA20" si="13">F5/F3</f>
+      <c r="T20" s="193">
+        <f t="shared" ref="T20:AA20" si="17">F5/F3</f>
         <v>0.1655545609895028</v>
       </c>
-      <c r="U20" s="206">
-        <f t="shared" si="13"/>
+      <c r="U20" s="193">
+        <f t="shared" si="17"/>
         <v>0.2102359208523592</v>
       </c>
-      <c r="V20" s="223">
-        <f t="shared" si="13"/>
+      <c r="V20" s="210">
+        <f t="shared" si="17"/>
         <v>0.25279155751258753</v>
       </c>
-      <c r="W20" s="206">
-        <f t="shared" si="13"/>
+      <c r="W20" s="193">
+        <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="X20" s="206">
-        <f t="shared" si="13"/>
+      <c r="X20" s="193">
+        <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="Y20" s="206">
-        <f t="shared" si="13"/>
+      <c r="Y20" s="193">
+        <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="Z20" s="206">
-        <f t="shared" si="13"/>
+      <c r="Z20" s="193">
+        <f t="shared" si="17"/>
         <v>0.20423057722605656</v>
       </c>
-      <c r="AA20" s="206">
-        <f t="shared" si="13"/>
+      <c r="AA20" s="193">
+        <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="AB20" s="206">
+      <c r="AB20" s="193">
         <f>AVERAGE(S20:V20)</f>
         <v>0.20423057722605659</v>
       </c>
-      <c r="AD20" s="232" t="s">
+      <c r="AD20" s="219" t="s">
         <v>261</v>
       </c>
-      <c r="AE20" s="205"/>
-      <c r="AF20" s="205"/>
-      <c r="AG20" s="205"/>
-      <c r="AH20" s="205"/>
-      <c r="AI20" s="205"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="79">
-        <f>ABS(C15/C14)</f>
+        <f t="shared" ref="C21:H21" si="18">ABS(C15/C14)</f>
         <v>3.5771516772336767E-2</v>
       </c>
       <c r="D21" s="80">
-        <f>ABS(D15/D14)</f>
+        <f t="shared" si="18"/>
         <v>1.4280463116876531E-2</v>
       </c>
       <c r="E21" s="81">
-        <f>ABS(E15/E14)</f>
+        <f t="shared" si="18"/>
         <v>5.7563859486735446E-2</v>
       </c>
       <c r="F21" s="82">
-        <f>ABS(F15/F14)</f>
+        <f t="shared" si="18"/>
         <v>0.16541353383458646</v>
       </c>
       <c r="G21" s="82">
-        <f>ABS(G15/G14)</f>
+        <f t="shared" si="18"/>
         <v>0.2530329289428076</v>
       </c>
       <c r="H21" s="82">
-        <f>ABS(H15/H14)</f>
+        <f t="shared" si="18"/>
         <v>0.11020022071574964</v>
       </c>
       <c r="I21" s="83">
@@ -9217,52 +9537,52 @@
       <c r="R21" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="S21" s="206">
+      <c r="S21" s="193">
         <f>E10/E3</f>
         <v>-1.8082482358451512E-2</v>
       </c>
-      <c r="T21" s="206">
-        <f t="shared" ref="T21:AA21" si="14">F10/F3</f>
+      <c r="T21" s="193">
+        <f t="shared" ref="T21:AA21" si="19">F10/F3</f>
         <v>-2.8073887216209618E-3</v>
       </c>
-      <c r="U21" s="206">
-        <f t="shared" si="14"/>
+      <c r="U21" s="193">
+        <f t="shared" si="19"/>
         <v>6.3229325215626589E-2</v>
       </c>
-      <c r="V21" s="223">
-        <f t="shared" si="14"/>
+      <c r="V21" s="210">
+        <f t="shared" si="19"/>
         <v>0.12119354179440016</v>
       </c>
-      <c r="W21" s="206">
-        <f t="shared" si="14"/>
+      <c r="W21" s="193">
+        <f t="shared" si="19"/>
         <v>7.0274649684275492E-2</v>
       </c>
-      <c r="X21" s="206">
-        <f t="shared" si="14"/>
+      <c r="X21" s="193">
+        <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Y21" s="206">
-        <f t="shared" si="14"/>
+      <c r="Y21" s="193">
+        <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Z21" s="206">
-        <f t="shared" si="14"/>
+      <c r="Z21" s="193">
+        <f t="shared" si="19"/>
         <v>7.0274649684275478E-2</v>
       </c>
-      <c r="AA21" s="206">
-        <f t="shared" si="14"/>
+      <c r="AA21" s="193">
+        <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="AB21" s="206">
-        <f t="shared" ref="AB21:AB23" si="15">AVERAGE(S21:V21)</f>
+      <c r="AB21" s="193">
+        <f t="shared" ref="AB21" si="20">AVERAGE(S21:V21)</f>
         <v>4.0883248982488567E-2</v>
       </c>
-      <c r="AD21" s="232"/>
-      <c r="AE21" s="205"/>
-      <c r="AF21" s="205"/>
-      <c r="AG21" s="205"/>
-      <c r="AH21" s="205"/>
-      <c r="AI21" s="205"/>
+      <c r="AD21" s="219"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="192"/>
+      <c r="AG21" s="192"/>
+      <c r="AH21" s="192"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="78" t="s">
@@ -9291,19 +9611,19 @@
         <v>-4.3331744969945588E-2</v>
       </c>
       <c r="J22" s="83">
-        <f t="shared" ref="J22:M22" si="16">AVERAGE(F22:I22)</f>
+        <f t="shared" ref="J22:M22" si="21">AVERAGE(F22:I22)</f>
         <v>-4.2873964572876025E-2</v>
       </c>
       <c r="K22" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-4.2938604776689787E-2</v>
       </c>
       <c r="L22" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-4.122153137371215E-2</v>
       </c>
       <c r="M22" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-4.2591461423305887E-2</v>
       </c>
       <c r="R22" s="156" t="s">
@@ -9321,7 +9641,7 @@
         <f>U29/U26</f>
         <v>1101.5625</v>
       </c>
-      <c r="V22" s="224">
+      <c r="V22" s="211">
         <f>V29/V26</f>
         <v>215.51020408163265</v>
       </c>
@@ -9349,14 +9669,14 @@
         <f>AVERAGE(S22:V22)</f>
         <v>305.03517687669478</v>
       </c>
-      <c r="AD22" s="232" t="s">
+      <c r="AD22" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="AE22" s="205"/>
-      <c r="AF22" s="205"/>
-      <c r="AG22" s="205"/>
-      <c r="AH22" s="205"/>
-      <c r="AI22" s="205"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="192"/>
+      <c r="AG22" s="192"/>
+      <c r="AH22" s="192"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
@@ -9375,53 +9695,53 @@
         <v>243</v>
       </c>
       <c r="S23" s="95">
-        <f>(S29*S28)/E3</f>
+        <f t="shared" ref="S23:AA23" si="22">S29/(E3/S28)</f>
         <v>0.54845314824827684</v>
       </c>
       <c r="T23" s="95">
-        <f>(T29*T28)/F3</f>
+        <f t="shared" si="22"/>
         <v>3.0170559036536737</v>
       </c>
       <c r="U23" s="95">
-        <f>(U29*U28)/G3</f>
+        <f t="shared" si="22"/>
         <v>24.210901826484019</v>
       </c>
-      <c r="V23" s="224">
-        <f>(V29*V28)/H3</f>
+      <c r="V23" s="211">
+        <f t="shared" si="22"/>
         <v>22.150827713059474</v>
       </c>
       <c r="W23" s="95">
-        <f>(W29*W28)/I3</f>
-        <v>11.140135409601772</v>
+        <f t="shared" si="22"/>
+        <v>11.140135409601774</v>
       </c>
       <c r="X23" s="95">
-        <f>(X29*X28)/J3</f>
-        <v>10.65923089659363</v>
+        <f t="shared" si="22"/>
+        <v>10.659230896593632</v>
       </c>
       <c r="Y23" s="95">
-        <f>(Y29*Y28)/K3</f>
+        <f t="shared" si="22"/>
         <v>9.4306778152073125</v>
       </c>
       <c r="Z23" s="95">
-        <f>(Z29*Z28)/L3</f>
+        <f t="shared" si="22"/>
         <v>9.0403130343075464</v>
       </c>
       <c r="AA23" s="95">
-        <f>(AA29*AA28)/M3</f>
+        <f t="shared" si="22"/>
         <v>9.3332272581526414</v>
       </c>
       <c r="AB23" s="95">
         <f>AVERAGE(S23:V23)</f>
         <v>12.481809647861361</v>
       </c>
-      <c r="AD23" s="231" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE23" s="205"/>
-      <c r="AF23" s="205"/>
-      <c r="AG23" s="205"/>
-      <c r="AH23" s="205"/>
-      <c r="AI23" s="205"/>
+      <c r="AD23" s="218" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE23" s="192"/>
+      <c r="AF23" s="192"/>
+      <c r="AG23" s="192"/>
+      <c r="AH23" s="222"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="85" t="s">
@@ -9438,43 +9758,42 @@
       <c r="K24" s="73"/>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="206"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="210"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="Z24" s="193"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="193"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="86" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="56">
-        <f>C5/C3</f>
+        <f t="shared" ref="C25:H25" si="23">C5/C3</f>
         <v>0.22846097759299394</v>
       </c>
       <c r="D25" s="57">
-        <f>D5/D3</f>
+        <f t="shared" si="23"/>
         <v>0.18900706376042831</v>
       </c>
       <c r="E25" s="58">
-        <f>E5/E3</f>
+        <f t="shared" si="23"/>
         <v>0.18834026954977681</v>
       </c>
       <c r="F25" s="59">
-        <f>F5/F3</f>
+        <f t="shared" si="23"/>
         <v>0.1655545609895028</v>
       </c>
       <c r="G25" s="59">
-        <f>G5/G3</f>
+        <f t="shared" si="23"/>
         <v>0.2102359208523592</v>
       </c>
       <c r="H25" s="59">
-        <f>H5/H3</f>
+        <f t="shared" si="23"/>
         <v>0.25279155751258753</v>
       </c>
       <c r="I25" s="7">
@@ -9482,22 +9801,22 @@
         <v>0.20423057722605659</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:M28" si="17">AVERAGE($E25:$H25)</f>
+        <f t="shared" ref="J25:M28" si="24">AVERAGE($E25:$H25)</f>
         <v>0.20423057722605659</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.20423057722605659</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.20423057722605659</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="R25" s="217" t="s">
+      <c r="R25" s="204" t="s">
         <v>48</v>
       </c>
       <c r="S25" s="180">
@@ -9509,7 +9828,7 @@
       <c r="U25" s="180">
         <v>0.74</v>
       </c>
-      <c r="V25" s="189">
+      <c r="V25" s="184">
         <v>5.6</v>
       </c>
       <c r="W25" s="180">
@@ -9536,36 +9855,33 @@
         <f>AVERAGE(S25:AA25)</f>
         <v>3.7209531285774662</v>
       </c>
-      <c r="AD25" s="169" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="86" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="56">
-        <f>C6/C$3</f>
+        <f t="shared" ref="C26:H27" si="25">C6/C$3</f>
         <v>0.11919889510654941</v>
       </c>
       <c r="D26" s="57">
-        <f>D6/D$3</f>
+        <f t="shared" si="25"/>
         <v>0.11719552527304981</v>
       </c>
       <c r="E26" s="58">
-        <f>E6/E$3</f>
+        <f t="shared" si="25"/>
         <v>6.8046771514152851E-2</v>
       </c>
       <c r="F26" s="59">
-        <f>F6/F$3</f>
+        <f t="shared" si="25"/>
         <v>5.4642363088941333E-2</v>
       </c>
       <c r="G26" s="59">
-        <f>G6/G$3</f>
+        <f t="shared" si="25"/>
         <v>4.7279299847792999E-2</v>
       </c>
       <c r="H26" s="59">
-        <f>H6/H$3</f>
+        <f t="shared" si="25"/>
         <v>4.817643015067908E-2</v>
       </c>
       <c r="I26" s="7">
@@ -9573,11 +9889,11 @@
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" ref="J26:K26" si="18">AVERAGE($F26:$H26)</f>
+        <f t="shared" ref="J26:K26" si="26">AVERAGE($F26:$H26)</f>
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="L26" s="7">
@@ -9588,7 +9904,7 @@
         <f>AVERAGE($F26:$H26)</f>
         <v>5.0032697695804464E-2</v>
       </c>
-      <c r="R26" s="217" t="s">
+      <c r="R26" s="204" t="s">
         <v>49</v>
       </c>
       <c r="S26" s="180">
@@ -9600,7 +9916,7 @@
       <c r="U26" s="180">
         <v>0.64</v>
       </c>
-      <c r="V26" s="189">
+      <c r="V26" s="184">
         <v>4.9000000000000004</v>
       </c>
       <c r="W26" s="180">
@@ -9627,34 +9943,40 @@
         <f>AVERAGE(S26:AA26)</f>
         <v>2.6861080669224831</v>
       </c>
-      <c r="AD26" s="89"/>
+      <c r="AD26" s="169" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG26" s="221">
+        <f>V26/U26-1</f>
+        <v>6.65625</v>
+      </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="86" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="56">
-        <f>C7/C$3</f>
+        <f t="shared" si="25"/>
         <v>0.20459457050238478</v>
       </c>
       <c r="D27" s="57">
-        <f>D7/D$3</f>
+        <f t="shared" si="25"/>
         <v>0.21060910295659802</v>
       </c>
       <c r="E27" s="58">
-        <f>E7/E$3</f>
+        <f t="shared" si="25"/>
         <v>0.13207472177319626</v>
       </c>
       <c r="F27" s="59">
-        <f>F7/F$3</f>
+        <f t="shared" si="25"/>
         <v>0.10765725445520384</v>
       </c>
       <c r="G27" s="59">
-        <f>G7/G$3</f>
+        <f t="shared" si="25"/>
         <v>9.9727295788939629E-2</v>
       </c>
       <c r="H27" s="59">
-        <f>H7/H$3</f>
+        <f t="shared" si="25"/>
         <v>8.3923229845976624E-2</v>
       </c>
       <c r="I27" s="7">
@@ -9678,7 +10000,7 @@
         <v>6.3923229845976634E-2</v>
       </c>
       <c r="P27" s="89"/>
-      <c r="R27" s="217" t="s">
+      <c r="R27" s="204" t="s">
         <v>50</v>
       </c>
       <c r="S27" s="75">
@@ -9690,27 +10012,27 @@
       <c r="U27" s="76">
         <v>933</v>
       </c>
-      <c r="V27" s="225">
+      <c r="V27" s="212">
         <v>986</v>
       </c>
       <c r="W27" s="76">
-        <f>V27*(1+I33)</f>
+        <f t="shared" ref="W27:AA28" si="27">V27*(1+I33)</f>
         <v>1033.2471231439581</v>
       </c>
       <c r="X27" s="76">
-        <f>W27*(1+J33)</f>
+        <f t="shared" si="27"/>
         <v>1082.7582327436771</v>
       </c>
       <c r="Y27" s="76">
-        <f>X27*(1+K33)</f>
+        <f t="shared" si="27"/>
         <v>1134.6418144450715</v>
       </c>
       <c r="Z27" s="76">
-        <f>Y27*(1+L33)</f>
+        <f t="shared" si="27"/>
         <v>1189.0115523065019</v>
       </c>
       <c r="AA27" s="76">
-        <f>Z27*(1+M33)</f>
+        <f t="shared" si="27"/>
         <v>1245.9865778961714</v>
       </c>
       <c r="AB27" s="95">
@@ -9754,19 +10076,19 @@
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="P28" s="89"/>
-      <c r="R28" s="217" t="s">
+      <c r="R28" s="204" t="s">
         <v>260</v>
       </c>
       <c r="S28" s="75">
@@ -9778,31 +10100,31 @@
       <c r="U28" s="76">
         <v>1083</v>
       </c>
-      <c r="V28" s="225">
+      <c r="V28" s="212">
         <v>1129</v>
       </c>
       <c r="W28" s="76">
-        <f>V28*(1+I34)</f>
+        <f t="shared" si="27"/>
         <v>1241.3475002108012</v>
       </c>
       <c r="X28" s="76">
-        <f>W28*(1+J34)</f>
+        <f t="shared" si="27"/>
         <v>1364.8747708411029</v>
       </c>
       <c r="Y28" s="76">
-        <f>X28*(1+K34)</f>
+        <f t="shared" si="27"/>
         <v>1500.6943178781162</v>
       </c>
       <c r="Z28" s="76">
-        <f>Y28*(1+L34)</f>
+        <f t="shared" si="27"/>
         <v>1650.0293534796749</v>
       </c>
       <c r="AA28" s="76">
-        <f>Z28*(1+M34)</f>
+        <f t="shared" si="27"/>
         <v>1814.224812414915</v>
       </c>
       <c r="AB28" s="95">
-        <f t="shared" ref="AB28:AB29" si="19">AVERAGE(S28:AA28)</f>
+        <f t="shared" ref="AB28:AB29" si="28">AVERAGE(S28:AA28)</f>
         <v>1205.2411949805123</v>
       </c>
       <c r="AD28" s="89"/>
@@ -9825,7 +10147,7 @@
       <c r="U29" s="75">
         <v>705</v>
       </c>
-      <c r="V29" s="225">
+      <c r="V29" s="212">
         <v>1056</v>
       </c>
       <c r="W29" s="75">
@@ -9847,7 +10169,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" s="95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>749.90000000000009</v>
       </c>
       <c r="AD29" s="89"/>
@@ -9858,27 +10180,27 @@
         <v>40</v>
       </c>
       <c r="C30" s="56">
-        <f>C10/C$3</f>
+        <f t="shared" ref="C30:H30" si="29">C10/C$3</f>
         <v>-9.533248801594027E-2</v>
       </c>
       <c r="D30" s="57">
-        <f>D10/D$3</f>
+        <f t="shared" si="29"/>
         <v>-0.13879756446921956</v>
       </c>
       <c r="E30" s="58">
-        <f>E10/E$3</f>
+        <f t="shared" si="29"/>
         <v>-1.8082482358451512E-2</v>
       </c>
       <c r="F30" s="59">
-        <f>F10/F$3</f>
+        <f t="shared" si="29"/>
         <v>-2.8073887216209618E-3</v>
       </c>
       <c r="G30" s="59">
-        <f>G10/G$3</f>
+        <f t="shared" si="29"/>
         <v>6.3229325215626589E-2</v>
       </c>
       <c r="H30" s="59">
-        <f>H10/H$3</f>
+        <f t="shared" si="29"/>
         <v>0.12119354179440016</v>
       </c>
       <c r="I30" s="91">
@@ -9890,15 +10212,15 @@
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="K30" s="91">
-        <f t="shared" ref="K30:M30" si="20">J30</f>
+        <f t="shared" ref="K30:M30" si="30">J30</f>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="L30" s="91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="M30" s="91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="N30" s="12">
@@ -9906,7 +10228,7 @@
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="P30" s="89"/>
-      <c r="V30" s="222"/>
+      <c r="V30" s="209"/>
       <c r="AD30" s="89"/>
       <c r="AE30" s="89"/>
     </row>
@@ -9915,27 +10237,27 @@
         <v>45</v>
       </c>
       <c r="C31" s="56">
-        <f>C14/C$3</f>
+        <f t="shared" ref="C31:H31" si="31">C14/C$3</f>
         <v>-0.10661913232493329</v>
       </c>
       <c r="D31" s="57">
-        <f>D14/D$3</f>
+        <f t="shared" si="31"/>
         <v>-0.18786280957901058</v>
       </c>
       <c r="E31" s="58">
-        <f>E14/E$3</f>
+        <f t="shared" si="31"/>
         <v>-4.6816665259480472E-2</v>
       </c>
       <c r="F31" s="59">
-        <f>F14/F$3</f>
+        <f t="shared" si="31"/>
         <v>-2.7056717389535356E-2</v>
       </c>
       <c r="G31" s="59">
-        <f>G14/G$3</f>
+        <f t="shared" si="31"/>
         <v>3.6593099949264331E-2</v>
       </c>
       <c r="H31" s="59">
-        <f>H14/H$3</f>
+        <f t="shared" si="31"/>
         <v>0.11784924660461141</v>
       </c>
       <c r="I31" s="91">
@@ -9943,19 +10265,19 @@
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="J31" s="91">
-        <f t="shared" ref="J31:M32" si="21">I31</f>
+        <f t="shared" ref="J31:M32" si="32">I31</f>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="K31" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="L31" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="M31" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="N31" s="12">
@@ -9966,16 +10288,16 @@
       <c r="R31" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="S31" s="206"/>
-      <c r="T31" s="206"/>
-      <c r="U31" s="206"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="206"/>
-      <c r="X31" s="206"/>
-      <c r="Y31" s="206"/>
-      <c r="Z31" s="206"/>
-      <c r="AA31" s="206"/>
-      <c r="AB31" s="206"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="210"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="193"/>
+      <c r="Y31" s="193"/>
+      <c r="Z31" s="193"/>
+      <c r="AA31" s="193"/>
+      <c r="AB31" s="193"/>
       <c r="AD31" s="89"/>
       <c r="AE31" s="89"/>
     </row>
@@ -9984,27 +10306,27 @@
         <v>47</v>
       </c>
       <c r="C32" s="56">
-        <f>C16/C$3</f>
+        <f t="shared" ref="C32:H32" si="33">C16/C$3</f>
         <v>-0.11043306040514664</v>
       </c>
       <c r="D32" s="57">
-        <f>D16/D$3</f>
+        <f t="shared" si="33"/>
         <v>-0.19054557750223641</v>
       </c>
       <c r="E32" s="58">
-        <f>E16/E$3</f>
+        <f t="shared" si="33"/>
         <v>-4.951161320011474E-2</v>
       </c>
       <c r="F32" s="59">
-        <f>F16/F$3</f>
+        <f t="shared" si="33"/>
         <v>-3.1532264626902111E-2</v>
       </c>
       <c r="G32" s="59">
-        <f>G16/G$3</f>
+        <f t="shared" si="33"/>
         <v>2.7333840690005072E-2</v>
       </c>
       <c r="H32" s="59">
-        <f>H16/H$3</f>
+        <f t="shared" si="33"/>
         <v>0.10486223361759843</v>
       </c>
       <c r="I32" s="91">
@@ -10012,19 +10334,19 @@
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="J32" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="K32" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="L32" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="M32" s="91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="N32" s="12">
@@ -10033,53 +10355,53 @@
       </c>
       <c r="P32" s="89"/>
       <c r="Q32" s="89"/>
-      <c r="R32" s="190" t="s">
+      <c r="R32" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="S32" s="208">
-        <f>E18/((E89+D89)/2)</f>
+      <c r="S32" s="195">
+        <f t="shared" ref="S32:AA32" si="34">E18/((E89+D89)/2)</f>
         <v>-0.21308915412229809</v>
       </c>
-      <c r="T32" s="208">
-        <f>F18/((F89+E89)/2)</f>
+      <c r="T32" s="195">
+        <f t="shared" si="34"/>
         <v>-0.14937732443550492</v>
       </c>
-      <c r="U32" s="208">
-        <f>G18/((G89+F89)/2)</f>
+      <c r="U32" s="195">
+        <f t="shared" si="34"/>
         <v>4.9994799431404502E-2</v>
       </c>
-      <c r="V32" s="223">
-        <f>H18/((H89+G89)/2)</f>
+      <c r="V32" s="210">
+        <f t="shared" si="34"/>
         <v>0.21059258976609302</v>
       </c>
-      <c r="W32" s="208">
-        <f>I18/((I89+H89)/2)</f>
+      <c r="W32" s="195">
+        <f t="shared" si="34"/>
         <v>0.14661440873891349</v>
       </c>
-      <c r="X32" s="208">
-        <f>J18/((J89+I89)/2)</f>
+      <c r="X32" s="195">
+        <f t="shared" si="34"/>
         <v>0.17073003984406954</v>
       </c>
-      <c r="Y32" s="208">
-        <f>K18/((K89+J89)/2)</f>
+      <c r="Y32" s="195">
+        <f t="shared" si="34"/>
         <v>0.17717622850130971</v>
       </c>
-      <c r="Z32" s="208">
-        <f>L18/((L89+K89)/2)</f>
+      <c r="Z32" s="195">
+        <f t="shared" si="34"/>
         <v>0.17076912239452358</v>
       </c>
-      <c r="AA32" s="208">
-        <f>M18/((M89+L89)/2)</f>
+      <c r="AA32" s="195">
+        <f t="shared" si="34"/>
         <v>0.15328683012190836</v>
       </c>
-      <c r="AB32" s="208">
-        <f t="shared" ref="AB32:AB39" si="22">AVERAGE(S32:V32)</f>
+      <c r="AB32" s="195">
+        <f t="shared" ref="AB32:AB39" si="35">AVERAGE(S32:V32)</f>
         <v>-2.5469772340076371E-2</v>
       </c>
       <c r="AC32" s="89"/>
       <c r="AD32" s="89"/>
-      <c r="AE32" s="233" t="s">
-        <v>272</v>
+      <c r="AE32" s="220" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
@@ -10106,19 +10428,19 @@
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="J33" s="91">
-        <f t="shared" ref="J33" si="23">I33</f>
+        <f t="shared" ref="J33" si="36">I33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="K33" s="91">
-        <f t="shared" ref="K33" si="24">J33</f>
+        <f t="shared" ref="K33" si="37">J33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="L33" s="91">
-        <f t="shared" ref="L33" si="25">K33</f>
+        <f t="shared" ref="L33" si="38">K33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="M33" s="91">
-        <f t="shared" ref="M33" si="26">L33</f>
+        <f t="shared" ref="M33" si="39">L33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="N33" s="12">
@@ -10127,55 +10449,55 @@
       </c>
       <c r="P33" s="89"/>
       <c r="Q33" s="89"/>
-      <c r="R33" s="191" t="s">
+      <c r="R33" s="186" t="s">
         <v>245</v>
       </c>
-      <c r="S33" s="209">
-        <f>((D66+E66)/2)/((E89+D89)/2)</f>
+      <c r="S33" s="196">
+        <f t="shared" ref="S33:AA33" si="40">((D66+E66)/2)/((E89+D89)/2)</f>
         <v>6.3746609486288106</v>
       </c>
-      <c r="T33" s="209">
-        <f>((E66+F66)/2)/((F89+E89)/2)</f>
+      <c r="T33" s="196">
+        <f t="shared" si="40"/>
         <v>5.5495421073795947</v>
       </c>
-      <c r="U33" s="209">
-        <f>((F66+G66)/2)/((G89+F89)/2)</f>
+      <c r="U33" s="196">
+        <f t="shared" si="40"/>
         <v>2.99750372707416</v>
       </c>
-      <c r="V33" s="226">
-        <f>((G66+H66)/2)/((H89+G89)/2)</f>
+      <c r="V33" s="213">
+        <f t="shared" si="40"/>
         <v>2.1803144198115008</v>
       </c>
-      <c r="W33" s="209">
-        <f>((H66+I66)/2)/((I89+H89)/2)</f>
+      <c r="W33" s="196">
+        <f t="shared" si="40"/>
         <v>2.4224924018467471</v>
       </c>
-      <c r="X33" s="209">
-        <f>((I66+J66)/2)/((J89+I89)/2)</f>
+      <c r="X33" s="196">
+        <f t="shared" si="40"/>
         <v>2.8971015954677366</v>
       </c>
-      <c r="Y33" s="209">
-        <f>((J66+K66)/2)/((K89+J89)/2)</f>
+      <c r="Y33" s="196">
+        <f t="shared" si="40"/>
         <v>3.0939936314680634</v>
       </c>
-      <c r="Z33" s="209">
-        <f>((K66+L66)/2)/((L89+K89)/2)</f>
+      <c r="Z33" s="196">
+        <f t="shared" si="40"/>
         <v>3.1105493555808978</v>
       </c>
-      <c r="AA33" s="209">
-        <f>((L66+M66)/2)/((M89+L89)/2)</f>
+      <c r="AA33" s="196">
+        <f t="shared" si="40"/>
         <v>2.9695104499893521</v>
       </c>
-      <c r="AB33" s="209">
+      <c r="AB33" s="196">
         <f>AVERAGE(S33:V33)</f>
         <v>4.2755053007235171</v>
       </c>
-      <c r="AC33" s="192" t="s">
+      <c r="AC33" s="228" t="s">
         <v>247</v>
       </c>
       <c r="AD33" s="89"/>
-      <c r="AE33" s="233" t="s">
-        <v>266</v>
+      <c r="AE33" s="220" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.2">
@@ -10206,15 +10528,15 @@
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="K34" s="91">
-        <f t="shared" ref="K34" si="27">J34</f>
+        <f t="shared" ref="K34" si="41">J34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="L34" s="91">
-        <f t="shared" ref="L34" si="28">K34</f>
+        <f t="shared" ref="L34" si="42">K34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="M34" s="91">
-        <f t="shared" ref="M34" si="29">L34</f>
+        <f t="shared" ref="M34" si="43">L34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="N34" s="12">
@@ -10222,56 +10544,56 @@
         <v>9.9510629061825645E-2</v>
       </c>
       <c r="P34" s="89"/>
-      <c r="Q34" s="193" t="s">
+      <c r="Q34" s="230" t="s">
         <v>248</v>
       </c>
-      <c r="R34" s="196" t="s">
+      <c r="R34" s="187" t="s">
         <v>254</v>
       </c>
-      <c r="S34" s="210">
-        <f>E16/((D66+E66)/2)</f>
+      <c r="S34" s="197">
+        <f t="shared" ref="S34:AA34" si="44">E16/((D66+E66)/2)</f>
         <v>-3.6392919076990625E-2</v>
       </c>
-      <c r="T34" s="210">
-        <f>F16/((E66+F66)/2)</f>
+      <c r="T34" s="197">
+        <f t="shared" si="44"/>
         <v>-2.4200367552059752E-2</v>
       </c>
-      <c r="U34" s="210">
-        <f>G16/((F66+G66)/2)</f>
+      <c r="U34" s="197">
+        <f t="shared" si="44"/>
         <v>1.9940548480747656E-2</v>
       </c>
-      <c r="V34" s="227">
-        <f>H16/((G66+H66)/2)</f>
+      <c r="V34" s="214">
+        <f t="shared" si="44"/>
         <v>9.8775803078430854E-2</v>
       </c>
-      <c r="W34" s="210">
-        <f>I16/((H66+I66)/2)</f>
+      <c r="W34" s="197">
+        <f t="shared" si="44"/>
         <v>6.2375151592710981E-2</v>
       </c>
-      <c r="X34" s="210">
-        <f>J16/((I66+J66)/2)</f>
+      <c r="X34" s="197">
+        <f t="shared" si="44"/>
         <v>6.073299086345036E-2</v>
       </c>
-      <c r="Y34" s="210">
-        <f>K16/((J66+K66)/2)</f>
+      <c r="Y34" s="197">
+        <f t="shared" si="44"/>
         <v>5.901564524244992E-2</v>
       </c>
-      <c r="Z34" s="210">
-        <f>L16/((K66+L66)/2)</f>
+      <c r="Z34" s="197">
+        <f t="shared" si="44"/>
         <v>5.6569562237626214E-2</v>
       </c>
-      <c r="AA34" s="210">
-        <f>M16/((L66+M66)/2)</f>
+      <c r="AA34" s="197">
+        <f t="shared" si="44"/>
         <v>5.3196956011925062E-2</v>
       </c>
-      <c r="AB34" s="211">
-        <f t="shared" si="22"/>
+      <c r="AB34" s="198">
+        <f t="shared" si="35"/>
         <v>1.4530766232532032E-2</v>
       </c>
-      <c r="AC34" s="197"/>
+      <c r="AC34" s="229"/>
       <c r="AD34" s="89"/>
-      <c r="AE34" s="233" t="s">
-        <v>267</v>
+      <c r="AE34" s="220" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.2">
@@ -10288,56 +10610,56 @@
       <c r="M35" s="93"/>
       <c r="N35" s="12"/>
       <c r="P35" s="89"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="198" t="s">
+      <c r="Q35" s="231"/>
+      <c r="R35" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="S35" s="212">
-        <f>E3/((E66+D66)/2)</f>
+      <c r="S35" s="199">
+        <f t="shared" ref="S35:AA35" si="45">E3/((E66+D66)/2)</f>
         <v>0.73503803905355847</v>
       </c>
-      <c r="T35" s="212">
-        <f>F3/((F66+E66)/2)</f>
+      <c r="T35" s="199">
+        <f t="shared" si="45"/>
         <v>0.76747952734777369</v>
       </c>
-      <c r="U35" s="212">
-        <f>G3/((G66+F66)/2)</f>
+      <c r="U35" s="199">
+        <f t="shared" si="45"/>
         <v>0.72951872028869846</v>
       </c>
-      <c r="V35" s="228">
-        <f>H3/((H66+G66)/2)</f>
+      <c r="V35" s="215">
+        <f t="shared" si="45"/>
         <v>0.94195784002310134</v>
       </c>
-      <c r="W35" s="212">
-        <f>I3/((I66+H66)/2)</f>
+      <c r="W35" s="199">
+        <f t="shared" si="45"/>
         <v>1.1803706883248546</v>
       </c>
-      <c r="X35" s="212">
-        <f>J3/((J66+I66)/2)</f>
+      <c r="X35" s="199">
+        <f t="shared" si="45"/>
         <v>1.1476585027173525</v>
       </c>
-      <c r="Y35" s="212">
-        <f>K3/((K66+J66)/2)</f>
+      <c r="Y35" s="199">
+        <f t="shared" si="45"/>
         <v>1.1154304387816669</v>
       </c>
-      <c r="Z35" s="212">
-        <f>L3/((L66+K66)/2)</f>
+      <c r="Z35" s="199">
+        <f t="shared" si="45"/>
         <v>1.0635171594412562</v>
       </c>
-      <c r="AA35" s="212">
-        <f>M3/((M66+L66)/2)</f>
+      <c r="AA35" s="199">
+        <f t="shared" si="45"/>
         <v>1.0043691514180104</v>
       </c>
-      <c r="AB35" s="213">
-        <f t="shared" si="22"/>
+      <c r="AB35" s="200">
+        <f t="shared" si="35"/>
         <v>0.79349853167828299</v>
       </c>
-      <c r="AC35" s="199" t="s">
+      <c r="AC35" s="233" t="s">
         <v>249</v>
       </c>
       <c r="AD35" s="89"/>
-      <c r="AE35" s="233" t="s">
-        <v>268</v>
+      <c r="AE35" s="220" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
@@ -10356,54 +10678,54 @@
       <c r="L36" s="12"/>
       <c r="M36" s="10"/>
       <c r="P36" s="89"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="200" t="s">
+      <c r="Q36" s="232"/>
+      <c r="R36" s="189" t="s">
         <v>250</v>
       </c>
-      <c r="S36" s="214">
-        <f>E16/E3</f>
+      <c r="S36" s="201">
+        <f t="shared" ref="S36:AA36" si="46">E16/E3</f>
         <v>-4.951161320011474E-2</v>
       </c>
-      <c r="T36" s="214">
-        <f>F16/F3</f>
+      <c r="T36" s="201">
+        <f t="shared" si="46"/>
         <v>-3.1532264626902111E-2</v>
       </c>
-      <c r="U36" s="214">
-        <f>G16/G3</f>
+      <c r="U36" s="201">
+        <f t="shared" si="46"/>
         <v>2.7333840690005072E-2</v>
       </c>
-      <c r="V36" s="229">
-        <f>H16/H3</f>
+      <c r="V36" s="216">
+        <f t="shared" si="46"/>
         <v>0.10486223361759843</v>
       </c>
-      <c r="W36" s="214">
-        <f>I16/I3</f>
+      <c r="W36" s="201">
+        <f t="shared" si="46"/>
         <v>5.2843697500851917E-2</v>
       </c>
-      <c r="X36" s="214">
-        <f>J16/J3</f>
+      <c r="X36" s="201">
+        <f t="shared" si="46"/>
         <v>5.2919044053305629E-2</v>
       </c>
-      <c r="Y36" s="214">
-        <f>K16/K3</f>
+      <c r="Y36" s="201">
+        <f t="shared" si="46"/>
         <v>5.2908404854819971E-2</v>
       </c>
-      <c r="Z36" s="214">
-        <f>L16/L3</f>
+      <c r="Z36" s="201">
+        <f t="shared" si="46"/>
         <v>5.3191019755004579E-2</v>
       </c>
-      <c r="AA36" s="214">
-        <f>M16/M3</f>
+      <c r="AA36" s="201">
+        <f t="shared" si="46"/>
         <v>5.2965541540995531E-2</v>
       </c>
-      <c r="AB36" s="215">
-        <f t="shared" si="22"/>
+      <c r="AB36" s="202">
+        <f t="shared" si="35"/>
         <v>1.2788049120146661E-2</v>
       </c>
-      <c r="AC36" s="201"/>
+      <c r="AC36" s="234"/>
       <c r="AD36" s="89"/>
-      <c r="AE36" s="233" t="s">
-        <v>269</v>
+      <c r="AE36" s="220" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
@@ -10413,94 +10735,94 @@
       <c r="C37" s="56"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58">
-        <f>E3/D3-1</f>
+        <f t="shared" ref="E37:M37" si="47">E3/D3-1</f>
         <v>0.82513159773516764</v>
       </c>
       <c r="F37" s="59">
-        <f>F3/E3-1</f>
+        <f t="shared" si="47"/>
         <v>0.14522590184326489</v>
       </c>
       <c r="G37" s="59">
-        <f>G3/F3-1</f>
+        <f t="shared" si="47"/>
         <v>0.28309870615998056</v>
       </c>
       <c r="H37" s="59">
-        <f>H3/G3-1</f>
+        <f t="shared" si="47"/>
         <v>0.70671613394216126</v>
       </c>
       <c r="I37" s="59">
-        <f>I3/H3-1</f>
+        <f t="shared" si="47"/>
         <v>0.73491827579649782</v>
       </c>
       <c r="J37" s="59">
-        <f>J3/I3-1</f>
+        <f t="shared" si="47"/>
         <v>0.37126064933945413</v>
       </c>
       <c r="K37" s="59">
-        <f>K3/J3-1</f>
+        <f t="shared" si="47"/>
         <v>0.24274605686667439</v>
       </c>
       <c r="L37" s="59">
-        <f>L3/K3-1</f>
+        <f t="shared" si="47"/>
         <v>0.14698799231040471</v>
       </c>
       <c r="M37" s="59">
-        <f>M3/L3-1</f>
+        <f t="shared" si="47"/>
         <v>6.500356161205878E-2</v>
       </c>
       <c r="N37" s="12">
-        <f>AVERAGE(E37:M37)</f>
+        <f t="shared" ref="N37:N43" si="48">AVERAGE(E37:M37)</f>
         <v>0.39123209728951824</v>
       </c>
       <c r="P37" s="89"/>
       <c r="Q37" s="89"/>
-      <c r="R37" s="202" t="s">
+      <c r="R37" s="190" t="s">
         <v>251</v>
       </c>
-      <c r="S37" s="208">
-        <f>E10/E3</f>
+      <c r="S37" s="195">
+        <f t="shared" ref="S37:AA37" si="49">E10/E3</f>
         <v>-1.8082482358451512E-2</v>
       </c>
-      <c r="T37" s="208">
-        <f>F10/F3</f>
+      <c r="T37" s="195">
+        <f t="shared" si="49"/>
         <v>-2.8073887216209618E-3</v>
       </c>
-      <c r="U37" s="208">
-        <f>G10/G3</f>
+      <c r="U37" s="195">
+        <f t="shared" si="49"/>
         <v>6.3229325215626589E-2</v>
       </c>
-      <c r="V37" s="223">
-        <f>H10/H3</f>
+      <c r="V37" s="210">
+        <f t="shared" si="49"/>
         <v>0.12119354179440016</v>
       </c>
-      <c r="W37" s="208">
-        <f>I10/I3</f>
+      <c r="W37" s="195">
+        <f t="shared" si="49"/>
         <v>7.0274649684275492E-2</v>
       </c>
-      <c r="X37" s="208">
-        <f>J10/J3</f>
+      <c r="X37" s="195">
+        <f t="shared" si="49"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Y37" s="208">
-        <f>K10/K3</f>
+      <c r="Y37" s="195">
+        <f t="shared" si="49"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Z37" s="208">
-        <f>L10/L3</f>
+      <c r="Z37" s="195">
+        <f t="shared" si="49"/>
         <v>7.0274649684275478E-2</v>
       </c>
-      <c r="AA37" s="208">
-        <f>M10/M3</f>
+      <c r="AA37" s="195">
+        <f t="shared" si="49"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="AB37" s="208">
-        <f t="shared" si="22"/>
+      <c r="AB37" s="195">
+        <f t="shared" si="35"/>
         <v>4.0883248982488567E-2</v>
       </c>
-      <c r="AC37" s="201"/>
+      <c r="AC37" s="234"/>
       <c r="AD37" s="89"/>
-      <c r="AE37" s="233" t="s">
-        <v>269</v>
+      <c r="AE37" s="220" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10510,94 +10832,94 @@
       <c r="C38" s="56"/>
       <c r="D38" s="57"/>
       <c r="E38" s="58">
-        <f>E4/D4-1</f>
+        <f t="shared" ref="E38:M38" si="50">E4/D4-1</f>
         <v>0.82663221152434541</v>
       </c>
       <c r="F38" s="59">
-        <f>F4/E4-1</f>
+        <f t="shared" si="50"/>
         <v>0.17737580734689629</v>
       </c>
       <c r="G38" s="59">
-        <f>G4/F4-1</f>
+        <f t="shared" si="50"/>
         <v>0.21439368082305332</v>
       </c>
       <c r="H38" s="59">
-        <f>H4/G4-1</f>
+        <f t="shared" si="50"/>
         <v>0.61475146551031878</v>
       </c>
       <c r="I38" s="59">
-        <f>I4/H4-1</f>
+        <f t="shared" si="50"/>
         <v>0.84767039073411166</v>
       </c>
       <c r="J38" s="59">
-        <f>J4/I4-1</f>
+        <f t="shared" si="50"/>
         <v>0.37126064933945391</v>
       </c>
       <c r="K38" s="59">
-        <f>K4/J4-1</f>
+        <f t="shared" si="50"/>
         <v>0.24274605686667461</v>
       </c>
       <c r="L38" s="59">
-        <f>L4/K4-1</f>
+        <f t="shared" si="50"/>
         <v>0.14698799231040494</v>
       </c>
       <c r="M38" s="59">
-        <f>M4/L4-1</f>
+        <f t="shared" si="50"/>
         <v>6.5003561612058558E-2</v>
       </c>
       <c r="N38" s="12">
-        <f>AVERAGE(E38:M38)</f>
+        <f t="shared" si="48"/>
         <v>0.38964686845192409</v>
       </c>
       <c r="P38" s="89"/>
       <c r="Q38" s="89"/>
-      <c r="R38" s="202" t="s">
+      <c r="R38" s="190" t="s">
         <v>253</v>
       </c>
-      <c r="S38" s="208">
-        <f>E14/E10</f>
+      <c r="S38" s="195">
+        <f t="shared" ref="S38:AA38" si="51">E14/E10</f>
         <v>2.589061851765003</v>
       </c>
-      <c r="T38" s="208">
-        <f>F14/F10</f>
+      <c r="T38" s="195">
+        <f t="shared" si="51"/>
         <v>9.6376811594202891</v>
       </c>
-      <c r="U38" s="208">
-        <f>G14/G10</f>
+      <c r="U38" s="195">
+        <f t="shared" si="51"/>
         <v>0.5787362086258776</v>
       </c>
-      <c r="V38" s="223">
-        <f>H14/H10</f>
+      <c r="V38" s="210">
+        <f t="shared" si="51"/>
         <v>0.97240533496857273</v>
       </c>
-      <c r="W38" s="208">
-        <f>I14/I10</f>
+      <c r="W38" s="195">
+        <f t="shared" si="51"/>
         <v>0.88108491745353512</v>
       </c>
-      <c r="X38" s="208">
-        <f>J14/J10</f>
+      <c r="X38" s="195">
+        <f t="shared" si="51"/>
         <v>0.88234120181834519</v>
       </c>
-      <c r="Y38" s="208">
-        <f>K14/K10</f>
+      <c r="Y38" s="195">
+        <f t="shared" si="51"/>
         <v>0.88216381004292366</v>
       </c>
-      <c r="Z38" s="208">
-        <f>L14/L10</f>
+      <c r="Z38" s="195">
+        <f t="shared" si="51"/>
         <v>0.8868759656598979</v>
       </c>
-      <c r="AA38" s="208">
-        <f>M14/M10</f>
+      <c r="AA38" s="195">
+        <f t="shared" si="51"/>
         <v>0.88311647374367552</v>
       </c>
-      <c r="AB38" s="208">
-        <f t="shared" si="22"/>
+      <c r="AB38" s="195">
+        <f t="shared" si="35"/>
         <v>3.4444711386949352</v>
       </c>
-      <c r="AC38" s="201"/>
+      <c r="AC38" s="234"/>
       <c r="AD38" s="89"/>
-      <c r="AE38" s="220" t="s">
-        <v>271</v>
+      <c r="AE38" s="207" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
@@ -10610,93 +10932,93 @@
         <v>0.38969971680599169</v>
       </c>
       <c r="E39" s="58">
-        <f>E5/D5-1</f>
+        <f t="shared" ref="E39:M39" si="52">E5/D5-1</f>
         <v>0.81869275275850861</v>
       </c>
       <c r="F39" s="59">
-        <f>F5/E5-1</f>
+        <f t="shared" si="52"/>
         <v>6.6746313292287418E-3</v>
       </c>
       <c r="G39" s="59">
-        <f>G5/F5-1</f>
+        <f t="shared" si="52"/>
         <v>0.62939297124600646</v>
       </c>
       <c r="H39" s="59">
-        <f>H5/G5-1</f>
+        <f t="shared" si="52"/>
         <v>1.0521870286576167</v>
       </c>
       <c r="I39" s="93">
-        <f>I5/H5-1</f>
+        <f t="shared" si="52"/>
         <v>0.40164238233434801</v>
       </c>
       <c r="J39" s="93">
-        <f>J5/I5-1</f>
+        <f t="shared" si="52"/>
         <v>0.37126064933945413</v>
       </c>
       <c r="K39" s="93">
-        <f>K5/J5-1</f>
+        <f t="shared" si="52"/>
         <v>0.24274605686667439</v>
       </c>
       <c r="L39" s="93">
-        <f>L5/K5-1</f>
+        <f t="shared" si="52"/>
         <v>0.14698799231040471</v>
       </c>
       <c r="M39" s="93">
-        <f>M5/L5-1</f>
+        <f t="shared" si="52"/>
         <v>6.5003561612059002E-2</v>
       </c>
       <c r="N39" s="12">
-        <f>AVERAGE(E39:M39)</f>
+        <f t="shared" si="48"/>
         <v>0.41495422516158897</v>
       </c>
       <c r="P39" s="89"/>
       <c r="Q39" s="89"/>
-      <c r="R39" s="203" t="s">
+      <c r="R39" s="191" t="s">
         <v>252</v>
       </c>
-      <c r="S39" s="216">
-        <f>E16/E14</f>
+      <c r="S39" s="203">
+        <f t="shared" ref="S39:AA39" si="53">E16/E14</f>
         <v>1.0575638594867356</v>
       </c>
-      <c r="T39" s="216">
-        <f>F16/F14</f>
+      <c r="T39" s="203">
+        <f t="shared" si="53"/>
         <v>1.1654135338345866</v>
       </c>
-      <c r="U39" s="216">
-        <f>G16/G14</f>
+      <c r="U39" s="203">
+        <f t="shared" si="53"/>
         <v>0.7469670710571924</v>
       </c>
-      <c r="V39" s="230">
-        <f>H16/H14</f>
+      <c r="V39" s="217">
+        <f t="shared" si="53"/>
         <v>0.88979977928425036</v>
       </c>
-      <c r="W39" s="216">
-        <f>I16/I14</f>
+      <c r="W39" s="203">
+        <f t="shared" si="53"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="X39" s="216">
-        <f>J16/J14</f>
+      <c r="X39" s="203">
+        <f t="shared" si="53"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="Y39" s="216">
-        <f>K16/K14</f>
+      <c r="Y39" s="203">
+        <f t="shared" si="53"/>
         <v>0.85344736425503032</v>
       </c>
-      <c r="Z39" s="216">
-        <f>L16/L14</f>
+      <c r="Z39" s="203">
+        <f t="shared" si="53"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="AA39" s="216">
-        <f>M16/M14</f>
+      <c r="AA39" s="203">
+        <f t="shared" si="53"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="AB39" s="216">
-        <f t="shared" si="22"/>
+      <c r="AB39" s="203">
+        <f t="shared" si="35"/>
         <v>0.96493606091569128</v>
       </c>
-      <c r="AC39" s="204"/>
-      <c r="AE39" s="218" t="s">
-        <v>270</v>
+      <c r="AC39" s="235"/>
+      <c r="AE39" s="205" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
@@ -10707,39 +11029,39 @@
       <c r="D40" s="57"/>
       <c r="E40" s="58"/>
       <c r="F40" s="59">
-        <f>F9/E9-1</f>
+        <f t="shared" ref="F40:M40" si="54">F9/E9-1</f>
         <v>-6.5934041128698384E-2</v>
       </c>
       <c r="G40" s="59">
-        <f>G9/F9-1</f>
+        <f t="shared" si="54"/>
         <v>0.12034799420009668</v>
       </c>
       <c r="H40" s="59">
-        <f>H9/G9-1</f>
+        <f t="shared" si="54"/>
         <v>0.52782571182053495</v>
       </c>
       <c r="I40" s="59">
-        <f>I9/H9-1</f>
+        <f t="shared" si="54"/>
         <v>0.76600373170663572</v>
       </c>
       <c r="J40" s="59">
-        <f>J9/I9-1</f>
+        <f t="shared" si="54"/>
         <v>0.37126064933945413</v>
       </c>
       <c r="K40" s="59">
-        <f>K9/J9-1</f>
+        <f t="shared" si="54"/>
         <v>0.24274605686667439</v>
       </c>
       <c r="L40" s="59">
-        <f>L9/K9-1</f>
+        <f t="shared" si="54"/>
         <v>0.14698799231040494</v>
       </c>
       <c r="M40" s="59">
-        <f>M9/L9-1</f>
+        <f t="shared" si="54"/>
         <v>6.500356161205878E-2</v>
       </c>
       <c r="N40" s="12">
-        <f>AVERAGE(E40:M40)</f>
+        <f t="shared" si="48"/>
         <v>0.27178020709089512</v>
       </c>
       <c r="P40" s="89"/>
@@ -10766,31 +11088,31 @@
         <v>29.89855072463768</v>
       </c>
       <c r="H41" s="59">
-        <f>H10/G10-1</f>
+        <f t="shared" ref="H41:M41" si="55">H10/G10-1</f>
         <v>2.2713139418254764</v>
       </c>
       <c r="I41" s="93">
-        <f>I10/H10-1</f>
+        <f t="shared" si="55"/>
         <v>6.0005859823759611E-3</v>
       </c>
       <c r="J41" s="93">
-        <f>J10/I10-1</f>
+        <f t="shared" si="55"/>
         <v>0.37126064933945435</v>
       </c>
       <c r="K41" s="93">
-        <f>K10/J10-1</f>
+        <f t="shared" si="55"/>
         <v>0.24274605686667439</v>
       </c>
       <c r="L41" s="93">
-        <f>L10/K10-1</f>
+        <f t="shared" si="55"/>
         <v>0.14698799231040427</v>
       </c>
       <c r="M41" s="93">
-        <f>M10/L10-1</f>
+        <f t="shared" si="55"/>
         <v>6.5003561612059224E-2</v>
       </c>
       <c r="N41" s="12">
-        <f>AVERAGE(E41:M41)</f>
+        <f t="shared" si="48"/>
         <v>3.8429205127655854</v>
       </c>
       <c r="P41" s="89"/>
@@ -10817,31 +11139,31 @@
         <v>2.7353383458646618</v>
       </c>
       <c r="H42" s="59">
-        <f>H14/G14-1</f>
+        <f t="shared" ref="H42:M42" si="56">H14/G14-1</f>
         <v>4.4965337954939342</v>
       </c>
       <c r="I42" s="93">
-        <f>I14/H14-1</f>
+        <f t="shared" si="56"/>
         <v>-8.84748248659738E-2</v>
       </c>
       <c r="J42" s="93">
-        <f>J14/I14-1</f>
+        <f t="shared" si="56"/>
         <v>0.37321584489407056</v>
       </c>
       <c r="K42" s="93">
-        <f>K14/J14-1</f>
+        <f t="shared" si="56"/>
         <v>0.24249620688916984</v>
       </c>
       <c r="L42" s="93">
-        <f>L14/K14-1</f>
+        <f t="shared" si="56"/>
         <v>0.15311472960005168</v>
       </c>
       <c r="M42" s="93">
-        <f>M14/L14-1</f>
+        <f t="shared" si="56"/>
         <v>6.0488981856084756E-2</v>
       </c>
       <c r="N42" s="12">
-        <f>AVERAGE(E42:M42)</f>
+        <f t="shared" si="48"/>
         <v>0.98400207050118538</v>
       </c>
       <c r="P42" s="89"/>
@@ -10868,31 +11190,31 @@
         <v>2.1122580645161291</v>
       </c>
       <c r="H43" s="59">
-        <f>H16/G16-1</f>
+        <f t="shared" ref="H43:M43" si="57">H16/G16-1</f>
         <v>5.5475638051044083</v>
       </c>
       <c r="I43" s="93">
-        <f>I16/H16-1</f>
+        <f t="shared" si="57"/>
         <v>-0.12571482227607556</v>
       </c>
       <c r="J43" s="93">
-        <f>J16/I16-1</f>
+        <f t="shared" si="57"/>
         <v>0.37321584489407056</v>
       </c>
       <c r="K43" s="93">
-        <f>K16/J16-1</f>
+        <f t="shared" si="57"/>
         <v>0.24249620688917006</v>
       </c>
       <c r="L43" s="93">
-        <f>L16/K16-1</f>
+        <f t="shared" si="57"/>
         <v>0.15311472960005146</v>
       </c>
       <c r="M43" s="93">
-        <f>M16/L16-1</f>
+        <f t="shared" si="57"/>
         <v>6.0488981856084756E-2</v>
       </c>
       <c r="N43" s="12">
-        <f>AVERAGE(E43:M43)</f>
+        <f t="shared" si="48"/>
         <v>1.0177580825239734</v>
       </c>
     </row>
@@ -10977,19 +11299,19 @@
         <v>8958.3472593286224</v>
       </c>
       <c r="J47" s="177">
-        <f t="shared" ref="J47:M47" si="30">I47+J205</f>
+        <f t="shared" ref="J47:M47" si="58">I47+J205</f>
         <v>7701.6522537636174</v>
       </c>
       <c r="K47" s="177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>10021.633798175246</v>
       </c>
       <c r="L47" s="177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>14981.891797866452</v>
       </c>
       <c r="M47" s="177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>21091.013681916113</v>
       </c>
     </row>
@@ -11246,23 +11568,23 @@
         <v>4511</v>
       </c>
       <c r="I55" s="24">
-        <f t="shared" ref="I55:M56" si="31">I$3*I97</f>
+        <f t="shared" ref="I55:M56" si="59">I$3*I97</f>
         <v>8842.0286646947334</v>
       </c>
       <c r="J55" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>12124.725968227367</v>
       </c>
       <c r="K55" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>15067.955387603532</v>
       </c>
       <c r="L55" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>17282.763898250123</v>
       </c>
       <c r="M55" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>18406.205106136691</v>
       </c>
     </row>
@@ -11293,19 +11615,19 @@
         <v>13852.850330472485</v>
       </c>
       <c r="J56" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>18995.868539365973</v>
       </c>
       <c r="K56" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>23607.040724054776</v>
       </c>
       <c r="L56" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>27076.992244473553</v>
       </c>
       <c r="M56" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>28837.093178106428</v>
       </c>
     </row>
@@ -11336,19 +11658,19 @@
         <v>36667.820312675125</v>
       </c>
       <c r="J57" s="24">
-        <f t="shared" ref="J57:M58" si="32">J$3*J99</f>
+        <f t="shared" ref="J57:M58" si="60">J$3*J99</f>
         <v>50281.139091821315</v>
       </c>
       <c r="K57" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>62486.68734112574</v>
       </c>
       <c r="L57" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>71671.480059525798</v>
       </c>
       <c r="M57" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>76330.381529402628</v>
       </c>
     </row>
@@ -11377,19 +11699,19 @@
         <v>3491.874107438503</v>
       </c>
       <c r="J58" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>4788.2695559777476</v>
       </c>
       <c r="K58" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>5950.6031099060883</v>
       </c>
       <c r="L58" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>6825.2703140672356</v>
       </c>
       <c r="M58" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>7268.9371934466608</v>
       </c>
     </row>
@@ -11613,11 +11935,11 @@
         <v>22206</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" ref="G65:H65" si="33">SUM(G55:G64)</f>
+        <f t="shared" ref="G65:H65" si="61">SUM(G55:G64)</f>
         <v>25431</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>35031</v>
       </c>
       <c r="I65" s="15">
@@ -11625,19 +11947,19 @@
         <v>67502.037065758355</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" ref="J65:M65" si="34">SUM(J55:J64)</f>
+        <f t="shared" ref="J65:M65" si="62">SUM(J55:J64)</f>
         <v>92439.392149913387</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="62"/>
         <v>114797.94377333912</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="62"/>
         <v>131622.96940514681</v>
       </c>
       <c r="M65" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="62"/>
         <v>140157.30861671246</v>
       </c>
     </row>
@@ -11668,19 +11990,19 @@
         <v>96087.951523973825</v>
       </c>
       <c r="J66" s="52">
-        <f t="shared" ref="J66:M66" si="35">J65+J53</f>
+        <f t="shared" ref="J66:M66" si="63">J65+J53</f>
         <v>127055.55494577636</v>
       </c>
       <c r="K66" s="52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>158267.47942020488</v>
       </c>
       <c r="L66" s="52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>184969.20299143827</v>
       </c>
       <c r="M66" s="52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>202106.48294220353</v>
       </c>
     </row>
@@ -12187,35 +12509,35 @@
         <v>13433.874</v>
       </c>
       <c r="F81" s="27">
-        <f t="shared" ref="F81:M81" si="36">SUM(F77:F80)</f>
+        <f t="shared" ref="F81:M81" si="64">SUM(F77:F80)</f>
         <v>15532</v>
       </c>
       <c r="G81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>14170</v>
       </c>
       <c r="H81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>10843</v>
       </c>
       <c r="I81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>19316.423345571518</v>
       </c>
       <c r="J81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>26487.851219764194</v>
       </c>
       <c r="K81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>32917.672658233081</v>
       </c>
       <c r="L81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>37756.175273797868</v>
       </c>
       <c r="M81" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="64"/>
         <v>40210.461139443883</v>
       </c>
     </row>
@@ -12246,19 +12568,19 @@
         <v>54563.762679496198</v>
       </c>
       <c r="J82" s="52">
-        <f t="shared" ref="J82:M82" si="37">J81+J75</f>
+        <f t="shared" ref="J82:M82" si="65">J81+J75</f>
         <v>74821.140642289844</v>
       </c>
       <c r="K82" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>92983.677503472558</v>
       </c>
       <c r="L82" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>106651.16157734615</v>
       </c>
       <c r="M82" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>113583.86692993682</v>
       </c>
     </row>
@@ -12355,19 +12677,19 @@
         <v>29803</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" ref="J86:M86" si="38">I86</f>
+        <f t="shared" ref="J86:M86" si="66">I86</f>
         <v>29803</v>
       </c>
       <c r="K86" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="66"/>
         <v>29803</v>
       </c>
       <c r="L86" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="66"/>
         <v>29803</v>
       </c>
       <c r="M86" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="66"/>
         <v>29803</v>
       </c>
     </row>
@@ -12479,19 +12801,19 @@
         <v>35123.465543073828</v>
       </c>
       <c r="J89" s="100">
-        <f t="shared" ref="J89:M89" si="39">SUM(J85:J88)</f>
+        <f t="shared" ref="J89:M89" si="67">SUM(J85:J88)</f>
         <v>41899.551812906633</v>
       </c>
       <c r="K89" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>50318.813300727685</v>
       </c>
       <c r="L89" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>60027.187734688581</v>
       </c>
       <c r="M89" s="100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>70322.81185363741</v>
       </c>
     </row>
@@ -12522,19 +12844,19 @@
         <v>89687.228222570033</v>
       </c>
       <c r="J90" s="52">
-        <f t="shared" ref="J90:M90" si="40">J82+J89</f>
+        <f t="shared" ref="J90:M90" si="68">J82+J89</f>
         <v>116720.69245519648</v>
       </c>
       <c r="K90" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="68"/>
         <v>143302.49080420024</v>
       </c>
       <c r="L90" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="68"/>
         <v>166678.34931203473</v>
       </c>
       <c r="M90" s="52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="68"/>
         <v>183906.67878357423</v>
       </c>
     </row>
@@ -12547,15 +12869,15 @@
         <v>28349.252999999997</v>
       </c>
       <c r="F91" s="68">
-        <f t="shared" ref="F91:H91" si="41">F89+F82</f>
+        <f t="shared" ref="F91:H91" si="69">F89+F82</f>
         <v>32817</v>
       </c>
       <c r="G91" s="68">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>50643</v>
       </c>
       <c r="H91" s="68">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>60737</v>
       </c>
       <c r="I91" s="68"/>
@@ -12604,19 +12926,19 @@
         <v>3.7424011767971128E-3</v>
       </c>
       <c r="E94" s="104">
-        <f t="shared" ref="E94:H95" si="42">E50/(E$3/365)</f>
+        <f t="shared" ref="E94:H95" si="70">E50/(E$3/365)</f>
         <v>16.140380428593499</v>
       </c>
       <c r="F94" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>19.662299617544146</v>
       </c>
       <c r="G94" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>21.828703703703702</v>
       </c>
       <c r="H94" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>12.972985526633595</v>
       </c>
       <c r="I94" s="6">
@@ -12624,19 +12946,19 @@
         <v>17.651092319118735</v>
       </c>
       <c r="J94" s="105">
-        <f t="shared" ref="J94:M96" si="43">I94</f>
+        <f t="shared" ref="J94:M96" si="71">I94</f>
         <v>17.651092319118735</v>
       </c>
       <c r="K94" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>17.651092319118735</v>
       </c>
       <c r="L94" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>17.651092319118735</v>
       </c>
       <c r="M94" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>17.651092319118735</v>
       </c>
     </row>
@@ -12650,19 +12972,19 @@
         <v>0</v>
       </c>
       <c r="E95" s="104">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>52.951567912949038</v>
       </c>
       <c r="F95" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>52.749613475465864</v>
       </c>
       <c r="G95" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>47.465277777777771</v>
       </c>
       <c r="H95" s="103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>39.041023354328075</v>
       </c>
       <c r="I95" s="6">
@@ -12670,19 +12992,19 @@
         <v>48.051870630130189</v>
       </c>
       <c r="J95" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>48.051870630130189</v>
       </c>
       <c r="K95" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>48.051870630130189</v>
       </c>
       <c r="L95" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>48.051870630130189</v>
       </c>
       <c r="M95" s="105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>48.051870630130189</v>
       </c>
     </row>
@@ -12715,23 +13037,23 @@
         <v>3.2012336733366779E-2</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" ref="I96" si="44">AVERAGE(E96:H96)</f>
+        <f t="shared" ref="I96" si="72">AVERAGE(E96:H96)</f>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="J96" s="108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="K96" s="108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="L96" s="108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="M96" s="108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="71"/>
         <v>3.0185512153908106E-2</v>
       </c>
     </row>
@@ -12742,39 +13064,39 @@
       <c r="C97" s="10"/>
       <c r="D97" s="28"/>
       <c r="E97" s="30">
-        <f t="shared" ref="E97:H100" si="45">E55/E$3</f>
+        <f t="shared" ref="E97:H100" si="73">E55/E$3</f>
         <v>9.7373463674187394E-2</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>9.9560582634876715E-2</v>
       </c>
       <c r="G97" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>9.8014967021816335E-2</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>8.3811753339650338E-2</v>
       </c>
       <c r="I97" s="20">
-        <f t="shared" ref="I97:M102" si="46">AVERAGE($E97:$H97)</f>
+        <f t="shared" ref="I97:M102" si="74">AVERAGE($E97:$H97)</f>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="J97" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="K97" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="L97" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="M97" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.4690191667632692E-2</v>
       </c>
     </row>
@@ -12785,19 +13107,19 @@
       <c r="C98" s="10"/>
       <c r="D98" s="28"/>
       <c r="E98" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.29221926682058114</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.24973553584506469</v>
       </c>
       <c r="G98" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.18959284627092846</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.10711034316184531</v>
       </c>
       <c r="I98" s="20">
@@ -12805,19 +13127,19 @@
         <v>0.14835159471638687</v>
       </c>
       <c r="J98" s="20">
-        <f t="shared" ref="J98:M98" si="47">AVERAGE($G98:$H98)</f>
+        <f t="shared" ref="J98:M98" si="75">AVERAGE($G98:$H98)</f>
         <v>0.14835159471638687</v>
       </c>
       <c r="K98" s="20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="L98" s="20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="M98" s="20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>0.14835159471638687</v>
       </c>
     </row>
@@ -12832,11 +13154,11 @@
         <v>0.52793138783784821</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.42297990072422492</v>
       </c>
       <c r="G99" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0.40420471841704719</v>
       </c>
       <c r="H99" s="12">
@@ -12848,19 +13170,19 @@
         <v>0.39267944779518477</v>
       </c>
       <c r="J99" s="20">
-        <f t="shared" ref="J99" si="48">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="J99" si="76">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="K99" s="20">
-        <f t="shared" ref="K99:M99" si="49">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="K99:M99" si="77">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="L99" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="77"/>
         <v>0.39267944779518477</v>
       </c>
       <c r="M99" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="77"/>
         <v>0.39267944779518477</v>
       </c>
     </row>
@@ -12871,39 +13193,39 @@
       <c r="C100" s="10"/>
       <c r="D100" s="28"/>
       <c r="E100" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>1.3162875557958646E-2</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>4.9556513955570022E-2</v>
       </c>
       <c r="G100" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>4.9403855910705223E-2</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>3.745610612563402E-2</v>
       </c>
       <c r="I100" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="J100" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="K100" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="L100" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="M100" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="N100" s="14" t="s">
@@ -12933,23 +13255,23 @@
         <v>3.7158835442097243E-3</v>
       </c>
       <c r="I101" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="J101" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="K101" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="L101" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="M101" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="N101" s="95">
@@ -12980,23 +13302,23 @@
         <v>3.9722795087601952E-2</v>
       </c>
       <c r="I102" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="J102" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="K102" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="L102" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="M102" s="20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="N102" s="95">
@@ -13038,7 +13360,7 @@
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
       <c r="N104" s="171">
-        <f t="shared" ref="N104:N109" si="50">AVERAGE(E97:H97)</f>
+        <f t="shared" ref="N104:N109" si="78">AVERAGE(E97:H97)</f>
         <v>9.4690191667632692E-2</v>
       </c>
     </row>
@@ -13074,23 +13396,23 @@
         <v>62.980461927827463</v>
       </c>
       <c r="J105" s="113">
-        <f t="shared" ref="J105:J109" si="51">I105</f>
+        <f t="shared" ref="J105:J109" si="79">I105</f>
         <v>62.980461927827463</v>
       </c>
       <c r="K105" s="113">
-        <f t="shared" ref="K105:M105" si="52">J105</f>
+        <f t="shared" ref="K105:M105" si="80">J105</f>
         <v>62.980461927827463</v>
       </c>
       <c r="L105" s="113">
-        <f t="shared" si="52"/>
+        <f t="shared" si="80"/>
         <v>62.980461927827463</v>
       </c>
       <c r="M105" s="113">
-        <f t="shared" si="52"/>
+        <f t="shared" si="80"/>
         <v>62.980461927827463</v>
       </c>
       <c r="N105" s="171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>0.20966449802460488</v>
       </c>
     </row>
@@ -13106,43 +13428,43 @@
         <v>1731.366</v>
       </c>
       <c r="E106" s="107">
-        <f t="shared" ref="E106:H107" si="53">E70/E$3</f>
+        <f t="shared" ref="E106:H107" si="81">E70/E$3</f>
         <v>9.7582910758115496E-2</v>
       </c>
       <c r="F106" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>0.11819513385954919</v>
       </c>
       <c r="G106" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>0.12224124809741248</v>
       </c>
       <c r="H106" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>0.10625568994667707</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" ref="I106" si="54">AVERAGE(E106:H106)</f>
+        <f t="shared" ref="I106" si="82">AVERAGE(E106:H106)</f>
         <v>0.11106874566543856</v>
       </c>
       <c r="J106" s="108">
-        <f t="shared" si="51"/>
+        <f t="shared" si="79"/>
         <v>0.11106874566543856</v>
       </c>
       <c r="K106" s="108">
-        <f t="shared" ref="K106:M109" si="55">J106</f>
+        <f t="shared" ref="K106:M109" si="83">J106</f>
         <v>0.11106874566543856</v>
       </c>
       <c r="L106" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>0.11106874566543856</v>
       </c>
       <c r="M106" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>0.11106874566543856</v>
       </c>
       <c r="N106" s="171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>0.42649243280585064</v>
       </c>
     </row>
@@ -13158,19 +13480,19 @@
         <v>1015.253</v>
       </c>
       <c r="E107" s="107">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>2.9368814554666577E-2</v>
       </c>
       <c r="F107" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>4.7318740336886649E-2</v>
       </c>
       <c r="G107" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>4.6232876712328765E-2</v>
       </c>
       <c r="H107" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>2.6884417442357356E-2</v>
       </c>
       <c r="I107" s="7">
@@ -13178,23 +13500,23 @@
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="J107" s="108">
-        <f t="shared" si="51"/>
+        <f t="shared" si="79"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="K107" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="L107" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="M107" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="N107" s="171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>3.7394837887466975E-2</v>
       </c>
     </row>
@@ -13210,11 +13532,11 @@
         <v>787.33299999999997</v>
       </c>
       <c r="E108" s="107">
-        <f t="shared" ref="E108:F110" si="56">E72/E$3</f>
+        <f t="shared" ref="E108:F110" si="84">E72/E$3</f>
         <v>2.3430116058380145E-2</v>
       </c>
       <c r="F108" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="84"/>
         <v>1.2897713402229637E-2</v>
       </c>
       <c r="G108" s="106"/>
@@ -13224,23 +13546,23 @@
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="J108" s="108">
-        <f t="shared" si="51"/>
+        <f t="shared" si="79"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="K108" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="L108" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="M108" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="N108" s="171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>9.2227591291270811E-3</v>
       </c>
     </row>
@@ -13256,11 +13578,11 @@
         <v>853.9190000000001</v>
       </c>
       <c r="E109" s="107">
-        <f t="shared" si="56"/>
+        <f t="shared" si="84"/>
         <v>3.6931694809458605E-2</v>
       </c>
       <c r="F109" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="84"/>
         <v>2.9538611766620555E-2</v>
       </c>
       <c r="G109" s="106">
@@ -13276,23 +13598,23 @@
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="J109" s="108">
-        <f t="shared" si="51"/>
+        <f t="shared" si="79"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="K109" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="L109" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="M109" s="108">
-        <f t="shared" si="55"/>
+        <f t="shared" si="83"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="N109" s="171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>3.6985161930630193E-2</v>
       </c>
     </row>
@@ -13308,11 +13630,11 @@
         <v>796.54899999999998</v>
       </c>
       <c r="E110" s="107">
-        <f t="shared" si="56"/>
+        <f t="shared" si="84"/>
         <v>0.11964339665298435</v>
       </c>
       <c r="F110" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="84"/>
         <v>7.2625925624542273E-2</v>
       </c>
       <c r="G110" s="106">
@@ -13328,19 +13650,19 @@
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="J110" s="7">
-        <f t="shared" ref="J110:M110" si="57">AVERAGE(H110:I110)</f>
+        <f t="shared" ref="J110:M110" si="85">AVERAGE(H110:I110)</f>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="K110" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="N110" s="10"/>
@@ -13353,19 +13675,19 @@
       <c r="C111" s="10"/>
       <c r="D111" s="28"/>
       <c r="E111" s="30">
-        <f t="shared" ref="E111:H112" si="58">E77/E$3</f>
+        <f t="shared" ref="E111:H112" si="86">E77/E$3</f>
         <v>0.43816945019278453</v>
       </c>
       <c r="F111" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>0.47335015054113433</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>0.30301877219685441</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="I111" s="20">
@@ -13373,19 +13695,19 @@
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="J111" s="20">
-        <f t="shared" ref="J111:M111" si="59">$H$111</f>
+        <f t="shared" ref="J111:M111" si="87">$H$111</f>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="K111" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="L111" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="M111" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="87"/>
         <v>9.7449045946900029E-2</v>
       </c>
     </row>
@@ -13396,39 +13718,39 @@
       <c r="C112" s="10"/>
       <c r="D112" s="28"/>
       <c r="E112" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>4.6170291522383486E-2</v>
       </c>
       <c r="F112" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>4.9108959231833345E-2</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>4.0715372907153727E-2</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="86"/>
         <v>3.8124965163591776E-2</v>
       </c>
       <c r="I112" s="20">
-        <f t="shared" ref="I112:M112" si="60">AVERAGE($E112:$H112)</f>
+        <f t="shared" ref="I112:M112" si="88">AVERAGE($E112:$H112)</f>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="J112" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="K112" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="L112" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="M112" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="N112" s="95">
@@ -13489,29 +13811,29 @@
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="J114" s="20">
-        <f t="shared" ref="J114:M114" si="61">$H$114</f>
+        <f t="shared" ref="J114:M114" si="89">$H$114</f>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="K114" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="L114" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="M114" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="N114" s="171">
-        <f t="shared" ref="N114:N121" si="62">AVERAGE(E107:H107)</f>
+        <f t="shared" ref="N114:N121" si="90">AVERAGE(E107:H107)</f>
         <v>3.7451212261559841E-2</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
       <c r="N115" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>1.8163914730304889E-2</v>
       </c>
     </row>
@@ -13553,7 +13875,7 @@
         <v>2026</v>
       </c>
       <c r="N116" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>2.6875507884960029E-2</v>
       </c>
     </row>
@@ -13573,7 +13895,7 @@
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
       <c r="N117" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>7.2349323386414741E-2</v>
       </c>
     </row>
@@ -13620,7 +13942,7 @@
         <v>10295.624118948832</v>
       </c>
       <c r="N118" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>0.32799685471941831</v>
       </c>
     </row>
@@ -13640,7 +13962,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
       <c r="N119" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>4.3529897206240578E-2</v>
       </c>
     </row>
@@ -13716,7 +14038,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="171">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>0.10144810722738992</v>
       </c>
     </row>
@@ -14158,7 +14480,7 @@
       </c>
       <c r="C137" s="111"/>
       <c r="D137" s="111">
-        <f t="shared" ref="D137:D138" si="63">C50-D50</f>
+        <f t="shared" ref="D137:D138" si="91">C50-D50</f>
         <v>-16.23900000000009</v>
       </c>
       <c r="E137" s="111">
@@ -14166,35 +14488,35 @@
         <v>-433.64099999999985</v>
       </c>
       <c r="F137" s="111">
-        <f t="shared" ref="F137:M137" si="64">E50-F50</f>
+        <f t="shared" ref="F137:M137" si="92">E50-F50</f>
         <v>-374.97800000000007</v>
       </c>
       <c r="G137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-562</v>
       </c>
       <c r="H137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-27</v>
       </c>
       <c r="I137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-2602.7058530134636</v>
       </c>
       <c r="J137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-1676.5038872157511</v>
       </c>
       <c r="K137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-1503.1344977320568</v>
       </c>
       <c r="L137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-1131.1231996753704</v>
       </c>
       <c r="M137" s="111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>-573.75181989924204</v>
       </c>
       <c r="N137" s="36"/>
@@ -14217,11 +14539,11 @@
       </c>
       <c r="C138" s="111"/>
       <c r="D138" s="111">
-        <f t="shared" si="63"/>
+        <f t="shared" si="91"/>
         <v>-196.08299999999963</v>
       </c>
       <c r="E138" s="111">
-        <f t="shared" ref="E138:M138" si="65">D51-E51</f>
+        <f t="shared" ref="E138:M138" si="93">D51-E51</f>
         <v>-849.90900000000011</v>
       </c>
       <c r="F138" s="111">
@@ -14229,31 +14551,31 @@
         <v>-438.55400000000009</v>
       </c>
       <c r="G138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-549</v>
       </c>
       <c r="H138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-1656</v>
       </c>
       <c r="I138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-6536.1833072843037</v>
       </c>
       <c r="J138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-4563.9752171113068</v>
       </c>
       <c r="K138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-4092.0087617734862</v>
       </c>
       <c r="L138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-3079.276039968805</v>
       </c>
       <c r="M138" s="111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>-1561.9343961924678</v>
       </c>
       <c r="R138" s="10"/>
@@ -14299,43 +14621,43 @@
       </c>
       <c r="C140" s="111"/>
       <c r="D140" s="111">
-        <f t="shared" ref="D140" si="66">C52-D52</f>
+        <f t="shared" ref="D140" si="94">C52-D52</f>
         <v>-73.900000000000006</v>
       </c>
       <c r="E140" s="111">
-        <f t="shared" ref="E140:M140" si="67">D52-E52</f>
+        <f t="shared" ref="E140:M140" si="95">D52-E52</f>
         <v>-97.305999999999983</v>
       </c>
       <c r="F140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-347.32900000000001</v>
       </c>
       <c r="G140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-633</v>
       </c>
       <c r="H140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-377</v>
       </c>
       <c r="I140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-1095.6780385890779</v>
       </c>
       <c r="J140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-1046.4642388854395</v>
       </c>
       <c r="K140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-938.24804708561669</v>
       </c>
       <c r="L140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-706.04070009031784</v>
       </c>
       <c r="M140" s="111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="95"/>
         <v>-358.13263905825443</v>
       </c>
       <c r="R140" s="10"/>
@@ -14356,43 +14678,43 @@
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8">
-        <f t="shared" ref="D141:D145" si="68">D69-C69</f>
+        <f t="shared" ref="D141:D145" si="96">D69-C69</f>
         <v>529.90900000000011</v>
       </c>
       <c r="E141" s="8">
-        <f t="shared" ref="E141:M141" si="69">E69-D69</f>
+        <f t="shared" ref="E141:M141" si="97">E69-D69</f>
         <v>1014.201</v>
       </c>
       <c r="F141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>366.54899999999998</v>
       </c>
       <c r="G141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>2280</v>
       </c>
       <c r="H141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>3974</v>
       </c>
       <c r="I141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>6087.3875741635311</v>
       </c>
       <c r="J141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>5981.8954731929043</v>
       </c>
       <c r="K141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>5363.3000890419862</v>
       </c>
       <c r="L141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>4035.9350189152319</v>
       </c>
       <c r="M141" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="97"/>
         <v>2047.1908477894212</v>
       </c>
       <c r="R141" s="10"/>
@@ -14413,43 +14735,43 @@
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>521.33799999999997</v>
       </c>
       <c r="E142" s="8">
-        <f t="shared" ref="E142:M142" si="70">E70-D70</f>
+        <f t="shared" ref="E142:M142" si="98">E70-D70</f>
         <v>362.88699999999972</v>
       </c>
       <c r="F142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>810.7470000000003</v>
       </c>
       <c r="G142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>950</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>1864</v>
       </c>
       <c r="I142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>4652.4335733168882</v>
       </c>
       <c r="J142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>3850.5051630106409</v>
       </c>
       <c r="K142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>3452.319549242924</v>
       </c>
       <c r="L142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>2597.9037409715384</v>
       </c>
       <c r="M142" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>1317.7627333019627</v>
       </c>
       <c r="R142" s="10"/>
@@ -14470,43 +14792,43 @@
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>252.12700000000007</v>
       </c>
       <c r="E143" s="8">
-        <f t="shared" ref="E143:M143" si="71">E71-D71</f>
+        <f t="shared" ref="E143:M143" si="99">E71-D71</f>
         <v>-384.96100000000001</v>
       </c>
       <c r="F143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>532.70799999999997</v>
       </c>
       <c r="G143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>295</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>-11</v>
       </c>
       <c r="I143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>2050.1382622881729</v>
       </c>
       <c r="J143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>1298.3498220869569</v>
       </c>
       <c r="K143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>1164.0858232331848</v>
       </c>
       <c r="L143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>875.98580370481977</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>444.33572684725095</v>
       </c>
       <c r="N143" s="10"/>
@@ -14529,19 +14851,19 @@
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>607.82899999999995</v>
       </c>
       <c r="E144" s="8">
-        <f t="shared" ref="E144:G145" si="72">E72-D72</f>
+        <f t="shared" ref="E144:G145" si="100">E72-D72</f>
         <v>-284.49299999999999</v>
       </c>
       <c r="F144" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>-185.83999999999997</v>
       </c>
       <c r="G144" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>-317</v>
       </c>
       <c r="H144" s="8"/>
@@ -14557,43 +14879,43 @@
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="96"/>
         <v>190.06000000000006</v>
       </c>
       <c r="E145" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>-61.318000000000097</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>-66.600999999999999</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>26</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" ref="H145:M145" si="73">H73-G73</f>
+        <f t="shared" ref="H145:M145" si="101">H73-G73</f>
         <v>173</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>1584.5947839154574</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>931.71378905535948</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>835.36408655014884</v>
       </c>
       <c r="L145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>628.61952799178562</v>
       </c>
       <c r="M145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>318.86146293613638</v>
       </c>
       <c r="R145" s="36"/>
@@ -14604,43 +14926,43 @@
       </c>
       <c r="C146" s="116"/>
       <c r="D146" s="67">
-        <f t="shared" ref="D146:M146" si="74">SUM(D137:D145)</f>
+        <f t="shared" ref="D146:M146" si="102">SUM(D137:D145)</f>
         <v>1815.0410000000002</v>
       </c>
       <c r="E146" s="67">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>-734.5400000000003</v>
       </c>
       <c r="F146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>296.70200000000017</v>
       </c>
       <c r="G146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>1490</v>
       </c>
       <c r="H146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>3940</v>
       </c>
       <c r="I146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>4139.9869947972038</v>
       </c>
       <c r="J146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>4775.5209041333646</v>
       </c>
       <c r="K146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>4281.6782414770842</v>
       </c>
       <c r="L146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>3222.0041518488824</v>
       </c>
       <c r="M146" s="68">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>1634.331915724807</v>
       </c>
       <c r="R146" s="14"/>
@@ -15241,19 +15563,19 @@
         <v>-16781.748874154931</v>
       </c>
       <c r="J164" s="24">
-        <f t="shared" ref="J164:M164" si="75">SUM(J156:J157)</f>
+        <f t="shared" ref="J164:M164" si="103">SUM(J156:J157)</f>
         <v>-17064.619171194812</v>
       </c>
       <c r="K164" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>-19426.694772126728</v>
       </c>
       <c r="L164" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>-20463.178028013655</v>
       </c>
       <c r="M164" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>-19857.947687501866</v>
       </c>
     </row>
@@ -15294,39 +15616,39 @@
       <c r="C167" s="71"/>
       <c r="D167" s="71"/>
       <c r="E167" s="1">
-        <f t="shared" ref="E167:M167" si="76">E74-D74</f>
+        <f t="shared" ref="E167:M167" si="104">E74-D74</f>
         <v>1771.15</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>-782.69900000000007</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>347</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>-543</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>1167.7851402406354</v>
       </c>
       <c r="J167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>1023.4858412550961</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>917.64587464560191</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>690.53736672542345</v>
       </c>
       <c r="M167" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>350.26871606987788</v>
       </c>
     </row>
@@ -15337,39 +15659,39 @@
       <c r="C168" s="71"/>
       <c r="D168" s="71"/>
       <c r="E168" s="1">
-        <f t="shared" ref="E168:M168" si="77">(E80-D80)+(E77-D77)</f>
+        <f t="shared" ref="E168:M168" si="105">(E80-D80)+(E77-D77)</f>
         <v>252.78600000000051</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2174.9249999999997</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>-1403</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>-4095</v>
       </c>
       <c r="I168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>6460.6665625270134</v>
       </c>
       <c r="J168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>5662.3436315126191</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>5076.7935078725532</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>3820.3360546779095</v>
       </c>
       <c r="M168" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>1937.8302598932005</v>
       </c>
     </row>
@@ -15400,35 +15722,35 @@
         <v>2023.9360000000006</v>
       </c>
       <c r="F170" s="67">
-        <f t="shared" ref="F170:M170" si="78">SUM(F167:F169)</f>
+        <f t="shared" ref="F170:M170" si="106">SUM(F167:F169)</f>
         <v>1392.2259999999997</v>
       </c>
       <c r="G170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>-1056</v>
       </c>
       <c r="H170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>-4638</v>
       </c>
       <c r="I170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>7628.4517027676484</v>
       </c>
       <c r="J170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>6685.8294727677148</v>
       </c>
       <c r="K170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>5994.4393825181551</v>
       </c>
       <c r="L170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>4510.8734214033329</v>
       </c>
       <c r="M170" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>2288.0989759630784</v>
       </c>
     </row>
@@ -15724,23 +16046,23 @@
         <v>-9</v>
       </c>
       <c r="I182" s="24">
-        <f t="shared" ref="I182:M183" si="79">(I$74+I$77+I$80+I$55+I$58)*I216</f>
+        <f t="shared" ref="I182:M183" si="107">(I$74+I$77+I$80+I$55+I$58)*I216</f>
         <v>-193.21263218252068</v>
       </c>
       <c r="J182" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-264.94487946718846</v>
       </c>
       <c r="K182" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-329.25920424486469</v>
       </c>
       <c r="L182" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-377.65635362653893</v>
       </c>
       <c r="M182" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-402.20536167768716</v>
       </c>
     </row>
@@ -15767,23 +16089,23 @@
         <v>-439</v>
       </c>
       <c r="I183" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-531.11139262229506</v>
       </c>
       <c r="J183" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-728.29215311883013</v>
       </c>
       <c r="K183" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-905.08220153536638</v>
       </c>
       <c r="L183" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-1038.1184172149312</v>
       </c>
       <c r="M183" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>-1105.599811708975</v>
       </c>
     </row>
@@ -15828,23 +16150,23 @@
         <v>-161</v>
       </c>
       <c r="I185" s="24">
-        <f t="shared" ref="I185:M186" si="80">I$16*I218</f>
+        <f t="shared" ref="I185:M186" si="108">I$16*I218</f>
         <v>-1091.7901767788626</v>
       </c>
       <c r="J185" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-1499.2635700524324</v>
       </c>
       <c r="K185" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-1862.8292989172626</v>
       </c>
       <c r="L185" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-2148.0559033120326</v>
       </c>
       <c r="M185" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-2277.9896178733302</v>
       </c>
     </row>
@@ -15867,23 +16189,23 @@
         <v>-10</v>
       </c>
       <c r="I186" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-73.516258393575214</v>
       </c>
       <c r="J186" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-100.9536908833842</v>
       </c>
       <c r="K186" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-125.43457799406664</v>
       </c>
       <c r="L186" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-144.64045948612471</v>
       </c>
       <c r="M186" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>-153.38961361563668</v>
       </c>
     </row>
@@ -15983,19 +16305,19 @@
         <v>-9295.9990726611486</v>
       </c>
       <c r="J190" s="16">
-        <f t="shared" ref="J190:M190" si="81">SUM(J173:J189)</f>
+        <f t="shared" ref="J190:M190" si="109">SUM(J173:J189)</f>
         <v>-6474.9187855557393</v>
       </c>
       <c r="K190" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>-3943.680451831508</v>
       </c>
       <c r="L190" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>-2051.3228713265944</v>
       </c>
       <c r="M190" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>-1075.7042219417594</v>
       </c>
     </row>
@@ -16324,11 +16646,11 @@
         <v>334.12900000000036</v>
       </c>
       <c r="F205" s="67">
-        <f t="shared" ref="F205:M205" si="82">F190+F153+F164</f>
+        <f t="shared" ref="F205:M205" si="110">F190+F153+F164</f>
         <v>2498</v>
       </c>
       <c r="G205" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>12784</v>
       </c>
       <c r="H205" s="67">
@@ -16336,11 +16658,11 @@
         <v>-1574</v>
       </c>
       <c r="I205" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>-8617.6527406713776</v>
       </c>
       <c r="J205" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>-1256.695005565005</v>
       </c>
       <c r="K205" s="67">
@@ -16348,11 +16670,11 @@
         <v>2319.9815444116284</v>
       </c>
       <c r="L205" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>4960.2579996912064</v>
       </c>
       <c r="M205" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>6109.1218840496622</v>
       </c>
     </row>
@@ -16470,19 +16792,19 @@
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="J210" s="108">
-        <f t="shared" ref="J210:M210" si="83">I210</f>
+        <f t="shared" ref="J210:M210" si="111">I210</f>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="K210" s="108">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="L210" s="108">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="M210" s="108">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="AB210" s="13"/>
@@ -16540,11 +16862,11 @@
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="K212" s="108">
-        <f t="shared" ref="K212:L212" si="84">J212</f>
+        <f t="shared" ref="K212:L212" si="112">J212</f>
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="L212" s="108">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="M212" s="108">
@@ -16612,11 +16934,11 @@
         <v>0.72209342051434178</v>
       </c>
       <c r="K214" s="108">
-        <f t="shared" ref="K214" si="85">J214</f>
+        <f t="shared" ref="K214" si="113">J214</f>
         <v>0.72209342051434178</v>
       </c>
       <c r="L214" s="108">
-        <f t="shared" ref="L214" si="86">K214</f>
+        <f t="shared" ref="L214" si="114">K214</f>
         <v>0.72209342051434178</v>
       </c>
       <c r="M214" s="108">
@@ -16666,15 +16988,15 @@
         <v>-0.56708343114797266</v>
       </c>
       <c r="K215" s="108">
-        <f t="shared" ref="K215:K219" si="87">J215</f>
+        <f t="shared" ref="K215:K219" si="115">J215</f>
         <v>-0.56708343114797266</v>
       </c>
       <c r="L215" s="108">
-        <f t="shared" ref="L215:L219" si="88">K215</f>
+        <f t="shared" ref="L215:L219" si="116">K215</f>
         <v>-0.56708343114797266</v>
       </c>
       <c r="M215" s="108">
-        <f t="shared" ref="M215:M220" si="89">L215</f>
+        <f t="shared" ref="M215:M220" si="117">L215</f>
         <v>-0.56708343114797266</v>
       </c>
     </row>
@@ -16683,19 +17005,19 @@
         <v>152</v>
       </c>
       <c r="E216" s="176">
-        <f t="shared" ref="E216:H217" si="90">E182/(E$74+E$77+E$80+E$55+E$58)</f>
+        <f t="shared" ref="E216:H217" si="118">E182/(E$74+E$77+E$80+E$55+E$58)</f>
         <v>-3.2787980127153567E-2</v>
       </c>
       <c r="F216" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-1.9707178681797458E-2</v>
       </c>
       <c r="G216" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-1.2203182996898357E-2</v>
       </c>
       <c r="H216" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-5.3232388951321939E-4</v>
       </c>
       <c r="I216" s="108">
@@ -16703,19 +17025,19 @@
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="J216" s="108">
-        <f t="shared" ref="J216:J220" si="91">I216</f>
+        <f t="shared" ref="J216:J220" si="119">I216</f>
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="K216" s="108">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="L216" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="M216" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>-6.3677534432057883E-3</v>
       </c>
     </row>
@@ -16724,39 +17046,39 @@
         <v>154</v>
       </c>
       <c r="E217" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-1.0601896655006465E-2</v>
       </c>
       <c r="F217" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-1.6262221997061656E-2</v>
       </c>
       <c r="G217" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-1.7186149387298521E-2</v>
       </c>
       <c r="H217" s="176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>-2.5965576388478146E-2</v>
       </c>
       <c r="I217" s="108">
-        <f t="shared" ref="I217:I219" si="92">AVERAGE(E217:H217)</f>
+        <f t="shared" ref="I217:I219" si="120">AVERAGE(E217:H217)</f>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="J217" s="108">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="K217" s="108">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="L217" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="M217" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>-1.7503961106961195E-2</v>
       </c>
     </row>
@@ -16785,19 +17107,19 @@
         <v>-0.22125804046019401</v>
       </c>
       <c r="J218" s="108">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>-0.22125804046019401</v>
       </c>
       <c r="K218" s="108">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>-0.22125804046019401</v>
       </c>
       <c r="L218" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>-0.22125804046019401</v>
       </c>
       <c r="M218" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>-0.22125804046019401</v>
       </c>
     </row>
@@ -16822,23 +17144,23 @@
         <v>-1.771793054571226E-3</v>
       </c>
       <c r="I219" s="108">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>-1.4898525028057991E-2</v>
       </c>
       <c r="J219" s="108">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>-1.4898525028057991E-2</v>
       </c>
       <c r="K219" s="108">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>-1.4898525028057991E-2</v>
       </c>
       <c r="L219" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>-1.4898525028057991E-2</v>
       </c>
       <c r="M219" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>-1.4898525028057991E-2</v>
       </c>
     </row>
@@ -16863,23 +17185,23 @@
         <v>-8.6705202312138728E-4</v>
       </c>
       <c r="I220" s="108">
-        <f t="shared" ref="I220" si="93">AVERAGE(E220:H220)</f>
+        <f t="shared" ref="I220" si="121">AVERAGE(E220:H220)</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="J220" s="108">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="K220" s="108">
-        <f t="shared" ref="K220" si="94">J220</f>
+        <f t="shared" ref="K220" si="122">J220</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="L220" s="108">
-        <f t="shared" ref="L220" si="95">K220</f>
+        <f t="shared" ref="L220" si="123">K220</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="M220" s="108">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>-1.1470656025856056E-3</v>
       </c>
     </row>
@@ -16901,96 +17223,97 @@
     <mergeCell ref="AC35:AC39"/>
   </mergeCells>
   <conditionalFormatting sqref="S4:AA4">
-    <cfRule type="aboveAverage" dxfId="36" priority="45"/>
+    <cfRule type="aboveAverage" dxfId="32" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AA9 S13:AA14 S18:AA19">
-    <cfRule type="aboveAverage" dxfId="35" priority="44"/>
+    <cfRule type="aboveAverage" dxfId="31" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:AA5">
-    <cfRule type="aboveAverage" dxfId="34" priority="43"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:AA6">
-    <cfRule type="aboveAverage" dxfId="33" priority="42"/>
+    <cfRule type="aboveAverage" dxfId="29" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:AA7">
-    <cfRule type="aboveAverage" dxfId="32" priority="41"/>
+    <cfRule type="aboveAverage" dxfId="28" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:AA12">
-    <cfRule type="aboveAverage" dxfId="31" priority="38"/>
+    <cfRule type="aboveAverage" dxfId="27" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:AA15">
-    <cfRule type="aboveAverage" dxfId="30" priority="37"/>
+    <cfRule type="aboveAverage" dxfId="26" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:AA16">
-    <cfRule type="aboveAverage" dxfId="27" priority="10" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="26" priority="33"/>
+    <cfRule type="aboveAverage" dxfId="25" priority="11" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="24" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:AA20">
-    <cfRule type="aboveAverage" dxfId="25" priority="16" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="24" priority="32"/>
+    <cfRule type="aboveAverage" dxfId="23" priority="17" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="22" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:AA21">
-    <cfRule type="aboveAverage" dxfId="23" priority="31"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:AA22">
-    <cfRule type="aboveAverage" dxfId="22" priority="29" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="30" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:AA23">
-    <cfRule type="aboveAverage" dxfId="21" priority="28" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="19" priority="29" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:AA32">
-    <cfRule type="aboveAverage" dxfId="20" priority="27"/>
+    <cfRule type="aboveAverage" dxfId="18" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:AA34">
-    <cfRule type="aboveAverage" dxfId="19" priority="26"/>
+    <cfRule type="aboveAverage" dxfId="17" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:AA36">
-    <cfRule type="aboveAverage" dxfId="18" priority="25"/>
+    <cfRule type="aboveAverage" dxfId="16" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37:AA37">
-    <cfRule type="aboveAverage" dxfId="15" priority="21"/>
+    <cfRule type="aboveAverage" dxfId="15" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35:AA35">
-    <cfRule type="aboveAverage" dxfId="14" priority="20"/>
+    <cfRule type="aboveAverage" dxfId="14" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:AA10">
-    <cfRule type="aboveAverage" dxfId="13" priority="18" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="13" priority="19" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:AA11">
-    <cfRule type="aboveAverage" dxfId="12" priority="17" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="18" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:AA33">
-    <cfRule type="aboveAverage" dxfId="11" priority="13" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="11" priority="14" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:AA39">
-    <cfRule type="aboveAverage" dxfId="10" priority="12" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="13" equalAverage="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:AA38">
-    <cfRule type="aboveAverage" dxfId="9" priority="11" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="12" equalAverage="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AA17">
-    <cfRule type="aboveAverage" dxfId="8" priority="8" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="7" priority="9"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="9" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:AA25">
-    <cfRule type="aboveAverage" dxfId="6" priority="6" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="7"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="7" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:AA26">
-    <cfRule type="aboveAverage" dxfId="4" priority="4" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="3" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="5" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:AA27">
-    <cfRule type="aboveAverage" dxfId="2" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:AA28">
-    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:AA29">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tesla valuation.xlsx
+++ b/Tesla valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/PycharmProjects/GitHub/Fundamental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B474C33-13C1-3A4D-80B8-62CE994E25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250C6D1-3DDB-884C-BAB7-7BD2ECBA7FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="500" windowWidth="63260" windowHeight="28300" activeTab="2" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
+    <workbookView xWindow="31840" yWindow="500" windowWidth="63260" windowHeight="28300" activeTab="2" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -2090,6 +2090,9 @@
     <xf numFmtId="9" fontId="24" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,9 +2100,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2582,7 +2582,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Current Russian oil sanctions as well as global warming - favor an energy alternative  </a:t>
+            <a:t>Current Russian oil sanctions as well as global warmming - favor an energy alternative  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3959,11 +3959,11 @@
       <c r="O4" s="161">
         <v>2026</v>
       </c>
-      <c r="Q4" s="226" t="s">
+      <c r="Q4" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -4849,11 +4849,11 @@
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="223"/>
-      <c r="U26" s="223"/>
-      <c r="V26" s="223"/>
-      <c r="W26" s="223"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="224"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
@@ -5087,22 +5087,22 @@
       <c r="O36" s="49"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="225" t="s">
+      <c r="B38" s="226" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
-      <c r="J38" s="225"/>
-      <c r="K38" s="225"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="225"/>
-      <c r="N38" s="225"/>
-      <c r="O38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="226"/>
+      <c r="M38" s="226"/>
+      <c r="N38" s="226"/>
+      <c r="O38" s="226"/>
       <c r="Q38" s="162" t="s">
         <v>209</v>
       </c>
@@ -5128,20 +5128,20 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C40" s="224" t="s">
+      <c r="C40" s="225" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="K40" s="224" t="s">
+      <c r="D40" s="225"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="225"/>
+      <c r="K40" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="L40" s="224"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="224"/>
-      <c r="O40" s="224"/>
+      <c r="L40" s="225"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="225"/>
+      <c r="O40" s="225"/>
       <c r="Q40" s="182">
         <v>125</v>
       </c>
@@ -5155,20 +5155,20 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="223"/>
-      <c r="K41" s="223" t="s">
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="K41" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
-      <c r="N41" s="223"/>
-      <c r="O41" s="223"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="224"/>
       <c r="Q41" s="182">
         <v>125</v>
       </c>
@@ -5522,40 +5522,40 @@
       <c r="O48" s="137"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C49" s="224" t="s">
+      <c r="C49" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
+      <c r="D49" s="225"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="225"/>
+      <c r="G49" s="225"/>
       <c r="I49" s="137"/>
       <c r="J49" s="137"/>
-      <c r="K49" s="224" t="s">
+      <c r="K49" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="L49" s="224"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="224"/>
-      <c r="O49" s="224"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="225"/>
+      <c r="O49" s="225"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C50" s="223" t="s">
+      <c r="C50" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="223"/>
-      <c r="G50" s="223"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
+      <c r="G50" s="224"/>
       <c r="I50" s="137"/>
       <c r="J50" s="137"/>
-      <c r="K50" s="223" t="s">
+      <c r="K50" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="L50" s="223"/>
-      <c r="M50" s="223"/>
-      <c r="N50" s="223"/>
-      <c r="O50" s="223"/>
+      <c r="L50" s="224"/>
+      <c r="M50" s="224"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="224"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="134" t="s">
@@ -5863,54 +5863,54 @@
     <row r="58" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="225" t="s">
+      <c r="B60" s="226" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="225"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="225"/>
-      <c r="F60" s="225"/>
-      <c r="G60" s="225"/>
-      <c r="H60" s="225"/>
-      <c r="I60" s="225"/>
-      <c r="J60" s="225"/>
-      <c r="K60" s="225"/>
-      <c r="L60" s="225"/>
-      <c r="M60" s="225"/>
-      <c r="N60" s="225"/>
-      <c r="O60" s="225"/>
+      <c r="C60" s="226"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="226"/>
+      <c r="F60" s="226"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="226"/>
+      <c r="I60" s="226"/>
+      <c r="J60" s="226"/>
+      <c r="K60" s="226"/>
+      <c r="L60" s="226"/>
+      <c r="M60" s="226"/>
+      <c r="N60" s="226"/>
+      <c r="O60" s="226"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C62" s="224" t="s">
+      <c r="C62" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="224"/>
-      <c r="E62" s="224"/>
-      <c r="F62" s="224"/>
-      <c r="G62" s="224"/>
-      <c r="K62" s="224" t="s">
+      <c r="D62" s="225"/>
+      <c r="E62" s="225"/>
+      <c r="F62" s="225"/>
+      <c r="G62" s="225"/>
+      <c r="K62" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="L62" s="224"/>
-      <c r="M62" s="224"/>
-      <c r="N62" s="224"/>
-      <c r="O62" s="224"/>
+      <c r="L62" s="225"/>
+      <c r="M62" s="225"/>
+      <c r="N62" s="225"/>
+      <c r="O62" s="225"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C63" s="223" t="s">
+      <c r="C63" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="223"/>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="K63" s="223" t="s">
+      <c r="D63" s="224"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="224"/>
+      <c r="G63" s="224"/>
+      <c r="K63" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="L63" s="223"/>
-      <c r="M63" s="223"/>
-      <c r="N63" s="223"/>
-      <c r="O63" s="223"/>
+      <c r="L63" s="224"/>
+      <c r="M63" s="224"/>
+      <c r="N63" s="224"/>
+      <c r="O63" s="224"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="134" t="s">
@@ -6229,40 +6229,40 @@
       <c r="O70" s="137"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C71" s="224" t="s">
+      <c r="C71" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="224"/>
-      <c r="E71" s="224"/>
-      <c r="F71" s="224"/>
-      <c r="G71" s="224"/>
+      <c r="D71" s="225"/>
+      <c r="E71" s="225"/>
+      <c r="F71" s="225"/>
+      <c r="G71" s="225"/>
       <c r="I71" s="137"/>
       <c r="J71" s="137"/>
-      <c r="K71" s="224" t="s">
+      <c r="K71" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="L71" s="224"/>
-      <c r="M71" s="224"/>
-      <c r="N71" s="224"/>
-      <c r="O71" s="224"/>
+      <c r="L71" s="225"/>
+      <c r="M71" s="225"/>
+      <c r="N71" s="225"/>
+      <c r="O71" s="225"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C72" s="223" t="s">
+      <c r="C72" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="E72" s="223"/>
-      <c r="F72" s="223"/>
-      <c r="G72" s="223"/>
+      <c r="D72" s="224"/>
+      <c r="E72" s="224"/>
+      <c r="F72" s="224"/>
+      <c r="G72" s="224"/>
       <c r="I72" s="137"/>
       <c r="J72" s="137"/>
-      <c r="K72" s="223" t="s">
+      <c r="K72" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="223"/>
-      <c r="M72" s="223"/>
-      <c r="N72" s="223"/>
-      <c r="O72" s="223"/>
+      <c r="L72" s="224"/>
+      <c r="M72" s="224"/>
+      <c r="N72" s="224"/>
+      <c r="O72" s="224"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="134" t="s">
@@ -6568,6 +6568,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="B60:O60"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="S26:W26"/>
     <mergeCell ref="C40:G40"/>
@@ -6575,19 +6588,6 @@
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="K41:O41"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="B60:O60"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="K72:O72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q21" r:id="rId1" location="Consolidated_Statmnts_of_Cmprehnsve_Loss" xr:uid="{A71C953D-1A9C-214E-B5B2-B1F8786BE476}"/>
@@ -6674,11 +6674,11 @@
       <c r="O4" s="41">
         <v>2028</v>
       </c>
-      <c r="R4" s="226" t="s">
+      <c r="R4" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -8083,7 +8083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128DE3C-5C11-7445-8988-D0063C38D85A}">
   <dimension ref="A2:AI221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>

--- a/Tesla valuation.xlsx
+++ b/Tesla valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/PycharmProjects/GitHub/Fundamental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3131E5C-CB71-8C4C-B599-3F117F1DE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03D176-8AE3-934C-B4B4-32E34A21F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41160" yWindow="500" windowWidth="53340" windowHeight="28300" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
+    <workbookView xWindow="41460" yWindow="500" windowWidth="53340" windowHeight="28300" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     rarely bad year, ignore?</t>
       </text>
     </comment>
-    <comment ref="T29" authorId="1" shapeId="0" xr:uid="{E93A2F9F-1177-9C4B-BEE0-32941EF37364}">
+    <comment ref="T28" authorId="1" shapeId="0" xr:uid="{E93A2F9F-1177-9C4B-BEE0-32941EF37364}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="278">
   <si>
     <t>Unit in thousand</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>EBITDA Exit Multiple Model</t>
+  </si>
+  <si>
+    <t>Valuation</t>
   </si>
 </sst>
 </file>
@@ -5078,7 +5081,7 @@
   <threadedComment ref="D10" dT="2022-02-17T04:52:59.19" personId="{B8F391EE-7D78-864C-942F-B4C55F6B2D2F}" id="{B55D1FD2-124E-7B4C-A8DD-F39C2806407D}">
     <text>rarely bad year, ignore?</text>
   </threadedComment>
-  <threadedComment ref="T29" dT="2022-02-27T00:12:46.50" personId="{B8F391EE-7D78-864C-942F-B4C55F6B2D2F}" id="{E93A2F9F-1177-9C4B-BEE0-32941EF37364}">
+  <threadedComment ref="T28" dT="2022-02-27T00:12:46.50" personId="{B8F391EE-7D78-864C-942F-B4C55F6B2D2F}" id="{E93A2F9F-1177-9C4B-BEE0-32941EF37364}">
     <text xml:space="preserve">这一年的shares不统一 19年的表显示177， 21年的表显示887 见sheet1
 </text>
   </threadedComment>
@@ -5121,8 +5124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49011C88-4933-6148-BE37-B9306B264DFB}">
   <dimension ref="B2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5973,7 +5976,7 @@
         <v>306.45699999999988</v>
       </c>
       <c r="F25" s="49">
-        <f t="shared" ref="F25:J25" si="7">F8+F18+F21+F23</f>
+        <f>F8+F18+F21+F23</f>
         <v>-1564.3099999999995</v>
       </c>
       <c r="G25" s="24">
@@ -5985,7 +5988,7 @@
         <v>944.70200000000023</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I25:J25" si="7">I8+I18+I21+I23</f>
         <v>2357</v>
       </c>
       <c r="J25" s="24">
@@ -6027,11 +6030,11 @@
         <v>4.3778745886506119E-2</v>
       </c>
       <c r="F26" s="180">
-        <f t="shared" ref="F26:O26" si="9">F25/F5</f>
+        <f>F25/F5</f>
         <v>-0.13303368699617837</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G26:O26" si="9">G25/G5</f>
         <v>4.1449554611591461E-3</v>
       </c>
       <c r="H26" s="26">
@@ -7138,7 +7141,7 @@
         <v>274</v>
       </c>
       <c r="S62" s="94">
-        <f>'Financial Statements'!AB22</f>
+        <f>'Financial Statements'!AB42</f>
         <v>83.047386973051744</v>
       </c>
     </row>
@@ -9379,11 +9382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128DE3C-5C11-7445-8988-D0063C38D85A}">
   <dimension ref="A2:AI221"/>
   <sheetViews>
-    <sheetView topLeftCell="F43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14"/>
     <col min="2" max="2" width="68" style="14" customWidth="1"/>
@@ -10871,7 +10874,7 @@
         <v>7.027464968427552E-2</v>
       </c>
       <c r="AB21" s="192">
-        <f t="shared" ref="AB21:AB22" si="20">AVERAGE(S21:V21)</f>
+        <f t="shared" ref="AB21" si="20">AVERAGE(S21:V21)</f>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="AD21" s="218"/>
@@ -10924,49 +10927,51 @@
         <v>-4.2591461423305887E-2</v>
       </c>
       <c r="R22" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="S22" s="192">
-        <f>((S30*S28+E82)-E47)/DCF!G8</f>
-        <v>20.827079327709541</v>
-      </c>
-      <c r="T22" s="192">
-        <f>((T30*T28+F82)-F47)/DCF!H8</f>
-        <v>45.124316546762586</v>
-      </c>
-      <c r="U22" s="192">
-        <f>((U30*U28+G82)-G47)/DCF!I8</f>
-        <v>154.49467099165895</v>
-      </c>
-      <c r="V22" s="209">
-        <f>((V30*V28+H82)-H47)/DCF!J8</f>
-        <v>111.7434810260759</v>
-      </c>
-      <c r="W22" s="192">
-        <f>((W30*W28+I82)-I47)/DCF!K8</f>
-        <v>64.461281995842569</v>
-      </c>
-      <c r="X22" s="192">
-        <f>((X30*X28+J82)-J47)/DCF!L8</f>
-        <v>55.335152292343174</v>
-      </c>
-      <c r="Y22" s="192">
-        <f>((Y30*Y28+K82)-K47)/DCF!M8</f>
-        <v>43.347383461836991</v>
-      </c>
-      <c r="Z22" s="192">
-        <f>((Z30*Z28+L82)-L47)/DCF!N8</f>
-        <v>39.301322428620665</v>
-      </c>
-      <c r="AA22" s="192">
-        <f>((AA30*AA28+M82)-M47)/DCF!O8</f>
-        <v>35.664000933414606</v>
-      </c>
-      <c r="AB22" s="192">
-        <f t="shared" si="20"/>
-        <v>83.047386973051744</v>
-      </c>
-      <c r="AD22" s="218"/>
+        <v>223</v>
+      </c>
+      <c r="S22" s="94">
+        <f>S29/S26</f>
+        <v>-11.625874125874127</v>
+      </c>
+      <c r="T22" s="94">
+        <f>T29/T26</f>
+        <v>-85.306122448979593</v>
+      </c>
+      <c r="U22" s="94">
+        <f>U29/U26</f>
+        <v>1101.5625</v>
+      </c>
+      <c r="V22" s="210">
+        <f>V29/V26</f>
+        <v>215.51020408163265</v>
+      </c>
+      <c r="W22" s="94">
+        <f>W29/W26</f>
+        <v>209.49823988832537</v>
+      </c>
+      <c r="X22" s="94">
+        <f>800/X26</f>
+        <v>148.85709546287296</v>
+      </c>
+      <c r="Y22" s="94">
+        <f>800/Y26</f>
+        <v>120.41832449845772</v>
+      </c>
+      <c r="Z22" s="94">
+        <f>800/Z26</f>
+        <v>113.6358793455322</v>
+      </c>
+      <c r="AA22" s="94">
+        <f>800/AA26</f>
+        <v>108.57059533683264</v>
+      </c>
+      <c r="AB22" s="94">
+        <f>AVERAGE(S22:V22)</f>
+        <v>305.03517687669478</v>
+      </c>
+      <c r="AD22" s="218" t="s">
+        <v>261</v>
+      </c>
       <c r="AE22" s="191"/>
       <c r="AF22" s="191"/>
       <c r="AG22" s="191"/>
@@ -10986,51 +10991,51 @@
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
       <c r="M23" s="83"/>
-      <c r="R23" s="155" t="s">
-        <v>223</v>
+      <c r="R23" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="S23" s="94">
-        <f>S30/S27</f>
-        <v>-11.625874125874127</v>
+        <f t="shared" ref="S23:AA23" si="22">S29/(E3/S28)</f>
+        <v>0.54845314824827684</v>
       </c>
       <c r="T23" s="94">
-        <f>T30/T27</f>
-        <v>-85.306122448979593</v>
+        <f t="shared" si="22"/>
+        <v>3.0170559036536737</v>
       </c>
       <c r="U23" s="94">
-        <f>U30/U27</f>
-        <v>1101.5625</v>
+        <f t="shared" si="22"/>
+        <v>24.210901826484019</v>
       </c>
       <c r="V23" s="210">
-        <f>V30/V27</f>
-        <v>215.51020408163265</v>
+        <f t="shared" si="22"/>
+        <v>22.150827713059474</v>
       </c>
       <c r="W23" s="94">
-        <f>W30/W27</f>
-        <v>209.49823988832537</v>
+        <f t="shared" si="22"/>
+        <v>10.741778480708229</v>
       </c>
       <c r="X23" s="94">
-        <f>800/X27</f>
-        <v>148.85709546287296</v>
+        <f t="shared" si="22"/>
+        <v>9.5546127881644889</v>
       </c>
       <c r="Y23" s="94">
-        <f>800/Y27</f>
-        <v>120.41832449845772</v>
+        <f t="shared" si="22"/>
+        <v>7.7276267781627164</v>
       </c>
       <c r="Z23" s="94">
-        <f>800/Z27</f>
-        <v>113.6358793455322</v>
+        <f t="shared" si="22"/>
+        <v>7.332519697378399</v>
       </c>
       <c r="AA23" s="94">
-        <f>800/AA27</f>
-        <v>108.57059533683264</v>
+        <f t="shared" si="22"/>
+        <v>6.9750745305853936</v>
       </c>
       <c r="AB23" s="94">
         <f>AVERAGE(S23:V23)</f>
-        <v>305.03517687669478</v>
-      </c>
-      <c r="AD23" s="218" t="s">
-        <v>261</v>
+        <v>12.481809647861361</v>
+      </c>
+      <c r="AD23" s="217" t="s">
+        <v>270</v>
       </c>
       <c r="AE23" s="191"/>
       <c r="AF23" s="191"/>
@@ -11053,52 +11058,15 @@
       <c r="K24" s="72"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
-      <c r="R24" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="S24" s="94">
-        <f t="shared" ref="S24:AA24" si="22">S30/(E3/S29)</f>
-        <v>0.54845314824827684</v>
-      </c>
-      <c r="T24" s="94">
-        <f t="shared" si="22"/>
-        <v>3.0170559036536737</v>
-      </c>
-      <c r="U24" s="94">
-        <f t="shared" si="22"/>
-        <v>24.210901826484019</v>
-      </c>
-      <c r="V24" s="210">
-        <f t="shared" si="22"/>
-        <v>22.150827713059474</v>
-      </c>
-      <c r="W24" s="94">
-        <f t="shared" si="22"/>
-        <v>10.741778480708229</v>
-      </c>
-      <c r="X24" s="94">
-        <f t="shared" si="22"/>
-        <v>9.5546127881644889</v>
-      </c>
-      <c r="Y24" s="94">
-        <f t="shared" si="22"/>
-        <v>7.7276267781627164</v>
-      </c>
-      <c r="Z24" s="94">
-        <f t="shared" si="22"/>
-        <v>7.332519697378399</v>
-      </c>
-      <c r="AA24" s="94">
-        <f t="shared" si="22"/>
-        <v>6.9750745305853936</v>
-      </c>
-      <c r="AB24" s="94">
-        <f>AVERAGE(S24:V24)</f>
-        <v>12.481809647861361</v>
-      </c>
-      <c r="AD24" s="217" t="s">
-        <v>270</v>
-      </c>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="209"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="85" t="s">
@@ -11148,15 +11116,45 @@
         <f t="shared" si="24"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="S25" s="192"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="209"/>
-      <c r="X25" s="192"/>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="192"/>
-      <c r="AA25" s="192"/>
-      <c r="AB25" s="192"/>
+      <c r="R25" s="203" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="179">
+        <v>-5.72</v>
+      </c>
+      <c r="T25" s="179">
+        <v>-0.98</v>
+      </c>
+      <c r="U25" s="179">
+        <v>0.74</v>
+      </c>
+      <c r="V25" s="183">
+        <v>5.6</v>
+      </c>
+      <c r="W25" s="179">
+        <f>I18/W27</f>
+        <v>4.8056574333814321</v>
+      </c>
+      <c r="X25" s="179">
+        <f>J18/X27</f>
+        <v>6.774570362451998</v>
+      </c>
+      <c r="Y25" s="179">
+        <f>K18/Y27</f>
+        <v>8.7868024132351152</v>
+      </c>
+      <c r="Z25" s="179">
+        <f>L18/Z27</f>
+        <v>9.7696747619070869</v>
+      </c>
+      <c r="AA25" s="179">
+        <f>M18/AA27</f>
+        <v>10.728907624556593</v>
+      </c>
+      <c r="AB25" s="179">
+        <f>AVERAGE(S25:AA25)</f>
+        <v>4.5006236217258033</v>
+      </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="85" t="s">
@@ -11207,7 +11205,7 @@
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="R26" s="203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S26" s="179">
         <v>-5.72</v>
@@ -11216,37 +11214,40 @@
         <v>-0.98</v>
       </c>
       <c r="U26" s="179">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="V26" s="183">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W26" s="179">
         <f>I18/W28</f>
-        <v>4.8056574333814321</v>
+        <v>4.0000336062331705</v>
       </c>
       <c r="X26" s="179">
         <f>J18/X28</f>
-        <v>6.774570362451998</v>
+        <v>5.3742819414310761</v>
       </c>
       <c r="Y26" s="179">
         <f>K18/Y28</f>
-        <v>8.7868024132351152</v>
+        <v>6.6435071516897422</v>
       </c>
       <c r="Z26" s="179">
         <f>L18/Z28</f>
-        <v>9.7696747619070869</v>
+        <v>7.0400300029134542</v>
       </c>
       <c r="AA26" s="179">
         <f>M18/AA28</f>
-        <v>10.728907624556593</v>
+        <v>7.3684776022278982</v>
       </c>
       <c r="AB26" s="179">
         <f>AVERAGE(S26:AA26)</f>
-        <v>4.5006236217258033</v>
+        <v>3.25181447827726</v>
+      </c>
+      <c r="AD26" s="168" t="s">
+        <v>269</v>
       </c>
       <c r="AG26" s="220">
-        <f>V27/U27-1</f>
+        <f>V26/U26-1</f>
         <v>6.65625</v>
       </c>
     </row>
@@ -11300,47 +11301,45 @@
       </c>
       <c r="P27" s="88"/>
       <c r="R27" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="S27" s="179">
-        <v>-5.72</v>
-      </c>
-      <c r="T27" s="179">
-        <v>-0.98</v>
-      </c>
-      <c r="U27" s="179">
-        <v>0.64</v>
-      </c>
-      <c r="V27" s="183">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W27" s="179">
-        <f>I18/W29</f>
-        <v>4.0000336062331705</v>
-      </c>
-      <c r="X27" s="179">
-        <f>J18/X29</f>
-        <v>5.3742819414310761</v>
-      </c>
-      <c r="Y27" s="179">
-        <f>K18/Y29</f>
-        <v>6.6435071516897422</v>
-      </c>
-      <c r="Z27" s="179">
-        <f>L18/Z29</f>
-        <v>7.0400300029134542</v>
-      </c>
-      <c r="AA27" s="179">
-        <f>M18/AA29</f>
-        <v>7.3684776022278982</v>
-      </c>
-      <c r="AB27" s="179">
+        <v>50</v>
+      </c>
+      <c r="S27" s="74">
+        <v>177</v>
+      </c>
+      <c r="T27" s="75">
+        <v>887</v>
+      </c>
+      <c r="U27" s="75">
+        <v>933</v>
+      </c>
+      <c r="V27" s="211">
+        <v>986</v>
+      </c>
+      <c r="W27" s="75">
+        <f t="shared" ref="W27:AA28" si="27">V27*(1+I33)</f>
+        <v>1033.2471231439581</v>
+      </c>
+      <c r="X27" s="75">
+        <f t="shared" si="27"/>
+        <v>1082.7582327436771</v>
+      </c>
+      <c r="Y27" s="75">
+        <f t="shared" si="27"/>
+        <v>1134.6418144450715</v>
+      </c>
+      <c r="Z27" s="75">
+        <f t="shared" si="27"/>
+        <v>1189.0115523065019</v>
+      </c>
+      <c r="AA27" s="75">
+        <f t="shared" si="27"/>
+        <v>1245.9865778961714</v>
+      </c>
+      <c r="AB27" s="94">
         <f>AVERAGE(S27:AA27)</f>
-        <v>3.25181447827726</v>
-      </c>
-      <c r="AD27" s="168" t="s">
-        <v>269</v>
-      </c>
+        <v>963.18281117059792</v>
+      </c>
+      <c r="AD27" s="88"/>
       <c r="AE27" s="88"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
@@ -11390,7 +11389,7 @@
       </c>
       <c r="P28" s="88"/>
       <c r="R28" s="203" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="S28" s="74">
         <v>177</v>
@@ -11399,34 +11398,34 @@
         <v>887</v>
       </c>
       <c r="U28" s="75">
-        <v>933</v>
+        <v>1083</v>
       </c>
       <c r="V28" s="211">
-        <v>986</v>
+        <v>1129</v>
       </c>
       <c r="W28" s="75">
-        <f t="shared" ref="W28:AA29" si="27">V28*(1+I33)</f>
-        <v>1033.2471231439581</v>
+        <f t="shared" si="27"/>
+        <v>1241.3475002108012</v>
       </c>
       <c r="X28" s="75">
         <f t="shared" si="27"/>
-        <v>1082.7582327436771</v>
+        <v>1364.8747708411029</v>
       </c>
       <c r="Y28" s="75">
         <f t="shared" si="27"/>
-        <v>1134.6418144450715</v>
+        <v>1500.6943178781162</v>
       </c>
       <c r="Z28" s="75">
         <f t="shared" si="27"/>
-        <v>1189.0115523065019</v>
+        <v>1650.0293534796749</v>
       </c>
       <c r="AA28" s="75">
         <f t="shared" si="27"/>
-        <v>1245.9865778961714</v>
+        <v>1814.224812414915</v>
       </c>
       <c r="AB28" s="94">
-        <f>AVERAGE(S28:AA28)</f>
-        <v>963.18281117059792</v>
+        <f t="shared" ref="AB28:AB29" si="28">AVERAGE(S28:AA28)</f>
+        <v>1205.2411949805123</v>
       </c>
       <c r="AD28" s="88"/>
       <c r="AE28" s="88"/>
@@ -11436,44 +11435,42 @@
         <v>56</v>
       </c>
       <c r="P29" s="88"/>
-      <c r="R29" s="203" t="s">
-        <v>258</v>
+      <c r="R29" s="174" t="s">
+        <v>240</v>
       </c>
       <c r="S29" s="74">
-        <v>177</v>
-      </c>
-      <c r="T29" s="75">
-        <v>887</v>
-      </c>
-      <c r="U29" s="75">
-        <v>1083</v>
+        <v>66.5</v>
+      </c>
+      <c r="T29" s="74">
+        <v>83.6</v>
+      </c>
+      <c r="U29" s="74">
+        <v>705</v>
       </c>
       <c r="V29" s="211">
-        <v>1129</v>
-      </c>
-      <c r="W29" s="75">
-        <f t="shared" si="27"/>
-        <v>1241.3475002108012</v>
-      </c>
-      <c r="X29" s="75">
-        <f t="shared" si="27"/>
-        <v>1364.8747708411029</v>
-      </c>
-      <c r="Y29" s="75">
-        <f t="shared" si="27"/>
-        <v>1500.6943178781162</v>
-      </c>
-      <c r="Z29" s="75">
-        <f t="shared" si="27"/>
-        <v>1650.0293534796749</v>
-      </c>
-      <c r="AA29" s="75">
-        <f t="shared" si="27"/>
-        <v>1814.224812414915</v>
+        <v>1056</v>
+      </c>
+      <c r="W29" s="74">
+        <v>838</v>
+      </c>
+      <c r="X29" s="74">
+        <v>1000</v>
+      </c>
+      <c r="Y29" s="74">
+        <f>X29</f>
+        <v>1000</v>
+      </c>
+      <c r="Z29" s="74">
+        <f>Y29</f>
+        <v>1000</v>
+      </c>
+      <c r="AA29" s="74">
+        <f>Z29</f>
+        <v>1000</v>
       </c>
       <c r="AB29" s="94">
-        <f t="shared" ref="AB29:AB30" si="28">AVERAGE(S29:AA29)</f>
-        <v>1205.2411949805123</v>
+        <f t="shared" si="28"/>
+        <v>749.90000000000009</v>
       </c>
       <c r="AD29" s="88"/>
       <c r="AE29" s="88"/>
@@ -11531,43 +11528,7 @@
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="P30" s="88"/>
-      <c r="R30" s="174" t="s">
-        <v>240</v>
-      </c>
-      <c r="S30" s="74">
-        <v>66.5</v>
-      </c>
-      <c r="T30" s="74">
-        <v>83.6</v>
-      </c>
-      <c r="U30" s="74">
-        <v>705</v>
-      </c>
-      <c r="V30" s="211">
-        <v>1056</v>
-      </c>
-      <c r="W30" s="74">
-        <v>838</v>
-      </c>
-      <c r="X30" s="74">
-        <v>1000</v>
-      </c>
-      <c r="Y30" s="74">
-        <f>X30</f>
-        <v>1000</v>
-      </c>
-      <c r="Z30" s="74">
-        <f>Y30</f>
-        <v>1000</v>
-      </c>
-      <c r="AA30" s="74">
-        <f>Z30</f>
-        <v>1000</v>
-      </c>
-      <c r="AB30" s="94">
-        <f t="shared" si="28"/>
-        <v>749.90000000000009</v>
-      </c>
+      <c r="V30" s="208"/>
       <c r="AD30" s="88"/>
       <c r="AE30" s="88"/>
     </row>
@@ -11624,7 +11585,19 @@
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="P31" s="88"/>
-      <c r="V31" s="208"/>
+      <c r="R31" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="S31" s="192"/>
+      <c r="T31" s="192"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="209"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="192"/>
+      <c r="Z31" s="192"/>
+      <c r="AA31" s="192"/>
+      <c r="AB31" s="192"/>
       <c r="AD31" s="88"/>
       <c r="AE31" s="88"/>
     </row>
@@ -11682,19 +11655,49 @@
       </c>
       <c r="P32" s="88"/>
       <c r="Q32" s="88"/>
-      <c r="R32" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="192"/>
-      <c r="X32" s="192"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
+      <c r="R32" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="S32" s="194">
+        <f t="shared" ref="S32:AA32" si="34">E18/((E89+D89)/2)</f>
+        <v>-0.21308915412229809</v>
+      </c>
+      <c r="T32" s="194">
+        <f t="shared" si="34"/>
+        <v>-0.14937732443550492</v>
+      </c>
+      <c r="U32" s="194">
+        <f t="shared" si="34"/>
+        <v>4.9994799431404502E-2</v>
+      </c>
+      <c r="V32" s="209">
+        <f t="shared" si="34"/>
+        <v>0.21059258976609302</v>
+      </c>
+      <c r="W32" s="194">
+        <f t="shared" si="34"/>
+        <v>0.15162674695142356</v>
+      </c>
+      <c r="X32" s="194">
+        <f t="shared" si="34"/>
+        <v>0.18766782949602073</v>
+      </c>
+      <c r="Y32" s="194">
+        <f t="shared" si="34"/>
+        <v>0.20769139758026881</v>
+      </c>
+      <c r="Z32" s="194">
+        <f t="shared" si="34"/>
+        <v>0.19646800661307595</v>
+      </c>
+      <c r="AA32" s="194">
+        <f t="shared" si="34"/>
+        <v>0.1856718511233327</v>
+      </c>
+      <c r="AB32" s="194">
+        <f t="shared" ref="AB32:AB39" si="35">AVERAGE(S32:V32)</f>
+        <v>-2.5469772340076371E-2</v>
+      </c>
       <c r="AD32" s="88"/>
       <c r="AE32" s="219" t="s">
         <v>268</v>
@@ -11707,16 +11710,16 @@
       <c r="C33" s="55"/>
       <c r="D33" s="56"/>
       <c r="E33" s="177">
-        <f>S28/D19-1</f>
+        <f>S27/D19-1</f>
         <v>3.5087719298245723E-2</v>
       </c>
       <c r="F33" s="177"/>
       <c r="G33" s="177">
-        <f>U28/T28-1</f>
+        <f>U27/T27-1</f>
         <v>5.1860202931228949E-2</v>
       </c>
       <c r="H33" s="177">
-        <f>V28/U28-1</f>
+        <f>V27/U27-1</f>
         <v>5.6806002143622747E-2</v>
       </c>
       <c r="I33" s="90">
@@ -11724,19 +11727,19 @@
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="J33" s="90">
-        <f t="shared" ref="J33" si="34">I33</f>
+        <f t="shared" ref="J33" si="36">I33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="K33" s="90">
-        <f t="shared" ref="K33" si="35">J33</f>
+        <f t="shared" ref="K33" si="37">J33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="L33" s="90">
-        <f t="shared" ref="L33" si="36">K33</f>
+        <f t="shared" ref="L33" si="38">K33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="M33" s="90">
-        <f t="shared" ref="M33" si="37">L33</f>
+        <f t="shared" ref="M33" si="39">L33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="N33" s="12">
@@ -11745,50 +11748,52 @@
       </c>
       <c r="P33" s="88"/>
       <c r="Q33" s="88"/>
-      <c r="R33" s="184" t="s">
-        <v>254</v>
-      </c>
-      <c r="S33" s="194">
-        <f t="shared" ref="S33:AA33" si="38">E18/((E89+D89)/2)</f>
-        <v>-0.21308915412229809</v>
-      </c>
-      <c r="T33" s="194">
-        <f t="shared" si="38"/>
-        <v>-0.14937732443550492</v>
-      </c>
-      <c r="U33" s="194">
-        <f t="shared" si="38"/>
-        <v>4.9994799431404502E-2</v>
-      </c>
-      <c r="V33" s="209">
-        <f t="shared" si="38"/>
-        <v>0.21059258976609302</v>
-      </c>
-      <c r="W33" s="194">
-        <f t="shared" si="38"/>
-        <v>0.15162674695142356</v>
-      </c>
-      <c r="X33" s="194">
-        <f t="shared" si="38"/>
-        <v>0.18766782949602073</v>
-      </c>
-      <c r="Y33" s="194">
-        <f t="shared" si="38"/>
-        <v>0.20769139758026881</v>
-      </c>
-      <c r="Z33" s="194">
-        <f t="shared" si="38"/>
-        <v>0.19646800661307595</v>
-      </c>
-      <c r="AA33" s="194">
-        <f t="shared" si="38"/>
-        <v>0.1856718511233327</v>
-      </c>
-      <c r="AB33" s="194">
-        <f t="shared" ref="AB33:AB40" si="39">AVERAGE(S33:V33)</f>
-        <v>-2.5469772340076371E-2</v>
-      </c>
-      <c r="AC33" s="88"/>
+      <c r="R33" s="185" t="s">
+        <v>243</v>
+      </c>
+      <c r="S33" s="195">
+        <f t="shared" ref="S33:AA33" si="40">((D66+E66)/2)/((E89+D89)/2)</f>
+        <v>6.3746609486288106</v>
+      </c>
+      <c r="T33" s="195">
+        <f t="shared" si="40"/>
+        <v>5.5495421073795947</v>
+      </c>
+      <c r="U33" s="195">
+        <f t="shared" si="40"/>
+        <v>2.99750372707416</v>
+      </c>
+      <c r="V33" s="212">
+        <f t="shared" si="40"/>
+        <v>2.1803144198115008</v>
+      </c>
+      <c r="W33" s="195">
+        <f t="shared" si="40"/>
+        <v>2.4720323223105201</v>
+      </c>
+      <c r="X33" s="195">
+        <f t="shared" si="40"/>
+        <v>3.1085589368000286</v>
+      </c>
+      <c r="Y33" s="195">
+        <f t="shared" si="40"/>
+        <v>3.5516952272880959</v>
+      </c>
+      <c r="Z33" s="195">
+        <f t="shared" si="40"/>
+        <v>3.672386538348464</v>
+      </c>
+      <c r="AA33" s="195">
+        <f t="shared" si="40"/>
+        <v>3.6101387731976033</v>
+      </c>
+      <c r="AB33" s="195">
+        <f>AVERAGE(S33:V33)</f>
+        <v>4.2755053007235171</v>
+      </c>
+      <c r="AC33" s="246" t="s">
+        <v>245</v>
+      </c>
       <c r="AD33" s="88"/>
       <c r="AE33" s="219" t="s">
         <v>262</v>
@@ -11801,16 +11806,16 @@
       <c r="C34" s="69"/>
       <c r="D34" s="70"/>
       <c r="E34" s="177">
-        <f>S29/D20-1</f>
+        <f>S28/D20-1</f>
         <v>3.5087719298245723E-2</v>
       </c>
       <c r="F34" s="177"/>
       <c r="G34" s="177">
-        <f>U29/T29-1</f>
+        <f>U28/T28-1</f>
         <v>0.22096956031567072</v>
       </c>
       <c r="H34" s="177">
-        <f>V29/U29-1</f>
+        <f>V28/U28-1</f>
         <v>4.2474607571560519E-2</v>
       </c>
       <c r="I34" s="178">
@@ -11822,15 +11827,15 @@
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="K34" s="90">
-        <f t="shared" ref="K34" si="40">J34</f>
+        <f t="shared" ref="K34" si="41">J34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="L34" s="90">
-        <f t="shared" ref="L34" si="41">K34</f>
+        <f t="shared" ref="L34" si="42">K34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="M34" s="90">
-        <f t="shared" ref="M34" si="42">L34</f>
+        <f t="shared" ref="M34" si="43">L34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="N34" s="12">
@@ -11841,52 +11846,50 @@
       <c r="Q34" s="248" t="s">
         <v>246</v>
       </c>
-      <c r="R34" s="185" t="s">
-        <v>243</v>
-      </c>
-      <c r="S34" s="195">
-        <f t="shared" ref="S34:AA34" si="43">((D66+E66)/2)/((E89+D89)/2)</f>
-        <v>6.3746609486288106</v>
-      </c>
-      <c r="T34" s="195">
-        <f t="shared" si="43"/>
-        <v>5.5495421073795947</v>
-      </c>
-      <c r="U34" s="195">
-        <f t="shared" si="43"/>
-        <v>2.99750372707416</v>
-      </c>
-      <c r="V34" s="212">
-        <f t="shared" si="43"/>
-        <v>2.1803144198115008</v>
-      </c>
-      <c r="W34" s="195">
-        <f t="shared" si="43"/>
-        <v>2.4720323223105201</v>
-      </c>
-      <c r="X34" s="195">
-        <f t="shared" si="43"/>
-        <v>3.1085589368000286</v>
-      </c>
-      <c r="Y34" s="195">
-        <f t="shared" si="43"/>
-        <v>3.5516952272880959</v>
-      </c>
-      <c r="Z34" s="195">
-        <f t="shared" si="43"/>
-        <v>3.672386538348464</v>
-      </c>
-      <c r="AA34" s="195">
-        <f t="shared" si="43"/>
-        <v>3.6101387731976033</v>
-      </c>
-      <c r="AB34" s="195">
-        <f>AVERAGE(S34:V34)</f>
-        <v>4.2755053007235171</v>
-      </c>
-      <c r="AC34" s="246" t="s">
-        <v>245</v>
-      </c>
+      <c r="R34" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="S34" s="196">
+        <f t="shared" ref="S34:AA34" si="44">E16/((D66+E66)/2)</f>
+        <v>-3.6392919076990625E-2</v>
+      </c>
+      <c r="T34" s="196">
+        <f t="shared" si="44"/>
+        <v>-2.4200367552059752E-2</v>
+      </c>
+      <c r="U34" s="196">
+        <f t="shared" si="44"/>
+        <v>1.9940548480747656E-2</v>
+      </c>
+      <c r="V34" s="213">
+        <f t="shared" si="44"/>
+        <v>9.8775803078430854E-2</v>
+      </c>
+      <c r="W34" s="196">
+        <f t="shared" si="44"/>
+        <v>6.3214842030975785E-2</v>
+      </c>
+      <c r="X34" s="196">
+        <f t="shared" si="44"/>
+        <v>6.2217015984384963E-2</v>
+      </c>
+      <c r="Y34" s="196">
+        <f t="shared" si="44"/>
+        <v>6.0264830522498099E-2</v>
+      </c>
+      <c r="Z34" s="196">
+        <f t="shared" si="44"/>
+        <v>5.5125687677678156E-2</v>
+      </c>
+      <c r="AA34" s="196">
+        <f t="shared" si="44"/>
+        <v>5.3001598467518937E-2</v>
+      </c>
+      <c r="AB34" s="197">
+        <f t="shared" si="35"/>
+        <v>1.4530766232532032E-2</v>
+      </c>
+      <c r="AC34" s="247"/>
       <c r="AD34" s="88"/>
       <c r="AE34" s="219" t="s">
         <v>263</v>
@@ -11907,50 +11910,52 @@
       <c r="N35" s="12"/>
       <c r="P35" s="88"/>
       <c r="Q35" s="249"/>
-      <c r="R35" s="186" t="s">
-        <v>252</v>
-      </c>
-      <c r="S35" s="196">
-        <f t="shared" ref="S35:AA35" si="44">E16/((D66+E66)/2)</f>
-        <v>-3.6392919076990625E-2</v>
-      </c>
-      <c r="T35" s="196">
-        <f t="shared" si="44"/>
-        <v>-2.4200367552059752E-2</v>
-      </c>
-      <c r="U35" s="196">
-        <f t="shared" si="44"/>
-        <v>1.9940548480747656E-2</v>
-      </c>
-      <c r="V35" s="213">
-        <f t="shared" si="44"/>
-        <v>9.8775803078430854E-2</v>
-      </c>
-      <c r="W35" s="196">
-        <f t="shared" si="44"/>
-        <v>6.3214842030975785E-2</v>
-      </c>
-      <c r="X35" s="196">
-        <f t="shared" si="44"/>
-        <v>6.2217015984384963E-2</v>
-      </c>
-      <c r="Y35" s="196">
-        <f t="shared" si="44"/>
-        <v>6.0264830522498099E-2</v>
-      </c>
-      <c r="Z35" s="196">
-        <f t="shared" si="44"/>
-        <v>5.5125687677678156E-2</v>
-      </c>
-      <c r="AA35" s="196">
-        <f t="shared" si="44"/>
-        <v>5.3001598467518937E-2</v>
-      </c>
-      <c r="AB35" s="197">
-        <f t="shared" si="39"/>
-        <v>1.4530766232532032E-2</v>
-      </c>
-      <c r="AC35" s="247"/>
+      <c r="R35" s="187" t="s">
+        <v>253</v>
+      </c>
+      <c r="S35" s="198">
+        <f t="shared" ref="S35:AA35" si="45">E3/((E66+D66)/2)</f>
+        <v>0.73503803905355847</v>
+      </c>
+      <c r="T35" s="198">
+        <f t="shared" si="45"/>
+        <v>0.76747952734777369</v>
+      </c>
+      <c r="U35" s="198">
+        <f t="shared" si="45"/>
+        <v>0.72951872028869846</v>
+      </c>
+      <c r="V35" s="214">
+        <f t="shared" si="45"/>
+        <v>0.94195784002310134</v>
+      </c>
+      <c r="W35" s="198">
+        <f t="shared" si="45"/>
+        <v>1.1962607656278534</v>
+      </c>
+      <c r="X35" s="198">
+        <f t="shared" si="45"/>
+        <v>1.1757018120303429</v>
+      </c>
+      <c r="Y35" s="198">
+        <f t="shared" si="45"/>
+        <v>1.13904077599512</v>
+      </c>
+      <c r="Z35" s="198">
+        <f t="shared" si="45"/>
+        <v>1.0363720780610062</v>
+      </c>
+      <c r="AA35" s="198">
+        <f t="shared" si="45"/>
+        <v>1.0006807619723002</v>
+      </c>
+      <c r="AB35" s="199">
+        <f t="shared" si="35"/>
+        <v>0.79349853167828299</v>
+      </c>
+      <c r="AC35" s="251" t="s">
+        <v>247</v>
+      </c>
       <c r="AD35" s="88"/>
       <c r="AE35" s="219" t="s">
         <v>264</v>
@@ -11973,52 +11978,50 @@
       <c r="M36" s="10"/>
       <c r="P36" s="88"/>
       <c r="Q36" s="250"/>
-      <c r="R36" s="187" t="s">
-        <v>253</v>
-      </c>
-      <c r="S36" s="198">
-        <f t="shared" ref="S36:AA36" si="45">E3/((E66+D66)/2)</f>
-        <v>0.73503803905355847</v>
-      </c>
-      <c r="T36" s="198">
-        <f t="shared" si="45"/>
-        <v>0.76747952734777369</v>
-      </c>
-      <c r="U36" s="198">
-        <f t="shared" si="45"/>
-        <v>0.72951872028869846</v>
-      </c>
-      <c r="V36" s="214">
-        <f t="shared" si="45"/>
-        <v>0.94195784002310134</v>
-      </c>
-      <c r="W36" s="198">
-        <f t="shared" si="45"/>
-        <v>1.1962607656278534</v>
-      </c>
-      <c r="X36" s="198">
-        <f t="shared" si="45"/>
-        <v>1.1757018120303429</v>
-      </c>
-      <c r="Y36" s="198">
-        <f t="shared" si="45"/>
-        <v>1.13904077599512</v>
-      </c>
-      <c r="Z36" s="198">
-        <f t="shared" si="45"/>
-        <v>1.0363720780610062</v>
-      </c>
-      <c r="AA36" s="198">
-        <f t="shared" si="45"/>
-        <v>1.0006807619723002</v>
-      </c>
-      <c r="AB36" s="199">
-        <f t="shared" si="39"/>
-        <v>0.79349853167828299</v>
-      </c>
-      <c r="AC36" s="251" t="s">
-        <v>247</v>
-      </c>
+      <c r="R36" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="S36" s="200">
+        <f t="shared" ref="S36:AA36" si="46">E16/E3</f>
+        <v>-4.951161320011474E-2</v>
+      </c>
+      <c r="T36" s="200">
+        <f t="shared" si="46"/>
+        <v>-3.1532264626902111E-2</v>
+      </c>
+      <c r="U36" s="200">
+        <f t="shared" si="46"/>
+        <v>2.7333840690005072E-2</v>
+      </c>
+      <c r="V36" s="215">
+        <f t="shared" si="46"/>
+        <v>0.10486223361759843</v>
+      </c>
+      <c r="W36" s="200">
+        <f t="shared" si="46"/>
+        <v>5.2843697500851911E-2</v>
+      </c>
+      <c r="X36" s="200">
+        <f t="shared" si="46"/>
+        <v>5.2919044053305629E-2</v>
+      </c>
+      <c r="Y36" s="200">
+        <f t="shared" si="46"/>
+        <v>5.2908404854819964E-2</v>
+      </c>
+      <c r="Z36" s="200">
+        <f t="shared" si="46"/>
+        <v>5.3191019755004607E-2</v>
+      </c>
+      <c r="AA36" s="200">
+        <f t="shared" si="46"/>
+        <v>5.2965541540995545E-2</v>
+      </c>
+      <c r="AB36" s="201">
+        <f t="shared" si="35"/>
+        <v>1.2788049120146661E-2</v>
+      </c>
+      <c r="AC36" s="252"/>
       <c r="AD36" s="88"/>
       <c r="AE36" s="219" t="s">
         <v>265</v>
@@ -12031,89 +12034,89 @@
       <c r="C37" s="55"/>
       <c r="D37" s="56"/>
       <c r="E37" s="57">
-        <f t="shared" ref="E37:M37" si="46">E3/D3-1</f>
+        <f t="shared" ref="E37:M37" si="47">E3/D3-1</f>
         <v>0.82513159773516764</v>
       </c>
       <c r="F37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14522590184326489</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.28309870615998056</v>
       </c>
       <c r="H37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.70671613394216126</v>
       </c>
       <c r="I37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.79925740897344721</v>
       </c>
       <c r="J37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="L37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="M37" s="58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" ref="N37:N43" si="47">AVERAGE(E37:M37)</f>
+        <f t="shared" ref="N37:N43" si="48">AVERAGE(E37:M37)</f>
         <v>0.43428807850277756</v>
       </c>
       <c r="P37" s="88"/>
       <c r="Q37" s="88"/>
-      <c r="R37" s="188" t="s">
-        <v>248</v>
-      </c>
-      <c r="S37" s="200">
-        <f t="shared" ref="S37:AA37" si="48">E16/E3</f>
-        <v>-4.951161320011474E-2</v>
-      </c>
-      <c r="T37" s="200">
-        <f t="shared" si="48"/>
-        <v>-3.1532264626902111E-2</v>
-      </c>
-      <c r="U37" s="200">
-        <f t="shared" si="48"/>
-        <v>2.7333840690005072E-2</v>
-      </c>
-      <c r="V37" s="215">
-        <f t="shared" si="48"/>
-        <v>0.10486223361759843</v>
-      </c>
-      <c r="W37" s="200">
-        <f t="shared" si="48"/>
-        <v>5.2843697500851911E-2</v>
-      </c>
-      <c r="X37" s="200">
-        <f t="shared" si="48"/>
-        <v>5.2919044053305629E-2</v>
-      </c>
-      <c r="Y37" s="200">
-        <f t="shared" si="48"/>
-        <v>5.2908404854819964E-2</v>
-      </c>
-      <c r="Z37" s="200">
-        <f t="shared" si="48"/>
-        <v>5.3191019755004607E-2</v>
-      </c>
-      <c r="AA37" s="200">
-        <f t="shared" si="48"/>
-        <v>5.2965541540995545E-2</v>
-      </c>
-      <c r="AB37" s="201">
-        <f t="shared" si="39"/>
-        <v>1.2788049120146661E-2</v>
+      <c r="R37" s="189" t="s">
+        <v>249</v>
+      </c>
+      <c r="S37" s="194">
+        <f t="shared" ref="S37:AA37" si="49">E10/E3</f>
+        <v>-1.8082482358451512E-2</v>
+      </c>
+      <c r="T37" s="194">
+        <f t="shared" si="49"/>
+        <v>-2.8073887216209618E-3</v>
+      </c>
+      <c r="U37" s="194">
+        <f t="shared" si="49"/>
+        <v>6.3229325215626589E-2</v>
+      </c>
+      <c r="V37" s="209">
+        <f t="shared" si="49"/>
+        <v>0.12119354179440016</v>
+      </c>
+      <c r="W37" s="194">
+        <f t="shared" si="49"/>
+        <v>7.0274649684275492E-2</v>
+      </c>
+      <c r="X37" s="194">
+        <f t="shared" si="49"/>
+        <v>7.0274649684275506E-2</v>
+      </c>
+      <c r="Y37" s="194">
+        <f t="shared" si="49"/>
+        <v>7.0274649684275506E-2</v>
+      </c>
+      <c r="Z37" s="194">
+        <f t="shared" si="49"/>
+        <v>7.0274649684275506E-2</v>
+      </c>
+      <c r="AA37" s="194">
+        <f t="shared" si="49"/>
+        <v>7.027464968427552E-2</v>
+      </c>
+      <c r="AB37" s="194">
+        <f t="shared" si="35"/>
+        <v>4.0883248982488567E-2</v>
       </c>
       <c r="AC37" s="252"/>
       <c r="AD37" s="88"/>
@@ -12128,89 +12131,89 @@
       <c r="C38" s="55"/>
       <c r="D38" s="56"/>
       <c r="E38" s="57">
-        <f t="shared" ref="E38:M38" si="49">E4/D4-1</f>
+        <f t="shared" ref="E38:M38" si="50">E4/D4-1</f>
         <v>0.82663221152434541</v>
       </c>
       <c r="F38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.17737580734689629</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21439368082305332</v>
       </c>
       <c r="H38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.61475146551031878</v>
       </c>
       <c r="I38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.91619091587641055</v>
       </c>
       <c r="J38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.35945984695376487</v>
       </c>
       <c r="L38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.15875689813018767</v>
       </c>
       <c r="M38" s="58">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.15585622916578679</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.43316744877244456</v>
       </c>
       <c r="P38" s="88"/>
       <c r="Q38" s="88"/>
       <c r="R38" s="189" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S38" s="194">
-        <f t="shared" ref="S38:AA38" si="50">E10/E3</f>
-        <v>-1.8082482358451512E-2</v>
+        <f t="shared" ref="S38:AA38" si="51">E14/E10</f>
+        <v>2.589061851765003</v>
       </c>
       <c r="T38" s="194">
-        <f t="shared" si="50"/>
-        <v>-2.8073887216209618E-3</v>
+        <f t="shared" si="51"/>
+        <v>9.6376811594202891</v>
       </c>
       <c r="U38" s="194">
-        <f t="shared" si="50"/>
-        <v>6.3229325215626589E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.5787362086258776</v>
       </c>
       <c r="V38" s="209">
-        <f t="shared" si="50"/>
-        <v>0.12119354179440016</v>
+        <f t="shared" si="51"/>
+        <v>0.97240533496857273</v>
       </c>
       <c r="W38" s="194">
-        <f t="shared" si="50"/>
-        <v>7.0274649684275492E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.88108491745353512</v>
       </c>
       <c r="X38" s="194">
-        <f t="shared" si="50"/>
-        <v>7.0274649684275506E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.88234120181834519</v>
       </c>
       <c r="Y38" s="194">
-        <f t="shared" si="50"/>
-        <v>7.0274649684275506E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.88216381004292366</v>
       </c>
       <c r="Z38" s="194">
-        <f t="shared" si="50"/>
-        <v>7.0274649684275506E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.8868759656598979</v>
       </c>
       <c r="AA38" s="194">
-        <f t="shared" si="50"/>
-        <v>7.027464968427552E-2</v>
+        <f t="shared" si="51"/>
+        <v>0.88311647374367552</v>
       </c>
       <c r="AB38" s="194">
-        <f t="shared" si="39"/>
-        <v>4.0883248982488567E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.4444711386949352</v>
       </c>
       <c r="AC38" s="252"/>
       <c r="AD38" s="88"/>
@@ -12228,92 +12231,91 @@
         <v>0.38969971680599169</v>
       </c>
       <c r="E39" s="57">
-        <f t="shared" ref="E39:M39" si="51">E5/D5-1</f>
+        <f t="shared" ref="E39:M39" si="52">E5/D5-1</f>
         <v>0.81869275275850861</v>
       </c>
       <c r="F39" s="58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6.6746313292287418E-3</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.62939297124600646</v>
       </c>
       <c r="H39" s="58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.0521870286576167</v>
       </c>
       <c r="I39" s="92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.45362203876056451</v>
       </c>
       <c r="J39" s="92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.47508998362123767</v>
       </c>
       <c r="K39" s="92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="L39" s="92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="M39" s="92">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.45663693118032245</v>
       </c>
       <c r="P39" s="88"/>
       <c r="Q39" s="88"/>
-      <c r="R39" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="S39" s="194">
-        <f t="shared" ref="S39:AA39" si="52">E14/E10</f>
-        <v>2.589061851765003</v>
-      </c>
-      <c r="T39" s="194">
-        <f t="shared" si="52"/>
-        <v>9.6376811594202891</v>
-      </c>
-      <c r="U39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.5787362086258776</v>
-      </c>
-      <c r="V39" s="209">
-        <f t="shared" si="52"/>
-        <v>0.97240533496857273</v>
-      </c>
-      <c r="W39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.88108491745353512</v>
-      </c>
-      <c r="X39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.88234120181834519</v>
-      </c>
-      <c r="Y39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.88216381004292366</v>
-      </c>
-      <c r="Z39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.8868759656598979</v>
-      </c>
-      <c r="AA39" s="194">
-        <f t="shared" si="52"/>
-        <v>0.88311647374367552</v>
-      </c>
-      <c r="AB39" s="194">
-        <f t="shared" si="39"/>
-        <v>3.4444711386949352</v>
-      </c>
-      <c r="AC39" s="252"/>
-      <c r="AD39" s="88"/>
+      <c r="R39" s="190" t="s">
+        <v>250</v>
+      </c>
+      <c r="S39" s="202">
+        <f t="shared" ref="S39:AA39" si="53">E16/E14</f>
+        <v>1.0575638594867356</v>
+      </c>
+      <c r="T39" s="202">
+        <f t="shared" si="53"/>
+        <v>1.1654135338345866</v>
+      </c>
+      <c r="U39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.7469670710571924</v>
+      </c>
+      <c r="V39" s="216">
+        <f t="shared" si="53"/>
+        <v>0.88979977928425036</v>
+      </c>
+      <c r="W39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.85344736425503021</v>
+      </c>
+      <c r="X39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.85344736425503021</v>
+      </c>
+      <c r="Y39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.85344736425503021</v>
+      </c>
+      <c r="Z39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.85344736425503021</v>
+      </c>
+      <c r="AA39" s="202">
+        <f t="shared" si="53"/>
+        <v>0.85344736425503021</v>
+      </c>
+      <c r="AB39" s="202">
+        <f t="shared" si="35"/>
+        <v>0.96493606091569128</v>
+      </c>
+      <c r="AC39" s="253"/>
       <c r="AE39" s="204" t="s">
         <v>266</v>
       </c>
@@ -12326,86 +12328,42 @@
       <c r="D40" s="56"/>
       <c r="E40" s="57"/>
       <c r="F40" s="58">
-        <f t="shared" ref="F40:M40" si="53">F9/E9-1</f>
+        <f t="shared" ref="F40:M40" si="54">F9/E9-1</f>
         <v>-6.5934041128698384E-2</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.12034799420009668</v>
       </c>
       <c r="H40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.52782571182053495</v>
       </c>
       <c r="I40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.83149566344220904</v>
       </c>
       <c r="J40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.35945984695376443</v>
       </c>
       <c r="L40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.15875689813018812</v>
       </c>
       <c r="M40" s="58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.15585622916578634</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.3203622857756398</v>
       </c>
       <c r="P40" s="88"/>
-      <c r="R40" s="190" t="s">
-        <v>250</v>
-      </c>
-      <c r="S40" s="202">
-        <f t="shared" ref="S40:AA40" si="54">E16/E14</f>
-        <v>1.0575638594867356</v>
-      </c>
-      <c r="T40" s="202">
-        <f t="shared" si="54"/>
-        <v>1.1654135338345866</v>
-      </c>
-      <c r="U40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.7469670710571924</v>
-      </c>
-      <c r="V40" s="216">
-        <f t="shared" si="54"/>
-        <v>0.88979977928425036</v>
-      </c>
-      <c r="W40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="X40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="Y40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="Z40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="AA40" s="202">
-        <f t="shared" si="54"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="AB40" s="202">
-        <f t="shared" si="39"/>
-        <v>0.96493606091569128</v>
-      </c>
-      <c r="AC40" s="253"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="85" t="s">
@@ -12453,10 +12411,13 @@
         <v>0.15585622916578656</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3.8829729626646698</v>
       </c>
       <c r="P41" s="88"/>
+      <c r="R41" s="13" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="85" t="s">
@@ -12504,10 +12465,53 @@
         <v>0.15095652242197977</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0236432662755344</v>
       </c>
       <c r="P42" s="88"/>
+      <c r="R42" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="S42" s="192">
+        <f>((S29*S27+E82)-E47)/DCF!G8</f>
+        <v>20.827079327709541</v>
+      </c>
+      <c r="T42" s="192">
+        <f>((T29*T27+F82)-F47)/DCF!H8</f>
+        <v>45.124316546762586</v>
+      </c>
+      <c r="U42" s="192">
+        <f>((U29*U27+G82)-G47)/DCF!I8</f>
+        <v>154.49467099165895</v>
+      </c>
+      <c r="V42" s="209">
+        <f>((V29*V27+H82)-H47)/DCF!J8</f>
+        <v>111.7434810260759</v>
+      </c>
+      <c r="W42" s="192">
+        <f>((W29*W27+I82)-I47)/DCF!K8</f>
+        <v>64.461281995842569</v>
+      </c>
+      <c r="X42" s="192">
+        <f>((X29*X27+J82)-J47)/DCF!L8</f>
+        <v>55.335152292343174</v>
+      </c>
+      <c r="Y42" s="192">
+        <f>((Y29*Y27+K82)-K47)/DCF!M8</f>
+        <v>43.347383461836991</v>
+      </c>
+      <c r="Z42" s="192">
+        <f>((Z29*Z27+L82)-L47)/DCF!N8</f>
+        <v>39.301322428620665</v>
+      </c>
+      <c r="AA42" s="192">
+        <f>((AA29*AA27+M82)-M47)/DCF!O8</f>
+        <v>35.664000933414606</v>
+      </c>
+      <c r="AB42" s="192">
+        <f>AVERAGE(S42:V42)</f>
+        <v>83.047386973051744</v>
+      </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="85" t="s">
@@ -12555,12 +12559,10 @@
         <v>0.15095652242197977</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0572458295620328</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="S44" s="76"/>
+      <c r="S43" s="76"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="38" t="s">
@@ -12679,7 +12681,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
         <v>65</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="25" t="s">
         <v>66</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>12578.271704816043</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
         <v>67</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>34242.044275967157</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
         <v>68</v>
       </c>
@@ -12830,7 +12832,7 @@
         <v>7851.2860163626056</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>69</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>95914.471093223212</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="14" t="s">
         <v>70</v>
       </c>
@@ -12889,7 +12891,7 @@
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="25" t="s">
         <v>71</v>
       </c>
@@ -12932,7 +12934,7 @@
         <v>24629.026465947394</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="25" t="s">
         <v>72</v>
       </c>
@@ -12975,7 +12977,7 @@
         <v>38586.418383862372</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
         <v>73</v>
       </c>
@@ -13018,7 +13020,7 @@
         <v>102136.37064256881</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
         <v>74</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>9726.4398328919542</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
         <v>75</v>
       </c>
@@ -13081,7 +13083,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
         <v>76</v>
       </c>
@@ -13124,7 +13126,7 @@
         <v>332.637</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
         <v>77</v>
       </c>
@@ -13165,7 +13167,7 @@
         <v>2398.850130936773</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
         <v>78</v>
       </c>
@@ -13185,7 +13187,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="25" t="s">
         <v>79</v>
       </c>
@@ -13204,8 +13206,9 @@
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="13"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="25" t="s">
         <v>80</v>
       </c>
@@ -13247,9 +13250,17 @@
         <f>M$3*M102</f>
         <v>9619.8826509315295</v>
       </c>
-      <c r="R64" s="13"/>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="14" t="s">
         <v>81</v>
       </c>
@@ -13297,17 +13308,8 @@
         <f t="shared" si="62"/>
         <v>187429.62510713883</v>
       </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="13"/>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>82</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>283344.09620036202</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="96"/>
       <c r="D67" s="97"/>
@@ -13364,7 +13366,7 @@
       <c r="L67" s="24"/>
       <c r="M67" s="51"/>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="14" t="s">
         <v>83</v>
       </c>
@@ -13375,7 +13377,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
         <v>84</v>
       </c>
@@ -13417,8 +13419,9 @@
         <f>M3/365*M105</f>
         <v>44880.245817137489</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB69" s="13"/>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
         <v>85</v>
       </c>
@@ -13460,9 +13463,8 @@
         <f>M3*$I$106</f>
         <v>28889.106974621627</v>
       </c>
-      <c r="AB70" s="13"/>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="25" t="s">
         <v>86</v>
       </c>
@@ -13505,7 +13507,7 @@
         <v>9741.1028716616711</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>87</v>
       </c>
@@ -13531,7 +13533,7 @@
       <c r="N72" s="16"/>
       <c r="Q72" s="13"/>
     </row>
-    <row r="73" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
         <v>88</v>
       </c>
@@ -13587,9 +13589,8 @@
       <c r="AA73" s="14"/>
       <c r="AB73" s="14"/>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="25" t="s">
         <v>89</v>
       </c>
@@ -13632,9 +13633,8 @@
         <v>7678.8864586044874</v>
       </c>
       <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
         <v>90</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>98179.692266291764</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
         <v>91</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="L76" s="51"/>
       <c r="M76" s="51"/>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
         <v>92</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>25346.607599358424</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
         <v>93</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>11322.175734056911</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
         <v>94</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
         <v>95</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>17136.143097678734</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
         <v>117</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>53804.926431094063</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
         <v>96</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>151984.61869738583</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="96"/>
       <c r="D83" s="97"/>
@@ -13946,7 +13946,7 @@
       <c r="L83" s="24"/>
       <c r="M83" s="51"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
         <v>97</v>
       </c>
@@ -13962,7 +13962,7 @@
       <c r="L84" s="24"/>
       <c r="M84" s="51"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
         <v>98</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="25" t="s">
         <v>99</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>29803</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
         <v>100</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="25" t="s">
         <v>101</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>49028.591717746473</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
         <v>102</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>78886.591717746473</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
         <v>103</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>230871.21041513229</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="67"/>
       <c r="D91" s="66"/>
@@ -14234,7 +14234,7 @@
       <c r="L91" s="67"/>
       <c r="M91" s="67"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="67"/>
       <c r="D92" s="66"/>
@@ -14248,7 +14248,7 @@
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="10" t="s">
         <v>115</v>
       </c>
@@ -14263,8 +14263,11 @@
       <c r="K93" s="21"/>
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="19" t="s">
         <v>104</v>
       </c>
@@ -14308,8 +14311,12 @@
         <f t="shared" si="71"/>
         <v>17.651092319118735</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="94">
+        <f t="shared" ref="N94:N102" si="72">AVERAGE(E94:H94)</f>
+        <v>17.651092319118735</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="19" t="s">
         <v>105</v>
       </c>
@@ -14353,8 +14360,12 @@
         <f t="shared" si="71"/>
         <v>48.051870630130189</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="94">
+        <f t="shared" si="72"/>
+        <v>48.051870630130189</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="19" t="s">
         <v>106</v>
       </c>
@@ -14381,7 +14392,7 @@
         <v>3.2012336733366779E-2</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" ref="I96" si="72">AVERAGE(E96:H96)</f>
+        <f t="shared" ref="I96" si="73">AVERAGE(E96:H96)</f>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="J96" s="107">
@@ -14400,6 +14411,10 @@
         <f t="shared" si="71"/>
         <v>3.0185512153908106E-2</v>
       </c>
+      <c r="N96" s="170">
+        <f t="shared" si="72"/>
+        <v>3.0185512153908106E-2</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B97" s="19" t="s">
@@ -14408,39 +14423,43 @@
       <c r="C97" s="10"/>
       <c r="D97" s="28"/>
       <c r="E97" s="30">
-        <f t="shared" ref="E97:H100" si="73">E55/E$3</f>
+        <f t="shared" ref="E97:H100" si="74">E55/E$3</f>
         <v>9.7373463674187394E-2</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.9560582634876715E-2</v>
       </c>
       <c r="G97" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.8014967021816335E-2</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>8.3811753339650338E-2</v>
       </c>
       <c r="I97" s="20">
-        <f t="shared" ref="I97:M102" si="74">AVERAGE($E97:$H97)</f>
+        <f t="shared" ref="I97:M102" si="75">AVERAGE($E97:$H97)</f>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="J97" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="K97" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="L97" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="M97" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
+        <v>9.4690191667632692E-2</v>
+      </c>
+      <c r="N97" s="170">
+        <f t="shared" si="72"/>
         <v>9.4690191667632692E-2</v>
       </c>
     </row>
@@ -14451,19 +14470,19 @@
       <c r="C98" s="10"/>
       <c r="D98" s="28"/>
       <c r="E98" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.29221926682058114</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.24973553584506469</v>
       </c>
       <c r="G98" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.18959284627092846</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.10711034316184531</v>
       </c>
       <c r="I98" s="20">
@@ -14471,20 +14490,24 @@
         <v>0.14835159471638687</v>
       </c>
       <c r="J98" s="20">
-        <f t="shared" ref="J98:M98" si="75">AVERAGE($G98:$H98)</f>
+        <f t="shared" ref="J98:M98" si="76">AVERAGE($G98:$H98)</f>
         <v>0.14835159471638687</v>
       </c>
       <c r="K98" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="L98" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="M98" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.14835159471638687</v>
+      </c>
+      <c r="N98" s="170">
+        <f t="shared" si="72"/>
+        <v>0.20966449802460488</v>
       </c>
     </row>
     <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -14498,11 +14521,11 @@
         <v>0.52793138783784821</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.42297990072422492</v>
       </c>
       <c r="G99" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.40420471841704719</v>
       </c>
       <c r="H99" s="12">
@@ -14514,20 +14537,24 @@
         <v>0.39267944779518477</v>
       </c>
       <c r="J99" s="20">
-        <f t="shared" ref="J99" si="76">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="J99" si="77">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="K99" s="20">
-        <f t="shared" ref="K99:M99" si="77">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="K99:M99" si="78">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="L99" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.39267944779518477</v>
       </c>
       <c r="M99" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.39267944779518477</v>
+      </c>
+      <c r="N99" s="170">
+        <f t="shared" si="72"/>
+        <v>0.42649243280585064</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -14537,43 +14564,44 @@
       <c r="C100" s="10"/>
       <c r="D100" s="28"/>
       <c r="E100" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.3162875557958646E-2</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.9556513955570022E-2</v>
       </c>
       <c r="G100" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.9403855910705223E-2</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.745610612563402E-2</v>
       </c>
       <c r="I100" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="J100" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="K100" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="L100" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="M100" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.7394837887466975E-2</v>
       </c>
-      <c r="N100" s="14" t="s">
-        <v>228</v>
+      <c r="N100" s="170">
+        <f t="shared" si="72"/>
+        <v>3.7394837887466975E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -14599,28 +14627,28 @@
         <v>3.7158835442097243E-3</v>
       </c>
       <c r="I101" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="J101" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="K101" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="L101" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="M101" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.2227591291270811E-3</v>
       </c>
-      <c r="N101" s="94">
-        <f>AVERAGE(E94:H94)</f>
-        <v>17.651092319118735</v>
+      <c r="N101" s="170">
+        <f t="shared" si="72"/>
+        <v>9.2227591291270811E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -14646,28 +14674,28 @@
         <v>3.9722795087601952E-2</v>
       </c>
       <c r="I102" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="J102" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="K102" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="L102" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="M102" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.6985161930630193E-2</v>
       </c>
-      <c r="N102" s="94">
-        <f>AVERAGE(E95:H95)</f>
-        <v>48.051870630130189</v>
+      <c r="N102" s="170">
+        <f t="shared" si="72"/>
+        <v>3.6985161930630193E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -14683,10 +14711,7 @@
       <c r="K103" s="20"/>
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
-      <c r="N103" s="170">
-        <f>AVERAGE(E96:H96)</f>
-        <v>3.0185512153908106E-2</v>
-      </c>
+      <c r="N103" s="10"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
@@ -14703,10 +14728,6 @@
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
-      <c r="N104" s="170">
-        <f t="shared" ref="N104:N109" si="78">AVERAGE(E97:H97)</f>
-        <v>9.4690191667632692E-2</v>
-      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
@@ -14755,9 +14776,9 @@
         <f t="shared" si="80"/>
         <v>62.980461927827463</v>
       </c>
-      <c r="N105" s="170">
-        <f t="shared" si="78"/>
-        <v>0.20966449802460488</v>
+      <c r="N105" s="94">
+        <f t="shared" ref="N105:N112" si="81">AVERAGE(E105:H105)</f>
+        <v>62.980461927827463</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -14772,23 +14793,23 @@
         <v>1731.366</v>
       </c>
       <c r="E106" s="106">
-        <f t="shared" ref="E106:H107" si="81">E70/E$3</f>
+        <f t="shared" ref="E106:H107" si="82">E70/E$3</f>
         <v>9.7582910758115496E-2</v>
       </c>
       <c r="F106" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.11819513385954919</v>
       </c>
       <c r="G106" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.12224124809741248</v>
       </c>
       <c r="H106" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.10625568994667707</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" ref="I106" si="82">AVERAGE(E106:H106)</f>
+        <f t="shared" ref="I106" si="83">AVERAGE(E106:H106)</f>
         <v>0.11106874566543856</v>
       </c>
       <c r="J106" s="107">
@@ -14796,20 +14817,20 @@
         <v>0.11106874566543856</v>
       </c>
       <c r="K106" s="107">
-        <f t="shared" ref="K106:M109" si="83">J106</f>
+        <f t="shared" ref="K106:M109" si="84">J106</f>
         <v>0.11106874566543856</v>
       </c>
       <c r="L106" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.11106874566543856</v>
       </c>
       <c r="M106" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.11106874566543856</v>
       </c>
       <c r="N106" s="170">
-        <f t="shared" si="78"/>
-        <v>0.42649243280585064</v>
+        <f t="shared" si="81"/>
+        <v>0.11106874566543856</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -14824,19 +14845,19 @@
         <v>1015.253</v>
       </c>
       <c r="E107" s="106">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.9368814554666577E-2</v>
       </c>
       <c r="F107" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.7318740336886649E-2</v>
       </c>
       <c r="G107" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>4.6232876712328765E-2</v>
       </c>
       <c r="H107" s="105">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.6884417442357356E-2</v>
       </c>
       <c r="I107" s="7">
@@ -14848,20 +14869,20 @@
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="K107" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="L107" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="M107" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="N107" s="170">
-        <f t="shared" si="78"/>
-        <v>3.7394837887466975E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.7451212261559841E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -14876,11 +14897,11 @@
         <v>787.33299999999997</v>
       </c>
       <c r="E108" s="106">
-        <f t="shared" ref="E108:F110" si="84">E72/E$3</f>
+        <f t="shared" ref="E108:F110" si="85">E72/E$3</f>
         <v>2.3430116058380145E-2</v>
       </c>
       <c r="F108" s="105">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.2897713402229637E-2</v>
       </c>
       <c r="G108" s="105"/>
@@ -14894,20 +14915,20 @@
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="K108" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="L108" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="M108" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="N108" s="170">
-        <f t="shared" si="78"/>
-        <v>9.2227591291270811E-3</v>
+        <f t="shared" si="81"/>
+        <v>1.8163914730304889E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -14922,11 +14943,11 @@
         <v>853.9190000000001</v>
       </c>
       <c r="E109" s="106">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3.6931694809458605E-2</v>
       </c>
       <c r="F109" s="105">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.9538611766620555E-2</v>
       </c>
       <c r="G109" s="105">
@@ -14946,20 +14967,20 @@
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="K109" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="L109" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="M109" s="107">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="N109" s="170">
-        <f t="shared" si="78"/>
-        <v>3.6985161930630193E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.6875507884960029E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -14974,11 +14995,11 @@
         <v>796.54899999999998</v>
       </c>
       <c r="E110" s="106">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.11964339665298435</v>
       </c>
       <c r="F110" s="105">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7.2625925624542273E-2</v>
       </c>
       <c r="G110" s="105">
@@ -14994,22 +15015,25 @@
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="J110" s="7">
-        <f t="shared" ref="J110:M110" si="85">AVERAGE(H110:I110)</f>
+        <f t="shared" ref="J110:M110" si="86">AVERAGE(H110:I110)</f>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="K110" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.9522694758746262E-2</v>
       </c>
-      <c r="N110" s="10"/>
+      <c r="N110" s="170">
+        <f t="shared" si="81"/>
+        <v>7.2349323386414741E-2</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
@@ -15019,19 +15043,19 @@
       <c r="C111" s="10"/>
       <c r="D111" s="28"/>
       <c r="E111" s="30">
-        <f t="shared" ref="E111:H112" si="86">E77/E$3</f>
+        <f t="shared" ref="E111:H112" si="87">E77/E$3</f>
         <v>0.43816945019278453</v>
       </c>
       <c r="F111" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.47335015054113433</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.30301877219685441</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="I111" s="20">
@@ -15039,20 +15063,24 @@
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="J111" s="20">
-        <f t="shared" ref="J111:M111" si="87">$H$111</f>
+        <f t="shared" ref="J111:M111" si="88">$H$111</f>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="K111" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="L111" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="M111" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9.7449045946900029E-2</v>
+      </c>
+      <c r="N111" s="170">
+        <f t="shared" si="81"/>
+        <v>0.32799685471941831</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -15062,47 +15090,47 @@
       <c r="C112" s="10"/>
       <c r="D112" s="28"/>
       <c r="E112" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.6170291522383486E-2</v>
       </c>
       <c r="F112" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.9108959231833345E-2</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.0715372907153727E-2</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3.8124965163591776E-2</v>
       </c>
       <c r="I112" s="20">
-        <f t="shared" ref="I112:M112" si="88">AVERAGE($E112:$H112)</f>
+        <f t="shared" ref="I112:M112" si="89">AVERAGE($E112:$H112)</f>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="J112" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="K112" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="L112" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="M112" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4.3529897206240578E-2</v>
       </c>
-      <c r="N112" s="94">
-        <f>AVERAGE(E105:H105)</f>
-        <v>62.980461927827463</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N112" s="170">
+        <f t="shared" si="81"/>
+        <v>4.3529897206240578E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B113" s="19" t="s">
         <v>94</v>
       </c>
@@ -15123,12 +15151,9 @@
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
-      <c r="N113" s="170">
-        <f>AVERAGE(E106:H106)</f>
-        <v>0.11106874566543856</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N113" s="170"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="19" t="s">
         <v>95</v>
       </c>
@@ -15155,33 +15180,27 @@
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="J114" s="20">
-        <f t="shared" ref="J114:M114" si="89">$H$114</f>
+        <f t="shared" ref="J114:M114" si="90">$H$114</f>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="K114" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="L114" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="M114" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="N114" s="170">
-        <f t="shared" ref="N114:N121" si="90">AVERAGE(E107:H107)</f>
-        <v>3.7451212261559841E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N115" s="170">
-        <f t="shared" si="90"/>
-        <v>1.8163914730304889E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+        <f>AVERAGE(E114:H114)</f>
+        <v>0.10144810722738992</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B116" s="38" t="s">
         <v>118</v>
       </c>
@@ -15218,12 +15237,8 @@
       <c r="M116" s="41">
         <v>2026</v>
       </c>
-      <c r="N116" s="170">
-        <f t="shared" si="90"/>
-        <v>2.6875507884960029E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B117" s="14" t="s">
         <v>119</v>
       </c>
@@ -15238,12 +15253,8 @@
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
-      <c r="N117" s="170">
-        <f t="shared" si="90"/>
-        <v>7.2349323386414741E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B118" s="113" t="s">
         <v>60</v>
       </c>
@@ -15285,12 +15296,8 @@
         <f>M16</f>
         <v>13776.397548916571</v>
       </c>
-      <c r="N118" s="170">
-        <f t="shared" si="90"/>
-        <v>0.32799685471941831</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B119" s="113" t="s">
         <v>120</v>
       </c>
@@ -15305,12 +15312,8 @@
       <c r="K119" s="24"/>
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
-      <c r="N119" s="170">
-        <f t="shared" si="90"/>
-        <v>4.3529897206240578E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="114" t="s">
         <v>121</v>
       </c>
@@ -15352,9 +15355,8 @@
         <f>M3*M210</f>
         <v>19763.439000288174</v>
       </c>
-      <c r="N120" s="170"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B121" s="114" t="s">
         <v>122</v>
       </c>
@@ -15381,12 +15383,8 @@
       <c r="K121" s="24"/>
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
-      <c r="N121" s="170">
-        <f t="shared" si="90"/>
-        <v>0.10144810722738992</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B122" s="114" t="s">
         <v>123</v>
       </c>
@@ -15408,7 +15406,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B123" s="114" t="s">
         <v>124</v>
       </c>
@@ -15436,7 +15434,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B124" s="114" t="s">
         <v>125</v>
       </c>
@@ -15458,7 +15456,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B125" s="114" t="s">
         <v>126</v>
       </c>
@@ -15486,7 +15484,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="24"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B126" s="114" t="s">
         <v>127</v>
       </c>
@@ -15508,7 +15506,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
     </row>
-    <row r="127" spans="2:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="114" t="s">
         <v>128</v>
       </c>
@@ -15536,7 +15534,7 @@
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
     </row>
-    <row r="128" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="114" t="s">
         <v>129</v>
       </c>
@@ -15555,8 +15553,9 @@
       <c r="K128" s="24"/>
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
-    </row>
-    <row r="129" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R128" s="36"/>
+    </row>
+    <row r="129" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="114" t="s">
         <v>130</v>
       </c>
@@ -15576,8 +15575,17 @@
       <c r="L129" s="24"/>
       <c r="M129" s="24"/>
       <c r="R129" s="36"/>
-    </row>
-    <row r="130" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S129" s="36"/>
+      <c r="T129" s="36"/>
+      <c r="U129" s="36"/>
+      <c r="V129" s="36"/>
+      <c r="W129" s="36"/>
+      <c r="X129" s="36"/>
+      <c r="Y129" s="36"/>
+      <c r="Z129" s="36"/>
+      <c r="AA129" s="36"/>
+    </row>
+    <row r="130" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="32" t="s">
         <v>131</v>
       </c>
@@ -15603,7 +15611,7 @@
       <c r="Z130" s="36"/>
       <c r="AA130" s="36"/>
     </row>
-    <row r="131" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="37" t="s">
         <v>132</v>
       </c>
@@ -15641,7 +15649,7 @@
       <c r="Z131" s="36"/>
       <c r="AA131" s="36"/>
     </row>
-    <row r="132" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="37" t="s">
         <v>67</v>
       </c>
@@ -15679,7 +15687,7 @@
       <c r="Z132" s="36"/>
       <c r="AA132" s="36"/>
     </row>
-    <row r="133" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="173" t="s">
         <v>133</v>
       </c>
@@ -15706,7 +15714,7 @@
       <c r="K133" s="35"/>
       <c r="L133" s="35"/>
       <c r="M133" s="35"/>
-      <c r="R133" s="36"/>
+      <c r="R133" s="10"/>
       <c r="S133" s="36"/>
       <c r="T133" s="36"/>
       <c r="U133" s="36"/>
@@ -15717,7 +15725,7 @@
       <c r="Z133" s="36"/>
       <c r="AA133" s="36"/>
     </row>
-    <row r="134" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="37" t="s">
         <v>68</v>
       </c>
@@ -15745,17 +15753,18 @@
       <c r="L134" s="35"/>
       <c r="M134" s="35"/>
       <c r="R134" s="10"/>
-      <c r="S134" s="36"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="36"/>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="36"/>
-      <c r="AA134" s="36"/>
-    </row>
-    <row r="135" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="36"/>
+    </row>
+    <row r="135" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="37"/>
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
@@ -15780,7 +15789,7 @@
       <c r="AA135" s="10"/>
       <c r="AB135" s="36"/>
     </row>
-    <row r="136" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="s">
         <v>131</v>
       </c>
@@ -15807,7 +15816,7 @@
       <c r="AA136" s="10"/>
       <c r="AB136" s="36"/>
     </row>
-    <row r="137" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="19" t="s">
         <v>66</v>
       </c>
@@ -15866,7 +15875,7 @@
       <c r="AA137" s="10"/>
       <c r="AB137" s="36"/>
     </row>
-    <row r="138" spans="2:30" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:29" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="19" t="s">
         <v>67</v>
       </c>
@@ -15922,9 +15931,8 @@
       <c r="Z138" s="10"/>
       <c r="AA138" s="10"/>
       <c r="AC138" s="14"/>
-      <c r="AD138" s="14"/>
-    </row>
-    <row r="139" spans="2:30" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="2:29" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="174" t="s">
         <v>133</v>
       </c>
@@ -15950,7 +15958,7 @@
       <c r="Z139" s="10"/>
       <c r="AA139" s="10"/>
     </row>
-    <row r="140" spans="2:30" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:29" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="164" t="s">
         <v>68</v>
       </c>
@@ -16005,8 +16013,9 @@
       <c r="Y140" s="10"/>
       <c r="Z140" s="10"/>
       <c r="AA140" s="10"/>
-    </row>
-    <row r="141" spans="2:30" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB140" s="10"/>
+    </row>
+    <row r="141" spans="2:29" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="19" t="s">
         <v>84</v>
       </c>
@@ -16063,7 +16072,7 @@
       <c r="AA141" s="10"/>
       <c r="AB141" s="10"/>
     </row>
-    <row r="142" spans="2:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:29" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="19" t="s">
         <v>85</v>
       </c>
@@ -16089,7 +16098,7 @@
         <v>1864</v>
       </c>
       <c r="I142" s="8">
-        <f t="shared" si="98"/>
+        <f>I70-H70</f>
         <v>5037.0563277248239</v>
       </c>
       <c r="J142" s="8">
@@ -16120,7 +16129,7 @@
       <c r="AA142" s="10"/>
       <c r="AB142" s="10"/>
     </row>
-    <row r="143" spans="2:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:29" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="19" t="s">
         <v>86</v>
       </c>
@@ -16179,7 +16188,7 @@
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
     </row>
-    <row r="144" spans="2:30" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:29" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="19" t="s">
         <v>87</v>
       </c>
@@ -16207,9 +16216,8 @@
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
       <c r="AC144" s="36"/>
-      <c r="AD144" s="36"/>
-    </row>
-    <row r="145" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="19" t="s">
         <v>88</v>
       </c>
@@ -16254,8 +16262,9 @@
         <f t="shared" si="101"/>
         <v>942.58229228059281</v>
       </c>
-    </row>
-    <row r="146" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R145" s="36"/>
+    </row>
+    <row r="146" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="22" t="s">
         <v>112</v>
       </c>
@@ -16281,7 +16290,7 @@
         <v>3940</v>
       </c>
       <c r="I146" s="67">
-        <f t="shared" si="102"/>
+        <f>SUM(I137:I145)</f>
         <v>4617.008561090679</v>
       </c>
       <c r="J146" s="67">
@@ -16300,9 +16309,18 @@
         <f t="shared" si="102"/>
         <v>4831.2276726264745</v>
       </c>
-      <c r="R146" s="36"/>
-    </row>
-    <row r="147" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R146" s="14"/>
+      <c r="S146" s="36"/>
+      <c r="T146" s="36"/>
+      <c r="U146" s="36"/>
+      <c r="V146" s="36"/>
+      <c r="W146" s="36"/>
+      <c r="X146" s="36"/>
+      <c r="Y146" s="36"/>
+      <c r="Z146" s="36"/>
+      <c r="AA146" s="36"/>
+    </row>
+    <row r="147" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
         <v>80</v>
       </c>
@@ -16345,17 +16363,17 @@
         <v>-1297.1497640962298</v>
       </c>
       <c r="R147" s="14"/>
-      <c r="S147" s="36"/>
-      <c r="T147" s="36"/>
-      <c r="U147" s="36"/>
-      <c r="V147" s="36"/>
-      <c r="W147" s="36"/>
-      <c r="X147" s="36"/>
-      <c r="Y147" s="36"/>
-      <c r="Z147" s="36"/>
-      <c r="AA147" s="36"/>
-    </row>
-    <row r="148" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S147" s="14"/>
+      <c r="T147" s="14"/>
+      <c r="U147" s="14"/>
+      <c r="V147" s="14"/>
+      <c r="W147" s="14"/>
+      <c r="X147" s="14"/>
+      <c r="Y147" s="14"/>
+      <c r="Z147" s="14"/>
+      <c r="AA147" s="14"/>
+    </row>
+    <row r="148" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
         <v>134</v>
       </c>
@@ -16393,7 +16411,7 @@
       <c r="Z148" s="14"/>
       <c r="AA148" s="14"/>
     </row>
-    <row r="149" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>86</v>
       </c>
@@ -16420,18 +16438,8 @@
       <c r="K149" s="24"/>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
-      <c r="R149" s="14"/>
-      <c r="S149" s="14"/>
-      <c r="T149" s="14"/>
-      <c r="U149" s="14"/>
-      <c r="V149" s="14"/>
-      <c r="W149" s="14"/>
-      <c r="X149" s="14"/>
-      <c r="Y149" s="14"/>
-      <c r="Z149" s="14"/>
-      <c r="AA149" s="14"/>
-    </row>
-    <row r="150" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="9" t="s">
         <v>88</v>
       </c>
@@ -16458,8 +16466,18 @@
       <c r="K150" s="24"/>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
-    </row>
-    <row r="151" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
+      <c r="U150" s="14"/>
+      <c r="V150" s="14"/>
+      <c r="W150" s="14"/>
+      <c r="X150" s="14"/>
+      <c r="Y150" s="14"/>
+      <c r="Z150" s="14"/>
+      <c r="AA150" s="14"/>
+    </row>
+    <row r="151" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="9" t="s">
         <v>135</v>
       </c>
@@ -16491,7 +16509,7 @@
       <c r="Z151" s="14"/>
       <c r="AA151" s="14"/>
     </row>
-    <row r="152" spans="2:30" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
         <v>95</v>
       </c>
@@ -16543,8 +16561,9 @@
       <c r="Y152" s="14"/>
       <c r="Z152" s="14"/>
       <c r="AA152" s="14"/>
-    </row>
-    <row r="153" spans="2:30" s="10" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AB152" s="14"/>
+    </row>
+    <row r="153" spans="2:29" s="10" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B153" s="119" t="s">
         <v>136</v>
       </c>
@@ -16598,7 +16617,7 @@
       <c r="AA153" s="14"/>
       <c r="AB153" s="14"/>
     </row>
-    <row r="154" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="118"/>
       <c r="C154" s="65"/>
       <c r="D154" s="65"/>
@@ -16623,7 +16642,7 @@
       <c r="AA154" s="14"/>
       <c r="AB154" s="14"/>
     </row>
-    <row r="155" spans="2:30" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:29" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="14" t="s">
         <v>137</v>
       </c>
@@ -16655,7 +16674,7 @@
       <c r="AA155" s="14"/>
       <c r="AB155" s="14"/>
     </row>
-    <row r="156" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:29" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B156" s="25" t="s">
         <v>138</v>
       </c>
@@ -16696,9 +16715,8 @@
         <v>-24216.417458539072</v>
       </c>
       <c r="AC156" s="10"/>
-      <c r="AD156" s="10"/>
-    </row>
-    <row r="157" spans="2:30" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:29" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="25" t="s">
         <v>139</v>
       </c>
@@ -16741,7 +16759,7 @@
         <v>-5203.0118578524198</v>
       </c>
     </row>
-    <row r="158" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:29" ht="17" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B158" s="113" t="s">
         <v>140</v>
       </c>
@@ -16759,7 +16777,7 @@
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
     </row>
-    <row r="159" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:29" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B159" s="113" t="s">
         <v>141</v>
       </c>
@@ -16777,7 +16795,7 @@
       <c r="L159" s="24"/>
       <c r="M159" s="24"/>
     </row>
-    <row r="160" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:29" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B160" s="113" t="s">
         <v>142</v>
       </c>
@@ -16795,7 +16813,7 @@
       <c r="L160" s="24"/>
       <c r="M160" s="24"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B161" s="113" t="s">
         <v>143</v>
       </c>
@@ -16817,7 +16835,7 @@
       <c r="L161" s="24"/>
       <c r="M161" s="24"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B162" s="113" t="s">
         <v>144</v>
       </c>
@@ -16837,7 +16855,7 @@
       <c r="L162" s="24"/>
       <c r="M162" s="24"/>
     </row>
-    <row r="163" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B163" s="113" t="s">
         <v>145</v>
       </c>
@@ -16863,7 +16881,7 @@
       <c r="L163" s="117"/>
       <c r="M163" s="117"/>
     </row>
-    <row r="164" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" ht="17" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B164" s="119" t="s">
         <v>146</v>
       </c>
@@ -16906,7 +16924,7 @@
         <v>-29419.429316391492</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B165" s="118"/>
       <c r="C165" s="65"/>
       <c r="D165" s="65"/>
@@ -16920,7 +16938,7 @@
       <c r="L165" s="24"/>
       <c r="M165" s="24"/>
     </row>
-    <row r="166" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B166" s="13" t="s">
         <v>147</v>
       </c>
@@ -16936,7 +16954,7 @@
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
     </row>
-    <row r="167" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B167" s="25" t="s">
         <v>233</v>
       </c>
@@ -16979,7 +16997,7 @@
         <v>1035.4248715638987</v>
       </c>
     </row>
-    <row r="168" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B168" s="25" t="s">
         <v>234</v>
       </c>
@@ -17022,7 +17040,7 @@
         <v>5728.3952460152468</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="25" t="s">
         <v>235</v>
       </c>
@@ -17038,7 +17056,7 @@
       <c r="L169" s="117"/>
       <c r="M169" s="117"/>
     </row>
-    <row r="170" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" ht="17" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B170" s="119" t="s">
         <v>162</v>
       </c>
@@ -17081,7 +17099,7 @@
         <v>6763.8201175791455</v>
       </c>
     </row>
-    <row r="171" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C171" s="70"/>
       <c r="D171" s="70"/>
       <c r="E171" s="8"/>
@@ -17094,7 +17112,7 @@
       <c r="L171" s="24"/>
       <c r="M171" s="24"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B172" s="14" t="s">
         <v>237</v>
       </c>
@@ -17110,7 +17128,7 @@
       <c r="L172" s="24"/>
       <c r="M172" s="24"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B173" s="113" t="s">
         <v>148</v>
       </c>
@@ -17134,7 +17152,7 @@
       <c r="L173" s="24"/>
       <c r="M173" s="24"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B174" s="113" t="s">
         <v>149</v>
       </c>
@@ -17177,7 +17195,7 @@
         <v>36221.388152316569</v>
       </c>
     </row>
-    <row r="175" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B175" s="113" t="s">
         <v>157</v>
       </c>
@@ -17197,7 +17215,7 @@
       <c r="L175" s="24"/>
       <c r="M175" s="24"/>
     </row>
-    <row r="176" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B176" s="113" t="s">
         <v>158</v>
       </c>
@@ -17221,7 +17239,7 @@
       <c r="L176" s="24"/>
       <c r="M176" s="24"/>
     </row>
-    <row r="177" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B177" s="113" t="s">
         <v>153</v>
       </c>
@@ -17249,7 +17267,7 @@
       <c r="L177" s="24"/>
       <c r="M177" s="24"/>
     </row>
-    <row r="178" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B178" s="113" t="s">
         <v>158</v>
       </c>
@@ -17271,7 +17289,7 @@
       <c r="L178" s="24"/>
       <c r="M178" s="24"/>
     </row>
-    <row r="179" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B179" s="47" t="s">
         <v>236</v>
       </c>
@@ -17287,7 +17305,7 @@
       <c r="L179" s="24"/>
       <c r="M179" s="24"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B180" s="113" t="s">
         <v>150</v>
       </c>
@@ -17330,7 +17348,7 @@
         <v>-26618.410322977335</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B181" s="113" t="s">
         <v>151</v>
       </c>
@@ -17350,7 +17368,7 @@
       <c r="L181" s="24"/>
       <c r="M181" s="24"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B182" s="113" t="s">
         <v>152</v>
       </c>
@@ -17393,7 +17411,7 @@
         <v>-538.18407653205111</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B183" s="113" t="s">
         <v>154</v>
       </c>
@@ -17436,7 +17454,7 @@
         <v>-1479.3840917402508</v>
       </c>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B184" s="113" t="s">
         <v>159</v>
       </c>
@@ -17454,7 +17472,7 @@
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B185" s="182" t="s">
         <v>160</v>
       </c>
@@ -17497,7 +17515,7 @@
         <v>-3048.1387262739004</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B186" s="182" t="s">
         <v>161</v>
       </c>
@@ -17536,13 +17554,13 @@
         <v>-205.24800367901031</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B187" s="88" t="s">
         <v>238</v>
       </c>
       <c r="C187" s="87"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B188" s="113" t="s">
         <v>155</v>
       </c>
@@ -17585,7 +17603,7 @@
         <v>-57.538688550616584</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B189" s="113" t="s">
         <v>156</v>
       </c>
@@ -17605,7 +17623,7 @@
       <c r="L189" s="117"/>
       <c r="M189" s="117"/>
     </row>
-    <row r="190" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" ht="17" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B190" s="119" t="s">
         <v>162</v>
       </c>
@@ -17648,7 +17666,7 @@
         <v>4274.4842425634051</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B191" s="113" t="s">
         <v>163</v>
       </c>
@@ -17676,7 +17694,7 @@
       <c r="L191" s="24"/>
       <c r="M191" s="24"/>
     </row>
-    <row r="192" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B192" s="113" t="s">
         <v>164</v>
       </c>
@@ -17704,7 +17722,7 @@
       <c r="L192" s="24"/>
       <c r="M192" s="24"/>
     </row>
-    <row r="193" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B193" s="113" t="s">
         <v>165</v>
       </c>
@@ -17732,7 +17750,7 @@
       <c r="L193" s="24"/>
       <c r="M193" s="24"/>
     </row>
-    <row r="194" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B194" s="113" t="s">
         <v>166</v>
       </c>
@@ -17760,7 +17778,7 @@
       <c r="L194" s="24"/>
       <c r="M194" s="24"/>
     </row>
-    <row r="195" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B195" s="113"/>
       <c r="C195" s="70"/>
       <c r="D195" s="70"/>
@@ -17774,7 +17792,7 @@
       <c r="L195" s="24"/>
       <c r="M195" s="24"/>
     </row>
-    <row r="196" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B196" s="14" t="s">
         <v>167</v>
       </c>
@@ -17790,7 +17808,7 @@
       <c r="L196" s="24"/>
       <c r="M196" s="24"/>
     </row>
-    <row r="197" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:27" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B197" s="113" t="s">
         <v>168</v>
       </c>
@@ -17812,7 +17830,7 @@
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
     </row>
-    <row r="198" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B198" s="113" t="s">
         <v>169</v>
       </c>
@@ -17840,7 +17858,7 @@
       <c r="L198" s="24"/>
       <c r="M198" s="24"/>
     </row>
-    <row r="199" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B199" s="113" t="s">
         <v>170</v>
       </c>
@@ -17862,7 +17880,7 @@
       <c r="L199" s="24"/>
       <c r="M199" s="24"/>
     </row>
-    <row r="200" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B200" s="113"/>
       <c r="C200" s="70"/>
       <c r="D200" s="70"/>
@@ -17876,7 +17894,7 @@
       <c r="L200" s="24"/>
       <c r="M200" s="24"/>
     </row>
-    <row r="201" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B201" s="14" t="s">
         <v>171</v>
       </c>
@@ -17892,7 +17910,7 @@
       <c r="L201" s="24"/>
       <c r="M201" s="24"/>
     </row>
-    <row r="202" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B202" s="113" t="s">
         <v>172</v>
       </c>
@@ -17920,7 +17938,7 @@
       <c r="L202" s="24"/>
       <c r="M202" s="24"/>
     </row>
-    <row r="203" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B203" s="113" t="s">
         <v>173</v>
       </c>
@@ -17948,7 +17966,7 @@
       <c r="L203" s="24"/>
       <c r="M203" s="24"/>
     </row>
-    <row r="204" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B204" s="113"/>
       <c r="C204" s="70"/>
       <c r="D204" s="70"/>
@@ -17962,7 +17980,7 @@
       <c r="L204" s="24"/>
       <c r="M204" s="24"/>
     </row>
-    <row r="205" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B205" s="119" t="s">
         <v>232</v>
       </c>
@@ -18005,7 +18023,7 @@
         <v>14239.615447195509</v>
       </c>
     </row>
-    <row r="206" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B206" s="119"/>
       <c r="C206" s="65"/>
       <c r="D206" s="65"/>
@@ -18019,7 +18037,7 @@
       <c r="L206" s="66"/>
       <c r="M206" s="66"/>
     </row>
-    <row r="207" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B207" s="113"/>
       <c r="C207" s="70"/>
       <c r="D207" s="70"/>
@@ -18032,8 +18050,18 @@
       <c r="K207" s="24"/>
       <c r="L207" s="24"/>
       <c r="M207" s="24"/>
-    </row>
-    <row r="208" spans="2:27" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R207" s="13"/>
+      <c r="S207" s="13"/>
+      <c r="T207" s="13"/>
+      <c r="U207" s="13"/>
+      <c r="V207" s="13"/>
+      <c r="W207" s="13"/>
+      <c r="X207" s="13"/>
+      <c r="Y207" s="13"/>
+      <c r="Z207" s="13"/>
+      <c r="AA207" s="13"/>
+    </row>
+    <row r="208" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B208" s="84" t="s">
         <v>53</v>
       </c>
@@ -18059,7 +18087,7 @@
       <c r="Z208" s="13"/>
       <c r="AA208" s="13"/>
     </row>
-    <row r="209" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B209" s="10" t="s">
         <v>119</v>
       </c>
@@ -18074,18 +18102,9 @@
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
       <c r="M209" s="10"/>
-      <c r="R209" s="13"/>
-      <c r="S209" s="13"/>
-      <c r="T209" s="13"/>
-      <c r="U209" s="13"/>
-      <c r="V209" s="13"/>
-      <c r="W209" s="13"/>
-      <c r="X209" s="13"/>
-      <c r="Y209" s="13"/>
-      <c r="Z209" s="13"/>
-      <c r="AA209" s="13"/>
-    </row>
-    <row r="210" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB209" s="13"/>
+    </row>
+    <row r="210" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B210" s="18" t="s">
         <v>121</v>
       </c>
@@ -18135,7 +18154,7 @@
       </c>
       <c r="AB210" s="13"/>
     </row>
-    <row r="211" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B211" s="10" t="s">
         <v>137</v>
       </c>
@@ -18150,9 +18169,8 @@
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
       <c r="M211" s="10"/>
-      <c r="AB211" s="13"/>
-    </row>
-    <row r="212" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B212" s="120" t="s">
         <v>55</v>
       </c>
@@ -18201,7 +18219,7 @@
       <c r="N212" s="13"/>
       <c r="Q212" s="13"/>
     </row>
-    <row r="213" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="10" t="s">
         <v>147</v>
       </c>
@@ -18228,9 +18246,8 @@
       <c r="AA213" s="14"/>
       <c r="AB213" s="14"/>
       <c r="AC213" s="14"/>
-      <c r="AD213" s="14"/>
-    </row>
-    <row r="214" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="18" t="s">
         <v>149</v>
       </c>
@@ -18286,7 +18303,7 @@
       <c r="AA214" s="14"/>
       <c r="AB214" s="14"/>
     </row>
-    <row r="215" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B215" s="18" t="s">
         <v>150</v>
       </c>
@@ -18327,9 +18344,8 @@
         <v>-0.56708343114797266</v>
       </c>
       <c r="AC215" s="13"/>
-      <c r="AD215" s="13"/>
-    </row>
-    <row r="216" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B216" s="18" t="s">
         <v>152</v>
       </c>
@@ -18370,7 +18386,7 @@
         <v>-6.3677534432057883E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B217" s="18" t="s">
         <v>154</v>
       </c>
@@ -18411,7 +18427,7 @@
         <v>-1.7503961106961195E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B218" s="18" t="s">
         <v>160</v>
       </c>
@@ -18452,7 +18468,7 @@
         <v>-0.22125804046019401</v>
       </c>
     </row>
-    <row r="219" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="18" t="s">
         <v>161</v>
       </c>
@@ -18493,7 +18509,7 @@
         <v>-1.4898525028057991E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B220" s="18" t="s">
         <v>155</v>
       </c>
@@ -18534,7 +18550,7 @@
         <v>-1.1470656025856056E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E221" s="175"/>
       <c r="F221" s="26"/>
       <c r="G221" s="26"/>
@@ -18547,9 +18563,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AC33:AC34"/>
     <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="AC36:AC40"/>
+    <mergeCell ref="AC35:AC39"/>
   </mergeCells>
   <conditionalFormatting sqref="S4:AA4">
     <cfRule type="aboveAverage" dxfId="32" priority="46"/>
@@ -18580,65 +18596,65 @@
     <cfRule type="aboveAverage" dxfId="23" priority="17" equalAverage="1"/>
     <cfRule type="aboveAverage" dxfId="22" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:AA22">
-    <cfRule type="aboveAverage" dxfId="21" priority="32"/>
+  <conditionalFormatting sqref="U22:AA22">
+    <cfRule type="aboveAverage" dxfId="21" priority="30" aboveAverage="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U23:AA23">
-    <cfRule type="aboveAverage" dxfId="20" priority="30" aboveAverage="0"/>
+  <conditionalFormatting sqref="S23:AA23">
+    <cfRule type="aboveAverage" dxfId="20" priority="29" aboveAverage="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S24:AA24">
-    <cfRule type="aboveAverage" dxfId="19" priority="29" aboveAverage="0"/>
+  <conditionalFormatting sqref="S32:AA32">
+    <cfRule type="aboveAverage" dxfId="19" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:AA34">
+    <cfRule type="aboveAverage" dxfId="18" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:AA36">
+    <cfRule type="aboveAverage" dxfId="17" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37:AA37">
+    <cfRule type="aboveAverage" dxfId="16" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35:AA35">
+    <cfRule type="aboveAverage" dxfId="15" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10:AA10">
+    <cfRule type="aboveAverage" dxfId="14" priority="19" aboveAverage="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11:AA11">
+    <cfRule type="aboveAverage" dxfId="13" priority="18" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:AA33">
-    <cfRule type="aboveAverage" dxfId="18" priority="28"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="14" aboveAverage="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S35:AA35">
-    <cfRule type="aboveAverage" dxfId="17" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S37:AA37">
-    <cfRule type="aboveAverage" dxfId="16" priority="26"/>
+  <conditionalFormatting sqref="S39:AA39">
+    <cfRule type="aboveAverage" dxfId="11" priority="13" equalAverage="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:AA38">
-    <cfRule type="aboveAverage" dxfId="15" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:AA36">
-    <cfRule type="aboveAverage" dxfId="14" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10:AA10">
-    <cfRule type="aboveAverage" dxfId="13" priority="19" aboveAverage="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11:AA11">
-    <cfRule type="aboveAverage" dxfId="12" priority="18" aboveAverage="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S34:AA34">
-    <cfRule type="aboveAverage" dxfId="11" priority="14" aboveAverage="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:AA40">
-    <cfRule type="aboveAverage" dxfId="10" priority="13" equalAverage="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S39:AA39">
-    <cfRule type="aboveAverage" dxfId="9" priority="12" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="12" equalAverage="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AA17">
-    <cfRule type="aboveAverage" dxfId="8" priority="9" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="7" priority="10"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="9" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:AA25">
+    <cfRule type="aboveAverage" dxfId="7" priority="7" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:AA26">
-    <cfRule type="aboveAverage" dxfId="6" priority="7" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="8"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="5" equalAverage="1"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:AA27">
-    <cfRule type="aboveAverage" dxfId="4" priority="5" equalAverage="1"/>
-    <cfRule type="aboveAverage" dxfId="3" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:AA28">
-    <cfRule type="aboveAverage" dxfId="2" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:AA29">
-    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:AA30">
-    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="S42:AA42 S21:AA21">
+    <cfRule type="aboveAverage" dxfId="0" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Tesla valuation.xlsx
+++ b/Tesla valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/PycharmProjects/GitHub/Fundamental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03D176-8AE3-934C-B4B4-32E34A21F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1DE9FB-F156-5744-87FB-BEFE5C12D36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="500" windowWidth="53340" windowHeight="28300" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
+    <workbookView xWindow="63640" yWindow="500" windowWidth="33880" windowHeight="28300" xr2:uid="{FB38C9C3-63EC-E541-8926-FAD826E7071A}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="281">
   <si>
     <t>Unit in thousand</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Required Return</t>
   </si>
   <si>
-    <t>Cost of Debt</t>
-  </si>
-  <si>
     <t>% Margin</t>
   </si>
   <si>
@@ -1054,6 +1051,18 @@
   </si>
   <si>
     <t>Valuation</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Market cap</t>
+  </si>
+  <si>
+    <t>Total debt</t>
+  </si>
+  <si>
+    <t>Effective interest rate</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2039,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2172,22 +2180,23 @@
     <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5124,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49011C88-4933-6148-BE37-B9306B264DFB}">
   <dimension ref="B2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5149,8 @@
     <col min="20" max="20" width="10.83203125" style="14"/>
     <col min="21" max="21" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="10.83203125" style="14"/>
+    <col min="23" max="23" width="15.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.83203125" style="14"/>
     <col min="29" max="29" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="10.83203125" style="14"/>
   </cols>
@@ -5201,47 +5211,41 @@
       <c r="B5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="167">
-        <f>Revenue!C28</f>
-        <v>7000.1320000000005</v>
-      </c>
-      <c r="F5" s="167">
-        <f>Revenue!D28</f>
-        <v>11758.751</v>
-      </c>
-      <c r="G5" s="167">
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166">
         <f>Revenue!E28</f>
         <v>21461.268</v>
       </c>
-      <c r="H5" s="167">
+      <c r="H5" s="166">
         <f>Revenue!F28</f>
         <v>24578</v>
       </c>
-      <c r="I5" s="167">
+      <c r="I5" s="166">
         <f>Revenue!G28</f>
         <v>31536</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="166">
         <f>Revenue!H28</f>
         <v>53823</v>
       </c>
-      <c r="K5" s="167">
+      <c r="K5" s="166">
         <f>Revenue!I28</f>
         <v>96841.431523177846</v>
       </c>
-      <c r="L5" s="167">
+      <c r="L5" s="166">
         <f>Revenue!J28</f>
         <v>142849.8256393816</v>
       </c>
-      <c r="M5" s="167">
+      <c r="M5" s="166">
         <f>Revenue!K28</f>
         <v>194198.60210108568</v>
       </c>
-      <c r="N5" s="167">
+      <c r="N5" s="166">
         <f>Revenue!L28</f>
         <v>225028.96979187263</v>
       </c>
-      <c r="O5" s="167">
+      <c r="O5" s="166">
         <f>Revenue!M28</f>
         <v>260101.1364766956</v>
       </c>
@@ -5261,10 +5265,7 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="121"/>
-      <c r="F6" s="122">
-        <f>F5/E5-1</f>
-        <v>0.67978989539054391</v>
-      </c>
+      <c r="F6" s="122"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26">
         <f t="shared" ref="H6:O6" si="0">H5/G5-1</f>
@@ -5315,21 +5316,15 @@
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="12">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="24">
-        <f t="shared" ref="E8:F8" si="1">E14+E12</f>
-        <v>279.7589999999999</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="1"/>
-        <v>3.9170000000001437</v>
-      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="24">
         <f>G14+G12</f>
         <v>1512.9769999999999</v>
@@ -5339,11 +5334,11 @@
         <v>2085</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" ref="I8:N8" si="2">I14+I12</f>
+        <f t="shared" ref="I8:N8" si="1">I14+I12</f>
         <v>4316</v>
       </c>
       <c r="J8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9434</v>
       </c>
       <c r="K8" s="24">
@@ -5351,15 +5346,15 @@
         <v>14163.865080043357</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20892.975508934578</v>
       </c>
       <c r="M8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28403.161287784955</v>
       </c>
       <c r="N8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32912.359070925129</v>
       </c>
       <c r="O8" s="24">
@@ -5367,66 +5362,60 @@
         <v>38041.955248669896</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="11">
         <f>-'Financial Statements'!H22</f>
-        <v>3.5741811175337188E-2</v>
+        <v>5.4287386596429614E-2</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="180">
-        <f>E8/E5</f>
-        <v>3.9964817806292775E-2</v>
-      </c>
-      <c r="F9" s="180">
-        <f t="shared" ref="F9:O9" si="3">F8/F5</f>
-        <v>3.3311361045064599E-4</v>
-      </c>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G9:O9" si="2">G8/G5</f>
         <v>7.0498024627435804E-2</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.4831963544633418E-2</v>
       </c>
       <c r="I9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13685946220192796</v>
       </c>
       <c r="J9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.17527822678037269</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14625831999037936</v>
       </c>
       <c r="L9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14625831999037942</v>
       </c>
       <c r="M9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14625831999037942</v>
       </c>
       <c r="N9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14625831999037942</v>
       </c>
       <c r="O9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14625831999037944</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="12">
@@ -5441,14 +5430,8 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="122"/>
-      <c r="F10" s="124">
-        <f>F8/E8-1</f>
-        <v>-0.98599866313505502</v>
-      </c>
-      <c r="G10" s="124">
-        <f>G8/F8-1</f>
-        <v>385.25912688280425</v>
-      </c>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="26">
         <f>H8/G8-1</f>
         <v>0.3780777896821963</v>
@@ -5462,160 +5445,148 @@
         <v>1.1858202038924932</v>
       </c>
       <c r="K10" s="26">
-        <f t="shared" ref="K10:O10" si="4">K8/J8-1</f>
+        <f t="shared" ref="K10:O10" si="3">K8/J8-1</f>
         <v>0.50136369302982375</v>
       </c>
       <c r="L10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47508998362123789</v>
       </c>
       <c r="M10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="N10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="O10" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15585622916578679</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="12">
         <f>S8*(1-S9)</f>
-        <v>3.1803055695034381E-2</v>
+        <v>4.8304904611421839E-2</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="Q11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="12">
         <f>S5+S6*(S7-S5)</f>
-        <v>0.18878155000000002</v>
+        <v>0.14733154999999998</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="167">
-        <f>'Financial Statements'!C120</f>
-        <v>947.09899999999993</v>
-      </c>
-      <c r="F12" s="167">
-        <f>'Financial Statements'!D120</f>
-        <v>1636.0030000000002</v>
-      </c>
-      <c r="G12" s="167">
+        <v>186</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166">
         <f>'Financial Statements'!E120</f>
         <v>1901.05</v>
       </c>
-      <c r="H12" s="167">
+      <c r="H12" s="166">
         <f>'Financial Statements'!F120</f>
         <v>2154</v>
       </c>
-      <c r="I12" s="167">
+      <c r="I12" s="166">
         <f>'Financial Statements'!G120</f>
         <v>2322</v>
       </c>
-      <c r="J12" s="167">
+      <c r="J12" s="166">
         <f>'Financial Statements'!H120</f>
         <v>2911</v>
       </c>
-      <c r="K12" s="167">
+      <c r="K12" s="166">
         <f>'Financial Statements'!I120</f>
         <v>7358.3674048282819</v>
       </c>
-      <c r="L12" s="167">
+      <c r="L12" s="166">
         <f>'Financial Statements'!J120</f>
         <v>10854.254054667199</v>
       </c>
-      <c r="M12" s="167">
+      <c r="M12" s="166">
         <f>'Financial Statements'!K120</f>
         <v>14755.922555955149</v>
       </c>
-      <c r="N12" s="167">
+      <c r="N12" s="166">
         <f>'Financial Statements'!L120</f>
         <v>17098.527049987864</v>
       </c>
-      <c r="O12" s="167">
+      <c r="O12" s="166">
         <f>'Financial Statements'!M120</f>
         <v>19763.439000288174</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="11">
-        <f>'Financial Statements'!H89/'Financial Statements'!H90</f>
-        <v>0.48589271056316491</v>
+        <f>S19/(S19+S20)</f>
+        <v>0.99204292206838152</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
       <c r="Q13" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="12">
         <f>1-S12</f>
-        <v>0.51410728943683504</v>
+        <v>7.9570779316184836E-3</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="167">
-        <f>'Financial Statements'!C10</f>
-        <v>-667.34</v>
-      </c>
-      <c r="F14" s="167">
-        <f>'Financial Statements'!D10</f>
-        <v>-1632.086</v>
-      </c>
-      <c r="G14" s="167">
+        <v>189</v>
+      </c>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166">
         <f>'Financial Statements'!E10</f>
         <v>-388.07299999999998</v>
       </c>
-      <c r="H14" s="167">
+      <c r="H14" s="166">
         <f>'Financial Statements'!F10</f>
         <v>-69</v>
       </c>
-      <c r="I14" s="167">
+      <c r="I14" s="166">
         <f>'Financial Statements'!G10</f>
         <v>1994</v>
       </c>
-      <c r="J14" s="167">
+      <c r="J14" s="166">
         <f>'Financial Statements'!H10</f>
         <v>6523</v>
       </c>
-      <c r="K14" s="167">
+      <c r="K14" s="166">
         <f>'Financial Statements'!I10</f>
         <v>6805.497675215076</v>
       </c>
-      <c r="L14" s="167">
+      <c r="L14" s="166">
         <f>'Financial Statements'!J10</f>
         <v>10038.721454267379</v>
       </c>
-      <c r="M14" s="167">
+      <c r="M14" s="166">
         <f>'Financial Statements'!K10</f>
         <v>13647.238731829806</v>
       </c>
-      <c r="N14" s="167">
+      <c r="N14" s="166">
         <f>'Financial Statements'!L10</f>
         <v>15813.832020937265</v>
       </c>
-      <c r="O14" s="167">
+      <c r="O14" s="166">
         <f>'Financial Statements'!M10</f>
         <v>18278.516248381718</v>
       </c>
@@ -5625,25 +5596,19 @@
       <c r="R14" s="126"/>
       <c r="S14" s="127">
         <f>S11*S12+S10*S13</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="180">
-        <f>E14/E5</f>
-        <v>-9.533248801594027E-2</v>
-      </c>
-      <c r="F15" s="180">
-        <f t="shared" ref="F15:O15" si="5">F14/F5</f>
-        <v>-0.13879756446921956</v>
-      </c>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G15:O15" si="4">G14/G5</f>
         <v>-1.8082482358451512E-2</v>
       </c>
       <c r="H15" s="26">
@@ -5651,31 +5616,31 @@
         <v>-2.8073887216209618E-3</v>
       </c>
       <c r="I15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.3229325215626589E-2</v>
       </c>
       <c r="J15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12119354179440016</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0274649684275492E-2</v>
       </c>
       <c r="L15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0274649684275506E-2</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0274649684275506E-2</v>
       </c>
       <c r="N15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0274649684275506E-2</v>
       </c>
       <c r="O15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.027464968427552E-2</v>
       </c>
     </row>
@@ -5685,42 +5650,39 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180">
-        <f>F14/E14-1</f>
-        <v>1.4456588845266278</v>
-      </c>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26">
-        <f t="shared" ref="H16:O16" si="6">H14/G14-1</f>
+        <f t="shared" ref="H16:O16" si="5">H14/G14-1</f>
         <v>-0.82219840081634121</v>
       </c>
       <c r="I16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-29.89855072463768</v>
       </c>
       <c r="J16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.2713139418254764</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.330793733176086E-2</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.47508998362123789</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="Q16" s="14" t="e" vm="1">
@@ -5735,79 +5697,68 @@
       <c r="Q17" s="14" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="R17" s="24"/>
       <c r="S17" s="10"/>
       <c r="U17" s="21"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="167">
-        <f>'Financial Statements'!C15</f>
-        <v>26.698</v>
-      </c>
-      <c r="F18" s="167">
-        <f>'Financial Statements'!D15</f>
-        <v>31.545999999999999</v>
-      </c>
-      <c r="G18" s="167">
+        <v>190</v>
+      </c>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166">
         <f>'Financial Statements'!E15</f>
         <v>-57.837000000000003</v>
       </c>
-      <c r="H18" s="167">
+      <c r="H18" s="166">
         <f>'Financial Statements'!F15</f>
         <v>-110</v>
       </c>
-      <c r="I18" s="167">
+      <c r="I18" s="166">
         <f>'Financial Statements'!G15</f>
         <v>-292</v>
       </c>
-      <c r="J18" s="167">
+      <c r="J18" s="166">
         <f>'Financial Statements'!H15</f>
         <v>-699</v>
       </c>
-      <c r="K18" s="167">
+      <c r="K18" s="166">
         <f>'Financial Statements'!I15</f>
-        <v>-878.76204443682559</v>
-      </c>
-      <c r="L18" s="167">
+        <v>-843.59578654534971</v>
+      </c>
+      <c r="L18" s="166">
         <f>'Financial Statements'!J15</f>
-        <v>-1298.1013366604232</v>
-      </c>
-      <c r="M18" s="167">
+        <v>-1243.5804151962777</v>
+      </c>
+      <c r="M18" s="166">
         <f>'Financial Statements'!K15</f>
-        <v>-1764.3618540320076</v>
-      </c>
-      <c r="N18" s="167">
+        <v>-1683.2827483498124</v>
+      </c>
+      <c r="N18" s="166">
         <f>'Financial Statements'!L15</f>
-        <v>-2055.38716670432</v>
-      </c>
-      <c r="O18" s="167">
+        <v>-1960.511357551434</v>
+      </c>
+      <c r="O18" s="166">
         <f>'Financial Statements'!M15</f>
-        <v>-2365.6612656207699</v>
+        <v>-2262.6663873806538</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R18" s="10"/>
-      <c r="S18" s="94">
+      <c r="S18" s="3">
         <f>1033508000/1000000</f>
         <v>1033.508</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="180">
-        <v>3.5771516772336767E-2</v>
-      </c>
-      <c r="F19" s="180">
-        <v>1.4280463116876531E-2</v>
-      </c>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="26">
         <v>5.7563859486735439E-2</v>
       </c>
@@ -5834,151 +5785,149 @@
       </c>
       <c r="O19" s="26">
         <v>0.14655263574496979</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="S19" s="24" cm="1">
+        <f t="array" ref="S19">_FV(Q17,"Market cap",TRUE)/1000000</f>
+        <v>852023.9952</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E20" s="121"/>
       <c r="F20" s="121"/>
-      <c r="Q20" s="157" t="s">
-        <v>226</v>
+      <c r="Q20" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="S20" s="108">
+        <f>'Financial Statements'!H74+'Financial Statements'!H77</f>
+        <v>6834</v>
+      </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167">
-        <f>'Financial Statements'!D156</f>
-        <v>-3414.8139999999999</v>
-      </c>
-      <c r="G21" s="167">
+        <v>192</v>
+      </c>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166">
         <f>'Financial Statements'!E156</f>
         <v>-2100.7240000000002</v>
       </c>
-      <c r="H21" s="167">
+      <c r="H21" s="166">
         <f>'Financial Statements'!F156</f>
         <v>-1327</v>
       </c>
-      <c r="I21" s="167">
+      <c r="I21" s="166">
         <f>'Financial Statements'!G156</f>
         <v>-3157</v>
       </c>
-      <c r="J21" s="167">
+      <c r="J21" s="166">
         <f>'Financial Statements'!H156</f>
         <v>-6482</v>
       </c>
-      <c r="K21" s="167">
+      <c r="K21" s="166">
         <f>'Financial Statements'!I156</f>
         <v>-9016.3102123082026</v>
       </c>
-      <c r="L21" s="167">
+      <c r="L21" s="166">
         <f>'Financial Statements'!J156</f>
         <v>-13299.868883397701</v>
       </c>
-      <c r="M21" s="167">
+      <c r="M21" s="166">
         <f>'Financial Statements'!K156</f>
         <v>-18080.637716728976</v>
       </c>
-      <c r="N21" s="167">
+      <c r="N21" s="166">
         <f>'Financial Statements'!L156</f>
         <v>-20951.063676852551</v>
       </c>
-      <c r="O21" s="167">
+      <c r="O21" s="166">
         <f>'Financial Statements'!M156</f>
         <v>-24216.417458539072</v>
       </c>
-      <c r="Q21" s="157" t="s">
-        <v>225</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="R21" s="108"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="Q22" s="157" t="s">
+        <v>225</v>
+      </c>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167">
-        <f>'Financial Statements'!D146</f>
-        <v>1815.0410000000002</v>
-      </c>
-      <c r="G23" s="167">
+        <v>228</v>
+      </c>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166">
         <f>'Financial Statements'!E146</f>
         <v>-734.5400000000003</v>
       </c>
-      <c r="H23" s="167">
+      <c r="H23" s="166">
         <f>'Financial Statements'!F146</f>
         <v>296.70200000000017</v>
       </c>
-      <c r="I23" s="167">
+      <c r="I23" s="166">
         <f>'Financial Statements'!G146</f>
         <v>1490</v>
       </c>
-      <c r="J23" s="167">
+      <c r="J23" s="166">
         <f>'Financial Statements'!H146</f>
         <v>3940</v>
       </c>
-      <c r="K23" s="167">
+      <c r="K23" s="166">
         <f>'Financial Statements'!I146</f>
         <v>4617.008561090679</v>
       </c>
-      <c r="L23" s="167">
+      <c r="L23" s="166">
         <f>'Financial Statements'!J146</f>
         <v>6337.7044487957373</v>
       </c>
-      <c r="M23" s="167">
+      <c r="M23" s="166">
         <f>'Financial Statements'!K146</f>
         <v>7073.3477069338787</v>
       </c>
-      <c r="N23" s="167">
+      <c r="N23" s="166">
         <f>'Financial Statements'!L146</f>
         <v>4246.9154210947072</v>
       </c>
-      <c r="O23" s="167">
+      <c r="O23" s="166">
         <f>'Financial Statements'!M146</f>
         <v>4831.2276726264745</v>
       </c>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="157" t="s">
+        <v>224</v>
+      </c>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
-      <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="49">
-        <f>E8+E18+E21+E23</f>
-        <v>306.45699999999988</v>
-      </c>
-      <c r="F25" s="49">
-        <f>F8+F18+F21+F23</f>
-        <v>-1564.3099999999995</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="24">
         <f>G8+G18+G21-G23</f>
         <v>88.956000000000017</v>
@@ -5988,32 +5937,32 @@
         <v>944.70200000000023</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" ref="I25:J25" si="7">I8+I18+I21+I23</f>
+        <f t="shared" ref="I25:J25" si="6">I8+I18+I21+I23</f>
         <v>2357</v>
       </c>
       <c r="J25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6193</v>
       </c>
       <c r="K25" s="24">
         <f>K8+K18+K21+K23</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" ref="L25:M25" si="8">L8+L18+L21+L23</f>
-        <v>12632.70973767219</v>
+        <f t="shared" ref="L25:M25" si="7">L8+L18+L21+L23</f>
+        <v>12687.230659136338</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="8"/>
-        <v>15631.509423957848</v>
+        <f t="shared" si="7"/>
+        <v>15712.588529640047</v>
       </c>
       <c r="N25" s="24">
         <f>N8+N18+N21+N23</f>
-        <v>14152.823648462965</v>
+        <v>14247.699457615852</v>
       </c>
       <c r="O25" s="24">
         <f>O8+O18+O21+O23</f>
-        <v>16291.104197136527</v>
+        <v>16394.099075376645</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -6021,53 +5970,47 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="180">
-        <f>E25/E5</f>
-        <v>4.3778745886506119E-2</v>
-      </c>
-      <c r="F26" s="180">
-        <f>F25/F5</f>
-        <v>-0.13303368699617837</v>
-      </c>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="26">
-        <f t="shared" ref="G26:O26" si="9">G25/G5</f>
+        <f t="shared" ref="G26:O26" si="8">G25/G5</f>
         <v>4.1449554611591461E-3</v>
       </c>
       <c r="H26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.8436894783953138E-2</v>
       </c>
       <c r="I26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7.4739979705733137E-2</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.11506233394645411</v>
       </c>
       <c r="K26" s="26">
-        <f t="shared" si="9"/>
-        <v>9.1756196130395873E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.2119328493666025E-2</v>
       </c>
       <c r="L26" s="26">
-        <f t="shared" si="9"/>
-        <v>8.8433497773829542E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8815163773211178E-2</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="9"/>
-        <v>8.0492389001962122E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.0909895126130796E-2</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" si="9"/>
-        <v>6.2893340628776773E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.3314956606669026E-2</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" si="9"/>
-        <v>6.2633729393935841E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.3029709510114024E-2</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -6083,11 +6026,8 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180">
-        <f>F25/E25-1</f>
-        <v>-6.1045007945649798</v>
-      </c>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26">
         <f>H25/G25-1</f>
@@ -6103,38 +6043,38 @@
       </c>
       <c r="K27" s="26">
         <f>K25/J25-1</f>
-        <v>0.43481372265283502</v>
+        <v>0.44049211081551487</v>
       </c>
       <c r="L27" s="26">
         <f>L25/K25-1</f>
-        <v>0.42167365566666026</v>
+        <v>0.42218099738483938</v>
       </c>
       <c r="M27" s="26">
         <f>(M25-L25)/-L25</f>
-        <v>-0.23738372435985711</v>
+        <v>-0.2384569140252121</v>
       </c>
       <c r="N27" s="26">
         <f>(N25-M25)/M25</f>
-        <v>-9.4596480441521219E-2</v>
+        <v>-9.3230282792733002E-2</v>
       </c>
       <c r="O27" s="26">
         <f>(O25-N25)/N25</f>
-        <v>0.15108508392286685</v>
+        <v>0.15064885556758947</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="W27" s="165"/>
+      <c r="W27" s="238"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G29" s="128" t="s">
         <v>176</v>
       </c>
       <c r="H29" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="130" t="s">
         <v>195</v>
-      </c>
-      <c r="J29" s="130" t="s">
-        <v>196</v>
       </c>
       <c r="K29" s="131">
         <v>0</v>
@@ -6144,166 +6084,166 @@
         <v>1</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" ref="M29:O29" si="10">L29+1</f>
+        <f t="shared" ref="M29:O29" si="9">L29+1</f>
         <v>2</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G30" s="132">
         <f>G31-1%</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="H30" s="24">
         <f>SUM(K30:O30)</f>
-        <v>56308.574170409433</v>
+        <v>52708.25384240222</v>
       </c>
       <c r="K30" s="49">
         <f>K$25/(1+G30)^K$29</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L30" s="49">
-        <f t="shared" ref="L30:O34" si="11">L$25/(1+$G30)^L$29</f>
-        <v>11610.116649066764</v>
+        <f t="shared" ref="L30:O34" si="10">L$25/(1+$G30)^L$29</f>
+        <v>11262.085908219811</v>
       </c>
       <c r="M30" s="49">
-        <f t="shared" si="11"/>
-        <v>13203.256131070262</v>
+        <f t="shared" si="10"/>
+        <v>12380.886382956825</v>
       </c>
       <c r="N30" s="49">
-        <f t="shared" si="11"/>
-        <v>10986.599478886623</v>
+        <f t="shared" si="10"/>
+        <v>9965.5379260570462</v>
       </c>
       <c r="O30" s="49">
-        <f t="shared" si="11"/>
-        <v>11622.800526996774</v>
+        <f t="shared" si="10"/>
+        <v>10178.775982888048</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G31" s="132">
         <f>G32-1%</f>
-        <v>9.8077761792998472E-2</v>
+        <v>0.1365435872653363</v>
       </c>
       <c r="H31" s="24">
         <f>SUM(K31:O31)</f>
-        <v>55248.385975220444</v>
+        <v>51777.975789471326</v>
       </c>
       <c r="K31" s="49">
         <f>K$25/(1+G31)^K$29</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L31" s="49">
-        <f t="shared" si="11"/>
-        <v>11504.385369798261</v>
+        <f t="shared" si="10"/>
+        <v>11162.995243907342</v>
       </c>
       <c r="M31" s="49">
-        <f t="shared" si="11"/>
-        <v>12963.871695304913</v>
+        <f t="shared" si="10"/>
+        <v>12163.975755925025</v>
       </c>
       <c r="N31" s="49">
-        <f t="shared" si="11"/>
-        <v>10689.165620536705</v>
+        <f t="shared" si="10"/>
+        <v>9704.7970530154016</v>
       </c>
       <c r="O31" s="49">
-        <f t="shared" si="11"/>
-        <v>11205.161905191559</v>
+        <f t="shared" si="10"/>
+        <v>9825.240094343073</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G32" s="132">
         <f>S14</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="H32" s="24">
         <f>SUM(K32:O32)</f>
-        <v>54225.789340320567</v>
+        <v>50879.311056255683</v>
       </c>
       <c r="K32" s="49">
         <f>K$25/(1+G32)^K$29</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L32" s="49">
-        <f t="shared" si="11"/>
-        <v>11400.562463442096</v>
+        <f t="shared" si="10"/>
+        <v>11065.63309066786</v>
       </c>
       <c r="M32" s="49">
-        <f t="shared" si="11"/>
-        <v>12730.939043469851</v>
+        <f t="shared" si="10"/>
+        <v>11952.715938074756</v>
       </c>
       <c r="N32" s="49">
-        <f t="shared" si="11"/>
-        <v>10402.371940567256</v>
+        <f t="shared" si="10"/>
+        <v>9453.0735433075133</v>
       </c>
       <c r="O32" s="49">
-        <f t="shared" si="11"/>
-        <v>10806.114508452356</v>
+        <f t="shared" si="10"/>
+        <v>9486.9208419250645</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G33" s="132">
         <f>G32+1%</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="H33" s="24">
         <f>SUM(K33:O33)</f>
-        <v>53239.047384830628</v>
+        <v>50010.854535482722</v>
       </c>
       <c r="K33" s="49">
         <f>K$25/(1+G33)^K$29</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L33" s="49">
-        <f t="shared" si="11"/>
-        <v>11298.596724984338</v>
+        <f t="shared" si="10"/>
+        <v>10969.954612031073</v>
       </c>
       <c r="M33" s="49">
-        <f t="shared" si="11"/>
-        <v>12504.228393900921</v>
+        <f t="shared" si="10"/>
+        <v>11746.912338977645</v>
       </c>
       <c r="N33" s="49">
-        <f t="shared" si="11"/>
-        <v>10125.746870276278</v>
+        <f t="shared" si="10"/>
+        <v>9209.9809267539295</v>
       </c>
       <c r="O33" s="49">
-        <f t="shared" si="11"/>
-        <v>10424.674011280084</v>
+        <f t="shared" si="10"/>
+        <v>9163.0390154395882</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G34" s="132">
         <f>G33+1%</f>
-        <v>0.12807776179299846</v>
+        <v>0.16654358726533633</v>
       </c>
       <c r="H34" s="24">
         <f>SUM(K34:O34)</f>
-        <v>52286.520310644781</v>
+        <v>49171.276826038767</v>
       </c>
       <c r="K34" s="49">
         <f>K$25/(1+G34)^K$29</f>
-        <v>8885.8013843890076</v>
+        <v>8920.9676422804841</v>
       </c>
       <c r="L34" s="49">
-        <f t="shared" si="11"/>
-        <v>11198.438765066521</v>
+        <f t="shared" si="10"/>
+        <v>10875.916508939295</v>
       </c>
       <c r="M34" s="49">
-        <f t="shared" si="11"/>
-        <v>12283.52010424306</v>
+        <f t="shared" si="10"/>
+        <v>11546.378672769768</v>
       </c>
       <c r="N34" s="49">
-        <f t="shared" si="11"/>
-        <v>9858.8436999875848</v>
+        <f t="shared" si="10"/>
+        <v>8975.152440226846</v>
       </c>
       <c r="O34" s="49">
-        <f t="shared" si="11"/>
-        <v>10059.916356958602</v>
+        <f t="shared" si="10"/>
+        <v>8852.8615618223721</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
@@ -6314,97 +6254,97 @@
       <c r="O36" s="49"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="242" t="s">
+      <c r="B38" s="244" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="244"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="244"/>
+      <c r="L38" s="244"/>
+      <c r="M38" s="244"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="244"/>
+      <c r="Q38" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="R38" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="S38" s="161" t="s">
         <v>204</v>
-      </c>
-      <c r="C38" s="242"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242"/>
-      <c r="O38" s="242"/>
-      <c r="Q38" s="161" t="s">
-        <v>208</v>
-      </c>
-      <c r="R38" s="161" t="s">
-        <v>202</v>
-      </c>
-      <c r="S38" s="161" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="150"/>
-      <c r="Q39" s="181">
+      <c r="Q39" s="180">
         <v>125</v>
       </c>
-      <c r="R39" s="181">
+      <c r="R39" s="180">
         <f>'Financial Statements'!H74+'Financial Statements'!H80+'Financial Statements'!H77</f>
         <v>10380</v>
       </c>
-      <c r="S39" s="181">
+      <c r="S39" s="180">
         <f>'Financial Statements'!H47+'Financial Statements'!H49</f>
         <v>17707</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C40" s="241" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="241"/>
-      <c r="E40" s="241"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="K40" s="241" t="s">
-        <v>198</v>
-      </c>
-      <c r="L40" s="241"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="241"/>
-      <c r="O40" s="241"/>
-      <c r="Q40" s="181">
+      <c r="C40" s="243" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="243"/>
+      <c r="E40" s="243"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="K40" s="243" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="243"/>
+      <c r="M40" s="243"/>
+      <c r="N40" s="243"/>
+      <c r="O40" s="243"/>
+      <c r="Q40" s="180">
         <v>125</v>
       </c>
-      <c r="R40" s="181">
-        <f t="shared" ref="R40:S43" si="12">R39</f>
+      <c r="R40" s="180">
+        <f t="shared" ref="R40:S43" si="11">R39</f>
         <v>10380</v>
       </c>
-      <c r="S40" s="181">
-        <f t="shared" si="12"/>
+      <c r="S40" s="180">
+        <f t="shared" si="11"/>
         <v>17707</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="240" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="240"/>
       <c r="E41" s="240"/>
       <c r="F41" s="240"/>
       <c r="G41" s="240"/>
       <c r="K41" s="240" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L41" s="240"/>
       <c r="M41" s="240"/>
       <c r="N41" s="240"/>
       <c r="O41" s="240"/>
-      <c r="Q41" s="181">
+      <c r="Q41" s="180">
         <v>125</v>
       </c>
-      <c r="R41" s="181">
-        <f t="shared" si="12"/>
+      <c r="R41" s="180">
+        <f t="shared" si="11"/>
         <v>10380</v>
       </c>
-      <c r="S41" s="181">
-        <f t="shared" si="12"/>
+      <c r="S41" s="180">
+        <f t="shared" si="11"/>
         <v>17707</v>
       </c>
     </row>
@@ -6443,7 +6383,7 @@
         <f>M42-0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="M42" s="228">
+      <c r="M42" s="227">
         <f>E42</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -6455,284 +6395,284 @@
         <f>N42+0.5%</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Q42" s="181">
+      <c r="Q42" s="180">
         <v>125</v>
       </c>
-      <c r="R42" s="181">
-        <f t="shared" si="12"/>
+      <c r="R42" s="180">
+        <f t="shared" si="11"/>
         <v>10380</v>
       </c>
-      <c r="S42" s="181">
-        <f t="shared" si="12"/>
+      <c r="S42" s="180">
+        <f t="shared" si="11"/>
         <v>17707</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="132">
         <f>B44-1%</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="C43" s="138">
         <f>$O$25*(1+C$42)/($B43-C$42)/(1+$B43)^$O$29</f>
-        <v>188867.9972391483</v>
+        <v>102746.47236164584</v>
       </c>
       <c r="D43" s="138">
-        <f t="shared" ref="C43:G47" si="13">$O$25*(1+D$42)/($B43-D$42)/(1+$B43)^$O$29</f>
-        <v>206128.54513015843</v>
+        <f t="shared" ref="C43:G47" si="12">$O$25*(1+D$42)/($B43-D$42)/(1+$B43)^$O$29</f>
+        <v>108594.87988115176</v>
       </c>
       <c r="E43" s="138">
-        <f t="shared" si="13"/>
-        <v>226641.02891822567</v>
+        <f t="shared" si="12"/>
+        <v>115082.15328894265</v>
       </c>
       <c r="F43" s="138">
-        <f t="shared" si="13"/>
-        <v>251420.03490347523</v>
+        <f t="shared" si="12"/>
+        <v>122319.02278036956</v>
       </c>
       <c r="G43" s="138">
-        <f t="shared" si="13"/>
-        <v>281951.19813967944</v>
+        <f t="shared" si="12"/>
+        <v>130443.37708012093</v>
       </c>
       <c r="I43" s="136"/>
       <c r="J43" s="139">
         <f>B43</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="K43" s="138">
-        <f t="shared" ref="K43:O47" si="14">C43+$H30</f>
-        <v>245176.57140955774</v>
+        <f t="shared" ref="K43:O47" si="13">C43+$H30</f>
+        <v>155454.72620404806</v>
       </c>
       <c r="L43" s="138">
-        <f t="shared" si="14"/>
-        <v>262437.11930056784</v>
+        <f t="shared" si="13"/>
+        <v>161303.13372355397</v>
       </c>
       <c r="M43" s="138">
-        <f t="shared" si="14"/>
-        <v>282949.60308863508</v>
+        <f t="shared" si="13"/>
+        <v>167790.40713134487</v>
       </c>
       <c r="N43" s="138">
-        <f t="shared" si="14"/>
-        <v>307728.60907388467</v>
+        <f t="shared" si="13"/>
+        <v>175027.27662277178</v>
       </c>
       <c r="O43" s="138">
-        <f t="shared" si="14"/>
-        <v>338259.77231008885</v>
-      </c>
-      <c r="Q43" s="181">
+        <f t="shared" si="13"/>
+        <v>183151.63092252315</v>
+      </c>
+      <c r="Q43" s="180">
         <v>125</v>
       </c>
-      <c r="R43" s="181">
-        <f t="shared" si="12"/>
+      <c r="R43" s="180">
+        <f t="shared" si="11"/>
         <v>10380</v>
       </c>
-      <c r="S43" s="181">
-        <f t="shared" si="12"/>
+      <c r="S43" s="180">
+        <f t="shared" si="11"/>
         <v>17707</v>
       </c>
-      <c r="V43" s="166"/>
+      <c r="V43" s="165"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="132">
         <f>B45-1%</f>
-        <v>9.8077761792998472E-2</v>
+        <v>0.1365435872653363</v>
       </c>
       <c r="C44" s="138">
-        <f t="shared" si="13"/>
-        <v>157165.33554154015</v>
+        <f t="shared" si="12"/>
+        <v>90286.41935950458</v>
       </c>
       <c r="D44" s="138">
-        <f t="shared" si="13"/>
-        <v>169531.37791810135</v>
+        <f t="shared" si="12"/>
+        <v>94984.574453744543</v>
       </c>
       <c r="E44" s="138">
-        <f t="shared" si="13"/>
-        <v>183857.86436005961</v>
+        <f t="shared" si="12"/>
+        <v>100145.40328453109</v>
       </c>
       <c r="F44" s="138">
-        <f t="shared" si="13"/>
-        <v>200651.12741317943</v>
+        <f t="shared" si="12"/>
+        <v>105840.79157980107</v>
       </c>
       <c r="G44" s="138">
-        <f t="shared" si="13"/>
-        <v>220608.28858216424</v>
+        <f t="shared" si="12"/>
+        <v>112158.33031350229</v>
       </c>
       <c r="I44" s="136"/>
       <c r="J44" s="139">
         <f>B44</f>
-        <v>9.8077761792998472E-2</v>
+        <v>0.1365435872653363</v>
       </c>
       <c r="K44" s="138">
-        <f t="shared" si="14"/>
-        <v>212413.72151676059</v>
+        <f t="shared" si="13"/>
+        <v>142064.39514897589</v>
       </c>
       <c r="L44" s="138">
-        <f t="shared" si="14"/>
-        <v>224779.7638933218</v>
+        <f t="shared" si="13"/>
+        <v>146762.55024321587</v>
       </c>
       <c r="M44" s="138">
-        <f t="shared" si="14"/>
-        <v>239106.25033528006</v>
+        <f t="shared" si="13"/>
+        <v>151923.37907400241</v>
       </c>
       <c r="N44" s="138">
-        <f t="shared" si="14"/>
-        <v>255899.51338839988</v>
+        <f t="shared" si="13"/>
+        <v>157618.76736927239</v>
       </c>
       <c r="O44" s="138">
-        <f t="shared" si="14"/>
-        <v>275856.67455738469</v>
+        <f t="shared" si="13"/>
+        <v>163936.30610297361</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="132">
         <f>S14</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="C45" s="138">
-        <f t="shared" si="13"/>
-        <v>133324.09458456471</v>
+        <f t="shared" si="12"/>
+        <v>80004.993120245505</v>
       </c>
       <c r="D45" s="138">
-        <f t="shared" si="13"/>
-        <v>142554.00882539159</v>
+        <f t="shared" si="12"/>
+        <v>83844.411318280851</v>
       </c>
       <c r="E45" s="138">
-        <f t="shared" si="13"/>
-        <v>153046.94946636626</v>
+        <f t="shared" si="12"/>
+        <v>88028.037398827844</v>
       </c>
       <c r="F45" s="138">
-        <f t="shared" si="13"/>
-        <v>165081.20703149019</v>
+        <f t="shared" si="12"/>
+        <v>92604.331512048462</v>
       </c>
       <c r="G45" s="138">
-        <f t="shared" si="13"/>
-        <v>179023.30933032802</v>
+        <f t="shared" si="12"/>
+        <v>97631.298507374595</v>
       </c>
       <c r="I45" s="136"/>
       <c r="J45" s="139">
         <f>B45</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="K45" s="138">
-        <f t="shared" si="14"/>
-        <v>187549.88392488527</v>
+        <f t="shared" si="13"/>
+        <v>130884.30417650119</v>
       </c>
       <c r="L45" s="138">
-        <f t="shared" si="14"/>
-        <v>196779.79816571216</v>
+        <f t="shared" si="13"/>
+        <v>134723.72237453653</v>
       </c>
       <c r="M45" s="138">
-        <f t="shared" si="14"/>
-        <v>207272.73880668683</v>
+        <f t="shared" si="13"/>
+        <v>138907.34845508353</v>
       </c>
       <c r="N45" s="138">
-        <f t="shared" si="14"/>
-        <v>219306.99637181076</v>
+        <f t="shared" si="13"/>
+        <v>143483.64256830415</v>
       </c>
       <c r="O45" s="138">
-        <f t="shared" si="14"/>
-        <v>233249.09867064859</v>
+        <f t="shared" si="13"/>
+        <v>148510.60956363028</v>
       </c>
       <c r="V45" s="76"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="132">
         <f>B45+1%</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="C46" s="138">
-        <f t="shared" si="13"/>
-        <v>114799.61116088912</v>
+        <f t="shared" si="12"/>
+        <v>71399.261538160426</v>
       </c>
       <c r="D46" s="138">
-        <f t="shared" si="13"/>
-        <v>121908.34568269004</v>
+        <f t="shared" si="12"/>
+        <v>74582.445383924074</v>
       </c>
       <c r="E46" s="138">
-        <f t="shared" si="13"/>
-        <v>129872.75257317048</v>
+        <f t="shared" si="12"/>
+        <v>78027.525716156757</v>
       </c>
       <c r="F46" s="138">
-        <f t="shared" si="13"/>
-        <v>138857.22032446245</v>
+        <f t="shared" si="12"/>
+        <v>81768.210501029942</v>
       </c>
       <c r="G46" s="138">
-        <f t="shared" si="13"/>
-        <v>149071.12744702879</v>
+        <f t="shared" si="12"/>
+        <v>85844.251614006018</v>
       </c>
       <c r="I46" s="136"/>
       <c r="J46" s="139">
         <f>B46</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="K46" s="138">
-        <f t="shared" si="14"/>
-        <v>168038.65854571975</v>
+        <f t="shared" si="13"/>
+        <v>121410.11607364315</v>
       </c>
       <c r="L46" s="138">
-        <f t="shared" si="14"/>
-        <v>175147.39306752066</v>
+        <f t="shared" si="13"/>
+        <v>124593.2999194068</v>
       </c>
       <c r="M46" s="138">
-        <f t="shared" si="14"/>
-        <v>183111.79995800112</v>
+        <f t="shared" si="13"/>
+        <v>128038.38025163948</v>
       </c>
       <c r="N46" s="138">
-        <f t="shared" si="14"/>
-        <v>192096.26770929308</v>
+        <f t="shared" si="13"/>
+        <v>131779.06503651268</v>
       </c>
       <c r="O46" s="138">
-        <f t="shared" si="14"/>
-        <v>202310.17483185942</v>
+        <f t="shared" si="13"/>
+        <v>135855.10614948874</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="132">
         <f>B46+1%</f>
-        <v>0.12807776179299846</v>
+        <v>0.16654358726533633</v>
       </c>
       <c r="C47" s="138">
-        <f t="shared" si="13"/>
-        <v>100035.29458264746</v>
+        <f t="shared" si="12"/>
+        <v>64108.754597674204</v>
       </c>
       <c r="D47" s="138">
-        <f t="shared" si="13"/>
-        <v>105647.94361372813</v>
+        <f t="shared" si="12"/>
+        <v>66780.488130561222</v>
       </c>
       <c r="E47" s="138">
-        <f t="shared" si="13"/>
-        <v>111863.59909049049</v>
+        <f t="shared" si="12"/>
+        <v>69655.327994089632</v>
       </c>
       <c r="F47" s="138">
-        <f t="shared" si="13"/>
-        <v>118784.95545590289</v>
+        <f t="shared" si="12"/>
+        <v>72757.349647359835</v>
       </c>
       <c r="G47" s="138">
-        <f t="shared" si="13"/>
-        <v>126539.42963961397</v>
+        <f t="shared" si="12"/>
+        <v>76114.590166805036</v>
       </c>
       <c r="I47" s="136"/>
       <c r="J47" s="139">
         <f>B47</f>
-        <v>0.12807776179299846</v>
+        <v>0.16654358726533633</v>
       </c>
       <c r="K47" s="138">
-        <f t="shared" si="14"/>
-        <v>152321.81489329223</v>
+        <f t="shared" si="13"/>
+        <v>113280.03142371296</v>
       </c>
       <c r="L47" s="138">
-        <f t="shared" si="14"/>
-        <v>157934.46392437292</v>
+        <f t="shared" si="13"/>
+        <v>115951.76495659999</v>
       </c>
       <c r="M47" s="138">
-        <f t="shared" si="14"/>
-        <v>164150.11940113528</v>
+        <f t="shared" si="13"/>
+        <v>118826.6048201284</v>
       </c>
       <c r="N47" s="138">
-        <f t="shared" si="14"/>
-        <v>171071.47576654766</v>
+        <f t="shared" si="13"/>
+        <v>121928.6264733986</v>
       </c>
       <c r="O47" s="138">
-        <f t="shared" si="14"/>
-        <v>178825.94995025874</v>
+        <f t="shared" si="13"/>
+        <v>125285.8669928438</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
@@ -6750,89 +6690,89 @@
       <c r="O48" s="136"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C49" s="244" t="s">
+      <c r="C49" s="241" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="241"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241"/>
+      <c r="G49" s="241"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="222"/>
+      <c r="K49" s="241" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="244"/>
-      <c r="E49" s="244"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="223"/>
-      <c r="J49" s="223"/>
-      <c r="K49" s="244" t="s">
-        <v>201</v>
-      </c>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="244"/>
+      <c r="L49" s="241"/>
+      <c r="M49" s="241"/>
+      <c r="N49" s="241"/>
+      <c r="O49" s="241"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C50" s="243" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="243"/>
-      <c r="E50" s="243"/>
-      <c r="F50" s="243"/>
-      <c r="G50" s="243"/>
+      <c r="C50" s="242" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="242"/>
+      <c r="E50" s="242"/>
+      <c r="F50" s="242"/>
+      <c r="G50" s="242"/>
       <c r="H50" s="72"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="223"/>
-      <c r="K50" s="243" t="s">
-        <v>199</v>
-      </c>
-      <c r="L50" s="243"/>
-      <c r="M50" s="243"/>
-      <c r="N50" s="243"/>
-      <c r="O50" s="243"/>
+      <c r="I50" s="222"/>
+      <c r="J50" s="222"/>
+      <c r="K50" s="242" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="242"/>
+      <c r="M50" s="242"/>
+      <c r="N50" s="242"/>
+      <c r="O50" s="242"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="228">
+      <c r="C51" s="227">
         <f>D51-0.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D51" s="228">
+      <c r="D51" s="227">
         <f>E51-0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="E51" s="228">
+      <c r="E51" s="227">
         <f>E42</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F51" s="228">
+      <c r="F51" s="227">
         <f>E51+0.5%</f>
         <v>0.04</v>
       </c>
-      <c r="G51" s="228">
+      <c r="G51" s="227">
         <f>F51+0.5%</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H51" s="72"/>
-      <c r="I51" s="223"/>
-      <c r="J51" s="227" t="s">
+      <c r="I51" s="222"/>
+      <c r="J51" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="K51" s="228">
+      <c r="K51" s="227">
         <f>L51-0.5%</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L51" s="228">
+      <c r="L51" s="227">
         <f>M51-0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="M51" s="228">
+      <c r="M51" s="227">
         <f>E42</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N51" s="228">
+      <c r="N51" s="227">
         <f>M51+0.5%</f>
         <v>0.04</v>
       </c>
-      <c r="O51" s="228">
+      <c r="O51" s="227">
         <f>N51+0.5%</f>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -6840,305 +6780,305 @@
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="132">
         <f>B43</f>
-        <v>8.8077761792998477E-2</v>
-      </c>
-      <c r="C52" s="222">
+        <v>0.12654358726533629</v>
+      </c>
+      <c r="C52" s="221">
         <f>K43-$R39+$S39-$Q39</f>
-        <v>252378.57140955774</v>
-      </c>
-      <c r="D52" s="222">
-        <f t="shared" ref="D52:G52" si="15">L43-$R39+$S39-$Q39</f>
-        <v>269639.11930056784</v>
-      </c>
-      <c r="E52" s="222">
+        <v>162656.72620404806</v>
+      </c>
+      <c r="D52" s="221">
+        <f t="shared" ref="D52:G52" si="14">L43-$R39+$S39-$Q39</f>
+        <v>168505.13372355397</v>
+      </c>
+      <c r="E52" s="221">
+        <f t="shared" si="14"/>
+        <v>174992.40713134487</v>
+      </c>
+      <c r="F52" s="221">
+        <f t="shared" si="14"/>
+        <v>182229.27662277178</v>
+      </c>
+      <c r="G52" s="221">
+        <f t="shared" si="14"/>
+        <v>190353.63092252315</v>
+      </c>
+      <c r="H52" s="72"/>
+      <c r="I52" s="222"/>
+      <c r="J52" s="223">
+        <f>J43</f>
+        <v>0.12654358726533629</v>
+      </c>
+      <c r="K52" s="221">
+        <f t="shared" ref="K52:O56" si="15">C52/$S$18</f>
+        <v>157.38313220995681</v>
+      </c>
+      <c r="L52" s="221">
         <f t="shared" si="15"/>
-        <v>290151.60308863508</v>
-      </c>
-      <c r="F52" s="222">
+        <v>163.04192490387493</v>
+      </c>
+      <c r="M52" s="221">
         <f t="shared" si="15"/>
-        <v>314930.60907388467</v>
-      </c>
-      <c r="G52" s="222">
+        <v>169.31887042126897</v>
+      </c>
+      <c r="N52" s="221">
         <f t="shared" si="15"/>
-        <v>345461.77231008885</v>
-      </c>
-      <c r="H52" s="72"/>
-      <c r="I52" s="223"/>
-      <c r="J52" s="224">
-        <f>J43</f>
-        <v>8.8077761792998477E-2</v>
-      </c>
-      <c r="K52" s="222">
-        <f t="shared" ref="K52:O56" si="16">C52/$S$18</f>
-        <v>244.19605016077062</v>
-      </c>
-      <c r="L52" s="222">
-        <f t="shared" si="16"/>
-        <v>260.89698318790744</v>
-      </c>
-      <c r="M52" s="222">
-        <f t="shared" si="16"/>
-        <v>280.74441909364521</v>
-      </c>
-      <c r="N52" s="222">
-        <f t="shared" si="16"/>
-        <v>304.72004965020557</v>
-      </c>
-      <c r="O52" s="222">
-        <f t="shared" si="16"/>
-        <v>334.26134322142531</v>
+        <v>176.32110890556413</v>
+      </c>
+      <c r="O52" s="221">
+        <f t="shared" si="15"/>
+        <v>184.18205850610073</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="132">
         <f>B44</f>
-        <v>9.8077761792998472E-2</v>
-      </c>
-      <c r="C53" s="222">
-        <f t="shared" ref="C53:C56" si="17">K44-$R40+$S40-$Q40</f>
-        <v>219615.72151676059</v>
-      </c>
-      <c r="D53" s="222">
-        <f t="shared" ref="D53:D56" si="18">L44-$R40+$S40-$Q40</f>
-        <v>231981.7638933218</v>
-      </c>
-      <c r="E53" s="222">
-        <f t="shared" ref="E53:E56" si="19">M44-$R40+$S40-$Q40</f>
-        <v>246308.25033528006</v>
-      </c>
-      <c r="F53" s="222">
-        <f t="shared" ref="F53:F56" si="20">N44-$R40+$S40-$Q40</f>
-        <v>263101.51338839985</v>
-      </c>
-      <c r="G53" s="222">
-        <f t="shared" ref="G53:G56" si="21">O44-$R40+$S40-$Q40</f>
-        <v>283058.67455738469</v>
+        <v>0.1365435872653363</v>
+      </c>
+      <c r="C53" s="221">
+        <f t="shared" ref="C53:C56" si="16">K44-$R40+$S40-$Q40</f>
+        <v>149266.39514897589</v>
+      </c>
+      <c r="D53" s="221">
+        <f t="shared" ref="D53:D56" si="17">L44-$R40+$S40-$Q40</f>
+        <v>153964.55024321587</v>
+      </c>
+      <c r="E53" s="221">
+        <f t="shared" ref="E53:E56" si="18">M44-$R40+$S40-$Q40</f>
+        <v>159125.37907400241</v>
+      </c>
+      <c r="F53" s="221">
+        <f t="shared" ref="F53:F56" si="19">N44-$R40+$S40-$Q40</f>
+        <v>164820.76736927239</v>
+      </c>
+      <c r="G53" s="221">
+        <f t="shared" ref="G53:G56" si="20">O44-$R40+$S40-$Q40</f>
+        <v>171138.30610297361</v>
       </c>
       <c r="H53" s="72"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="224">
+      <c r="I53" s="222"/>
+      <c r="J53" s="223">
         <f>J44</f>
-        <v>9.8077761792998472E-2</v>
-      </c>
-      <c r="K53" s="222">
-        <f t="shared" si="16"/>
-        <v>212.49542482183068</v>
-      </c>
-      <c r="L53" s="229">
-        <f t="shared" si="16"/>
-        <v>224.46054011514354</v>
-      </c>
-      <c r="M53" s="230">
-        <f t="shared" si="16"/>
-        <v>238.3225387082442</v>
-      </c>
-      <c r="N53" s="231">
-        <f t="shared" si="16"/>
-        <v>254.57133702728942</v>
-      </c>
-      <c r="O53" s="222">
-        <f t="shared" si="16"/>
-        <v>273.88145477092064</v>
+        <v>0.1365435872653363</v>
+      </c>
+      <c r="K53" s="221">
+        <f t="shared" si="15"/>
+        <v>144.42693733282749</v>
+      </c>
+      <c r="L53" s="228">
+        <f t="shared" si="15"/>
+        <v>148.97277064446126</v>
+      </c>
+      <c r="M53" s="229">
+        <f t="shared" si="15"/>
+        <v>153.96627706220212</v>
+      </c>
+      <c r="N53" s="230">
+        <f t="shared" si="15"/>
+        <v>159.47701166248581</v>
+      </c>
+      <c r="O53" s="221">
+        <f t="shared" si="15"/>
+        <v>165.58972557829605</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="132">
         <f>B45</f>
-        <v>0.10807776179299847</v>
-      </c>
-      <c r="C54" s="222">
+        <v>0.14654358726533631</v>
+      </c>
+      <c r="C54" s="221">
+        <f t="shared" si="16"/>
+        <v>138086.30417650117</v>
+      </c>
+      <c r="D54" s="221">
         <f t="shared" si="17"/>
-        <v>194751.88392488527</v>
-      </c>
-      <c r="D54" s="222">
+        <v>141925.72237453653</v>
+      </c>
+      <c r="E54" s="221">
         <f t="shared" si="18"/>
-        <v>203981.79816571216</v>
-      </c>
-      <c r="E54" s="222">
+        <v>146109.34845508353</v>
+      </c>
+      <c r="F54" s="221">
         <f t="shared" si="19"/>
-        <v>214474.73880668683</v>
-      </c>
-      <c r="F54" s="222">
+        <v>150685.64256830415</v>
+      </c>
+      <c r="G54" s="221">
         <f t="shared" si="20"/>
-        <v>226508.99637181076</v>
-      </c>
-      <c r="G54" s="222">
-        <f t="shared" si="21"/>
-        <v>240451.09867064859</v>
+        <v>155712.60956363028</v>
       </c>
       <c r="H54" s="72"/>
-      <c r="I54" s="223"/>
-      <c r="J54" s="224">
+      <c r="I54" s="222"/>
+      <c r="J54" s="223">
         <f>J45</f>
-        <v>0.10807776179299847</v>
-      </c>
-      <c r="K54" s="222">
-        <f t="shared" si="16"/>
-        <v>188.43771303645957</v>
-      </c>
-      <c r="L54" s="232">
-        <f t="shared" si="16"/>
-        <v>197.36837853767184</v>
-      </c>
-      <c r="M54" s="222">
-        <f t="shared" si="16"/>
-        <v>207.5211210814883</v>
-      </c>
-      <c r="N54" s="233">
-        <f t="shared" si="16"/>
-        <v>219.16520856327261</v>
-      </c>
-      <c r="O54" s="222">
-        <f t="shared" si="16"/>
-        <v>232.6552853685202</v>
+        <v>0.14654358726533631</v>
+      </c>
+      <c r="K54" s="221">
+        <f t="shared" si="15"/>
+        <v>133.60932298201965</v>
+      </c>
+      <c r="L54" s="231">
+        <f t="shared" si="15"/>
+        <v>137.3242610357506</v>
+      </c>
+      <c r="M54" s="221">
+        <f t="shared" si="15"/>
+        <v>141.37224719603867</v>
+      </c>
+      <c r="N54" s="232">
+        <f t="shared" si="15"/>
+        <v>145.80017045664295</v>
+      </c>
+      <c r="O54" s="221">
+        <f t="shared" si="15"/>
+        <v>150.66415505601339</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="132">
         <f>B46</f>
-        <v>0.11807776179299846</v>
-      </c>
-      <c r="C55" s="222">
+        <v>0.15654358726533632</v>
+      </c>
+      <c r="C55" s="221">
+        <f t="shared" si="16"/>
+        <v>128612.11607364315</v>
+      </c>
+      <c r="D55" s="221">
         <f t="shared" si="17"/>
-        <v>175240.65854571975</v>
-      </c>
-      <c r="D55" s="222">
+        <v>131795.2999194068</v>
+      </c>
+      <c r="E55" s="221">
         <f t="shared" si="18"/>
-        <v>182349.39306752066</v>
-      </c>
-      <c r="E55" s="222">
+        <v>135240.38025163946</v>
+      </c>
+      <c r="F55" s="221">
         <f t="shared" si="19"/>
-        <v>190313.79995800112</v>
-      </c>
-      <c r="F55" s="222">
+        <v>138981.06503651268</v>
+      </c>
+      <c r="G55" s="221">
         <f t="shared" si="20"/>
-        <v>199298.26770929308</v>
-      </c>
-      <c r="G55" s="222">
-        <f t="shared" si="21"/>
-        <v>209512.17483185942</v>
+        <v>143057.10614948874</v>
       </c>
       <c r="H55" s="72"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="224">
+      <c r="I55" s="222"/>
+      <c r="J55" s="223">
         <f>J46</f>
-        <v>0.11807776179299846</v>
-      </c>
-      <c r="K55" s="222">
-        <f t="shared" si="16"/>
-        <v>169.5590731234976</v>
-      </c>
-      <c r="L55" s="234">
-        <f t="shared" si="16"/>
-        <v>176.43733098100901</v>
-      </c>
-      <c r="M55" s="235">
-        <f t="shared" si="16"/>
-        <v>184.14351892583426</v>
-      </c>
-      <c r="N55" s="236">
-        <f t="shared" si="16"/>
-        <v>192.83669570946049</v>
-      </c>
-      <c r="O55" s="222">
-        <f t="shared" si="16"/>
-        <v>202.71945145258616</v>
+        <v>0.15654358726533632</v>
+      </c>
+      <c r="K55" s="221">
+        <f t="shared" si="15"/>
+        <v>124.44230337224593</v>
+      </c>
+      <c r="L55" s="233">
+        <f t="shared" si="15"/>
+        <v>127.52228325219232</v>
+      </c>
+      <c r="M55" s="234">
+        <f t="shared" si="15"/>
+        <v>130.85566851116727</v>
+      </c>
+      <c r="N55" s="235">
+        <f t="shared" si="15"/>
+        <v>134.47507424859089</v>
+      </c>
+      <c r="O55" s="221">
+        <f t="shared" si="15"/>
+        <v>138.41896351986509</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="132">
         <f>B47</f>
-        <v>0.12807776179299846</v>
+        <v>0.16654358726533633</v>
       </c>
       <c r="C56" s="138">
+        <f t="shared" si="16"/>
+        <v>120482.03142371296</v>
+      </c>
+      <c r="D56" s="138">
         <f t="shared" si="17"/>
-        <v>159523.81489329223</v>
-      </c>
-      <c r="D56" s="138">
+        <v>123153.76495659999</v>
+      </c>
+      <c r="E56" s="138">
         <f t="shared" si="18"/>
-        <v>165136.46392437292</v>
-      </c>
-      <c r="E56" s="138">
+        <v>126028.6048201284</v>
+      </c>
+      <c r="F56" s="138">
         <f t="shared" si="19"/>
-        <v>171352.11940113528</v>
-      </c>
-      <c r="F56" s="138">
+        <v>129130.6264733986</v>
+      </c>
+      <c r="G56" s="138">
         <f t="shared" si="20"/>
-        <v>178273.47576654766</v>
-      </c>
-      <c r="G56" s="138">
-        <f t="shared" si="21"/>
-        <v>186027.94995025874</v>
+        <v>132487.8669928438</v>
       </c>
       <c r="I56" s="136"/>
       <c r="J56" s="139">
         <f>J47</f>
-        <v>0.12807776179299846</v>
+        <v>0.16654358726533633</v>
       </c>
       <c r="K56" s="138">
-        <f t="shared" si="16"/>
-        <v>154.35179494816899</v>
+        <f t="shared" si="15"/>
+        <v>116.57580920874629</v>
       </c>
       <c r="L56" s="138">
-        <f t="shared" si="16"/>
-        <v>159.78247282495434</v>
+        <f t="shared" si="15"/>
+        <v>119.16092082170626</v>
       </c>
       <c r="M56" s="138">
-        <f t="shared" si="16"/>
-        <v>165.79660670370745</v>
+        <f t="shared" si="15"/>
+        <v>121.94255372975186</v>
       </c>
       <c r="N56" s="138">
-        <f t="shared" si="16"/>
-        <v>172.49356150755258</v>
+        <f t="shared" si="15"/>
+        <v>124.94400282668214</v>
       </c>
       <c r="O56" s="138">
-        <f t="shared" si="16"/>
-        <v>179.99662310331291</v>
+        <f t="shared" si="15"/>
+        <v>128.19239618159105</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B60" s="242" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="242"/>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
-      <c r="K60" s="242"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="242"/>
-      <c r="N60" s="242"/>
-      <c r="O60" s="242"/>
+      <c r="B60" s="244" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="244"/>
+      <c r="D60" s="244"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="244"/>
+      <c r="G60" s="244"/>
+      <c r="H60" s="244"/>
+      <c r="I60" s="244"/>
+      <c r="J60" s="244"/>
+      <c r="K60" s="244"/>
+      <c r="L60" s="244"/>
+      <c r="M60" s="244"/>
+      <c r="N60" s="244"/>
+      <c r="O60" s="244"/>
       <c r="Q60" s="239" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R60" s="239"/>
       <c r="S60" s="239"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C62" s="241" t="s">
+      <c r="C62" s="243" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="243"/>
+      <c r="E62" s="243"/>
+      <c r="F62" s="243"/>
+      <c r="G62" s="243"/>
+      <c r="K62" s="243" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="241"/>
-      <c r="E62" s="241"/>
-      <c r="F62" s="241"/>
-      <c r="G62" s="241"/>
-      <c r="K62" s="241" t="s">
-        <v>198</v>
-      </c>
-      <c r="L62" s="241"/>
-      <c r="M62" s="241"/>
-      <c r="N62" s="241"/>
-      <c r="O62" s="241"/>
+      <c r="L62" s="243"/>
+      <c r="M62" s="243"/>
+      <c r="N62" s="243"/>
+      <c r="O62" s="243"/>
       <c r="Q62" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S62" s="94">
         <f>'Financial Statements'!AB42</f>
@@ -7147,21 +7087,21 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C63" s="240" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="240"/>
       <c r="E63" s="240"/>
       <c r="F63" s="240"/>
       <c r="G63" s="240"/>
       <c r="K63" s="240" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L63" s="240"/>
       <c r="M63" s="240"/>
       <c r="N63" s="240"/>
       <c r="O63" s="240"/>
       <c r="Q63" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S63" s="131">
         <f>55</f>
@@ -7174,22 +7114,22 @@
       </c>
       <c r="C64" s="148">
         <f>D64-10</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D64" s="148">
         <f>E64-10</f>
+        <v>30</v>
+      </c>
+      <c r="E64" s="149">
         <v>40</v>
-      </c>
-      <c r="E64" s="149">
-        <v>50</v>
       </c>
       <c r="F64" s="148">
         <f>E64+10</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G64" s="148">
         <f>F64+10</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I64" s="136"/>
       <c r="J64" s="137" t="s">
@@ -7197,646 +7137,654 @@
       </c>
       <c r="K64" s="148">
         <f>C64</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L64" s="148">
         <f>D64</f>
+        <v>30</v>
+      </c>
+      <c r="M64" s="225">
+        <f>E64</f>
         <v>40</v>
-      </c>
-      <c r="M64" s="226">
-        <f>E64</f>
-        <v>50</v>
       </c>
       <c r="N64" s="148">
         <f>F64</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O64" s="148">
         <f>G64</f>
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="Q64" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="S64" s="14">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="132">
-        <f t="shared" ref="B65" si="22">B66-1%</f>
-        <v>8.8077761792998477E-2</v>
+        <f t="shared" ref="B65" si="21">B66-1%</f>
+        <v>0.12654358726533629</v>
       </c>
       <c r="C65" s="138">
-        <f t="shared" ref="C65:G69" si="23">$O$8*C$64/(1+$B65)^$O$29</f>
-        <v>814224.8410453574</v>
+        <f t="shared" ref="C65:G69" si="22">$O$8*C$64/(1+$B65)^$O$29</f>
+        <v>472390.14312028227</v>
       </c>
       <c r="D65" s="138">
-        <f t="shared" si="23"/>
-        <v>1085633.12139381</v>
+        <f t="shared" si="22"/>
+        <v>708585.21468042338</v>
       </c>
       <c r="E65" s="138">
-        <f t="shared" si="23"/>
-        <v>1357041.4017422625</v>
+        <f t="shared" si="22"/>
+        <v>944780.28624056454</v>
       </c>
       <c r="F65" s="138">
-        <f t="shared" si="23"/>
-        <v>1628449.6820907148</v>
+        <f t="shared" si="22"/>
+        <v>1180975.3578007058</v>
       </c>
       <c r="G65" s="138">
-        <f t="shared" si="23"/>
-        <v>1899857.9624391675</v>
+        <f t="shared" si="22"/>
+        <v>1417170.4293608468</v>
       </c>
       <c r="I65" s="136"/>
       <c r="J65" s="139">
         <f>B65</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="K65" s="138">
-        <f t="shared" ref="K65:O69" si="24">C65+$H30</f>
-        <v>870533.41521576687</v>
+        <f t="shared" ref="K65:O69" si="23">C65+$H30</f>
+        <v>525098.39696268446</v>
       </c>
       <c r="L65" s="138">
-        <f t="shared" si="24"/>
-        <v>1141941.6955642195</v>
+        <f t="shared" si="23"/>
+        <v>761293.46852282563</v>
       </c>
       <c r="M65" s="138">
-        <f t="shared" si="24"/>
-        <v>1413349.975912672</v>
+        <f t="shared" si="23"/>
+        <v>997488.54008296679</v>
       </c>
       <c r="N65" s="138">
-        <f t="shared" si="24"/>
-        <v>1684758.2562611243</v>
+        <f t="shared" si="23"/>
+        <v>1233683.6116431081</v>
       </c>
       <c r="O65" s="138">
-        <f t="shared" si="24"/>
-        <v>1956166.536609577</v>
+        <f t="shared" si="23"/>
+        <v>1469878.683203249</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="132">
         <f>B67-1%</f>
-        <v>9.8077761792998472E-2</v>
+        <v>0.1365435872653363</v>
       </c>
       <c r="C66" s="138">
-        <f t="shared" si="23"/>
-        <v>784967.54288697464</v>
+        <f t="shared" si="22"/>
+        <v>455982.7804601079</v>
       </c>
       <c r="D66" s="138">
-        <f t="shared" si="23"/>
-        <v>1046623.3905159662</v>
+        <f t="shared" si="22"/>
+        <v>683974.17069016176</v>
       </c>
       <c r="E66" s="138">
-        <f t="shared" si="23"/>
-        <v>1308279.2381449579</v>
+        <f t="shared" si="22"/>
+        <v>911965.56092021579</v>
       </c>
       <c r="F66" s="138">
-        <f t="shared" si="23"/>
-        <v>1569935.0857739493</v>
+        <f t="shared" si="22"/>
+        <v>1139956.9511502699</v>
       </c>
       <c r="G66" s="138">
-        <f t="shared" si="23"/>
-        <v>1831590.9334029409</v>
+        <f t="shared" si="22"/>
+        <v>1367948.3413803235</v>
       </c>
       <c r="I66" s="136"/>
       <c r="J66" s="139">
         <f>B66</f>
-        <v>9.8077761792998472E-2</v>
+        <v>0.1365435872653363</v>
       </c>
       <c r="K66" s="138">
-        <f t="shared" si="24"/>
-        <v>840215.92886219511</v>
+        <f t="shared" si="23"/>
+        <v>507760.75624957925</v>
       </c>
       <c r="L66" s="138">
-        <f t="shared" si="24"/>
-        <v>1101871.7764911866</v>
+        <f t="shared" si="23"/>
+        <v>735752.14647963305</v>
       </c>
       <c r="M66" s="138">
-        <f t="shared" si="24"/>
-        <v>1363527.6241201784</v>
+        <f t="shared" si="23"/>
+        <v>963743.53670968709</v>
       </c>
       <c r="N66" s="138">
-        <f t="shared" si="24"/>
-        <v>1625183.4717491698</v>
+        <f t="shared" si="23"/>
+        <v>1191734.9269397412</v>
       </c>
       <c r="O66" s="138">
-        <f t="shared" si="24"/>
-        <v>1886839.3193781613</v>
+        <f t="shared" si="23"/>
+        <v>1419726.3171697948</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="132">
         <f>S14</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="C67" s="138">
-        <f t="shared" si="23"/>
-        <v>757012.63628551923</v>
+        <f t="shared" si="22"/>
+        <v>440281.61164189567</v>
       </c>
       <c r="D67" s="138">
-        <f t="shared" si="23"/>
-        <v>1009350.1817140258</v>
+        <f t="shared" si="22"/>
+        <v>660422.41746284347</v>
       </c>
       <c r="E67" s="138">
-        <f t="shared" si="23"/>
-        <v>1261687.7271425324</v>
+        <f t="shared" si="22"/>
+        <v>880563.22328379133</v>
       </c>
       <c r="F67" s="138">
-        <f t="shared" si="23"/>
-        <v>1514025.2725710385</v>
+        <f t="shared" si="22"/>
+        <v>1100704.0291047392</v>
       </c>
       <c r="G67" s="138">
-        <f t="shared" si="23"/>
-        <v>1766362.817999545</v>
+        <f t="shared" si="22"/>
+        <v>1320844.8349256869</v>
       </c>
       <c r="I67" s="136"/>
       <c r="J67" s="139">
         <f>B67</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="K67" s="138">
-        <f t="shared" si="24"/>
-        <v>811238.42562583974</v>
+        <f t="shared" si="23"/>
+        <v>491160.92269815132</v>
       </c>
       <c r="L67" s="138">
-        <f t="shared" si="24"/>
-        <v>1063575.9710543463</v>
+        <f t="shared" si="23"/>
+        <v>711301.72851909918</v>
       </c>
       <c r="M67" s="138">
-        <f t="shared" si="24"/>
-        <v>1315913.5164828529</v>
+        <f t="shared" si="23"/>
+        <v>931442.53434004704</v>
       </c>
       <c r="N67" s="138">
-        <f t="shared" si="24"/>
-        <v>1568251.061911359</v>
+        <f t="shared" si="23"/>
+        <v>1151583.3401609948</v>
       </c>
       <c r="O67" s="138">
-        <f t="shared" si="24"/>
-        <v>1820588.6073398655</v>
+        <f t="shared" si="23"/>
+        <v>1371724.1459819425</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="132">
         <f>B67+1%</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="C68" s="138">
-        <f t="shared" si="23"/>
-        <v>730291.16520314431</v>
+        <f t="shared" si="22"/>
+        <v>425250.47404492478</v>
       </c>
       <c r="D68" s="138">
-        <f t="shared" si="23"/>
-        <v>973721.55360419257</v>
+        <f t="shared" si="22"/>
+        <v>637875.71106738714</v>
       </c>
       <c r="E68" s="138">
-        <f t="shared" si="23"/>
-        <v>1217151.9420052408</v>
+        <f t="shared" si="22"/>
+        <v>850500.94808984955</v>
       </c>
       <c r="F68" s="138">
-        <f t="shared" si="23"/>
-        <v>1460582.3304062886</v>
+        <f t="shared" si="22"/>
+        <v>1063126.185112312</v>
       </c>
       <c r="G68" s="138">
-        <f t="shared" si="23"/>
-        <v>1704012.7188073369</v>
+        <f t="shared" si="22"/>
+        <v>1275751.4221347743</v>
       </c>
       <c r="I68" s="136"/>
       <c r="J68" s="139">
         <f>B68</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="K68" s="138">
-        <f t="shared" si="24"/>
-        <v>783530.21258797497</v>
+        <f t="shared" si="23"/>
+        <v>475261.32858040748</v>
       </c>
       <c r="L68" s="138">
-        <f t="shared" si="24"/>
-        <v>1026960.6009890232</v>
+        <f t="shared" si="23"/>
+        <v>687886.56560286984</v>
       </c>
       <c r="M68" s="138">
-        <f t="shared" si="24"/>
-        <v>1270390.9893900715</v>
+        <f t="shared" si="23"/>
+        <v>900511.80262533226</v>
       </c>
       <c r="N68" s="138">
-        <f t="shared" si="24"/>
-        <v>1513821.3777911193</v>
+        <f t="shared" si="23"/>
+        <v>1113137.0396477948</v>
       </c>
       <c r="O68" s="138">
-        <f t="shared" si="24"/>
-        <v>1757251.7661921675</v>
+        <f t="shared" si="23"/>
+        <v>1325762.2766702571</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="132">
         <f>B68+1%</f>
-        <v>0.12807776179299846</v>
-      </c>
-      <c r="C69" s="222">
+        <v>0.16654358726533633</v>
+      </c>
+      <c r="C69" s="221">
+        <f t="shared" si="22"/>
+        <v>410855.34716982214</v>
+      </c>
+      <c r="D69" s="221">
+        <f t="shared" si="22"/>
+        <v>616283.02075473312</v>
+      </c>
+      <c r="E69" s="221">
+        <f t="shared" si="22"/>
+        <v>821710.69433964428</v>
+      </c>
+      <c r="F69" s="221">
+        <f t="shared" si="22"/>
+        <v>1027138.3679245553</v>
+      </c>
+      <c r="G69" s="221">
+        <f t="shared" si="22"/>
+        <v>1232566.0415094662</v>
+      </c>
+      <c r="H69" s="72"/>
+      <c r="I69" s="222"/>
+      <c r="J69" s="223">
+        <f>B69</f>
+        <v>0.16654358726533633</v>
+      </c>
+      <c r="K69" s="221">
         <f t="shared" si="23"/>
-        <v>704738.39567740541</v>
-      </c>
-      <c r="D69" s="222">
+        <v>460026.62399586092</v>
+      </c>
+      <c r="L69" s="221">
         <f t="shared" si="23"/>
-        <v>939651.19423654058</v>
-      </c>
-      <c r="E69" s="222">
+        <v>665454.29758077185</v>
+      </c>
+      <c r="M69" s="221">
         <f t="shared" si="23"/>
-        <v>1174563.9927956758</v>
-      </c>
-      <c r="F69" s="222">
+        <v>870881.971165683</v>
+      </c>
+      <c r="N69" s="221">
         <f t="shared" si="23"/>
-        <v>1409476.7913548108</v>
-      </c>
-      <c r="G69" s="222">
+        <v>1076309.6447505942</v>
+      </c>
+      <c r="O69" s="221">
         <f t="shared" si="23"/>
-        <v>1644389.5899139461</v>
-      </c>
-      <c r="H69" s="72"/>
-      <c r="I69" s="223"/>
-      <c r="J69" s="224">
-        <f>B69</f>
-        <v>0.12807776179299846</v>
-      </c>
-      <c r="K69" s="222">
-        <f t="shared" si="24"/>
-        <v>757024.91598805017</v>
-      </c>
-      <c r="L69" s="222">
-        <f t="shared" si="24"/>
-        <v>991937.71454718534</v>
-      </c>
-      <c r="M69" s="222">
-        <f t="shared" si="24"/>
-        <v>1226850.5131063205</v>
-      </c>
-      <c r="N69" s="222">
-        <f t="shared" si="24"/>
-        <v>1461763.3116654556</v>
-      </c>
-      <c r="O69" s="222">
-        <f t="shared" si="24"/>
-        <v>1696676.1102245909</v>
+        <v>1281737.318335505</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C70" s="223"/>
-      <c r="D70" s="223"/>
-      <c r="E70" s="223"/>
-      <c r="F70" s="223"/>
-      <c r="G70" s="223"/>
+      <c r="C70" s="222"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="222"/>
+      <c r="F70" s="222"/>
+      <c r="G70" s="222"/>
       <c r="H70" s="72"/>
-      <c r="I70" s="223"/>
-      <c r="J70" s="223"/>
-      <c r="K70" s="223"/>
-      <c r="L70" s="223"/>
-      <c r="M70" s="223"/>
-      <c r="N70" s="223"/>
-      <c r="O70" s="223"/>
+      <c r="I70" s="222"/>
+      <c r="J70" s="222"/>
+      <c r="K70" s="222"/>
+      <c r="L70" s="222"/>
+      <c r="M70" s="222"/>
+      <c r="N70" s="222"/>
+      <c r="O70" s="222"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C71" s="244" t="s">
+      <c r="C71" s="241" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="241"/>
+      <c r="E71" s="241"/>
+      <c r="F71" s="241"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="222"/>
+      <c r="J71" s="222"/>
+      <c r="K71" s="241" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="244"/>
-      <c r="E71" s="244"/>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="223"/>
-      <c r="J71" s="223"/>
-      <c r="K71" s="244" t="s">
-        <v>201</v>
-      </c>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
+      <c r="L71" s="241"/>
+      <c r="M71" s="241"/>
+      <c r="N71" s="241"/>
+      <c r="O71" s="241"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C72" s="243" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="243"/>
-      <c r="E72" s="243"/>
-      <c r="F72" s="243"/>
-      <c r="G72" s="243"/>
+      <c r="C72" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="242"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="242"/>
+      <c r="G72" s="242"/>
       <c r="H72" s="72"/>
-      <c r="I72" s="223"/>
-      <c r="J72" s="223"/>
-      <c r="K72" s="243" t="s">
-        <v>203</v>
-      </c>
-      <c r="L72" s="243"/>
-      <c r="M72" s="243"/>
-      <c r="N72" s="243"/>
-      <c r="O72" s="243"/>
+      <c r="I72" s="222"/>
+      <c r="J72" s="222"/>
+      <c r="K72" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="L72" s="242"/>
+      <c r="M72" s="242"/>
+      <c r="N72" s="242"/>
+      <c r="O72" s="242"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="237">
+      <c r="C73" s="236">
         <f>C64</f>
+        <v>20</v>
+      </c>
+      <c r="D73" s="236">
+        <f>D64</f>
         <v>30</v>
       </c>
-      <c r="D73" s="237">
-        <f>D64</f>
+      <c r="E73" s="237">
+        <f>E64</f>
         <v>40</v>
       </c>
-      <c r="E73" s="238">
-        <f>E64</f>
+      <c r="F73" s="236">
+        <f>F64</f>
         <v>50</v>
       </c>
-      <c r="F73" s="237">
-        <f>F64</f>
+      <c r="G73" s="236">
+        <f>G64</f>
         <v>60</v>
       </c>
-      <c r="G73" s="237">
-        <f>G64</f>
-        <v>70</v>
-      </c>
       <c r="H73" s="72"/>
-      <c r="I73" s="225"/>
-      <c r="J73" s="227" t="s">
+      <c r="I73" s="224"/>
+      <c r="J73" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="K73" s="226">
+      <c r="K73" s="225">
         <f>C64</f>
+        <v>20</v>
+      </c>
+      <c r="L73" s="225">
+        <f t="shared" ref="L73:O73" si="24">D64</f>
         <v>30</v>
       </c>
-      <c r="L73" s="226">
-        <f t="shared" ref="L73:O73" si="25">D64</f>
+      <c r="M73" s="225">
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
-      <c r="M73" s="226">
-        <f t="shared" si="25"/>
+      <c r="N73" s="225">
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="N73" s="226">
-        <f t="shared" si="25"/>
+      <c r="O73" s="225">
+        <f t="shared" si="24"/>
         <v>60</v>
-      </c>
-      <c r="O73" s="226">
-        <f t="shared" si="25"/>
-        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="132">
         <f>B65</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="C74" s="138">
         <f>K65-$R39+$S39-$Q39</f>
-        <v>877735.41521576687</v>
+        <v>532300.39696268446</v>
       </c>
       <c r="D74" s="138">
-        <f t="shared" ref="D74:G78" si="26">L65-$R39+$S39-$Q39</f>
-        <v>1149143.6955642195</v>
+        <f t="shared" ref="D74:G78" si="25">L65-$R39+$S39-$Q39</f>
+        <v>768495.46852282563</v>
       </c>
       <c r="E74" s="138">
-        <f t="shared" si="26"/>
-        <v>1420551.975912672</v>
+        <f t="shared" si="25"/>
+        <v>1004690.5400829668</v>
       </c>
       <c r="F74" s="138">
-        <f t="shared" si="26"/>
-        <v>1691960.2562611243</v>
+        <f t="shared" si="25"/>
+        <v>1240885.6116431081</v>
       </c>
       <c r="G74" s="138">
-        <f t="shared" si="26"/>
-        <v>1963368.536609577</v>
+        <f t="shared" si="25"/>
+        <v>1477080.683203249</v>
       </c>
       <c r="I74" s="136"/>
       <c r="J74" s="139">
         <f>J65</f>
-        <v>8.8077761792998477E-2</v>
+        <v>0.12654358726533629</v>
       </c>
       <c r="K74" s="138">
-        <f t="shared" ref="K74:O78" si="27">C74/$S$18</f>
-        <v>849.2778142169841</v>
+        <f t="shared" ref="K74:O78" si="26">C74/$S$18</f>
+        <v>515.04235764278985</v>
       </c>
       <c r="L74" s="138">
-        <f t="shared" si="27"/>
-        <v>1111.8865993917991</v>
+        <f t="shared" si="26"/>
+        <v>743.57960317948732</v>
       </c>
       <c r="M74" s="138">
-        <f t="shared" si="27"/>
-        <v>1374.4953845666139</v>
+        <f t="shared" si="26"/>
+        <v>972.11684871618479</v>
       </c>
       <c r="N74" s="138">
-        <f t="shared" si="27"/>
-        <v>1637.1041697414284</v>
+        <f t="shared" si="26"/>
+        <v>1200.6540942528825</v>
       </c>
       <c r="O74" s="138">
-        <f t="shared" si="27"/>
-        <v>1899.7129549162435</v>
+        <f t="shared" si="26"/>
+        <v>1429.1913397895796</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="132">
-        <f t="shared" ref="B75:B78" si="28">B66</f>
-        <v>9.8077761792998472E-2</v>
+        <f t="shared" ref="B75:B78" si="27">B66</f>
+        <v>0.1365435872653363</v>
       </c>
       <c r="C75" s="138">
-        <f t="shared" ref="C75:C78" si="29">K66-$R40+$S40-$Q40</f>
-        <v>847417.92886219511</v>
+        <f t="shared" ref="C75:C78" si="28">K66-$R40+$S40-$Q40</f>
+        <v>514962.75624957925</v>
       </c>
       <c r="D75" s="138">
-        <f t="shared" si="26"/>
-        <v>1109073.7764911866</v>
+        <f t="shared" si="25"/>
+        <v>742954.14647963305</v>
       </c>
       <c r="E75" s="138">
-        <f t="shared" si="26"/>
-        <v>1370729.6241201784</v>
+        <f t="shared" si="25"/>
+        <v>970945.53670968709</v>
       </c>
       <c r="F75" s="138">
-        <f t="shared" si="26"/>
-        <v>1632385.4717491698</v>
+        <f t="shared" si="25"/>
+        <v>1198936.9269397412</v>
       </c>
       <c r="G75" s="138">
-        <f t="shared" si="26"/>
-        <v>1894041.3193781613</v>
+        <f t="shared" si="25"/>
+        <v>1426928.3171697948</v>
       </c>
       <c r="I75" s="136"/>
       <c r="J75" s="139">
-        <f t="shared" ref="J75:J78" si="30">J66</f>
-        <v>9.8077761792998472E-2</v>
+        <f t="shared" ref="J75:J78" si="29">J66</f>
+        <v>0.1365435872653363</v>
       </c>
       <c r="K75" s="138">
-        <f t="shared" si="27"/>
-        <v>819.94326977845844</v>
+        <f t="shared" si="26"/>
+        <v>498.26683126746889</v>
       </c>
       <c r="L75" s="140">
-        <f t="shared" si="27"/>
-        <v>1073.1158118671424</v>
+        <f t="shared" si="26"/>
+        <v>718.86637208384752</v>
       </c>
       <c r="M75" s="141">
-        <f t="shared" si="27"/>
-        <v>1326.2883539558266</v>
+        <f t="shared" si="26"/>
+        <v>939.46591290022627</v>
       </c>
       <c r="N75" s="142">
-        <f t="shared" si="27"/>
-        <v>1579.4608960445103</v>
+        <f t="shared" si="26"/>
+        <v>1160.0654537166051</v>
       </c>
       <c r="O75" s="138">
-        <f t="shared" si="27"/>
-        <v>1832.6334381331942</v>
+        <f t="shared" si="26"/>
+        <v>1380.6649945329837</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="132">
         <f>B67</f>
-        <v>0.10807776179299847</v>
+        <v>0.14654358726533631</v>
       </c>
       <c r="C76" s="138">
-        <f t="shared" si="29"/>
-        <v>818440.42562583974</v>
+        <f t="shared" si="28"/>
+        <v>498362.92269815132</v>
       </c>
       <c r="D76" s="138">
-        <f t="shared" si="26"/>
-        <v>1070777.9710543463</v>
+        <f t="shared" si="25"/>
+        <v>718503.72851909918</v>
       </c>
       <c r="E76" s="138">
         <f>M67-$R41+$S41-$Q41</f>
-        <v>1323115.5164828529</v>
+        <v>938644.53434004704</v>
       </c>
       <c r="F76" s="138">
-        <f t="shared" si="26"/>
-        <v>1575453.061911359</v>
+        <f t="shared" si="25"/>
+        <v>1158785.3401609948</v>
       </c>
       <c r="G76" s="138">
-        <f t="shared" si="26"/>
-        <v>1827790.6073398655</v>
+        <f t="shared" si="25"/>
+        <v>1378926.1459819425</v>
       </c>
       <c r="I76" s="136"/>
       <c r="J76" s="139">
-        <f t="shared" si="30"/>
-        <v>0.10807776179299847</v>
+        <f t="shared" si="29"/>
+        <v>0.14654358726533631</v>
       </c>
       <c r="K76" s="138">
-        <f t="shared" si="27"/>
-        <v>791.90526403843967</v>
+        <f t="shared" si="26"/>
+        <v>482.20519115299669</v>
       </c>
       <c r="L76" s="143">
-        <f t="shared" si="27"/>
-        <v>1036.0616183467823</v>
+        <f t="shared" si="26"/>
+        <v>695.20867619708713</v>
       </c>
       <c r="M76" s="138">
-        <f t="shared" si="27"/>
-        <v>1280.2179726551249</v>
+        <f t="shared" si="26"/>
+        <v>908.21216124117768</v>
       </c>
       <c r="N76" s="144">
-        <f t="shared" si="27"/>
-        <v>1524.374326963467</v>
+        <f t="shared" si="26"/>
+        <v>1121.2156462852679</v>
       </c>
       <c r="O76" s="138">
-        <f t="shared" si="27"/>
-        <v>1768.5306812718097</v>
+        <f t="shared" si="26"/>
+        <v>1334.2191313293583</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="132">
         <f>B68</f>
-        <v>0.11807776179299846</v>
+        <v>0.15654358726533632</v>
       </c>
       <c r="C77" s="138">
-        <f t="shared" si="29"/>
-        <v>790732.21258797497</v>
+        <f t="shared" si="28"/>
+        <v>482463.32858040748</v>
       </c>
       <c r="D77" s="138">
-        <f t="shared" si="26"/>
-        <v>1034162.6009890232</v>
+        <f t="shared" si="25"/>
+        <v>695088.56560286984</v>
       </c>
       <c r="E77" s="138">
-        <f t="shared" si="26"/>
-        <v>1277592.9893900715</v>
+        <f t="shared" si="25"/>
+        <v>907713.80262533226</v>
       </c>
       <c r="F77" s="138">
-        <f t="shared" si="26"/>
-        <v>1521023.3777911193</v>
+        <f t="shared" si="25"/>
+        <v>1120339.0396477948</v>
       </c>
       <c r="G77" s="138">
-        <f t="shared" si="26"/>
-        <v>1764453.7661921675</v>
+        <f t="shared" si="25"/>
+        <v>1332964.2766702571</v>
       </c>
       <c r="I77" s="136"/>
       <c r="J77" s="139">
-        <f t="shared" si="30"/>
-        <v>0.11807776179299846</v>
+        <f t="shared" si="29"/>
+        <v>0.15654358726533632</v>
       </c>
       <c r="K77" s="138">
-        <f t="shared" si="27"/>
-        <v>765.09539605690031</v>
+        <f t="shared" si="26"/>
+        <v>466.82108757784891</v>
       </c>
       <c r="L77" s="145">
-        <f t="shared" si="27"/>
-        <v>1000.6333777668128</v>
+        <f t="shared" si="26"/>
+        <v>672.55267071263097</v>
       </c>
       <c r="M77" s="146">
-        <f t="shared" si="27"/>
-        <v>1236.1713594767252</v>
+        <f t="shared" si="26"/>
+        <v>878.28425384741308</v>
       </c>
       <c r="N77" s="147">
-        <f t="shared" si="27"/>
-        <v>1471.7093411866374</v>
+        <f t="shared" si="26"/>
+        <v>1084.0158369821954</v>
       </c>
       <c r="O77" s="138">
-        <f t="shared" si="27"/>
-        <v>1707.2473228965498</v>
+        <f t="shared" si="26"/>
+        <v>1289.7474201169773</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="132">
+        <f t="shared" si="27"/>
+        <v>0.16654358726533633</v>
+      </c>
+      <c r="C78" s="138">
         <f t="shared" si="28"/>
-        <v>0.12807776179299846</v>
-      </c>
-      <c r="C78" s="138">
-        <f t="shared" si="29"/>
-        <v>764226.91598805017</v>
+        <v>467228.62399586092</v>
       </c>
       <c r="D78" s="138">
-        <f t="shared" si="26"/>
-        <v>999139.71454718534</v>
+        <f t="shared" si="25"/>
+        <v>672656.29758077185</v>
       </c>
       <c r="E78" s="138">
-        <f t="shared" si="26"/>
-        <v>1234052.5131063205</v>
+        <f t="shared" si="25"/>
+        <v>878083.971165683</v>
       </c>
       <c r="F78" s="138">
-        <f t="shared" si="26"/>
-        <v>1468965.3116654556</v>
+        <f t="shared" si="25"/>
+        <v>1083511.6447505942</v>
       </c>
       <c r="G78" s="138">
-        <f t="shared" si="26"/>
-        <v>1703878.1102245909</v>
+        <f t="shared" si="25"/>
+        <v>1288939.318335505</v>
       </c>
       <c r="I78" s="136"/>
       <c r="J78" s="139">
-        <f t="shared" si="30"/>
-        <v>0.12807776179299846</v>
+        <f t="shared" si="29"/>
+        <v>0.16654358726533633</v>
       </c>
       <c r="K78" s="138">
-        <f t="shared" si="27"/>
-        <v>739.44944401789837</v>
+        <f t="shared" si="26"/>
+        <v>452.08031674245473</v>
       </c>
       <c r="L78" s="138">
-        <f t="shared" si="27"/>
-        <v>966.74598991704499</v>
+        <f t="shared" si="26"/>
+        <v>650.84769308101318</v>
       </c>
       <c r="M78" s="138">
-        <f t="shared" si="27"/>
-        <v>1194.0425358161915</v>
+        <f t="shared" si="26"/>
+        <v>849.61506941957191</v>
       </c>
       <c r="N78" s="138">
-        <f t="shared" si="27"/>
-        <v>1421.3390817153379</v>
+        <f t="shared" si="26"/>
+        <v>1048.3824457581306</v>
       </c>
       <c r="O78" s="138">
-        <f t="shared" si="27"/>
-        <v>1648.6356276144847</v>
+        <f t="shared" si="26"/>
+        <v>1247.1498220966891</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="C72:G72"/>
     <mergeCell ref="K72:O72"/>
     <mergeCell ref="C49:G49"/>
@@ -7846,17 +7794,15 @@
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="K62:O62"/>
     <mergeCell ref="B60:O60"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="K71:O71"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q21" r:id="rId1" location="Consolidated_Statmnts_of_Cmprehnsve_Loss" xr:uid="{A71C953D-1A9C-214E-B5B2-B1F8786BE476}"/>
-    <hyperlink ref="Q20" r:id="rId2" location="consolidated_statmnts_of_cmprehnsve_loss" xr:uid="{6FF049A6-8EA2-1045-B288-F8BC690159EA}"/>
+    <hyperlink ref="Q23" r:id="rId1" location="Consolidated_Statmnts_of_Cmprehnsve_Loss" xr:uid="{A71C953D-1A9C-214E-B5B2-B1F8786BE476}"/>
+    <hyperlink ref="Q22" r:id="rId2" location="consolidated_statmnts_of_cmprehnsve_loss" xr:uid="{6FF049A6-8EA2-1045-B288-F8BC690159EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8180,7 +8126,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="14" t="s">
         <v>12</v>
@@ -9383,7 +9329,7 @@
   <dimension ref="A2:AI221"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9442,7 +9388,7 @@
         <v>2025</v>
       </c>
       <c r="R2" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S2" s="63">
         <v>2018</v>
@@ -9453,7 +9399,7 @@
       <c r="U2" s="40">
         <v>2020</v>
       </c>
-      <c r="V2" s="207">
+      <c r="V2" s="206">
         <v>2021</v>
       </c>
       <c r="W2" s="41">
@@ -9472,7 +9418,7 @@
         <v>2025</v>
       </c>
       <c r="AB2" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -9486,47 +9432,47 @@
       <c r="D3" s="65">
         <v>11758.751</v>
       </c>
-      <c r="E3" s="169">
+      <c r="E3" s="168">
         <f>Revenue!E28</f>
         <v>21461.268</v>
       </c>
-      <c r="F3" s="169">
+      <c r="F3" s="168">
         <f>Revenue!F28</f>
         <v>24578</v>
       </c>
-      <c r="G3" s="169">
+      <c r="G3" s="168">
         <f>Revenue!G28</f>
         <v>31536</v>
       </c>
-      <c r="H3" s="169">
+      <c r="H3" s="168">
         <f>Revenue!H28</f>
         <v>53823</v>
       </c>
-      <c r="I3" s="169">
+      <c r="I3" s="168">
         <f>Revenue!I28</f>
         <v>96841.431523177846</v>
       </c>
-      <c r="J3" s="169">
+      <c r="J3" s="168">
         <f>Revenue!J28</f>
         <v>142849.8256393816</v>
       </c>
-      <c r="K3" s="169">
+      <c r="K3" s="168">
         <f>Revenue!K28</f>
         <v>194198.60210108568</v>
       </c>
-      <c r="L3" s="169">
+      <c r="L3" s="168">
         <f>Revenue!L28</f>
         <v>225028.96979187263</v>
       </c>
-      <c r="M3" s="169">
+      <c r="M3" s="168">
         <f>Revenue!M28</f>
         <v>260101.1364766956</v>
       </c>
       <c r="N3" s="24"/>
       <c r="R3" s="152" t="s">
-        <v>210</v>
-      </c>
-      <c r="V3" s="208"/>
+        <v>209</v>
+      </c>
+      <c r="V3" s="207"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
@@ -9571,54 +9517,54 @@
         <v>206980.53123690674</v>
       </c>
       <c r="R4" s="154" t="s">
-        <v>211</v>
-      </c>
-      <c r="S4" s="192">
-        <f t="shared" ref="S4:AA4" si="0">E53/E75</f>
+        <v>210</v>
+      </c>
+      <c r="S4" s="191">
+        <f>E53/E75</f>
         <v>0.83128452214821746</v>
       </c>
-      <c r="T4" s="192">
-        <f t="shared" si="0"/>
+      <c r="T4" s="191">
+        <f t="shared" ref="T4:AA4" si="0">F53/F75</f>
         <v>1.1346207931002157</v>
       </c>
-      <c r="U4" s="192">
+      <c r="U4" s="191">
         <f t="shared" si="0"/>
         <v>1.8751403705783267</v>
       </c>
-      <c r="V4" s="209">
+      <c r="V4" s="208">
         <f t="shared" si="0"/>
         <v>1.3752854605430094</v>
       </c>
-      <c r="W4" s="192">
+      <c r="W4" s="191">
         <f t="shared" si="0"/>
-        <v>0.81475347699307477</v>
-      </c>
-      <c r="X4" s="192">
+        <v>0.81047417439637104</v>
+      </c>
+      <c r="X4" s="191">
         <f t="shared" si="0"/>
-        <v>0.74441404847199211</v>
-      </c>
-      <c r="Y4" s="192">
+        <v>0.73701529269060739</v>
+      </c>
+      <c r="Y4" s="191">
         <f t="shared" si="0"/>
-        <v>0.78760432966608029</v>
-      </c>
-      <c r="Z4" s="192">
+        <v>0.77724184090811055</v>
+      </c>
+      <c r="Z4" s="191">
         <f t="shared" si="0"/>
-        <v>0.87475809867084153</v>
-      </c>
-      <c r="AA4" s="192">
+        <v>0.86084683748548552</v>
+      </c>
+      <c r="AA4" s="191">
         <f t="shared" si="0"/>
-        <v>0.97692780328823381</v>
-      </c>
-      <c r="AB4" s="192">
+        <v>0.96022594932384164</v>
+      </c>
+      <c r="AB4" s="191">
         <f>AVERAGE(S4:V4)</f>
         <v>1.3040827865924425</v>
       </c>
-      <c r="AD4" s="218" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE4" s="191"/>
-      <c r="AF4" s="191"/>
-      <c r="AG4" s="191"/>
+      <c r="AD4" s="217" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -9663,52 +9609,52 @@
         <v>53120.605239788863</v>
       </c>
       <c r="R5" s="154" t="s">
-        <v>212</v>
-      </c>
-      <c r="S5" s="192">
+        <v>211</v>
+      </c>
+      <c r="S5" s="191">
         <f>(E53-E51)/E75</f>
         <v>0.51969488805997044</v>
       </c>
-      <c r="T5" s="192">
+      <c r="T5" s="191">
         <f t="shared" ref="T5:AA5" si="1">(F53-F51)/F75</f>
         <v>0.80163119902503044</v>
       </c>
-      <c r="U5" s="192">
+      <c r="U5" s="191">
         <f t="shared" si="1"/>
         <v>1.5873104997192589</v>
       </c>
-      <c r="V5" s="209">
+      <c r="V5" s="208">
         <f t="shared" si="1"/>
         <v>1.0831261101243339</v>
       </c>
-      <c r="W5" s="192">
+      <c r="W5" s="191">
         <f t="shared" si="1"/>
-        <v>0.46598436308005886</v>
-      </c>
-      <c r="X5" s="192">
+        <v>0.46170506048335513</v>
+      </c>
+      <c r="X5" s="191">
         <f t="shared" si="1"/>
-        <v>0.3956449345589762</v>
-      </c>
-      <c r="Y5" s="192">
+        <v>0.38824617877759149</v>
+      </c>
+      <c r="Y5" s="191">
         <f t="shared" si="1"/>
-        <v>0.43883521575306439</v>
-      </c>
-      <c r="Z5" s="192">
+        <v>0.4284727269950947</v>
+      </c>
+      <c r="Z5" s="191">
         <f t="shared" si="1"/>
-        <v>0.52598898475782552</v>
-      </c>
-      <c r="AA5" s="192">
+        <v>0.5120777235724695</v>
+      </c>
+      <c r="AA5" s="191">
         <f t="shared" si="1"/>
-        <v>0.6281586893752179</v>
-      </c>
-      <c r="AB5" s="192">
+        <v>0.61145683541082574</v>
+      </c>
+      <c r="AB5" s="191">
         <f t="shared" ref="AB5:AB7" si="2">AVERAGE(S5:V5)</f>
         <v>0.99794067423214838</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
@@ -9753,52 +9699,52 @@
         <v>13013.561531673689</v>
       </c>
       <c r="R6" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="192">
+        <v>212</v>
+      </c>
+      <c r="S6" s="191">
         <f>E47/E75</f>
         <v>0.36885186510671991</v>
       </c>
-      <c r="T6" s="192">
+      <c r="T6" s="191">
         <f t="shared" ref="T6:AA6" si="3">F47/F75</f>
         <v>0.58760663729258455</v>
       </c>
-      <c r="U6" s="192">
+      <c r="U6" s="191">
         <f t="shared" si="3"/>
         <v>1.360471645143178</v>
       </c>
-      <c r="V6" s="209">
+      <c r="V6" s="208">
         <f t="shared" si="3"/>
         <v>0.89195635625475767</v>
       </c>
-      <c r="W6" s="192">
+      <c r="W6" s="191">
         <f t="shared" si="3"/>
-        <v>0.25790102884258975</v>
-      </c>
-      <c r="X6" s="192">
+        <v>0.25362172624588603</v>
+      </c>
+      <c r="X6" s="191">
         <f t="shared" si="3"/>
-        <v>0.18756160032150718</v>
-      </c>
-      <c r="Y6" s="192">
+        <v>0.18016284454012244</v>
+      </c>
+      <c r="Y6" s="191">
         <f t="shared" si="3"/>
-        <v>0.23075188151559534</v>
-      </c>
-      <c r="Z6" s="192">
+        <v>0.22038939275762562</v>
+      </c>
+      <c r="Z6" s="191">
         <f t="shared" si="3"/>
-        <v>0.31790565052035652</v>
-      </c>
-      <c r="AA6" s="192">
+        <v>0.30399438933500039</v>
+      </c>
+      <c r="AA6" s="191">
         <f t="shared" si="3"/>
-        <v>0.42007535513774891</v>
-      </c>
-      <c r="AB6" s="192">
+        <v>0.40337350117335669</v>
+      </c>
+      <c r="AB6" s="191">
         <f t="shared" si="2"/>
         <v>0.80222162594931001</v>
       </c>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="191"/>
+      <c r="AD6" s="190"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="190"/>
+      <c r="AG6" s="190"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
@@ -9843,52 +9789,52 @@
         <v>21828.527459733457</v>
       </c>
       <c r="R7" s="156" t="s">
-        <v>214</v>
-      </c>
-      <c r="S7" s="192">
+        <v>213</v>
+      </c>
+      <c r="S7" s="191">
         <f t="shared" ref="S7:Z7" si="4">E153/E75</f>
         <v>0.20994530098469436</v>
       </c>
-      <c r="T7" s="192">
+      <c r="T7" s="191">
         <f t="shared" si="4"/>
         <v>0.22546170432173995</v>
       </c>
-      <c r="U7" s="192">
+      <c r="U7" s="191">
         <f t="shared" si="4"/>
         <v>0.41711117349803484</v>
       </c>
-      <c r="V7" s="209">
+      <c r="V7" s="208">
         <f t="shared" si="4"/>
         <v>0.58345597564070029</v>
       </c>
-      <c r="W7" s="192">
+      <c r="W7" s="191">
         <f t="shared" si="4"/>
-        <v>0.50563722216106322</v>
-      </c>
-      <c r="X7" s="192">
+        <v>0.50003489267394918</v>
+      </c>
+      <c r="X7" s="191">
         <f t="shared" si="4"/>
-        <v>0.4836870322847559</v>
-      </c>
-      <c r="Y7" s="192">
+        <v>0.47779876976992763</v>
+      </c>
+      <c r="Y7" s="191">
         <f t="shared" si="4"/>
-        <v>0.45820179320174387</v>
-      </c>
-      <c r="Z7" s="192">
+        <v>0.45176059680322644</v>
+      </c>
+      <c r="Z7" s="191">
         <f t="shared" si="4"/>
-        <v>0.40270121880010828</v>
-      </c>
-      <c r="AA7" s="192">
+        <v>0.3961966164454373</v>
+      </c>
+      <c r="AA7" s="191">
         <f>M153/M75</f>
-        <v>0.40114772833267048</v>
-      </c>
-      <c r="AB7" s="192">
+        <v>0.39503863064388767</v>
+      </c>
+      <c r="AB7" s="191">
         <f t="shared" si="2"/>
         <v>0.35899353861129235</v>
       </c>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="191"/>
-      <c r="AF7" s="191"/>
-      <c r="AG7" s="191"/>
+      <c r="AD7" s="190"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="190"/>
+      <c r="AG7" s="190"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
@@ -9912,16 +9858,16 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="R8" s="151"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="209"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="47" t="s">
@@ -9966,22 +9912,22 @@
         <v>34842.088991407145</v>
       </c>
       <c r="R9" s="153" t="s">
-        <v>215</v>
-      </c>
-      <c r="S9" s="193"/>
-      <c r="T9" s="192"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="192"/>
+        <v>214</v>
+      </c>
+      <c r="S9" s="192"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="208"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="191"/>
     </row>
     <row r="10" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="65">
         <v>-667.34</v>
@@ -10022,56 +9968,56 @@
         <v>18278.516248381718</v>
       </c>
       <c r="R10" s="155" t="s">
-        <v>216</v>
-      </c>
-      <c r="S10" s="192">
+        <v>215</v>
+      </c>
+      <c r="S10" s="191">
         <f>E82/E66</f>
         <v>0.78770390227660647</v>
       </c>
-      <c r="T10" s="192">
+      <c r="T10" s="191">
         <f t="shared" ref="T10:AA10" si="7">F82/F66</f>
         <v>0.76361887551371366</v>
       </c>
-      <c r="U10" s="192">
+      <c r="U10" s="191">
         <f t="shared" si="7"/>
         <v>0.54494899133236174</v>
       </c>
-      <c r="V10" s="209">
+      <c r="V10" s="208">
         <f t="shared" si="7"/>
         <v>0.49167082454813216</v>
       </c>
-      <c r="W10" s="192">
+      <c r="W10" s="191">
         <f t="shared" si="7"/>
-        <v>0.56714351214045988</v>
-      </c>
-      <c r="X10" s="192">
+        <v>0.5680340704887471</v>
+      </c>
+      <c r="X10" s="191">
         <f t="shared" si="7"/>
-        <v>0.58278769785378404</v>
-      </c>
-      <c r="Y10" s="192">
+        <v>0.58441554211715063</v>
+      </c>
+      <c r="Y10" s="191">
         <f t="shared" si="7"/>
-        <v>0.57380996068636336</v>
-      </c>
-      <c r="Z10" s="192">
+        <v>0.57602251347591982</v>
+      </c>
+      <c r="Z10" s="191">
         <f t="shared" si="7"/>
-        <v>0.55597697848611771</v>
-      </c>
-      <c r="AA10" s="192">
+        <v>0.5587687343643406</v>
+      </c>
+      <c r="AA10" s="191">
         <f t="shared" si="7"/>
-        <v>0.53639592543305525</v>
-      </c>
-      <c r="AB10" s="192">
+        <v>0.53951825198321957</v>
+      </c>
+      <c r="AB10" s="191">
         <f>AVERAGE(S10:V10)</f>
         <v>0.64698564841770345</v>
       </c>
-      <c r="AD10" s="218" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="191"/>
-      <c r="AH10" s="191"/>
-      <c r="AI10" s="191"/>
+      <c r="AD10" s="217" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="190"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="47" t="s">
@@ -10101,54 +10047,54 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="R11" s="155" t="s">
-        <v>217</v>
-      </c>
-      <c r="S11" s="192">
+        <v>216</v>
+      </c>
+      <c r="S11" s="191">
         <f>E82/E89</f>
         <v>4.758247764735561</v>
       </c>
-      <c r="T11" s="192">
+      <c r="T11" s="191">
         <f t="shared" ref="T11:AA11" si="8">F82/F89</f>
         <v>3.9587488667271078</v>
       </c>
-      <c r="U11" s="192">
+      <c r="U11" s="191">
         <f t="shared" si="8"/>
         <v>1.2786501687289089</v>
       </c>
-      <c r="V11" s="209">
+      <c r="V11" s="208">
         <f t="shared" si="8"/>
         <v>1.0118917486501706</v>
       </c>
-      <c r="W11" s="192">
+      <c r="W11" s="191">
         <f t="shared" si="8"/>
-        <v>1.602744968938091</v>
-      </c>
-      <c r="X11" s="192">
+        <v>1.612095707600697</v>
+      </c>
+      <c r="X11" s="191">
         <f t="shared" si="8"/>
-        <v>1.9472638284231971</v>
-      </c>
-      <c r="Y11" s="192">
+        <v>1.9712825587791931</v>
+      </c>
+      <c r="Y11" s="191">
         <f t="shared" si="8"/>
-        <v>2.1353861971246935</v>
-      </c>
-      <c r="Z11" s="192">
+        <v>2.1761091113073339</v>
+      </c>
+      <c r="Z11" s="191">
         <f t="shared" si="8"/>
-        <v>2.0195138219737494</v>
-      </c>
-      <c r="AA11" s="192">
+        <v>2.0686635217101341</v>
+      </c>
+      <c r="AA11" s="191">
         <f t="shared" si="8"/>
-        <v>1.9266216905552416</v>
-      </c>
-      <c r="AB11" s="192">
+        <v>1.9805178177814879</v>
+      </c>
+      <c r="AB11" s="191">
         <f t="shared" ref="AB11:AB12" si="9">AVERAGE(S11:V11)</f>
         <v>2.7518846372104369</v>
       </c>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="191"/>
-      <c r="AG11" s="191"/>
-      <c r="AH11" s="191"/>
-      <c r="AI11" s="191"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="190"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
@@ -10174,73 +10120,73 @@
       </c>
       <c r="I12" s="1">
         <f>(I74+I77+I80)*I22</f>
-        <v>-809.27631781797561</v>
+        <v>-1049.2328202221495</v>
       </c>
       <c r="J12" s="1">
         <f>(J74+J77+J80)*J22</f>
-        <v>-1181.1439015894932</v>
+        <v>-1553.1666986343891</v>
       </c>
       <c r="K12" s="1">
         <f>(K74+K77+K80)*K22</f>
-        <v>-1608.1386155934667</v>
+        <v>-2161.3808365200748</v>
       </c>
       <c r="L12" s="1">
         <f>(L74+L77+L80)*L22</f>
-        <v>-1788.9244765851131</v>
+        <v>-2436.308323832925</v>
       </c>
       <c r="M12" s="1">
         <f>(M74+M77+M80)*M22</f>
-        <v>-2136.4574338443781</v>
+        <v>-2839.2416431938923</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="S12" s="192">
+        <v>217</v>
+      </c>
+      <c r="S12" s="191">
         <f>E10/E15</f>
         <v>6.709770562096927</v>
       </c>
-      <c r="T12" s="192">
+      <c r="T12" s="191">
         <f>F10/F15</f>
         <v>0.62727272727272732</v>
       </c>
-      <c r="U12" s="192">
+      <c r="U12" s="191">
         <f t="shared" ref="U12:AA12" si="10">G10/-G15</f>
         <v>6.8287671232876717</v>
       </c>
-      <c r="V12" s="209">
+      <c r="V12" s="208">
         <f t="shared" si="10"/>
         <v>9.3319027181688128</v>
       </c>
-      <c r="W12" s="192">
+      <c r="W12" s="191">
         <f t="shared" si="10"/>
-        <v>7.7444146777829168</v>
-      </c>
-      <c r="X12" s="192">
+        <v>8.067249485781101</v>
+      </c>
+      <c r="X12" s="191">
         <f t="shared" si="10"/>
-        <v>7.7333881190613543</v>
-      </c>
-      <c r="Y12" s="192">
+        <v>8.0724345057194711</v>
+      </c>
+      <c r="Y12" s="191">
         <f t="shared" si="10"/>
-        <v>7.7349432037665382</v>
-      </c>
-      <c r="Z12" s="192">
+        <v>8.107514168495296</v>
+      </c>
+      <c r="Z12" s="191">
         <f t="shared" si="10"/>
-        <v>7.6938458491466202</v>
-      </c>
-      <c r="AA12" s="192">
+        <v>8.0661772042411588</v>
+      </c>
+      <c r="AA12" s="191">
         <f t="shared" si="10"/>
-        <v>7.7265991179786591</v>
-      </c>
-      <c r="AB12" s="192">
+        <v>8.0783081192723269</v>
+      </c>
+      <c r="AB12" s="191">
         <f t="shared" si="9"/>
         <v>5.8744282827065346</v>
       </c>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="191"/>
-      <c r="AH12" s="191"/>
-      <c r="AI12" s="191"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="47" t="s">
@@ -10269,22 +10215,22 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="S13" s="192"/>
-      <c r="T13" s="192"/>
-      <c r="U13" s="192"/>
-      <c r="V13" s="209"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="192"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AD13" s="191"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="191"/>
-      <c r="AG13" s="191"/>
-      <c r="AH13" s="191"/>
-      <c r="AI13" s="191"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="208"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="191"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="191"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="190"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="71" t="s">
@@ -10310,43 +10256,43 @@
       </c>
       <c r="I14" s="51">
         <f>I10+I12+I13+I11</f>
-        <v>5996.2213573971003</v>
+        <v>5756.2648549929263</v>
       </c>
       <c r="J14" s="51">
         <f>J10+J12+J13+J11</f>
-        <v>8857.5775526778853</v>
+        <v>8485.5547556329893</v>
       </c>
       <c r="K14" s="51">
         <f>K10+K12+K13+K11</f>
-        <v>12039.100116236339</v>
+        <v>11485.857895309731</v>
       </c>
       <c r="L14" s="51">
         <f>L10+L12+L13+L11</f>
-        <v>14024.907544352152</v>
+        <v>13377.52369710434</v>
       </c>
       <c r="M14" s="51">
         <f>M10+M12+M13+M11</f>
-        <v>16142.05881453734</v>
+        <v>15439.274605187826</v>
       </c>
       <c r="R14" s="153" t="s">
-        <v>224</v>
-      </c>
-      <c r="S14" s="192"/>
-      <c r="T14" s="192"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="192"/>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="192"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="192"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="191"/>
-      <c r="AI14" s="191"/>
+        <v>223</v>
+      </c>
+      <c r="S14" s="191"/>
+      <c r="T14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="208"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="190"/>
     </row>
     <row r="15" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
@@ -10372,75 +10318,75 @@
       </c>
       <c r="I15" s="117">
         <f>-I14*$I$21</f>
-        <v>-878.76204443682559</v>
+        <v>-843.59578654534971</v>
       </c>
       <c r="J15" s="117">
         <f>-J14*$I$21</f>
-        <v>-1298.1013366604232</v>
+        <v>-1243.5804151962777</v>
       </c>
       <c r="K15" s="117">
         <f>-K14*$I$21</f>
-        <v>-1764.3618540320076</v>
+        <v>-1683.2827483498124</v>
       </c>
       <c r="L15" s="117">
         <f>-L14*$I$21</f>
-        <v>-2055.38716670432</v>
+        <v>-1960.511357551434</v>
       </c>
       <c r="M15" s="117">
         <f>-M14*$I$21</f>
-        <v>-2365.6612656207699</v>
+        <v>-2262.6663873806538</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="S15" s="192">
+        <v>218</v>
+      </c>
+      <c r="S15" s="191">
         <f t="shared" ref="S15:AA15" si="11">E3/E66</f>
         <v>0.72163909054098685</v>
       </c>
-      <c r="T15" s="192">
+      <c r="T15" s="191">
         <f t="shared" si="11"/>
         <v>0.71637179748753976</v>
       </c>
-      <c r="U15" s="192">
+      <c r="U15" s="191">
         <f t="shared" si="11"/>
         <v>0.60474035437600671</v>
       </c>
-      <c r="V15" s="209">
+      <c r="V15" s="208">
         <f t="shared" si="11"/>
         <v>0.86628253206933736</v>
       </c>
-      <c r="W15" s="192">
+      <c r="W15" s="191">
         <f t="shared" si="11"/>
-        <v>0.97058948015543822</v>
-      </c>
-      <c r="X15" s="192">
+        <v>0.97211355042303238</v>
+      </c>
+      <c r="X15" s="191">
         <f t="shared" si="11"/>
-        <v>0.9973623899285643</v>
-      </c>
-      <c r="Y15" s="192">
+        <v>1.0001482254067697</v>
+      </c>
+      <c r="Y15" s="191">
         <f t="shared" si="11"/>
-        <v>0.98199820597199827</v>
-      </c>
-      <c r="Z15" s="192">
+        <v>0.98578469107825861</v>
+      </c>
+      <c r="Z15" s="191">
         <f t="shared" si="11"/>
-        <v>0.95147946679426632</v>
-      </c>
-      <c r="AA15" s="192">
+        <v>0.95625717971623692</v>
+      </c>
+      <c r="AA15" s="191">
         <f t="shared" si="11"/>
-        <v>0.91796914057729107</v>
-      </c>
-      <c r="AB15" s="192">
+        <v>0.92331258053265985</v>
+      </c>
+      <c r="AB15" s="191">
         <f>AVERAGE(S15:V15)</f>
         <v>0.7272584436184677</v>
       </c>
-      <c r="AD15" s="218" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="191"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="191"/>
+      <c r="AD15" s="217" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE15" s="190"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="190"/>
+      <c r="AI15" s="190"/>
     </row>
     <row r="16" spans="1:35" s="13" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
@@ -10467,78 +10413,78 @@
       </c>
       <c r="I16" s="51">
         <f>SUM(I14:I15)</f>
-        <v>5117.4593129602745</v>
+        <v>4912.6690684475761</v>
       </c>
       <c r="J16" s="51">
         <f t="shared" ref="J16:M16" si="12">SUM(J14:J15)</f>
-        <v>7559.4762160174623</v>
+        <v>7241.9743404367118</v>
       </c>
       <c r="K16" s="51">
         <f t="shared" si="12"/>
-        <v>10274.738262204331</v>
+        <v>9802.5751469599181</v>
       </c>
       <c r="L16" s="51">
         <f t="shared" si="12"/>
-        <v>11969.520377647832</v>
+        <v>11417.012339552906</v>
       </c>
       <c r="M16" s="51">
         <f t="shared" si="12"/>
-        <v>13776.397548916571</v>
+        <v>13176.608217807172</v>
       </c>
       <c r="N16" s="51"/>
       <c r="R16" s="155" t="s">
-        <v>220</v>
-      </c>
-      <c r="S16" s="192">
+        <v>219</v>
+      </c>
+      <c r="S16" s="191">
         <f t="shared" ref="S16:AA16" si="13">E4/((D51+E51)/2)</f>
         <v>6.4791899100294712</v>
       </c>
-      <c r="T16" s="192">
+      <c r="T16" s="191">
         <f t="shared" si="13"/>
         <v>6.1538267656807966</v>
       </c>
-      <c r="U16" s="192">
+      <c r="U16" s="191">
         <f t="shared" si="13"/>
         <v>6.5088200705605646</v>
       </c>
-      <c r="V16" s="209">
+      <c r="V16" s="208">
         <f t="shared" si="13"/>
         <v>8.1592615134915807</v>
       </c>
-      <c r="W16" s="192">
+      <c r="W16" s="191">
         <f t="shared" si="13"/>
         <v>8.328449445482601</v>
       </c>
-      <c r="X16" s="192">
+      <c r="X16" s="191">
         <f t="shared" si="13"/>
         <v>7.2048895881098085</v>
       </c>
-      <c r="Y16" s="192">
+      <c r="Y16" s="191">
         <f t="shared" si="13"/>
         <v>6.9655209417735886</v>
       </c>
-      <c r="Z16" s="192">
+      <c r="Z16" s="191">
         <f t="shared" si="13"/>
         <v>6.4891588073193622</v>
       </c>
-      <c r="AA16" s="192">
+      <c r="AA16" s="191">
         <f t="shared" si="13"/>
         <v>6.481623960228422</v>
       </c>
-      <c r="AB16" s="192">
+      <c r="AB16" s="191">
         <f t="shared" ref="AB16:AB17" si="14">AVERAGE(S16:V16)</f>
         <v>6.825274564940603</v>
       </c>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="191"/>
-      <c r="AG16" s="191"/>
-      <c r="AH16" s="191"/>
-      <c r="AI16" s="191"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="190"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="190"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="190"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="65">
@@ -10577,58 +10523,58 @@
         <v>408.32265323115917</v>
       </c>
       <c r="R17" s="155" t="s">
-        <v>244</v>
-      </c>
-      <c r="S17" s="192">
+        <v>243</v>
+      </c>
+      <c r="S17" s="191">
         <f>E137/((D50+E50/2))</f>
         <v>-0.43806900146682654</v>
       </c>
-      <c r="T17" s="192">
+      <c r="T17" s="191">
         <f>F137/((E50+F50/2))</f>
         <v>-0.23275783943360182</v>
       </c>
-      <c r="U17" s="192">
+      <c r="U17" s="191">
         <f t="shared" ref="U17:AA17" si="15">G137/((F50+G50/2))</f>
         <v>-0.24790471989413321</v>
       </c>
-      <c r="V17" s="209">
+      <c r="V17" s="208">
         <f t="shared" si="15"/>
         <v>-9.4986807387862793E-3</v>
       </c>
-      <c r="W17" s="192">
+      <c r="W17" s="191">
         <f t="shared" si="15"/>
         <v>-0.65110228060947728</v>
       </c>
-      <c r="X17" s="192">
+      <c r="X17" s="191">
         <f t="shared" si="15"/>
         <v>-0.27342600385050592</v>
       </c>
-      <c r="Y17" s="192">
+      <c r="Y17" s="191">
         <f t="shared" si="15"/>
         <v>-0.21399859699451965</v>
       </c>
-      <c r="Z17" s="192">
+      <c r="Z17" s="191">
         <f t="shared" si="15"/>
         <v>-0.10051859212347959</v>
       </c>
-      <c r="AA17" s="192">
+      <c r="AA17" s="191">
         <f t="shared" si="15"/>
         <v>-9.8772705629232876E-2</v>
       </c>
-      <c r="AB17" s="192">
+      <c r="AB17" s="191">
         <f t="shared" si="14"/>
         <v>-0.23205756038333694</v>
       </c>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="191"/>
-      <c r="AF17" s="191"/>
-      <c r="AG17" s="191"/>
-      <c r="AH17" s="191"/>
-      <c r="AI17" s="191"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="190"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="190"/>
+      <c r="AH17" s="190"/>
+      <c r="AI17" s="190"/>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="65">
@@ -10648,143 +10594,143 @@
       </c>
       <c r="I18" s="51">
         <f>I16-I17</f>
-        <v>4965.4317178567426</v>
+        <v>4760.6414733440442</v>
       </c>
       <c r="J18" s="51">
         <f t="shared" ref="J18:M18" si="16">J16-J17</f>
-        <v>7335.2218332462171</v>
+        <v>7017.7199576654666</v>
       </c>
       <c r="K18" s="51">
         <f t="shared" si="16"/>
-        <v>9969.8734333234243</v>
+        <v>9497.7103180790109</v>
       </c>
       <c r="L18" s="51">
         <f t="shared" si="16"/>
-        <v>11616.256154184801</v>
+        <v>11063.748116089875</v>
       </c>
       <c r="M18" s="51">
         <f t="shared" si="16"/>
-        <v>13368.074895685411</v>
+        <v>12768.285564576014</v>
       </c>
       <c r="R18" s="155"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="191"/>
-      <c r="AF18" s="191"/>
-      <c r="AG18" s="191"/>
-      <c r="AH18" s="191"/>
-      <c r="AI18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="208"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="190"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="190"/>
+      <c r="AH18" s="190"/>
+      <c r="AI18" s="190"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205">
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204">
         <v>171</v>
       </c>
-      <c r="E19" s="206"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="R19" s="171" t="s">
-        <v>239</v>
-      </c>
-      <c r="S19" s="192"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="192"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="192"/>
-      <c r="X19" s="192"/>
-      <c r="Y19" s="192"/>
-      <c r="Z19" s="192"/>
-      <c r="AA19" s="192"/>
-      <c r="AB19" s="192"/>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="191"/>
-      <c r="AF19" s="191"/>
-      <c r="AG19" s="191"/>
-      <c r="AH19" s="191"/>
-      <c r="AI19" s="191"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="R19" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="208"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AD19" s="190"/>
+      <c r="AE19" s="190"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
+      <c r="AI19" s="190"/>
     </row>
     <row r="20" spans="2:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205">
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204">
         <v>171</v>
       </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
       <c r="R20" s="155" t="s">
-        <v>221</v>
-      </c>
-      <c r="S20" s="192">
+        <v>220</v>
+      </c>
+      <c r="S20" s="191">
         <f>E5/E3</f>
         <v>0.18834026954977681</v>
       </c>
-      <c r="T20" s="192">
+      <c r="T20" s="191">
         <f t="shared" ref="T20:AA20" si="17">F5/F3</f>
         <v>0.1655545609895028</v>
       </c>
-      <c r="U20" s="192">
+      <c r="U20" s="191">
         <f t="shared" si="17"/>
         <v>0.2102359208523592</v>
       </c>
-      <c r="V20" s="209">
+      <c r="V20" s="208">
         <f t="shared" si="17"/>
         <v>0.25279155751258753</v>
       </c>
-      <c r="W20" s="192">
+      <c r="W20" s="191">
         <f t="shared" si="17"/>
         <v>0.20423057722605656</v>
       </c>
-      <c r="X20" s="192">
+      <c r="X20" s="191">
         <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="Y20" s="192">
+      <c r="Y20" s="191">
         <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="Z20" s="192">
+      <c r="Z20" s="191">
         <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="AA20" s="192">
+      <c r="AA20" s="191">
         <f t="shared" si="17"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="AB20" s="192">
+      <c r="AB20" s="191">
         <f>AVERAGE(S20:V20)</f>
         <v>0.20423057722605659</v>
       </c>
-      <c r="AD20" s="218" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE20" s="191"/>
-      <c r="AF20" s="191"/>
-      <c r="AG20" s="191"/>
-      <c r="AH20" s="191"/>
-      <c r="AI20" s="191"/>
+      <c r="AD20" s="217" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE20" s="190"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="190"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="190"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="77" t="s">
@@ -10835,54 +10781,54 @@
         <v>0.14655263574496979</v>
       </c>
       <c r="R21" s="155" t="s">
-        <v>222</v>
-      </c>
-      <c r="S21" s="192">
+        <v>221</v>
+      </c>
+      <c r="S21" s="191">
         <f>E10/E3</f>
         <v>-1.8082482358451512E-2</v>
       </c>
-      <c r="T21" s="192">
+      <c r="T21" s="191">
         <f t="shared" ref="T21:AA21" si="19">F10/F3</f>
         <v>-2.8073887216209618E-3</v>
       </c>
-      <c r="U21" s="192">
+      <c r="U21" s="191">
         <f t="shared" si="19"/>
         <v>6.3229325215626589E-2</v>
       </c>
-      <c r="V21" s="209">
+      <c r="V21" s="208">
         <f t="shared" si="19"/>
         <v>0.12119354179440016</v>
       </c>
-      <c r="W21" s="192">
+      <c r="W21" s="191">
         <f t="shared" si="19"/>
         <v>7.0274649684275492E-2</v>
       </c>
-      <c r="X21" s="192">
+      <c r="X21" s="191">
         <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Y21" s="192">
+      <c r="Y21" s="191">
         <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Z21" s="192">
+      <c r="Z21" s="191">
         <f t="shared" si="19"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="AA21" s="192">
+      <c r="AA21" s="191">
         <f t="shared" si="19"/>
         <v>7.027464968427552E-2</v>
       </c>
-      <c r="AB21" s="192">
+      <c r="AB21" s="191">
         <f t="shared" ref="AB21" si="20">AVERAGE(S21:V21)</f>
         <v>4.0883248982488567E-2</v>
       </c>
-      <c r="AD21" s="218"/>
-      <c r="AE21" s="191"/>
-      <c r="AF21" s="191"/>
-      <c r="AG21" s="191"/>
-      <c r="AH21" s="191"/>
-      <c r="AI21" s="191"/>
+      <c r="AD21" s="217"/>
+      <c r="AE21" s="190"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="190"/>
+      <c r="AH21" s="190"/>
+      <c r="AI21" s="190"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="77" t="s">
@@ -10891,43 +10837,43 @@
       <c r="C22" s="69"/>
       <c r="D22" s="70"/>
       <c r="E22" s="57">
-        <f>E12/(E74+E77+E80)</f>
-        <v>-4.5162866558223817E-2</v>
+        <f t="shared" ref="E22:G22" si="21">E12/(E74+E77)</f>
+        <v>-5.5388058727776454E-2</v>
       </c>
       <c r="F22" s="57">
-        <f>F12/(F74+F77+F80)</f>
-        <v>-4.2615403757621004E-2</v>
+        <f t="shared" si="21"/>
+        <v>-5.1047022878008795E-2</v>
       </c>
       <c r="G22" s="57">
-        <f>G12/(G74+G77+G80)</f>
-        <v>-4.9806898388600349E-2</v>
+        <f t="shared" si="21"/>
+        <v>-6.3997262149212863E-2</v>
       </c>
       <c r="H22" s="57">
-        <f>H12/(H74+H77+H80)</f>
-        <v>-3.5741811175337188E-2</v>
+        <f>H12/(H74+H77)</f>
+        <v>-5.4287386596429614E-2</v>
       </c>
       <c r="I22" s="82">
         <f>AVERAGE(E22:H22)</f>
-        <v>-4.3331744969945588E-2</v>
+        <v>-5.6179932587856932E-2</v>
       </c>
       <c r="J22" s="82">
-        <f t="shared" ref="J22:M22" si="21">AVERAGE(F22:I22)</f>
-        <v>-4.2873964572876025E-2</v>
+        <f t="shared" ref="J22:M22" si="22">AVERAGE(F22:I22)</f>
+        <v>-5.6377901052877058E-2</v>
       </c>
       <c r="K22" s="82">
-        <f t="shared" si="21"/>
-        <v>-4.2938604776689787E-2</v>
+        <f t="shared" si="22"/>
+        <v>-5.7710620596594112E-2</v>
       </c>
       <c r="L22" s="82">
-        <f t="shared" si="21"/>
-        <v>-4.122153137371215E-2</v>
+        <f t="shared" si="22"/>
+        <v>-5.613896020843942E-2</v>
       </c>
       <c r="M22" s="82">
-        <f t="shared" si="21"/>
-        <v>-4.2591461423305887E-2</v>
+        <f t="shared" si="22"/>
+        <v>-5.6601853611441884E-2</v>
       </c>
       <c r="R22" s="155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S22" s="94">
         <f>S29/S26</f>
@@ -10941,42 +10887,42 @@
         <f>U29/U26</f>
         <v>1101.5625</v>
       </c>
-      <c r="V22" s="210">
+      <c r="V22" s="209">
         <f>V29/V26</f>
         <v>215.51020408163265</v>
       </c>
       <c r="W22" s="94">
         <f>W29/W26</f>
-        <v>209.49823988832537</v>
+        <v>218.51030181568015</v>
       </c>
       <c r="X22" s="94">
         <f>800/X26</f>
-        <v>148.85709546287296</v>
+        <v>155.59181945985154</v>
       </c>
       <c r="Y22" s="94">
         <f>800/Y26</f>
-        <v>120.41832449845772</v>
+        <v>126.40472430678588</v>
       </c>
       <c r="Z22" s="94">
         <f>800/Z26</f>
-        <v>113.6358793455322</v>
+        <v>119.31069551954512</v>
       </c>
       <c r="AA22" s="94">
         <f>800/AA26</f>
-        <v>108.57059533683264</v>
+        <v>113.67069154206584</v>
       </c>
       <c r="AB22" s="94">
         <f>AVERAGE(S22:V22)</f>
         <v>305.03517687669478</v>
       </c>
-      <c r="AD22" s="218" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="191"/>
-      <c r="AG22" s="191"/>
-      <c r="AH22" s="191"/>
-      <c r="AI22" s="191"/>
+      <c r="AD22" s="217" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE22" s="190"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="190"/>
+      <c r="AH22" s="190"/>
+      <c r="AI22" s="190"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
@@ -10992,56 +10938,56 @@
       <c r="L23" s="83"/>
       <c r="M23" s="83"/>
       <c r="R23" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S23" s="94">
-        <f t="shared" ref="S23:AA23" si="22">S29/(E3/S28)</f>
+        <f t="shared" ref="S23:AA23" si="23">S29/(E3/S28)</f>
         <v>0.54845314824827684</v>
       </c>
       <c r="T23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.0170559036536737</v>
       </c>
       <c r="U23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24.210901826484019</v>
       </c>
-      <c r="V23" s="210">
-        <f t="shared" si="22"/>
+      <c r="V23" s="209">
+        <f t="shared" si="23"/>
         <v>22.150827713059474</v>
       </c>
       <c r="W23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10.741778480708229</v>
       </c>
       <c r="X23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.5546127881644889</v>
       </c>
       <c r="Y23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.7276267781627164</v>
       </c>
       <c r="Z23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.332519697378399</v>
       </c>
       <c r="AA23" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9750745305853936</v>
       </c>
       <c r="AB23" s="94">
         <f>AVERAGE(S23:V23)</f>
         <v>12.481809647861361</v>
       </c>
-      <c r="AD23" s="217" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="191"/>
-      <c r="AG23" s="191"/>
-      <c r="AH23" s="221"/>
-      <c r="AI23" s="191"/>
+      <c r="AD23" s="216" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE23" s="190"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="190"/>
+      <c r="AH23" s="220"/>
+      <c r="AI23" s="190"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
@@ -11058,42 +11004,42 @@
       <c r="K24" s="72"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
-      <c r="S24" s="192"/>
-      <c r="T24" s="192"/>
-      <c r="U24" s="192"/>
-      <c r="V24" s="209"/>
-      <c r="X24" s="192"/>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="192"/>
-      <c r="AA24" s="192"/>
-      <c r="AB24" s="192"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="208"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="191"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="85" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="55">
-        <f t="shared" ref="C25:H25" si="23">C5/C3</f>
+        <f t="shared" ref="C25:H25" si="24">C5/C3</f>
         <v>0.22846097759299394</v>
       </c>
       <c r="D25" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.18900706376042831</v>
       </c>
       <c r="E25" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.18834026954977681</v>
       </c>
       <c r="F25" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.1655545609895028</v>
       </c>
       <c r="G25" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2102359208523592</v>
       </c>
       <c r="H25" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25279155751258753</v>
       </c>
       <c r="I25" s="7">
@@ -11101,59 +11047,59 @@
         <v>0.20423057722605659</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:M28" si="24">AVERAGE($E25:$H25)</f>
+        <f t="shared" ref="J25:M28" si="25">AVERAGE($E25:$H25)</f>
         <v>0.20423057722605659</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20423057722605659</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20423057722605659</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.20423057722605659</v>
       </c>
-      <c r="R25" s="203" t="s">
+      <c r="R25" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="179">
+      <c r="S25" s="178">
         <v>-5.72</v>
       </c>
-      <c r="T25" s="179">
+      <c r="T25" s="178">
         <v>-0.98</v>
       </c>
-      <c r="U25" s="179">
+      <c r="U25" s="178">
         <v>0.74</v>
       </c>
-      <c r="V25" s="183">
+      <c r="V25" s="182">
         <v>5.6</v>
       </c>
-      <c r="W25" s="179">
+      <c r="W25" s="178">
         <f>I18/W27</f>
-        <v>4.8056574333814321</v>
-      </c>
-      <c r="X25" s="179">
+        <v>4.60745679006431</v>
+      </c>
+      <c r="X25" s="178">
         <f>J18/X27</f>
-        <v>6.774570362451998</v>
-      </c>
-      <c r="Y25" s="179">
+        <v>6.4813360410871903</v>
+      </c>
+      <c r="Y25" s="178">
         <f>K18/Y27</f>
-        <v>8.7868024132351152</v>
-      </c>
-      <c r="Z25" s="179">
+        <v>8.3706683441101042</v>
+      </c>
+      <c r="Z25" s="178">
         <f>L18/Z27</f>
-        <v>9.7696747619070869</v>
-      </c>
-      <c r="AA25" s="179">
+        <v>9.3049963178472765</v>
+      </c>
+      <c r="AA25" s="178">
         <f>M18/AA27</f>
-        <v>10.728907624556593</v>
-      </c>
-      <c r="AB25" s="179">
+        <v>10.247530584266054</v>
+      </c>
+      <c r="AB25" s="178">
         <f>AVERAGE(S25:AA25)</f>
-        <v>4.5006236217258033</v>
+        <v>4.2946653419305489</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
@@ -11161,27 +11107,27 @@
         <v>36</v>
       </c>
       <c r="C26" s="55">
-        <f t="shared" ref="C26:H27" si="25">C6/C$3</f>
+        <f t="shared" ref="C26:H27" si="26">C6/C$3</f>
         <v>0.11919889510654941</v>
       </c>
       <c r="D26" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.11719552527304981</v>
       </c>
       <c r="E26" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.8046771514152851E-2</v>
       </c>
       <c r="F26" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.4642363088941333E-2</v>
       </c>
       <c r="G26" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.7279299847792999E-2</v>
       </c>
       <c r="H26" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.817643015067908E-2</v>
       </c>
       <c r="I26" s="7">
@@ -11189,11 +11135,11 @@
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" ref="J26:K26" si="26">AVERAGE($F26:$H26)</f>
+        <f t="shared" ref="J26:K26" si="27">AVERAGE($F26:$H26)</f>
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.0032697695804464E-2</v>
       </c>
       <c r="L26" s="7">
@@ -11204,49 +11150,49 @@
         <f>AVERAGE($F26:$H26)</f>
         <v>5.0032697695804464E-2</v>
       </c>
-      <c r="R26" s="203" t="s">
+      <c r="R26" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="179">
+      <c r="S26" s="178">
         <v>-5.72</v>
       </c>
-      <c r="T26" s="179">
+      <c r="T26" s="178">
         <v>-0.98</v>
       </c>
-      <c r="U26" s="179">
+      <c r="U26" s="178">
         <v>0.64</v>
       </c>
-      <c r="V26" s="183">
+      <c r="V26" s="182">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W26" s="179">
+      <c r="W26" s="178">
         <f>I18/W28</f>
-        <v>4.0000336062331705</v>
-      </c>
-      <c r="X26" s="179">
+        <v>3.8350594596078933</v>
+      </c>
+      <c r="X26" s="178">
         <f>J18/X28</f>
-        <v>5.3742819414310761</v>
-      </c>
-      <c r="Y26" s="179">
+        <v>5.1416584932116542</v>
+      </c>
+      <c r="Y26" s="178">
         <f>K18/Y28</f>
-        <v>6.6435071516897422</v>
-      </c>
-      <c r="Z26" s="179">
+        <v>6.3288773769118771</v>
+      </c>
+      <c r="Z26" s="178">
         <f>L18/Z28</f>
-        <v>7.0400300029134542</v>
-      </c>
-      <c r="AA26" s="179">
+        <v>6.705182603423399</v>
+      </c>
+      <c r="AA26" s="178">
         <f>M18/AA28</f>
-        <v>7.3684776022278982</v>
-      </c>
-      <c r="AB26" s="179">
+        <v>7.0378739598319937</v>
+      </c>
+      <c r="AB26" s="178">
         <f>AVERAGE(S26:AA26)</f>
-        <v>3.25181447827726</v>
-      </c>
-      <c r="AD26" s="168" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG26" s="220">
+        <v>3.0987390992207575</v>
+      </c>
+      <c r="AD26" s="167" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG26" s="219">
         <f>V26/U26-1</f>
         <v>6.65625</v>
       </c>
@@ -11256,27 +11202,27 @@
         <v>54</v>
       </c>
       <c r="C27" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.20459457050238478</v>
       </c>
       <c r="D27" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21060910295659802</v>
       </c>
       <c r="E27" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13207472177319626</v>
       </c>
       <c r="F27" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10765725445520384</v>
       </c>
       <c r="G27" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.9727295788939629E-2</v>
       </c>
       <c r="H27" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.3923229845976624E-2</v>
       </c>
       <c r="I27" s="7">
@@ -11300,7 +11246,7 @@
         <v>6.3923229845976634E-2</v>
       </c>
       <c r="P27" s="88"/>
-      <c r="R27" s="203" t="s">
+      <c r="R27" s="202" t="s">
         <v>50</v>
       </c>
       <c r="S27" s="74">
@@ -11312,27 +11258,27 @@
       <c r="U27" s="75">
         <v>933</v>
       </c>
-      <c r="V27" s="211">
+      <c r="V27" s="210">
         <v>986</v>
       </c>
       <c r="W27" s="75">
-        <f t="shared" ref="W27:AA28" si="27">V27*(1+I33)</f>
+        <f t="shared" ref="W27:AA28" si="28">V27*(1+I33)</f>
         <v>1033.2471231439581</v>
       </c>
       <c r="X27" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1082.7582327436771</v>
       </c>
       <c r="Y27" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1134.6418144450715</v>
       </c>
       <c r="Z27" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1189.0115523065019</v>
       </c>
       <c r="AA27" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1245.9865778961714</v>
       </c>
       <c r="AB27" s="94">
@@ -11344,7 +11290,7 @@
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="56">
@@ -11376,20 +11322,20 @@
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5698610885067927E-3</v>
       </c>
       <c r="P28" s="88"/>
-      <c r="R28" s="203" t="s">
-        <v>258</v>
+      <c r="R28" s="202" t="s">
+        <v>257</v>
       </c>
       <c r="S28" s="74">
         <v>177</v>
@@ -11400,31 +11346,31 @@
       <c r="U28" s="75">
         <v>1083</v>
       </c>
-      <c r="V28" s="211">
+      <c r="V28" s="210">
         <v>1129</v>
       </c>
       <c r="W28" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1241.3475002108012</v>
       </c>
       <c r="X28" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1364.8747708411029</v>
       </c>
       <c r="Y28" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1500.6943178781162</v>
       </c>
       <c r="Z28" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1650.0293534796749</v>
       </c>
       <c r="AA28" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1814.224812414915</v>
       </c>
       <c r="AB28" s="94">
-        <f t="shared" ref="AB28:AB29" si="28">AVERAGE(S28:AA28)</f>
+        <f t="shared" ref="AB28:AB29" si="29">AVERAGE(S28:AA28)</f>
         <v>1205.2411949805123</v>
       </c>
       <c r="AD28" s="88"/>
@@ -11435,8 +11381,8 @@
         <v>56</v>
       </c>
       <c r="P29" s="88"/>
-      <c r="R29" s="174" t="s">
-        <v>240</v>
+      <c r="R29" s="173" t="s">
+        <v>239</v>
       </c>
       <c r="S29" s="74">
         <v>66.5</v>
@@ -11447,7 +11393,7 @@
       <c r="U29" s="74">
         <v>705</v>
       </c>
-      <c r="V29" s="211">
+      <c r="V29" s="210">
         <v>1056</v>
       </c>
       <c r="W29" s="74">
@@ -11469,7 +11415,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>749.90000000000009</v>
       </c>
       <c r="AD29" s="88"/>
@@ -11480,27 +11426,27 @@
         <v>40</v>
       </c>
       <c r="C30" s="55">
-        <f t="shared" ref="C30:H30" si="29">C10/C$3</f>
+        <f t="shared" ref="C30:H30" si="30">C10/C$3</f>
         <v>-9.533248801594027E-2</v>
       </c>
       <c r="D30" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.13879756446921956</v>
       </c>
       <c r="E30" s="57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.8082482358451512E-2</v>
       </c>
       <c r="F30" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-2.8073887216209618E-3</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6.3229325215626589E-2</v>
       </c>
       <c r="H30" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.12119354179440016</v>
       </c>
       <c r="I30" s="90">
@@ -11512,15 +11458,15 @@
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="K30" s="90">
-        <f t="shared" ref="K30:M30" si="30">J30</f>
+        <f t="shared" ref="K30:M30" si="31">J30</f>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="L30" s="90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="M30" s="90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="N30" s="12">
@@ -11528,7 +11474,7 @@
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="P30" s="88"/>
-      <c r="V30" s="208"/>
+      <c r="V30" s="207"/>
       <c r="AD30" s="88"/>
       <c r="AE30" s="88"/>
     </row>
@@ -11537,27 +11483,27 @@
         <v>45</v>
       </c>
       <c r="C31" s="55">
-        <f t="shared" ref="C31:H31" si="31">C14/C$3</f>
+        <f t="shared" ref="C31:H31" si="32">C14/C$3</f>
         <v>-0.10661913232493329</v>
       </c>
       <c r="D31" s="56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.18786280957901058</v>
       </c>
       <c r="E31" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-4.6816665259480472E-2</v>
       </c>
       <c r="F31" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.7056717389535356E-2</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.6593099949264331E-2</v>
       </c>
       <c r="H31" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.11784924660461141</v>
       </c>
       <c r="I31" s="90">
@@ -11565,19 +11511,19 @@
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="J31" s="90">
-        <f t="shared" ref="J31:M32" si="32">I31</f>
+        <f t="shared" ref="J31:M32" si="33">I31</f>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="K31" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="L31" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="M31" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.0142240976214976E-2</v>
       </c>
       <c r="N31" s="12">
@@ -11586,18 +11532,18 @@
       </c>
       <c r="P31" s="88"/>
       <c r="R31" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="S31" s="192"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="209"/>
-      <c r="W31" s="192"/>
-      <c r="X31" s="192"/>
-      <c r="Y31" s="192"/>
-      <c r="Z31" s="192"/>
-      <c r="AA31" s="192"/>
-      <c r="AB31" s="192"/>
+        <v>241</v>
+      </c>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="208"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
       <c r="AD31" s="88"/>
       <c r="AE31" s="88"/>
     </row>
@@ -11606,27 +11552,27 @@
         <v>47</v>
       </c>
       <c r="C32" s="55">
-        <f t="shared" ref="C32:H32" si="33">C16/C$3</f>
+        <f t="shared" ref="C32:H32" si="34">C16/C$3</f>
         <v>-0.11043306040514664</v>
       </c>
       <c r="D32" s="56">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.19054557750223641</v>
       </c>
       <c r="E32" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.951161320011474E-2</v>
       </c>
       <c r="F32" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.1532264626902111E-2</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.7333840690005072E-2</v>
       </c>
       <c r="H32" s="58">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.10486223361759843</v>
       </c>
       <c r="I32" s="90">
@@ -11634,19 +11580,19 @@
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="J32" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="K32" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="L32" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="M32" s="90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="N32" s="12">
@@ -11655,52 +11601,52 @@
       </c>
       <c r="P32" s="88"/>
       <c r="Q32" s="88"/>
-      <c r="R32" s="184" t="s">
-        <v>254</v>
-      </c>
-      <c r="S32" s="194">
-        <f t="shared" ref="S32:AA32" si="34">E18/((E89+D89)/2)</f>
+      <c r="R32" s="183" t="s">
+        <v>253</v>
+      </c>
+      <c r="S32" s="193">
+        <f t="shared" ref="S32:AA32" si="35">E18/((E89+D89)/2)</f>
         <v>-0.21308915412229809</v>
       </c>
-      <c r="T32" s="194">
-        <f t="shared" si="34"/>
+      <c r="T32" s="193">
+        <f t="shared" si="35"/>
         <v>-0.14937732443550492</v>
       </c>
-      <c r="U32" s="194">
-        <f t="shared" si="34"/>
+      <c r="U32" s="193">
+        <f t="shared" si="35"/>
         <v>4.9994799431404502E-2</v>
       </c>
-      <c r="V32" s="209">
-        <f t="shared" si="34"/>
+      <c r="V32" s="208">
+        <f t="shared" si="35"/>
         <v>0.21059258976609302</v>
       </c>
-      <c r="W32" s="194">
-        <f t="shared" si="34"/>
-        <v>0.15162674695142356</v>
-      </c>
-      <c r="X32" s="194">
-        <f t="shared" si="34"/>
-        <v>0.18766782949602073</v>
-      </c>
-      <c r="Y32" s="194">
-        <f t="shared" si="34"/>
-        <v>0.20769139758026881</v>
-      </c>
-      <c r="Z32" s="194">
-        <f t="shared" si="34"/>
-        <v>0.19646800661307595</v>
-      </c>
-      <c r="AA32" s="194">
-        <f t="shared" si="34"/>
-        <v>0.1856718511233327</v>
-      </c>
-      <c r="AB32" s="194">
-        <f t="shared" ref="AB32:AB39" si="35">AVERAGE(S32:V32)</f>
+      <c r="W32" s="193">
+        <f t="shared" si="35"/>
+        <v>0.14582915265742546</v>
+      </c>
+      <c r="X32" s="193">
+        <f t="shared" si="35"/>
+        <v>0.18123033488229628</v>
+      </c>
+      <c r="Y32" s="193">
+        <f t="shared" si="35"/>
+        <v>0.20103130898052005</v>
+      </c>
+      <c r="Z32" s="193">
+        <f t="shared" si="35"/>
+        <v>0.19123326864936846</v>
+      </c>
+      <c r="AA32" s="193">
+        <f t="shared" si="35"/>
+        <v>0.18201006669053274</v>
+      </c>
+      <c r="AB32" s="193">
+        <f t="shared" ref="AB32:AB39" si="36">AVERAGE(S32:V32)</f>
         <v>-2.5469772340076371E-2</v>
       </c>
       <c r="AD32" s="88"/>
-      <c r="AE32" s="219" t="s">
-        <v>268</v>
+      <c r="AE32" s="218" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
@@ -11709,16 +11655,16 @@
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="56"/>
-      <c r="E33" s="177">
+      <c r="E33" s="176">
         <f>S27/D19-1</f>
         <v>3.5087719298245723E-2</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177">
+      <c r="F33" s="176"/>
+      <c r="G33" s="176">
         <f>U27/T27-1</f>
         <v>5.1860202931228949E-2</v>
       </c>
-      <c r="H33" s="177">
+      <c r="H33" s="176">
         <f>V27/U27-1</f>
         <v>5.6806002143622747E-2</v>
       </c>
@@ -11727,19 +11673,19 @@
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="J33" s="90">
-        <f t="shared" ref="J33" si="36">I33</f>
+        <f t="shared" ref="J33" si="37">I33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="K33" s="90">
-        <f t="shared" ref="K33" si="37">J33</f>
+        <f t="shared" ref="K33" si="38">J33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="L33" s="90">
-        <f t="shared" ref="L33" si="38">K33</f>
+        <f t="shared" ref="L33" si="39">K33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="M33" s="90">
-        <f t="shared" ref="M33" si="39">L33</f>
+        <f t="shared" ref="M33" si="40">L33</f>
         <v>4.7917974791032471E-2</v>
       </c>
       <c r="N33" s="12">
@@ -11748,77 +11694,77 @@
       </c>
       <c r="P33" s="88"/>
       <c r="Q33" s="88"/>
-      <c r="R33" s="185" t="s">
-        <v>243</v>
-      </c>
-      <c r="S33" s="195">
-        <f t="shared" ref="S33:AA33" si="40">((D66+E66)/2)/((E89+D89)/2)</f>
+      <c r="R33" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="S33" s="194">
+        <f t="shared" ref="S33:AA33" si="41">((D66+E66)/2)/((E89+D89)/2)</f>
         <v>6.3746609486288106</v>
       </c>
-      <c r="T33" s="195">
-        <f t="shared" si="40"/>
+      <c r="T33" s="194">
+        <f t="shared" si="41"/>
         <v>5.5495421073795947</v>
       </c>
-      <c r="U33" s="195">
-        <f t="shared" si="40"/>
+      <c r="U33" s="194">
+        <f t="shared" si="41"/>
         <v>2.99750372707416</v>
       </c>
-      <c r="V33" s="212">
-        <f t="shared" si="40"/>
+      <c r="V33" s="211">
+        <f t="shared" si="41"/>
         <v>2.1803144198115008</v>
       </c>
-      <c r="W33" s="195">
-        <f t="shared" si="40"/>
-        <v>2.4720323223105201</v>
-      </c>
-      <c r="X33" s="195">
-        <f t="shared" si="40"/>
-        <v>3.1085589368000286</v>
-      </c>
-      <c r="Y33" s="195">
-        <f t="shared" si="40"/>
-        <v>3.5516952272880959</v>
-      </c>
-      <c r="Z33" s="195">
-        <f t="shared" si="40"/>
-        <v>3.672386538348464</v>
-      </c>
-      <c r="AA33" s="195">
-        <f t="shared" si="40"/>
-        <v>3.6101387731976033</v>
-      </c>
-      <c r="AB33" s="195">
+      <c r="W33" s="194">
+        <f t="shared" si="41"/>
+        <v>2.4773902153294971</v>
+      </c>
+      <c r="X33" s="194">
+        <f t="shared" si="41"/>
+        <v>3.1305719061741457</v>
+      </c>
+      <c r="Y33" s="194">
+        <f t="shared" si="41"/>
+        <v>3.5964457089387758</v>
+      </c>
+      <c r="Z33" s="194">
+        <f t="shared" si="41"/>
+        <v>3.7362691798501215</v>
+      </c>
+      <c r="AA33" s="194">
+        <f t="shared" si="41"/>
+        <v>3.6850723173122515</v>
+      </c>
+      <c r="AB33" s="194">
         <f>AVERAGE(S33:V33)</f>
         <v>4.2755053007235171</v>
       </c>
       <c r="AC33" s="246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD33" s="88"/>
-      <c r="AE33" s="219" t="s">
-        <v>262</v>
+      <c r="AE33" s="218" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="70"/>
-      <c r="E34" s="177">
+      <c r="E34" s="176">
         <f>S28/D20-1</f>
         <v>3.5087719298245723E-2</v>
       </c>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177">
+      <c r="F34" s="176"/>
+      <c r="G34" s="176">
         <f>U28/T28-1</f>
         <v>0.22096956031567072</v>
       </c>
-      <c r="H34" s="177">
+      <c r="H34" s="176">
         <f>V28/U28-1</f>
         <v>4.2474607571560519E-2</v>
       </c>
-      <c r="I34" s="178">
+      <c r="I34" s="177">
         <f>AVERAGE(E34:H34)</f>
         <v>9.9510629061825659E-2</v>
       </c>
@@ -11827,15 +11773,15 @@
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="K34" s="90">
-        <f t="shared" ref="K34" si="41">J34</f>
+        <f t="shared" ref="K34" si="42">J34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="L34" s="90">
-        <f t="shared" ref="L34" si="42">K34</f>
+        <f t="shared" ref="L34" si="43">K34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="M34" s="90">
-        <f t="shared" ref="M34" si="43">L34</f>
+        <f t="shared" ref="M34" si="44">L34</f>
         <v>9.9510629061825659E-2</v>
       </c>
       <c r="N34" s="12">
@@ -11844,55 +11790,55 @@
       </c>
       <c r="P34" s="88"/>
       <c r="Q34" s="248" t="s">
-        <v>246</v>
-      </c>
-      <c r="R34" s="186" t="s">
-        <v>252</v>
-      </c>
-      <c r="S34" s="196">
-        <f t="shared" ref="S34:AA34" si="44">E16/((D66+E66)/2)</f>
+        <v>245</v>
+      </c>
+      <c r="R34" s="185" t="s">
+        <v>251</v>
+      </c>
+      <c r="S34" s="195">
+        <f t="shared" ref="S34:AA34" si="45">E16/((D66+E66)/2)</f>
         <v>-3.6392919076990625E-2</v>
       </c>
-      <c r="T34" s="196">
-        <f t="shared" si="44"/>
+      <c r="T34" s="195">
+        <f t="shared" si="45"/>
         <v>-2.4200367552059752E-2</v>
       </c>
-      <c r="U34" s="196">
-        <f t="shared" si="44"/>
+      <c r="U34" s="195">
+        <f t="shared" si="45"/>
         <v>1.9940548480747656E-2</v>
       </c>
-      <c r="V34" s="213">
-        <f t="shared" si="44"/>
+      <c r="V34" s="212">
+        <f t="shared" si="45"/>
         <v>9.8775803078430854E-2</v>
       </c>
-      <c r="W34" s="196">
-        <f t="shared" si="44"/>
-        <v>6.3214842030975785E-2</v>
-      </c>
-      <c r="X34" s="196">
-        <f t="shared" si="44"/>
-        <v>6.2217015984384963E-2</v>
-      </c>
-      <c r="Y34" s="196">
-        <f t="shared" si="44"/>
-        <v>6.0264830522498099E-2</v>
-      </c>
-      <c r="Z34" s="196">
-        <f t="shared" si="44"/>
-        <v>5.5125687677678156E-2</v>
-      </c>
-      <c r="AA34" s="196">
-        <f t="shared" si="44"/>
-        <v>5.3001598467518937E-2</v>
-      </c>
-      <c r="AB34" s="197">
-        <f t="shared" si="35"/>
+      <c r="W34" s="195">
+        <f t="shared" si="45"/>
+        <v>6.0743801601851007E-2</v>
+      </c>
+      <c r="X34" s="195">
+        <f t="shared" si="45"/>
+        <v>5.9740404299115625E-2</v>
+      </c>
+      <c r="Y34" s="195">
+        <f t="shared" si="45"/>
+        <v>5.7691449761961354E-2</v>
+      </c>
+      <c r="Z34" s="195">
+        <f t="shared" si="45"/>
+        <v>5.2817213039315559E-2</v>
+      </c>
+      <c r="AA34" s="195">
+        <f t="shared" si="45"/>
+        <v>5.0970681432436084E-2</v>
+      </c>
+      <c r="AB34" s="196">
+        <f t="shared" si="36"/>
         <v>1.4530766232532032E-2</v>
       </c>
       <c r="AC34" s="247"/>
       <c r="AD34" s="88"/>
-      <c r="AE34" s="219" t="s">
-        <v>263</v>
+      <c r="AE34" s="218" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.2">
@@ -11910,55 +11856,55 @@
       <c r="N35" s="12"/>
       <c r="P35" s="88"/>
       <c r="Q35" s="249"/>
-      <c r="R35" s="187" t="s">
-        <v>253</v>
-      </c>
-      <c r="S35" s="198">
-        <f t="shared" ref="S35:AA35" si="45">E3/((E66+D66)/2)</f>
+      <c r="R35" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="S35" s="197">
+        <f t="shared" ref="S35:AA35" si="46">E3/((E66+D66)/2)</f>
         <v>0.73503803905355847</v>
       </c>
-      <c r="T35" s="198">
-        <f t="shared" si="45"/>
+      <c r="T35" s="197">
+        <f t="shared" si="46"/>
         <v>0.76747952734777369</v>
       </c>
-      <c r="U35" s="198">
-        <f t="shared" si="45"/>
+      <c r="U35" s="197">
+        <f t="shared" si="46"/>
         <v>0.72951872028869846</v>
       </c>
-      <c r="V35" s="214">
-        <f t="shared" si="45"/>
+      <c r="V35" s="213">
+        <f t="shared" si="46"/>
         <v>0.94195784002310134</v>
       </c>
-      <c r="W35" s="198">
-        <f t="shared" si="45"/>
-        <v>1.1962607656278534</v>
-      </c>
-      <c r="X35" s="198">
-        <f t="shared" si="45"/>
-        <v>1.1757018120303429</v>
-      </c>
-      <c r="Y35" s="198">
-        <f t="shared" si="45"/>
-        <v>1.13904077599512</v>
-      </c>
-      <c r="Z35" s="198">
-        <f t="shared" si="45"/>
-        <v>1.0363720780610062</v>
-      </c>
-      <c r="AA35" s="198">
-        <f t="shared" si="45"/>
-        <v>1.0006807619723002</v>
-      </c>
-      <c r="AB35" s="199">
-        <f t="shared" si="35"/>
+      <c r="W35" s="197">
+        <f t="shared" si="46"/>
+        <v>1.19741766060828</v>
+      </c>
+      <c r="X35" s="197">
+        <f t="shared" si="46"/>
+        <v>1.1783949979088451</v>
+      </c>
+      <c r="Y35" s="197">
+        <f t="shared" si="46"/>
+        <v>1.1429240509757774</v>
+      </c>
+      <c r="Z35" s="197">
+        <f t="shared" si="46"/>
+        <v>1.0410256802770941</v>
+      </c>
+      <c r="AA35" s="197">
+        <f t="shared" si="46"/>
+        <v>1.0061414856102116</v>
+      </c>
+      <c r="AB35" s="198">
+        <f t="shared" si="36"/>
         <v>0.79349853167828299</v>
       </c>
       <c r="AC35" s="251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD35" s="88"/>
-      <c r="AE35" s="219" t="s">
-        <v>264</v>
+      <c r="AE35" s="218" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
@@ -11978,53 +11924,53 @@
       <c r="M36" s="10"/>
       <c r="P36" s="88"/>
       <c r="Q36" s="250"/>
-      <c r="R36" s="188" t="s">
-        <v>248</v>
-      </c>
-      <c r="S36" s="200">
-        <f t="shared" ref="S36:AA36" si="46">E16/E3</f>
+      <c r="R36" s="187" t="s">
+        <v>247</v>
+      </c>
+      <c r="S36" s="199">
+        <f t="shared" ref="S36:AA36" si="47">E16/E3</f>
         <v>-4.951161320011474E-2</v>
       </c>
-      <c r="T36" s="200">
-        <f t="shared" si="46"/>
+      <c r="T36" s="199">
+        <f t="shared" si="47"/>
         <v>-3.1532264626902111E-2</v>
       </c>
-      <c r="U36" s="200">
-        <f t="shared" si="46"/>
+      <c r="U36" s="199">
+        <f t="shared" si="47"/>
         <v>2.7333840690005072E-2</v>
       </c>
-      <c r="V36" s="215">
-        <f t="shared" si="46"/>
+      <c r="V36" s="214">
+        <f t="shared" si="47"/>
         <v>0.10486223361759843</v>
       </c>
-      <c r="W36" s="200">
-        <f t="shared" si="46"/>
-        <v>5.2843697500851911E-2</v>
-      </c>
-      <c r="X36" s="200">
-        <f t="shared" si="46"/>
-        <v>5.2919044053305629E-2</v>
-      </c>
-      <c r="Y36" s="200">
-        <f t="shared" si="46"/>
-        <v>5.2908404854819964E-2</v>
-      </c>
-      <c r="Z36" s="200">
-        <f t="shared" si="46"/>
-        <v>5.3191019755004607E-2</v>
-      </c>
-      <c r="AA36" s="200">
-        <f t="shared" si="46"/>
-        <v>5.2965541540995545E-2</v>
-      </c>
-      <c r="AB36" s="201">
-        <f t="shared" si="35"/>
+      <c r="W36" s="199">
+        <f t="shared" si="47"/>
+        <v>5.0729000916015864E-2</v>
+      </c>
+      <c r="X36" s="199">
+        <f t="shared" si="47"/>
+        <v>5.0696417080121417E-2</v>
+      </c>
+      <c r="Y36" s="199">
+        <f t="shared" si="47"/>
+        <v>5.0477063382039229E-2</v>
+      </c>
+      <c r="Z36" s="199">
+        <f t="shared" si="47"/>
+        <v>5.0735744602627843E-2</v>
+      </c>
+      <c r="AA36" s="199">
+        <f t="shared" si="47"/>
+        <v>5.0659556495201097E-2</v>
+      </c>
+      <c r="AB36" s="200">
+        <f t="shared" si="36"/>
         <v>1.2788049120146661E-2</v>
       </c>
       <c r="AC36" s="252"/>
       <c r="AD36" s="88"/>
-      <c r="AE36" s="219" t="s">
-        <v>265</v>
+      <c r="AE36" s="218" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
@@ -12034,94 +11980,94 @@
       <c r="C37" s="55"/>
       <c r="D37" s="56"/>
       <c r="E37" s="57">
-        <f t="shared" ref="E37:M37" si="47">E3/D3-1</f>
+        <f t="shared" ref="E37:M37" si="48">E3/D3-1</f>
         <v>0.82513159773516764</v>
       </c>
       <c r="F37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.14522590184326489</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.28309870615998056</v>
       </c>
       <c r="H37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.70671613394216126</v>
       </c>
       <c r="I37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.79925740897344721</v>
       </c>
       <c r="J37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="L37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="M37" s="58">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" ref="N37:N43" si="48">AVERAGE(E37:M37)</f>
+        <f t="shared" ref="N37:N43" si="49">AVERAGE(E37:M37)</f>
         <v>0.43428807850277756</v>
       </c>
       <c r="P37" s="88"/>
       <c r="Q37" s="88"/>
-      <c r="R37" s="189" t="s">
-        <v>249</v>
-      </c>
-      <c r="S37" s="194">
-        <f t="shared" ref="S37:AA37" si="49">E10/E3</f>
+      <c r="R37" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="S37" s="193">
+        <f t="shared" ref="S37:AA37" si="50">E10/E3</f>
         <v>-1.8082482358451512E-2</v>
       </c>
-      <c r="T37" s="194">
-        <f t="shared" si="49"/>
+      <c r="T37" s="193">
+        <f t="shared" si="50"/>
         <v>-2.8073887216209618E-3</v>
       </c>
-      <c r="U37" s="194">
-        <f t="shared" si="49"/>
+      <c r="U37" s="193">
+        <f t="shared" si="50"/>
         <v>6.3229325215626589E-2</v>
       </c>
-      <c r="V37" s="209">
-        <f t="shared" si="49"/>
+      <c r="V37" s="208">
+        <f t="shared" si="50"/>
         <v>0.12119354179440016</v>
       </c>
-      <c r="W37" s="194">
-        <f t="shared" si="49"/>
+      <c r="W37" s="193">
+        <f t="shared" si="50"/>
         <v>7.0274649684275492E-2</v>
       </c>
-      <c r="X37" s="194">
-        <f t="shared" si="49"/>
+      <c r="X37" s="193">
+        <f t="shared" si="50"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Y37" s="194">
-        <f t="shared" si="49"/>
+      <c r="Y37" s="193">
+        <f t="shared" si="50"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="Z37" s="194">
-        <f t="shared" si="49"/>
+      <c r="Z37" s="193">
+        <f t="shared" si="50"/>
         <v>7.0274649684275506E-2</v>
       </c>
-      <c r="AA37" s="194">
-        <f t="shared" si="49"/>
+      <c r="AA37" s="193">
+        <f t="shared" si="50"/>
         <v>7.027464968427552E-2</v>
       </c>
-      <c r="AB37" s="194">
-        <f t="shared" si="35"/>
+      <c r="AB37" s="193">
+        <f t="shared" si="36"/>
         <v>4.0883248982488567E-2</v>
       </c>
       <c r="AC37" s="252"/>
       <c r="AD37" s="88"/>
-      <c r="AE37" s="219" t="s">
-        <v>265</v>
+      <c r="AE37" s="218" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12131,94 +12077,94 @@
       <c r="C38" s="55"/>
       <c r="D38" s="56"/>
       <c r="E38" s="57">
-        <f t="shared" ref="E38:M38" si="50">E4/D4-1</f>
+        <f t="shared" ref="E38:M38" si="51">E4/D4-1</f>
         <v>0.82663221152434541</v>
       </c>
       <c r="F38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.17737580734689629</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.21439368082305332</v>
       </c>
       <c r="H38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.61475146551031878</v>
       </c>
       <c r="I38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.91619091587641055</v>
       </c>
       <c r="J38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.35945984695376487</v>
       </c>
       <c r="L38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.15875689813018767</v>
       </c>
       <c r="M38" s="58">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.15585622916578679</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.43316744877244456</v>
       </c>
       <c r="P38" s="88"/>
       <c r="Q38" s="88"/>
-      <c r="R38" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="S38" s="194">
-        <f t="shared" ref="S38:AA38" si="51">E14/E10</f>
+      <c r="R38" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="S38" s="193">
+        <f t="shared" ref="S38:AA38" si="52">E14/E10</f>
         <v>2.589061851765003</v>
       </c>
-      <c r="T38" s="194">
-        <f t="shared" si="51"/>
+      <c r="T38" s="193">
+        <f t="shared" si="52"/>
         <v>9.6376811594202891</v>
       </c>
-      <c r="U38" s="194">
-        <f t="shared" si="51"/>
+      <c r="U38" s="193">
+        <f t="shared" si="52"/>
         <v>0.5787362086258776</v>
       </c>
-      <c r="V38" s="209">
-        <f t="shared" si="51"/>
+      <c r="V38" s="208">
+        <f t="shared" si="52"/>
         <v>0.97240533496857273</v>
       </c>
-      <c r="W38" s="194">
-        <f t="shared" si="51"/>
-        <v>0.88108491745353512</v>
-      </c>
-      <c r="X38" s="194">
-        <f t="shared" si="51"/>
-        <v>0.88234120181834519</v>
-      </c>
-      <c r="Y38" s="194">
-        <f t="shared" si="51"/>
-        <v>0.88216381004292366</v>
-      </c>
-      <c r="Z38" s="194">
-        <f t="shared" si="51"/>
-        <v>0.8868759656598979</v>
-      </c>
-      <c r="AA38" s="194">
-        <f t="shared" si="51"/>
-        <v>0.88311647374367552</v>
-      </c>
-      <c r="AB38" s="194">
-        <f t="shared" si="35"/>
+      <c r="W38" s="193">
+        <f t="shared" si="52"/>
+        <v>0.84582570293964721</v>
+      </c>
+      <c r="X38" s="193">
+        <f t="shared" si="52"/>
+        <v>0.84528241910984081</v>
+      </c>
+      <c r="Y38" s="193">
+        <f t="shared" si="52"/>
+        <v>0.84162504379153047</v>
+      </c>
+      <c r="Z38" s="193">
+        <f t="shared" si="52"/>
+        <v>0.84593814322756866</v>
+      </c>
+      <c r="AA38" s="193">
+        <f t="shared" si="52"/>
+        <v>0.84466782726714684</v>
+      </c>
+      <c r="AB38" s="193">
+        <f t="shared" si="36"/>
         <v>3.4444711386949352</v>
       </c>
       <c r="AC38" s="252"/>
       <c r="AD38" s="88"/>
-      <c r="AE38" s="206" t="s">
-        <v>267</v>
+      <c r="AE38" s="205" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
@@ -12231,93 +12177,93 @@
         <v>0.38969971680599169</v>
       </c>
       <c r="E39" s="57">
-        <f t="shared" ref="E39:M39" si="52">E5/D5-1</f>
+        <f t="shared" ref="E39:M39" si="53">E5/D5-1</f>
         <v>0.81869275275850861</v>
       </c>
       <c r="F39" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.6746313292287418E-3</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.62939297124600646</v>
       </c>
       <c r="H39" s="58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.0521870286576167</v>
       </c>
       <c r="I39" s="92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.45362203876056451</v>
       </c>
       <c r="J39" s="92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.47508998362123767</v>
       </c>
       <c r="K39" s="92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="L39" s="92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="M39" s="92">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.45663693118032245</v>
       </c>
       <c r="P39" s="88"/>
       <c r="Q39" s="88"/>
-      <c r="R39" s="190" t="s">
-        <v>250</v>
-      </c>
-      <c r="S39" s="202">
-        <f t="shared" ref="S39:AA39" si="53">E16/E14</f>
+      <c r="R39" s="189" t="s">
+        <v>249</v>
+      </c>
+      <c r="S39" s="201">
+        <f t="shared" ref="S39:AA39" si="54">E16/E14</f>
         <v>1.0575638594867356</v>
       </c>
-      <c r="T39" s="202">
-        <f t="shared" si="53"/>
+      <c r="T39" s="201">
+        <f t="shared" si="54"/>
         <v>1.1654135338345866</v>
       </c>
-      <c r="U39" s="202">
-        <f t="shared" si="53"/>
+      <c r="U39" s="201">
+        <f t="shared" si="54"/>
         <v>0.7469670710571924</v>
       </c>
-      <c r="V39" s="216">
-        <f t="shared" si="53"/>
+      <c r="V39" s="215">
+        <f t="shared" si="54"/>
         <v>0.88979977928425036</v>
       </c>
-      <c r="W39" s="202">
-        <f t="shared" si="53"/>
+      <c r="W39" s="201">
+        <f t="shared" si="54"/>
+        <v>0.85344736425503009</v>
+      </c>
+      <c r="X39" s="201">
+        <f t="shared" si="54"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="X39" s="202">
-        <f t="shared" si="53"/>
+      <c r="Y39" s="201">
+        <f t="shared" si="54"/>
+        <v>0.85344736425503009</v>
+      </c>
+      <c r="Z39" s="201">
+        <f t="shared" si="54"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="Y39" s="202">
-        <f t="shared" si="53"/>
+      <c r="AA39" s="201">
+        <f t="shared" si="54"/>
         <v>0.85344736425503021</v>
       </c>
-      <c r="Z39" s="202">
-        <f t="shared" si="53"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="AA39" s="202">
-        <f t="shared" si="53"/>
-        <v>0.85344736425503021</v>
-      </c>
-      <c r="AB39" s="202">
-        <f t="shared" si="35"/>
+      <c r="AB39" s="201">
+        <f t="shared" si="36"/>
         <v>0.96493606091569128</v>
       </c>
       <c r="AC39" s="253"/>
-      <c r="AE39" s="204" t="s">
-        <v>266</v>
+      <c r="AE39" s="203" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
@@ -12328,39 +12274,39 @@
       <c r="D40" s="56"/>
       <c r="E40" s="57"/>
       <c r="F40" s="58">
-        <f t="shared" ref="F40:M40" si="54">F9/E9-1</f>
+        <f t="shared" ref="F40:M40" si="55">F9/E9-1</f>
         <v>-6.5934041128698384E-2</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.12034799420009668</v>
       </c>
       <c r="H40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.52782571182053495</v>
       </c>
       <c r="I40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.83149566344220904</v>
       </c>
       <c r="J40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.47508998362123744</v>
       </c>
       <c r="K40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.35945984695376443</v>
       </c>
       <c r="L40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.15875689813018812</v>
       </c>
       <c r="M40" s="58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.15585622916578634</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.3203622857756398</v>
       </c>
       <c r="P40" s="88"/>
@@ -12387,36 +12333,36 @@
         <v>29.89855072463768</v>
       </c>
       <c r="H41" s="58">
-        <f t="shared" ref="H41:M41" si="55">H10/G10-1</f>
+        <f t="shared" ref="H41:M41" si="56">H10/G10-1</f>
         <v>2.2713139418254764</v>
       </c>
       <c r="I41" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.330793733176086E-2</v>
       </c>
       <c r="J41" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.47508998362123789</v>
       </c>
       <c r="K41" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.35945984695376465</v>
       </c>
       <c r="L41" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.1587568981301879</v>
       </c>
       <c r="M41" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15585622916578656</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.8829729626646698</v>
       </c>
       <c r="P41" s="88"/>
       <c r="R41" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
@@ -12441,74 +12387,74 @@
         <v>2.7353383458646618</v>
       </c>
       <c r="H42" s="58">
-        <f t="shared" ref="H42:M42" si="56">H14/G14-1</f>
+        <f t="shared" ref="H42:M42" si="57">H14/G14-1</f>
         <v>4.4965337954939342</v>
       </c>
       <c r="I42" s="92">
-        <f t="shared" si="56"/>
-        <v>-5.4671077187907868E-2</v>
+        <f t="shared" si="57"/>
+        <v>-9.2501205266762421E-2</v>
       </c>
       <c r="J42" s="92">
-        <f t="shared" si="56"/>
-        <v>0.47719322298716316</v>
+        <f t="shared" si="57"/>
+        <v>0.47414251591858303</v>
       </c>
       <c r="K42" s="92">
-        <f t="shared" si="56"/>
-        <v>0.35918653205543682</v>
+        <f t="shared" si="57"/>
+        <v>0.35357772427136158</v>
       </c>
       <c r="L42" s="92">
-        <f t="shared" si="56"/>
-        <v>0.16494650006587164</v>
+        <f t="shared" si="57"/>
+        <v>0.1646952120630949</v>
       </c>
       <c r="M42" s="92">
-        <f t="shared" si="56"/>
-        <v>0.15095652242197977</v>
+        <f t="shared" si="57"/>
+        <v>0.15412051996811393</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="48"/>
-        <v>1.0236432662755344</v>
+        <f t="shared" si="49"/>
+        <v>1.018801384787962</v>
       </c>
       <c r="P42" s="88"/>
       <c r="R42" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="S42" s="192">
+        <v>271</v>
+      </c>
+      <c r="S42" s="191">
         <f>((S29*S27+E82)-E47)/DCF!G8</f>
         <v>20.827079327709541</v>
       </c>
-      <c r="T42" s="192">
+      <c r="T42" s="191">
         <f>((T29*T27+F82)-F47)/DCF!H8</f>
         <v>45.124316546762586</v>
       </c>
-      <c r="U42" s="192">
+      <c r="U42" s="191">
         <f>((U29*U27+G82)-G47)/DCF!I8</f>
         <v>154.49467099165895</v>
       </c>
-      <c r="V42" s="209">
+      <c r="V42" s="208">
         <f>((V29*V27+H82)-H47)/DCF!J8</f>
         <v>111.7434810260759</v>
       </c>
-      <c r="W42" s="192">
+      <c r="W42" s="191">
         <f>((W29*W27+I82)-I47)/DCF!K8</f>
-        <v>64.461281995842569</v>
-      </c>
-      <c r="X42" s="192">
+        <v>64.47232613406608</v>
+      </c>
+      <c r="X42" s="191">
         <f>((X29*X27+J82)-J47)/DCF!L8</f>
-        <v>55.335152292343174</v>
-      </c>
-      <c r="Y42" s="192">
+        <v>55.35424719850721</v>
+      </c>
+      <c r="Y42" s="191">
         <f>((Y29*Y27+K82)-K47)/DCF!M8</f>
-        <v>43.347383461836991</v>
-      </c>
-      <c r="Z42" s="192">
+        <v>43.374127249077155</v>
+      </c>
+      <c r="Z42" s="191">
         <f>((Z29*Z27+L82)-L47)/DCF!N8</f>
-        <v>39.301322428620665</v>
-      </c>
-      <c r="AA42" s="192">
+        <v>39.337224982348154</v>
+      </c>
+      <c r="AA42" s="191">
         <f>((AA29*AA27+M82)-M47)/DCF!O8</f>
-        <v>35.664000933414606</v>
-      </c>
-      <c r="AB42" s="192">
+        <v>35.707105523380655</v>
+      </c>
+      <c r="AB42" s="191">
         <f>AVERAGE(S42:V42)</f>
         <v>83.047386973051744</v>
       </c>
@@ -12535,32 +12481,32 @@
         <v>2.1122580645161291</v>
       </c>
       <c r="H43" s="58">
-        <f t="shared" ref="H43:M43" si="57">H16/G16-1</f>
+        <f t="shared" ref="H43:M43" si="58">H16/G16-1</f>
         <v>5.5475638051044083</v>
       </c>
       <c r="I43" s="92">
-        <f t="shared" si="57"/>
-        <v>-9.3292113224614726E-2</v>
+        <f t="shared" si="58"/>
+        <v>-0.12957670651176889</v>
       </c>
       <c r="J43" s="92">
-        <f t="shared" si="57"/>
-        <v>0.47719322298716338</v>
+        <f t="shared" si="58"/>
+        <v>0.47414251591858303</v>
       </c>
       <c r="K43" s="92">
-        <f t="shared" si="57"/>
-        <v>0.35918653205543682</v>
+        <f t="shared" si="58"/>
+        <v>0.35357772427136136</v>
       </c>
       <c r="L43" s="92">
-        <f t="shared" si="57"/>
-        <v>0.16494650006587164</v>
+        <f t="shared" si="58"/>
+        <v>0.1646952120630949</v>
       </c>
       <c r="M43" s="92">
-        <f t="shared" si="57"/>
-        <v>0.15095652242197977</v>
+        <f t="shared" si="58"/>
+        <v>0.15412051996811393</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="48"/>
-        <v>1.0572458295620328</v>
+        <f t="shared" si="49"/>
+        <v>1.052575674162427</v>
       </c>
       <c r="S43" s="76"/>
     </row>
@@ -12640,25 +12586,25 @@
       <c r="H47" s="3">
         <v>17576</v>
       </c>
-      <c r="I47" s="176">
+      <c r="I47" s="175">
         <f>H47+I205</f>
-        <v>9427.4381537591817</v>
-      </c>
-      <c r="J47" s="176">
-        <f t="shared" ref="J47:M47" si="58">I47+J205</f>
-        <v>10113.53684368529</v>
-      </c>
-      <c r="K47" s="176">
-        <f t="shared" si="58"/>
-        <v>16914.95189464961</v>
-      </c>
-      <c r="L47" s="176">
-        <f t="shared" si="58"/>
-        <v>27003.253648881899</v>
-      </c>
-      <c r="M47" s="176">
-        <f t="shared" si="58"/>
-        <v>41242.869096077411</v>
+        <v>9271.0104700361026</v>
+      </c>
+      <c r="J47" s="175">
+        <f t="shared" ref="J47:M47" si="59">I47+J205</f>
+        <v>9714.5874368546847</v>
+      </c>
+      <c r="K47" s="175">
+        <f t="shared" si="59"/>
+        <v>16155.343792220947</v>
+      </c>
+      <c r="L47" s="175">
+        <f t="shared" si="59"/>
+        <v>25821.61590903945</v>
+      </c>
+      <c r="M47" s="175">
+        <f t="shared" si="59"/>
+        <v>39603.08621357684</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
@@ -12856,23 +12802,23 @@
       </c>
       <c r="I53" s="51">
         <f>SUM(I47:I52)</f>
-        <v>29782.890162879492</v>
+        <v>29626.462479156413</v>
       </c>
       <c r="J53" s="51">
         <f>SUM(J47:J52)</f>
-        <v>40139.660214421448</v>
+        <v>39740.710807590847</v>
       </c>
       <c r="K53" s="51">
         <f>SUM(K47:K52)</f>
-        <v>57734.260976845449</v>
+        <v>56974.652874416788</v>
       </c>
       <c r="L53" s="51">
         <f>SUM(L47:L52)</f>
-        <v>74302.909624784545</v>
+        <v>73121.271884942107</v>
       </c>
       <c r="M53" s="51">
         <f>SUM(M47:M52)</f>
-        <v>95914.471093223212</v>
+        <v>94274.688210722641</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
@@ -12914,23 +12860,23 @@
         <v>4511</v>
       </c>
       <c r="I55" s="24">
-        <f t="shared" ref="I55:M56" si="59">I$3*I97</f>
+        <f t="shared" ref="I55:M56" si="60">I$3*I97</f>
         <v>9169.9337122976376</v>
       </c>
       <c r="J55" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>13526.477369480954</v>
       </c>
       <c r="K55" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>18388.70285453814</v>
       </c>
       <c r="L55" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>21308.036280362347</v>
       </c>
       <c r="M55" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>24629.026465947394</v>
       </c>
     </row>
@@ -12961,19 +12907,19 @@
         <v>14366.580801081211</v>
       </c>
       <c r="J56" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>21191.999438560069</v>
       </c>
       <c r="K56" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>28809.672313389139</v>
       </c>
       <c r="L56" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>33383.406526009952</v>
       </c>
       <c r="M56" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>38586.418383862372</v>
       </c>
     </row>
@@ -13004,19 +12950,19 @@
         <v>38027.639854216672</v>
       </c>
       <c r="J57" s="24">
-        <f t="shared" ref="J57:M58" si="60">J$3*J99</f>
+        <f t="shared" ref="J57:M58" si="61">J$3*J99</f>
         <v>56094.190649710792</v>
       </c>
       <c r="K57" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>76257.799835651138</v>
       </c>
       <c r="L57" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>88364.251595791851</v>
       </c>
       <c r="M57" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>102136.37064256881</v>
       </c>
     </row>
@@ -13045,19 +12991,19 @@
         <v>3621.3696325994697</v>
       </c>
       <c r="J58" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5341.8460720375979</v>
       </c>
       <c r="K58" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7262.0252435428029</v>
       </c>
       <c r="L58" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8414.9218453507801</v>
       </c>
       <c r="M58" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>9726.4398328919542</v>
       </c>
     </row>
@@ -13281,11 +13227,11 @@
         <v>22206</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" ref="G65:H65" si="61">SUM(G55:G64)</f>
+        <f t="shared" ref="G65:H65" si="62">SUM(G55:G64)</f>
         <v>25431</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>35031</v>
       </c>
       <c r="I65" s="15">
@@ -13293,19 +13239,19 @@
         <v>69993.002223331874</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" ref="J65:M65" si="62">SUM(J55:J64)</f>
+        <f t="shared" ref="J65:M65" si="63">SUM(J55:J64)</f>
         <v>103087.94399633406</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>140024.35092292339</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>162201.37411981626</v>
       </c>
       <c r="M65" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>187429.62510713883</v>
       </c>
     </row>
@@ -13333,23 +13279,23 @@
       </c>
       <c r="I66" s="51">
         <f>I65+I53</f>
-        <v>99775.892386211373</v>
+        <v>99619.464702488287</v>
       </c>
       <c r="J66" s="51">
-        <f t="shared" ref="J66:M66" si="63">J65+J53</f>
-        <v>143227.6042107555</v>
+        <f t="shared" ref="J66:M66" si="64">J65+J53</f>
+        <v>142828.6548039249</v>
       </c>
       <c r="K66" s="51">
-        <f t="shared" si="63"/>
-        <v>197758.61189976885</v>
+        <f t="shared" si="64"/>
+        <v>196999.00379734018</v>
       </c>
       <c r="L66" s="51">
-        <f t="shared" si="63"/>
-        <v>236504.28374460081</v>
+        <f t="shared" si="64"/>
+        <v>235322.64600475837</v>
       </c>
       <c r="M66" s="51">
-        <f t="shared" si="63"/>
-        <v>283344.09620036202</v>
+        <f t="shared" si="64"/>
+        <v>281704.31331786147</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13857,35 +13803,35 @@
         <v>13433.874</v>
       </c>
       <c r="F81" s="27">
-        <f t="shared" ref="F81:M81" si="64">SUM(F77:F80)</f>
+        <f t="shared" ref="F81:M81" si="65">SUM(F77:F80)</f>
         <v>15532</v>
       </c>
       <c r="G81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>14170</v>
       </c>
       <c r="H81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>10843</v>
       </c>
       <c r="I81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>20032.769441794691</v>
       </c>
       <c r="J81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>29550.137547784958</v>
       </c>
       <c r="K81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>40172.225468174438</v>
       </c>
       <c r="L81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>46549.843374488344</v>
       </c>
       <c r="M81" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>53804.926431094063</v>
       </c>
     </row>
@@ -13916,19 +13862,19 @@
         <v>56587.25003486449</v>
       </c>
       <c r="J82" s="51">
-        <f t="shared" ref="J82:M82" si="65">J81+J75</f>
+        <f t="shared" ref="J82:M82" si="66">J81+J75</f>
         <v>83471.285727099137</v>
       </c>
       <c r="K82" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>113475.86131959615</v>
       </c>
       <c r="L82" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>131490.93707534659</v>
       </c>
       <c r="M82" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>151984.61869738583</v>
       </c>
     </row>
@@ -13982,19 +13928,19 @@
       <c r="H85" s="163">
         <v>1</v>
       </c>
-      <c r="I85" s="172">
+      <c r="I85" s="171">
         <v>1</v>
       </c>
-      <c r="J85" s="172">
+      <c r="J85" s="171">
         <v>1</v>
       </c>
-      <c r="K85" s="172">
+      <c r="K85" s="171">
         <v>1</v>
       </c>
-      <c r="L85" s="172">
+      <c r="L85" s="171">
         <v>1</v>
       </c>
-      <c r="M85" s="172">
+      <c r="M85" s="171">
         <v>1</v>
       </c>
     </row>
@@ -14025,19 +13971,19 @@
         <v>29803</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" ref="J86:M86" si="66">I86</f>
+        <f t="shared" ref="J86:M86" si="67">I86</f>
         <v>29803</v>
       </c>
       <c r="K86" s="24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>29803</v>
       </c>
       <c r="L86" s="24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>29803</v>
       </c>
       <c r="M86" s="24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>29803</v>
       </c>
     </row>
@@ -14103,23 +14049,23 @@
       </c>
       <c r="I88" s="15">
         <f>H88+I16</f>
-        <v>5448.4593129602745</v>
+        <v>5243.6690684475761</v>
       </c>
       <c r="J88" s="15">
         <f>I88+J16</f>
-        <v>13007.935528977738</v>
+        <v>12485.643408884287</v>
       </c>
       <c r="K88" s="15">
         <f>J88+K16</f>
-        <v>23282.673791182067</v>
+        <v>22288.218555844207</v>
       </c>
       <c r="L88" s="15">
         <f>K88+L16</f>
-        <v>35252.194168829898</v>
+        <v>33705.230895397115</v>
       </c>
       <c r="M88" s="15">
         <f>L88+M16</f>
-        <v>49028.591717746473</v>
+        <v>46881.839113204289</v>
       </c>
     </row>
     <row r="89" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -14146,23 +14092,23 @@
       </c>
       <c r="I89" s="99">
         <f>SUM(I85:I88)</f>
-        <v>35306.459312960273</v>
+        <v>35101.669068447576</v>
       </c>
       <c r="J89" s="99">
-        <f t="shared" ref="J89:M89" si="67">SUM(J85:J88)</f>
-        <v>42865.935528977738</v>
+        <f t="shared" ref="J89:M89" si="68">SUM(J85:J88)</f>
+        <v>42343.643408884287</v>
       </c>
       <c r="K89" s="99">
-        <f t="shared" si="67"/>
-        <v>53140.673791182067</v>
+        <f t="shared" si="68"/>
+        <v>52146.218555844207</v>
       </c>
       <c r="L89" s="99">
-        <f t="shared" si="67"/>
-        <v>65110.194168829898</v>
+        <f t="shared" si="68"/>
+        <v>63563.230895397115</v>
       </c>
       <c r="M89" s="99">
-        <f t="shared" si="67"/>
-        <v>78886.591717746473</v>
+        <f t="shared" si="68"/>
+        <v>76739.839113204289</v>
       </c>
     </row>
     <row r="90" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -14189,23 +14135,23 @@
       </c>
       <c r="I90" s="51">
         <f>I82+I89</f>
-        <v>91893.70934782477</v>
+        <v>91688.919103312073</v>
       </c>
       <c r="J90" s="51">
-        <f t="shared" ref="J90:M90" si="68">J82+J89</f>
-        <v>126337.22125607688</v>
+        <f t="shared" ref="J90:M90" si="69">J82+J89</f>
+        <v>125814.92913598343</v>
       </c>
       <c r="K90" s="51">
-        <f t="shared" si="68"/>
-        <v>166616.53511077823</v>
+        <f t="shared" si="69"/>
+        <v>165622.07987544037</v>
       </c>
       <c r="L90" s="51">
-        <f t="shared" si="68"/>
-        <v>196601.13124417647</v>
+        <f t="shared" si="69"/>
+        <v>195054.1679707437</v>
       </c>
       <c r="M90" s="51">
-        <f t="shared" si="68"/>
-        <v>230871.21041513229</v>
+        <f t="shared" si="69"/>
+        <v>228724.4578105901</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -14217,15 +14163,15 @@
         <v>28349.252999999997</v>
       </c>
       <c r="F91" s="67">
-        <f t="shared" ref="F91:H91" si="69">F89+F82</f>
+        <f t="shared" ref="F91:H91" si="70">F89+F82</f>
         <v>32817</v>
       </c>
       <c r="G91" s="67">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>50643</v>
       </c>
       <c r="H91" s="67">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>60737</v>
       </c>
       <c r="I91" s="67"/>
@@ -14264,7 +14210,7 @@
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
       <c r="N93" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -14276,19 +14222,19 @@
         <v>3.7424011767971128E-3</v>
       </c>
       <c r="E94" s="103">
-        <f t="shared" ref="E94:H95" si="70">E50/(E$3/365)</f>
+        <f t="shared" ref="E94:H95" si="71">E50/(E$3/365)</f>
         <v>16.140380428593499</v>
       </c>
       <c r="F94" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>19.662299617544146</v>
       </c>
       <c r="G94" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>21.828703703703702</v>
       </c>
       <c r="H94" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>12.972985526633595</v>
       </c>
       <c r="I94" s="6">
@@ -14296,23 +14242,23 @@
         <v>17.651092319118735</v>
       </c>
       <c r="J94" s="104">
-        <f t="shared" ref="J94:M96" si="71">I94</f>
+        <f t="shared" ref="J94:M96" si="72">I94</f>
         <v>17.651092319118735</v>
       </c>
       <c r="K94" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>17.651092319118735</v>
       </c>
       <c r="L94" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>17.651092319118735</v>
       </c>
       <c r="M94" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>17.651092319118735</v>
       </c>
       <c r="N94" s="94">
-        <f t="shared" ref="N94:N102" si="72">AVERAGE(E94:H94)</f>
+        <f t="shared" ref="N94:N102" si="73">AVERAGE(E94:H94)</f>
         <v>17.651092319118735</v>
       </c>
     </row>
@@ -14325,19 +14271,19 @@
         <v>0</v>
       </c>
       <c r="E95" s="103">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>52.951567912949038</v>
       </c>
       <c r="F95" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>52.749613475465864</v>
       </c>
       <c r="G95" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>47.465277777777771</v>
       </c>
       <c r="H95" s="102">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>39.041023354328075</v>
       </c>
       <c r="I95" s="6">
@@ -14345,23 +14291,23 @@
         <v>48.051870630130189</v>
       </c>
       <c r="J95" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>48.051870630130189</v>
       </c>
       <c r="K95" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>48.051870630130189</v>
       </c>
       <c r="L95" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>48.051870630130189</v>
       </c>
       <c r="M95" s="104">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>48.051870630130189</v>
       </c>
       <c r="N95" s="94">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>48.051870630130189</v>
       </c>
     </row>
@@ -14392,27 +14338,27 @@
         <v>3.2012336733366779E-2</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" ref="I96" si="73">AVERAGE(E96:H96)</f>
+        <f t="shared" ref="I96" si="74">AVERAGE(E96:H96)</f>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="J96" s="107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="K96" s="107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="L96" s="107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3.0185512153908106E-2</v>
       </c>
       <c r="M96" s="107">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>3.0185512153908106E-2</v>
       </c>
-      <c r="N96" s="170">
-        <f t="shared" si="72"/>
+      <c r="N96" s="169">
+        <f t="shared" si="73"/>
         <v>3.0185512153908106E-2</v>
       </c>
     </row>
@@ -14423,43 +14369,43 @@
       <c r="C97" s="10"/>
       <c r="D97" s="28"/>
       <c r="E97" s="30">
-        <f t="shared" ref="E97:H100" si="74">E55/E$3</f>
+        <f t="shared" ref="E97:H100" si="75">E55/E$3</f>
         <v>9.7373463674187394E-2</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.9560582634876715E-2</v>
       </c>
       <c r="G97" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9.8014967021816335E-2</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.3811753339650338E-2</v>
       </c>
       <c r="I97" s="20">
-        <f t="shared" ref="I97:M102" si="75">AVERAGE($E97:$H97)</f>
+        <f t="shared" ref="I97:M102" si="76">AVERAGE($E97:$H97)</f>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="J97" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="K97" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="L97" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.4690191667632692E-2</v>
       </c>
       <c r="M97" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.4690191667632692E-2</v>
       </c>
-      <c r="N97" s="170">
-        <f t="shared" si="72"/>
+      <c r="N97" s="169">
+        <f t="shared" si="73"/>
         <v>9.4690191667632692E-2</v>
       </c>
     </row>
@@ -14470,19 +14416,19 @@
       <c r="C98" s="10"/>
       <c r="D98" s="28"/>
       <c r="E98" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.29221926682058114</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.24973553584506469</v>
       </c>
       <c r="G98" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.18959284627092846</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.10711034316184531</v>
       </c>
       <c r="I98" s="20">
@@ -14490,23 +14436,23 @@
         <v>0.14835159471638687</v>
       </c>
       <c r="J98" s="20">
-        <f t="shared" ref="J98:M98" si="76">AVERAGE($G98:$H98)</f>
+        <f t="shared" ref="J98:M98" si="77">AVERAGE($G98:$H98)</f>
         <v>0.14835159471638687</v>
       </c>
       <c r="K98" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="L98" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.14835159471638687</v>
       </c>
       <c r="M98" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.14835159471638687</v>
       </c>
-      <c r="N98" s="170">
-        <f t="shared" si="72"/>
+      <c r="N98" s="169">
+        <f t="shared" si="73"/>
         <v>0.20966449802460488</v>
       </c>
     </row>
@@ -14521,11 +14467,11 @@
         <v>0.52793138783784821</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.42297990072422492</v>
       </c>
       <c r="G99" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.40420471841704719</v>
       </c>
       <c r="H99" s="12">
@@ -14537,23 +14483,23 @@
         <v>0.39267944779518477</v>
       </c>
       <c r="J99" s="20">
-        <f t="shared" ref="J99" si="77">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="J99" si="78">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="K99" s="20">
-        <f t="shared" ref="K99:M99" si="78">AVERAGE($F99:$H99)</f>
+        <f t="shared" ref="K99:M99" si="79">AVERAGE($F99:$H99)</f>
         <v>0.39267944779518477</v>
       </c>
       <c r="L99" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.39267944779518477</v>
       </c>
       <c r="M99" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.39267944779518477</v>
       </c>
-      <c r="N99" s="170">
-        <f t="shared" si="72"/>
+      <c r="N99" s="169">
+        <f t="shared" si="73"/>
         <v>0.42649243280585064</v>
       </c>
     </row>
@@ -14564,43 +14510,43 @@
       <c r="C100" s="10"/>
       <c r="D100" s="28"/>
       <c r="E100" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.3162875557958646E-2</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4.9556513955570022E-2</v>
       </c>
       <c r="G100" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4.9403855910705223E-2</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.745610612563402E-2</v>
       </c>
       <c r="I100" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="J100" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="K100" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="L100" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.7394837887466975E-2</v>
       </c>
       <c r="M100" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.7394837887466975E-2</v>
       </c>
-      <c r="N100" s="170">
-        <f t="shared" si="72"/>
+      <c r="N100" s="169">
+        <f t="shared" si="73"/>
         <v>3.7394837887466975E-2</v>
       </c>
     </row>
@@ -14627,27 +14573,27 @@
         <v>3.7158835442097243E-3</v>
       </c>
       <c r="I101" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="J101" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="K101" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="L101" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2227591291270811E-3</v>
       </c>
       <c r="M101" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2227591291270811E-3</v>
       </c>
-      <c r="N101" s="170">
-        <f t="shared" si="72"/>
+      <c r="N101" s="169">
+        <f t="shared" si="73"/>
         <v>9.2227591291270811E-3</v>
       </c>
     </row>
@@ -14674,27 +14620,27 @@
         <v>3.9722795087601952E-2</v>
       </c>
       <c r="I102" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="J102" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="K102" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="L102" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6985161930630193E-2</v>
       </c>
       <c r="M102" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6985161930630193E-2</v>
       </c>
-      <c r="N102" s="170">
-        <f t="shared" si="72"/>
+      <c r="N102" s="169">
+        <f t="shared" si="73"/>
         <v>3.6985161930630193E-2</v>
       </c>
     </row>
@@ -14761,23 +14707,23 @@
         <v>62.980461927827463</v>
       </c>
       <c r="J105" s="112">
-        <f t="shared" ref="J105:J109" si="79">I105</f>
+        <f t="shared" ref="J105:J109" si="80">I105</f>
         <v>62.980461927827463</v>
       </c>
       <c r="K105" s="112">
-        <f t="shared" ref="K105:M105" si="80">J105</f>
+        <f t="shared" ref="K105:M105" si="81">J105</f>
         <v>62.980461927827463</v>
       </c>
       <c r="L105" s="112">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>62.980461927827463</v>
       </c>
       <c r="M105" s="112">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>62.980461927827463</v>
       </c>
       <c r="N105" s="94">
-        <f t="shared" ref="N105:N112" si="81">AVERAGE(E105:H105)</f>
+        <f t="shared" ref="N105:N112" si="82">AVERAGE(E105:H105)</f>
         <v>62.980461927827463</v>
       </c>
     </row>
@@ -14793,43 +14739,43 @@
         <v>1731.366</v>
       </c>
       <c r="E106" s="106">
-        <f t="shared" ref="E106:H107" si="82">E70/E$3</f>
+        <f t="shared" ref="E106:H107" si="83">E70/E$3</f>
         <v>9.7582910758115496E-2</v>
       </c>
       <c r="F106" s="105">
+        <f t="shared" si="83"/>
+        <v>0.11819513385954919</v>
+      </c>
+      <c r="G106" s="105">
+        <f t="shared" si="83"/>
+        <v>0.12224124809741248</v>
+      </c>
+      <c r="H106" s="105">
+        <f t="shared" si="83"/>
+        <v>0.10625568994667707</v>
+      </c>
+      <c r="I106" s="7">
+        <f t="shared" ref="I106" si="84">AVERAGE(E106:H106)</f>
+        <v>0.11106874566543856</v>
+      </c>
+      <c r="J106" s="107">
+        <f t="shared" si="80"/>
+        <v>0.11106874566543856</v>
+      </c>
+      <c r="K106" s="107">
+        <f t="shared" ref="K106:M109" si="85">J106</f>
+        <v>0.11106874566543856</v>
+      </c>
+      <c r="L106" s="107">
+        <f t="shared" si="85"/>
+        <v>0.11106874566543856</v>
+      </c>
+      <c r="M106" s="107">
+        <f t="shared" si="85"/>
+        <v>0.11106874566543856</v>
+      </c>
+      <c r="N106" s="169">
         <f t="shared" si="82"/>
-        <v>0.11819513385954919</v>
-      </c>
-      <c r="G106" s="105">
-        <f t="shared" si="82"/>
-        <v>0.12224124809741248</v>
-      </c>
-      <c r="H106" s="105">
-        <f t="shared" si="82"/>
-        <v>0.10625568994667707</v>
-      </c>
-      <c r="I106" s="7">
-        <f t="shared" ref="I106" si="83">AVERAGE(E106:H106)</f>
-        <v>0.11106874566543856</v>
-      </c>
-      <c r="J106" s="107">
-        <f t="shared" si="79"/>
-        <v>0.11106874566543856</v>
-      </c>
-      <c r="K106" s="107">
-        <f t="shared" ref="K106:M109" si="84">J106</f>
-        <v>0.11106874566543856</v>
-      </c>
-      <c r="L106" s="107">
-        <f t="shared" si="84"/>
-        <v>0.11106874566543856</v>
-      </c>
-      <c r="M106" s="107">
-        <f t="shared" si="84"/>
-        <v>0.11106874566543856</v>
-      </c>
-      <c r="N106" s="170">
-        <f t="shared" si="81"/>
         <v>0.11106874566543856</v>
       </c>
     </row>
@@ -14845,19 +14791,19 @@
         <v>1015.253</v>
       </c>
       <c r="E107" s="106">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.9368814554666577E-2</v>
       </c>
       <c r="F107" s="105">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4.7318740336886649E-2</v>
       </c>
       <c r="G107" s="105">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4.6232876712328765E-2</v>
       </c>
       <c r="H107" s="105">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.6884417442357356E-2</v>
       </c>
       <c r="I107" s="7">
@@ -14865,23 +14811,23 @@
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="J107" s="107">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="K107" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="L107" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3.7451212261559841E-2</v>
       </c>
       <c r="M107" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3.7451212261559841E-2</v>
       </c>
-      <c r="N107" s="170">
-        <f t="shared" si="81"/>
+      <c r="N107" s="169">
+        <f t="shared" si="82"/>
         <v>3.7451212261559841E-2</v>
       </c>
     </row>
@@ -14897,11 +14843,11 @@
         <v>787.33299999999997</v>
       </c>
       <c r="E108" s="106">
-        <f t="shared" ref="E108:F110" si="85">E72/E$3</f>
+        <f t="shared" ref="E108:F110" si="86">E72/E$3</f>
         <v>2.3430116058380145E-2</v>
       </c>
       <c r="F108" s="105">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1.2897713402229637E-2</v>
       </c>
       <c r="G108" s="105"/>
@@ -14911,23 +14857,23 @@
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="J108" s="107">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="K108" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="L108" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.8163914730304889E-2</v>
       </c>
       <c r="M108" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.8163914730304889E-2</v>
       </c>
-      <c r="N108" s="170">
-        <f t="shared" si="81"/>
+      <c r="N108" s="169">
+        <f t="shared" si="82"/>
         <v>1.8163914730304889E-2</v>
       </c>
     </row>
@@ -14943,11 +14889,11 @@
         <v>853.9190000000001</v>
       </c>
       <c r="E109" s="106">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3.6931694809458605E-2</v>
       </c>
       <c r="F109" s="105">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.9538611766620555E-2</v>
       </c>
       <c r="G109" s="105">
@@ -14963,23 +14909,23 @@
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="J109" s="107">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="K109" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="L109" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.6875507884960029E-2</v>
       </c>
       <c r="M109" s="107">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.6875507884960029E-2</v>
       </c>
-      <c r="N109" s="170">
-        <f t="shared" si="81"/>
+      <c r="N109" s="169">
+        <f t="shared" si="82"/>
         <v>2.6875507884960029E-2</v>
       </c>
     </row>
@@ -14995,11 +14941,11 @@
         <v>796.54899999999998</v>
       </c>
       <c r="E110" s="106">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.11964339665298435</v>
       </c>
       <c r="F110" s="105">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7.2625925624542273E-2</v>
       </c>
       <c r="G110" s="105">
@@ -15015,23 +14961,23 @@
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="J110" s="7">
-        <f t="shared" ref="J110:M110" si="86">AVERAGE(H110:I110)</f>
+        <f t="shared" ref="J110:M110" si="87">AVERAGE(H110:I110)</f>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="K110" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.9522694758746262E-2</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.9522694758746262E-2</v>
       </c>
-      <c r="N110" s="170">
-        <f t="shared" si="81"/>
+      <c r="N110" s="169">
+        <f t="shared" si="82"/>
         <v>7.2349323386414741E-2</v>
       </c>
     </row>
@@ -15043,19 +14989,19 @@
       <c r="C111" s="10"/>
       <c r="D111" s="28"/>
       <c r="E111" s="30">
-        <f t="shared" ref="E111:H112" si="87">E77/E$3</f>
+        <f t="shared" ref="E111:H112" si="88">E77/E$3</f>
         <v>0.43816945019278453</v>
       </c>
       <c r="F111" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.47335015054113433</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.30301877219685441</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="I111" s="20">
@@ -15063,23 +15009,23 @@
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="J111" s="20">
-        <f t="shared" ref="J111:M111" si="88">$H$111</f>
+        <f t="shared" ref="J111:M111" si="89">$H$111</f>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="K111" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="L111" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9.7449045946900029E-2</v>
       </c>
       <c r="M111" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9.7449045946900029E-2</v>
       </c>
-      <c r="N111" s="170">
-        <f t="shared" si="81"/>
+      <c r="N111" s="169">
+        <f t="shared" si="82"/>
         <v>0.32799685471941831</v>
       </c>
     </row>
@@ -15090,43 +15036,43 @@
       <c r="C112" s="10"/>
       <c r="D112" s="28"/>
       <c r="E112" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4.6170291522383486E-2</v>
       </c>
       <c r="F112" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4.9108959231833345E-2</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4.0715372907153727E-2</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3.8124965163591776E-2</v>
       </c>
       <c r="I112" s="20">
-        <f t="shared" ref="I112:M112" si="89">AVERAGE($E112:$H112)</f>
+        <f t="shared" ref="I112:M112" si="90">AVERAGE($E112:$H112)</f>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="J112" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="K112" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="L112" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4.3529897206240578E-2</v>
       </c>
       <c r="M112" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4.3529897206240578E-2</v>
       </c>
-      <c r="N112" s="170">
-        <f t="shared" si="81"/>
+      <c r="N112" s="169">
+        <f t="shared" si="82"/>
         <v>4.3529897206240578E-2</v>
       </c>
     </row>
@@ -15151,7 +15097,7 @@
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
-      <c r="N113" s="170"/>
+      <c r="N113" s="169"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="19" t="s">
@@ -15180,22 +15126,22 @@
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="J114" s="20">
-        <f t="shared" ref="J114:M114" si="90">$H$114</f>
+        <f t="shared" ref="J114:M114" si="91">$H$114</f>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="K114" s="20">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="L114" s="20">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>6.5882615238838413E-2</v>
       </c>
       <c r="M114" s="20">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>6.5882615238838413E-2</v>
       </c>
-      <c r="N114" s="170">
+      <c r="N114" s="169">
         <f>AVERAGE(E114:H114)</f>
         <v>0.10144810722738992</v>
       </c>
@@ -15278,23 +15224,23 @@
       </c>
       <c r="I118" s="24">
         <f>I16</f>
-        <v>5117.4593129602745</v>
+        <v>4912.6690684475761</v>
       </c>
       <c r="J118" s="24">
         <f>J16</f>
-        <v>7559.4762160174623</v>
+        <v>7241.9743404367118</v>
       </c>
       <c r="K118" s="24">
         <f>K16</f>
-        <v>10274.738262204331</v>
+        <v>9802.5751469599181</v>
       </c>
       <c r="L118" s="24">
         <f>L16</f>
-        <v>11969.520377647832</v>
+        <v>11417.012339552906</v>
       </c>
       <c r="M118" s="24">
         <f>M16</f>
-        <v>13776.397548916571</v>
+        <v>13176.608217807172</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
@@ -15688,7 +15634,7 @@
       <c r="AA132" s="36"/>
     </row>
     <row r="133" spans="2:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="173" t="s">
+      <c r="B133" s="172" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="33">
@@ -15822,7 +15768,7 @@
       </c>
       <c r="C137" s="110"/>
       <c r="D137" s="110">
-        <f t="shared" ref="D137:D138" si="91">C50-D50</f>
+        <f t="shared" ref="D137:D138" si="92">C50-D50</f>
         <v>-16.23900000000009</v>
       </c>
       <c r="E137" s="110">
@@ -15830,35 +15776,35 @@
         <v>-433.64099999999985</v>
       </c>
       <c r="F137" s="110">
-        <f t="shared" ref="F137:M137" si="92">E50-F50</f>
+        <f t="shared" ref="F137:M137" si="93">E50-F50</f>
         <v>-374.97800000000007</v>
       </c>
       <c r="G137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-562</v>
       </c>
       <c r="H137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-27</v>
       </c>
       <c r="I137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2770.1699948800751</v>
       </c>
       <c r="J137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2224.9271561630458</v>
       </c>
       <c r="K137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2483.1835446556979</v>
       </c>
       <c r="L137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1490.930592719058</v>
       </c>
       <c r="M137" s="110">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1696.0604163981661</v>
       </c>
       <c r="N137" s="36"/>
@@ -15881,11 +15827,11 @@
       </c>
       <c r="C138" s="110"/>
       <c r="D138" s="110">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-196.08299999999963</v>
       </c>
       <c r="E138" s="110">
-        <f t="shared" ref="E138:M138" si="93">D51-E51</f>
+        <f t="shared" ref="E138:M138" si="94">D51-E51</f>
         <v>-849.90900000000011</v>
       </c>
       <c r="F138" s="110">
@@ -15893,31 +15839,31 @@
         <v>-438.55400000000009</v>
       </c>
       <c r="G138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-549</v>
       </c>
       <c r="H138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-1656</v>
       </c>
       <c r="I138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-6992.0738059954874</v>
       </c>
       <c r="J138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-6056.9572656763467</v>
       </c>
       <c r="K138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-6760.0130508309012</v>
       </c>
       <c r="L138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-4058.7858623480533</v>
       </c>
       <c r="M138" s="110">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>-4617.2142911163683</v>
       </c>
       <c r="R138" s="10"/>
@@ -15933,7 +15879,7 @@
       <c r="AC138" s="14"/>
     </row>
     <row r="139" spans="2:29" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="174" t="s">
+      <c r="B139" s="173" t="s">
         <v>133</v>
       </c>
       <c r="C139" s="110"/>
@@ -15964,43 +15910,43 @@
       </c>
       <c r="C140" s="110"/>
       <c r="D140" s="110">
-        <f t="shared" ref="D140" si="94">C52-D52</f>
+        <f t="shared" ref="D140" si="95">C52-D52</f>
         <v>-73.900000000000006</v>
       </c>
       <c r="E140" s="110">
-        <f t="shared" ref="E140:M140" si="95">D52-E52</f>
+        <f t="shared" ref="E140:M140" si="96">D52-E52</f>
         <v>-97.305999999999983</v>
       </c>
       <c r="F140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-347.32900000000001</v>
       </c>
       <c r="G140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-633</v>
       </c>
       <c r="H140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-377</v>
       </c>
       <c r="I140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-1200.2082082447446</v>
       </c>
       <c r="J140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-1388.7869397764621</v>
       </c>
       <c r="K140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-1549.9891159730796</v>
       </c>
       <c r="L140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-930.63043863970506</v>
       </c>
       <c r="M140" s="110">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>-1058.6713137286142</v>
       </c>
       <c r="R140" s="10"/>
@@ -16021,43 +15967,43 @@
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8">
-        <f t="shared" ref="D141:D145" si="96">D69-C69</f>
+        <f t="shared" ref="D141:D145" si="97">D69-C69</f>
         <v>529.90900000000011</v>
       </c>
       <c r="E141" s="8">
-        <f t="shared" ref="E141:M141" si="97">E69-D69</f>
+        <f t="shared" ref="E141:M141" si="98">E69-D69</f>
         <v>1014.201</v>
       </c>
       <c r="F141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>366.54899999999998</v>
       </c>
       <c r="G141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2280</v>
       </c>
       <c r="H141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3974</v>
       </c>
       <c r="I141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6684.9125783063355</v>
       </c>
       <c r="J141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>7938.7120931398676</v>
       </c>
       <c r="K141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>8860.1908520188445</v>
       </c>
       <c r="L141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>5319.7556125219926</v>
       </c>
       <c r="M141" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6051.674681150449</v>
       </c>
       <c r="R141" s="10"/>
@@ -16078,23 +16024,23 @@
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>521.33799999999997</v>
       </c>
       <c r="E142" s="8">
-        <f t="shared" ref="E142:M142" si="98">E70-D70</f>
+        <f t="shared" ref="E142:M142" si="99">E70-D70</f>
         <v>362.88699999999972</v>
       </c>
       <c r="F142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>810.7470000000003</v>
       </c>
       <c r="G142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>950</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1864</v>
       </c>
       <c r="I142" s="8">
@@ -16102,19 +16048,19 @@
         <v>5037.0563277248239</v>
       </c>
       <c r="J142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5110.0946245678952</v>
       </c>
       <c r="K142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5703.2441930564673</v>
       </c>
       <c r="L142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3424.2902678199716</v>
       </c>
       <c r="M142" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3895.4215614524692</v>
       </c>
       <c r="R142" s="10"/>
@@ -16135,43 +16081,43 @@
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>252.12700000000007</v>
       </c>
       <c r="E143" s="8">
-        <f t="shared" ref="E143:M143" si="99">E71-D71</f>
+        <f t="shared" ref="E143:M143" si="100">E71-D71</f>
         <v>-384.96100000000001</v>
       </c>
       <c r="F143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>532.70799999999997</v>
       </c>
       <c r="G143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>295</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-11</v>
       </c>
       <c r="I143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2179.8290076878457</v>
       </c>
       <c r="J143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1723.0701338594481</v>
       </c>
       <c r="K143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1923.0739266386672</v>
       </c>
       <c r="L143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1154.634644489598</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1313.4951589861121</v>
       </c>
       <c r="N143" s="10"/>
@@ -16194,19 +16140,19 @@
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>607.82899999999995</v>
       </c>
       <c r="E144" s="8">
-        <f t="shared" ref="E144:G145" si="100">E72-D72</f>
+        <f t="shared" ref="E144:G145" si="101">E72-D72</f>
         <v>-284.49299999999999</v>
       </c>
       <c r="F144" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-185.83999999999997</v>
       </c>
       <c r="G144" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-317</v>
       </c>
       <c r="H144" s="8"/>
@@ -16223,43 +16169,43 @@
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>190.06000000000006</v>
       </c>
       <c r="E145" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-61.318000000000097</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-66.600999999999999</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>26</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" ref="H145:M145" si="101">H73-G73</f>
+        <f t="shared" ref="H145:M145" si="102">H73-G73</f>
         <v>173</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1677.6626564919829</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1236.4989588443823</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1380.024446679578</v>
       </c>
       <c r="L145" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>828.58178996996139</v>
       </c>
       <c r="M145" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>942.58229228059281</v>
       </c>
       <c r="R145" s="36"/>
@@ -16270,23 +16216,23 @@
       </c>
       <c r="C146" s="115"/>
       <c r="D146" s="66">
-        <f t="shared" ref="D146:M146" si="102">SUM(D137:D145)</f>
+        <f t="shared" ref="D146:M146" si="103">SUM(D137:D145)</f>
         <v>1815.0410000000002</v>
       </c>
       <c r="E146" s="66">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-734.5400000000003</v>
       </c>
       <c r="F146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>296.70200000000017</v>
       </c>
       <c r="G146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1490</v>
       </c>
       <c r="H146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3940</v>
       </c>
       <c r="I146" s="67">
@@ -16294,19 +16240,19 @@
         <v>4617.008561090679</v>
       </c>
       <c r="J146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6337.7044487957373</v>
       </c>
       <c r="K146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>7073.3477069338787</v>
       </c>
       <c r="L146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4246.9154210947072</v>
       </c>
       <c r="M146" s="67">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4831.2276726264745</v>
       </c>
       <c r="R146" s="14"/>
@@ -16587,23 +16533,23 @@
       </c>
       <c r="I153" s="24">
         <f>I118+I120+I146+I147+I152</f>
-        <v>18483.306024620309</v>
+        <v>18278.515780107613</v>
       </c>
       <c r="J153" s="24">
         <f>J118+J120+J146+J147+J152</f>
-        <v>26080.96014023904</v>
+        <v>25763.458264658286</v>
       </c>
       <c r="K153" s="24">
         <f>K118+K120+K146+K147+K152</f>
-        <v>33587.857395329069</v>
+        <v>33115.694280084659</v>
       </c>
       <c r="L153" s="24">
         <f>L118+L120+L146+L147+L152</f>
-        <v>34205.881959549813</v>
+        <v>33653.373921454884</v>
       </c>
       <c r="M153" s="24">
         <f>M118+M120+M146+M147+M152</f>
-        <v>39384.560521023595</v>
+        <v>38784.771189914187</v>
       </c>
       <c r="R153" s="14"/>
       <c r="S153" s="14"/>
@@ -16908,19 +16854,19 @@
         <v>-17617.891013389413</v>
       </c>
       <c r="J164" s="24">
-        <f t="shared" ref="J164:M164" si="103">SUM(J156:J157)</f>
+        <f t="shared" ref="J164:M164" si="104">SUM(J156:J157)</f>
         <v>-20125.287520876562</v>
       </c>
       <c r="K164" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-25698.310591558045</v>
       </c>
       <c r="L164" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-25524.797889473364</v>
       </c>
       <c r="M164" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-29419.429316391492</v>
       </c>
     </row>
@@ -16956,93 +16902,93 @@
     </row>
     <row r="167" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B167" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C167" s="70"/>
       <c r="D167" s="70"/>
       <c r="E167" s="1">
-        <f t="shared" ref="E167:M167" si="104">E74-D74</f>
+        <f t="shared" ref="E167:M167" si="105">E74-D74</f>
         <v>1771.15</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>-782.69900000000007</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>347</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>-543</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1270.0200228588078</v>
       </c>
       <c r="J167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1358.2917758327808</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1515.9542537139841</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>910.19553463501597</v>
       </c>
       <c r="M167" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1035.4248715638987</v>
       </c>
     </row>
     <row r="168" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B168" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" s="70"/>
       <c r="D168" s="70"/>
       <c r="E168" s="1">
-        <f t="shared" ref="E168:M168" si="105">(E80-D80)+(E77-D77)</f>
+        <f t="shared" ref="E168:M168" si="106">(E80-D80)+(E77-D77)</f>
         <v>252.78600000000051</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>2174.9249999999997</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>-1403</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>-4095</v>
       </c>
       <c r="I168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7026.271882285575</v>
       </c>
       <c r="J168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7514.6274394877128</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>8386.8809593452734</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5035.5751699033499</v>
       </c>
       <c r="M168" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5728.3952460152468</v>
       </c>
     </row>
     <row r="169" spans="2:13" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C169" s="70"/>
       <c r="D169" s="70"/>
@@ -17067,35 +17013,35 @@
         <v>2023.9360000000006</v>
       </c>
       <c r="F170" s="66">
-        <f t="shared" ref="F170:M170" si="106">SUM(F167:F169)</f>
+        <f t="shared" ref="F170:M170" si="107">SUM(F167:F169)</f>
         <v>1392.2259999999997</v>
       </c>
       <c r="G170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1056</v>
       </c>
       <c r="H170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-4638</v>
       </c>
       <c r="I170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8296.2919051443823</v>
       </c>
       <c r="J170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8872.9192153204931</v>
       </c>
       <c r="K170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>9902.8352130592575</v>
       </c>
       <c r="L170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>5945.7707045383659</v>
       </c>
       <c r="M170" s="66">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6763.8201175791455</v>
       </c>
     </row>
@@ -17114,7 +17060,7 @@
     </row>
     <row r="172" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B172" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C172" s="70"/>
       <c r="D172" s="70"/>
@@ -17291,7 +17237,7 @@
     </row>
     <row r="179" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B179" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C179" s="70"/>
       <c r="D179" s="70"/>
@@ -17391,23 +17337,23 @@
         <v>-9</v>
       </c>
       <c r="I182" s="24">
-        <f t="shared" ref="I182:M183" si="107">(I$74+I$77+I$80+I$55+I$58)*I216</f>
+        <f t="shared" ref="I182:M183" si="108">(I$74+I$77+I$80+I$55+I$58)*I216</f>
         <v>-200.37788800285779</v>
       </c>
       <c r="J182" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-295.57541553219363</v>
       </c>
       <c r="K182" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-401.82290916269142</v>
       </c>
       <c r="L182" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-465.61506781900857</v>
       </c>
       <c r="M182" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-538.18407653205111</v>
       </c>
     </row>
@@ -17434,23 +17380,23 @@
         <v>-439</v>
       </c>
       <c r="I183" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-550.80756338632307</v>
       </c>
       <c r="J183" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-812.49071965398491</v>
       </c>
       <c r="K183" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-1104.5485093921607</v>
       </c>
       <c r="L183" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-1279.9032045775828</v>
       </c>
       <c r="M183" s="24">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-1479.3840917402508</v>
       </c>
     </row>
@@ -17473,7 +17419,7 @@
       <c r="M184" s="24"/>
     </row>
     <row r="185" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="182" t="s">
+      <c r="B185" s="181" t="s">
         <v>160</v>
       </c>
       <c r="C185" s="70">
@@ -17495,28 +17441,28 @@
         <v>-161</v>
       </c>
       <c r="I185" s="24">
-        <f t="shared" ref="I185:M186" si="108">I$16*I218</f>
-        <v>-1132.279019720361</v>
+        <f t="shared" ref="I185:M186" si="109">I$16*I218</f>
+        <v>-1086.9675315141174</v>
       </c>
       <c r="J185" s="24">
-        <f t="shared" si="108"/>
-        <v>-1672.5948944614661</v>
+        <f t="shared" si="109"/>
+        <v>-1602.3450516280329</v>
       </c>
       <c r="K185" s="24">
-        <f t="shared" si="108"/>
-        <v>-2273.3684541367093</v>
+        <f t="shared" si="109"/>
+        <v>-2168.8985684801496</v>
       </c>
       <c r="L185" s="24">
-        <f t="shared" si="108"/>
-        <v>-2648.3526240067208</v>
+        <f t="shared" si="109"/>
+        <v>-2526.1057781593313</v>
       </c>
       <c r="M185" s="24">
-        <f t="shared" si="108"/>
-        <v>-3048.1387262739004</v>
+        <f t="shared" si="109"/>
+        <v>-2915.430514183704</v>
       </c>
     </row>
     <row r="186" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="182" t="s">
+      <c r="B186" s="181" t="s">
         <v>161</v>
       </c>
       <c r="C186" s="70"/>
@@ -17534,29 +17480,29 @@
         <v>-10</v>
       </c>
       <c r="I186" s="24">
-        <f t="shared" si="108"/>
-        <v>-76.242595654207094</v>
+        <f t="shared" si="109"/>
+        <v>-73.191523070832545</v>
       </c>
       <c r="J186" s="24">
-        <f t="shared" si="108"/>
-        <v>-112.62504560334528</v>
+        <f t="shared" si="109"/>
+        <v>-107.89473596355012</v>
       </c>
       <c r="K186" s="24">
-        <f t="shared" si="108"/>
-        <v>-153.0784451561963</v>
+        <f t="shared" si="109"/>
+        <v>-146.04391116640159</v>
       </c>
       <c r="L186" s="24">
-        <f t="shared" si="108"/>
-        <v>-178.32819892023636</v>
+        <f t="shared" si="109"/>
+        <v>-170.09664408647589</v>
       </c>
       <c r="M186" s="24">
-        <f t="shared" si="108"/>
-        <v>-205.24800367901031</v>
+        <f t="shared" si="109"/>
+        <v>-196.31202731791475</v>
       </c>
     </row>
     <row r="187" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B187" s="88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C187" s="87"/>
     </row>
@@ -17647,23 +17593,23 @@
       </c>
       <c r="I190" s="16">
         <f>SUM(I173:I189)</f>
-        <v>-9013.9768574717145</v>
+        <v>-8965.6142966820971</v>
       </c>
       <c r="J190" s="16">
-        <f t="shared" ref="J190:M190" si="109">SUM(J173:J189)</f>
-        <v>-5269.5739294363711</v>
+        <f t="shared" ref="J190:M190" si="110">SUM(J173:J189)</f>
+        <v>-5194.5937769631437</v>
       </c>
       <c r="K190" s="16">
-        <f t="shared" si="109"/>
-        <v>-1088.1317528067048</v>
+        <f t="shared" si="110"/>
+        <v>-976.62733316035042</v>
       </c>
       <c r="L190" s="16">
-        <f t="shared" si="109"/>
-        <v>1407.2176841558362</v>
+        <f t="shared" si="110"/>
+        <v>1537.6960848369863</v>
       </c>
       <c r="M190" s="16">
-        <f t="shared" si="109"/>
-        <v>4274.4842425634051</v>
+        <f t="shared" si="110"/>
+        <v>4416.1284310146975</v>
       </c>
     </row>
     <row r="191" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -17982,7 +17928,7 @@
     </row>
     <row r="205" spans="2:27" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B205" s="119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C205" s="65"/>
       <c r="D205" s="65"/>
@@ -17991,11 +17937,11 @@
         <v>334.12900000000036</v>
       </c>
       <c r="F205" s="66">
-        <f t="shared" ref="F205:M205" si="110">F190+F153+F164</f>
+        <f t="shared" ref="F205:M205" si="111">F190+F153+F164</f>
         <v>2498</v>
       </c>
       <c r="G205" s="66">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>12784</v>
       </c>
       <c r="H205" s="66">
@@ -18003,24 +17949,24 @@
         <v>-1574</v>
       </c>
       <c r="I205" s="66">
-        <f t="shared" si="110"/>
-        <v>-8148.5618462408183</v>
+        <f t="shared" si="111"/>
+        <v>-8304.9895299638974</v>
       </c>
       <c r="J205" s="66">
-        <f t="shared" si="110"/>
-        <v>686.09868992610791</v>
+        <f t="shared" si="111"/>
+        <v>443.57696681858215</v>
       </c>
       <c r="K205" s="66">
         <f>K190+K153+K164</f>
-        <v>6801.4150509643187</v>
+        <v>6440.7563553662621</v>
       </c>
       <c r="L205" s="66">
-        <f t="shared" si="110"/>
-        <v>10088.301754232289</v>
+        <f t="shared" si="111"/>
+        <v>9666.2721168185053</v>
       </c>
       <c r="M205" s="66">
-        <f t="shared" si="110"/>
-        <v>14239.615447195509</v>
+        <f t="shared" si="111"/>
+        <v>13781.47030453739</v>
       </c>
     </row>
     <row r="206" spans="2:27" x14ac:dyDescent="0.2">
@@ -18137,19 +18083,19 @@
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="J210" s="107">
-        <f t="shared" ref="J210:M210" si="111">I210</f>
+        <f t="shared" ref="J210:M210" si="112">I210</f>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="K210" s="107">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="L210" s="107">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="M210" s="107">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>7.5983670306103895E-2</v>
       </c>
       <c r="AB210" s="13"/>
@@ -18205,11 +18151,11 @@
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="K212" s="107">
-        <f t="shared" ref="K212:L212" si="112">J212</f>
+        <f t="shared" ref="K212:L212" si="113">J212</f>
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="L212" s="107">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-9.3103851011849773E-2</v>
       </c>
       <c r="M212" s="107">
@@ -18253,19 +18199,19 @@
       </c>
       <c r="C214" s="73"/>
       <c r="D214" s="87"/>
-      <c r="E214" s="175">
+      <c r="E214" s="174">
         <f>E174/(E$74+E$77+E$80)</f>
         <v>0.42066939594629371</v>
       </c>
-      <c r="F214" s="175">
+      <c r="F214" s="174">
         <f>F174/(F$74+F$77+F$80)</f>
         <v>0.66374269005847952</v>
       </c>
-      <c r="G214" s="175">
+      <c r="G214" s="174">
         <f>G174/(G$74+G$77+G$80)</f>
         <v>0.64675722466373686</v>
       </c>
-      <c r="H214" s="175">
+      <c r="H214" s="174">
         <f>H174/(H$74+H$77+H$80)</f>
         <v>0.85578034682080928</v>
       </c>
@@ -18278,11 +18224,11 @@
         <v>0.72209342051434178</v>
       </c>
       <c r="K214" s="107">
-        <f t="shared" ref="K214" si="113">J214</f>
+        <f t="shared" ref="K214" si="114">J214</f>
         <v>0.72209342051434178</v>
       </c>
       <c r="L214" s="107">
-        <f t="shared" ref="L214" si="114">K214</f>
+        <f t="shared" ref="L214" si="115">K214</f>
         <v>0.72209342051434178</v>
       </c>
       <c r="M214" s="107">
@@ -18307,19 +18253,19 @@
       <c r="B215" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E215" s="175">
+      <c r="E215" s="174">
         <f>E180/(E$74+E$77+E$80)</f>
         <v>-0.35738576278316225</v>
       </c>
-      <c r="F215" s="175">
+      <c r="F215" s="174">
         <f>F180/(F$74+F$77+F$80)</f>
         <v>-0.56992658952345399</v>
       </c>
-      <c r="G215" s="175">
+      <c r="G215" s="174">
         <f>G180/(G$74+G$77+G$80)</f>
         <v>-0.77393794113730185</v>
       </c>
-      <c r="H215" s="175">
+      <c r="H215" s="174">
         <f>H180/(H$74+H$77+H$80)</f>
         <v>-1.3648362235067437</v>
       </c>
@@ -18332,15 +18278,15 @@
         <v>-0.56708343114797266</v>
       </c>
       <c r="K215" s="107">
-        <f t="shared" ref="K215:K219" si="115">J215</f>
+        <f t="shared" ref="K215:K219" si="116">J215</f>
         <v>-0.56708343114797266</v>
       </c>
       <c r="L215" s="107">
-        <f t="shared" ref="L215:L219" si="116">K215</f>
+        <f t="shared" ref="L215:L219" si="117">K215</f>
         <v>-0.56708343114797266</v>
       </c>
       <c r="M215" s="107">
-        <f t="shared" ref="M215:M220" si="117">L215</f>
+        <f t="shared" ref="M215:M220" si="118">L215</f>
         <v>-0.56708343114797266</v>
       </c>
       <c r="AC215" s="13"/>
@@ -18349,20 +18295,20 @@
       <c r="B216" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E216" s="175">
-        <f t="shared" ref="E216:H217" si="118">E182/(E$74+E$77+E$80+E$55+E$58)</f>
+      <c r="E216" s="174">
+        <f t="shared" ref="E216:H217" si="119">E182/(E$74+E$77+E$80+E$55+E$58)</f>
         <v>-3.2787980127153567E-2</v>
       </c>
-      <c r="F216" s="175">
-        <f t="shared" si="118"/>
+      <c r="F216" s="174">
+        <f t="shared" si="119"/>
         <v>-1.9707178681797458E-2</v>
       </c>
-      <c r="G216" s="175">
-        <f t="shared" si="118"/>
+      <c r="G216" s="174">
+        <f t="shared" si="119"/>
         <v>-1.2203182996898357E-2</v>
       </c>
-      <c r="H216" s="175">
-        <f t="shared" si="118"/>
+      <c r="H216" s="174">
+        <f t="shared" si="119"/>
         <v>-5.3232388951321939E-4</v>
       </c>
       <c r="I216" s="107">
@@ -18370,19 +18316,19 @@
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="J216" s="107">
-        <f t="shared" ref="J216:J220" si="119">I216</f>
+        <f t="shared" ref="J216:J220" si="120">I216</f>
         <v>-6.3677534432057883E-3</v>
       </c>
       <c r="K216" s="107">
-        <f t="shared" si="115"/>
-        <v>-6.3677534432057883E-3</v>
-      </c>
-      <c r="L216" s="107">
         <f t="shared" si="116"/>
         <v>-6.3677534432057883E-3</v>
       </c>
+      <c r="L216" s="107">
+        <f t="shared" si="117"/>
+        <v>-6.3677534432057883E-3</v>
+      </c>
       <c r="M216" s="107">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-6.3677534432057883E-3</v>
       </c>
     </row>
@@ -18390,40 +18336,40 @@
       <c r="B217" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E217" s="175">
-        <f t="shared" si="118"/>
+      <c r="E217" s="174">
+        <f t="shared" si="119"/>
         <v>-1.0601896655006465E-2</v>
       </c>
-      <c r="F217" s="175">
-        <f t="shared" si="118"/>
+      <c r="F217" s="174">
+        <f t="shared" si="119"/>
         <v>-1.6262221997061656E-2</v>
       </c>
-      <c r="G217" s="175">
-        <f t="shared" si="118"/>
+      <c r="G217" s="174">
+        <f t="shared" si="119"/>
         <v>-1.7186149387298521E-2</v>
       </c>
-      <c r="H217" s="175">
-        <f t="shared" si="118"/>
+      <c r="H217" s="174">
+        <f t="shared" si="119"/>
         <v>-2.5965576388478146E-2</v>
       </c>
       <c r="I217" s="107">
-        <f t="shared" ref="I217:I219" si="120">AVERAGE(E217:H217)</f>
+        <f t="shared" ref="I217:I219" si="121">AVERAGE(E217:H217)</f>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="J217" s="107">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-1.7503961106961195E-2</v>
       </c>
       <c r="K217" s="107">
-        <f t="shared" si="115"/>
-        <v>-1.7503961106961195E-2</v>
-      </c>
-      <c r="L217" s="107">
         <f t="shared" si="116"/>
         <v>-1.7503961106961195E-2</v>
       </c>
+      <c r="L217" s="107">
+        <f t="shared" si="117"/>
+        <v>-1.7503961106961195E-2</v>
+      </c>
       <c r="M217" s="107">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-1.7503961106961195E-2</v>
       </c>
     </row>
@@ -18431,19 +18377,19 @@
       <c r="B218" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E218" s="175">
+      <c r="E218" s="174">
         <f>-E185/E16</f>
         <v>-0.21391666713721857</v>
       </c>
-      <c r="F218" s="175">
+      <c r="F218" s="174">
         <f>-F185/F16</f>
         <v>-0.40129032258064518</v>
       </c>
-      <c r="G218" s="175">
+      <c r="G218" s="174">
         <f>G185/G16</f>
         <v>-0.24129930394431554</v>
       </c>
-      <c r="H218" s="175">
+      <c r="H218" s="174">
         <f>H185/H16</f>
         <v>-2.8525868178596741E-2</v>
       </c>
@@ -18452,19 +18398,19 @@
         <v>-0.22125804046019401</v>
       </c>
       <c r="J218" s="107">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-0.22125804046019401</v>
       </c>
       <c r="K218" s="107">
-        <f t="shared" si="115"/>
-        <v>-0.22125804046019401</v>
-      </c>
-      <c r="L218" s="107">
         <f t="shared" si="116"/>
         <v>-0.22125804046019401</v>
       </c>
+      <c r="L218" s="107">
+        <f t="shared" si="117"/>
+        <v>-0.22125804046019401</v>
+      </c>
       <c r="M218" s="107">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-0.22125804046019401</v>
       </c>
     </row>
@@ -18472,40 +18418,40 @@
       <c r="B219" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E219" s="175">
+      <c r="E219" s="174">
         <f>-E186/E16</f>
         <v>-5.6061555719935019E-3</v>
       </c>
-      <c r="F219" s="175">
+      <c r="F219" s="174">
         <f>-F186/F16</f>
         <v>-1.1612903225806452E-2</v>
       </c>
-      <c r="G219" s="175">
+      <c r="G219" s="174">
         <f>G186/G16</f>
         <v>-4.0603248259860787E-2</v>
       </c>
-      <c r="H219" s="175">
+      <c r="H219" s="174">
         <f>H186/H16</f>
         <v>-1.771793054571226E-3</v>
       </c>
       <c r="I219" s="107">
+        <f t="shared" si="121"/>
+        <v>-1.4898525028057991E-2</v>
+      </c>
+      <c r="J219" s="107">
         <f t="shared" si="120"/>
         <v>-1.4898525028057991E-2</v>
       </c>
-      <c r="J219" s="107">
-        <f t="shared" si="119"/>
-        <v>-1.4898525028057991E-2</v>
-      </c>
       <c r="K219" s="107">
-        <f t="shared" si="115"/>
-        <v>-1.4898525028057991E-2</v>
-      </c>
-      <c r="L219" s="107">
         <f t="shared" si="116"/>
         <v>-1.4898525028057991E-2</v>
       </c>
+      <c r="L219" s="107">
+        <f t="shared" si="117"/>
+        <v>-1.4898525028057991E-2</v>
+      </c>
       <c r="M219" s="107">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-1.4898525028057991E-2</v>
       </c>
     </row>
@@ -18513,45 +18459,45 @@
       <c r="B220" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E220" s="175">
+      <c r="E220" s="174">
         <f>E188/(E$74+E$77+E$80)</f>
         <v>-1.01983588631728E-3</v>
       </c>
-      <c r="F220" s="175">
+      <c r="F220" s="174">
         <f>F188/(F$74+F$77+F$80)</f>
         <v>-2.3018539255941274E-3</v>
       </c>
-      <c r="G220" s="175">
+      <c r="G220" s="174">
         <f>G188/(G$74+G$77+G$80)</f>
         <v>-3.9952057530962844E-4</v>
       </c>
-      <c r="H220" s="175">
+      <c r="H220" s="174">
         <f>H188/(H$74+H$77+H$80)</f>
         <v>-8.6705202312138728E-4</v>
       </c>
       <c r="I220" s="107">
-        <f t="shared" ref="I220" si="121">AVERAGE(E220:H220)</f>
+        <f t="shared" ref="I220" si="122">AVERAGE(E220:H220)</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="J220" s="107">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="K220" s="107">
-        <f t="shared" ref="K220" si="122">J220</f>
+        <f t="shared" ref="K220" si="123">J220</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="L220" s="107">
-        <f t="shared" ref="L220" si="123">K220</f>
+        <f t="shared" ref="L220" si="124">K220</f>
         <v>-1.1470656025856056E-3</v>
       </c>
       <c r="M220" s="107">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>-1.1470656025856056E-3</v>
       </c>
     </row>
     <row r="221" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E221" s="175"/>
+      <c r="E221" s="174"/>
       <c r="F221" s="26"/>
       <c r="G221" s="26"/>
       <c r="H221" s="26"/>
